--- a/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
+++ b/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Wind_Farm_Project_Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Wind-Farm-Project-Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEC5002-18D1-4C5E-BA73-30BDBE833F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0831C238-CC47-474B-A146-DB4764A0E7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -1588,7 +1588,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1843,18 +1843,6 @@
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1883,6 +1871,19 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1964,64 +1965,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2016</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2019</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2021</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2022</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2023</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2024</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2025</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2026</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2027</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2028</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2029</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2030</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2031</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2032</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2033</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2034</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2035</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2232,6 +2233,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Operating costs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2263,64 +2279,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2016</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2019</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2021</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2022</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2023</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2024</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2025</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2026</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2027</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2028</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2029</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2030</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2031</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2032</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2033</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2034</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2035</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2674,64 +2690,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2016</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2019</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2021</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2022</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2023</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2024</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2025</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2026</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2027</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2028</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2029</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2030</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2031</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2032</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2033</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2034</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2035</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2824,64 +2840,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2016</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2019</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2021</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2022</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2023</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2024</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2025</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2026</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2027</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2028</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2029</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2030</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2031</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2032</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2033</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2034</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2035</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3122,64 +3138,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2016</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2019</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2021</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2022</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2023</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2024</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2025</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2026</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2027</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2028</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2029</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2030</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2031</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2032</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2033</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2034</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2035</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3272,64 +3288,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2016</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2019</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2021</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2022</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2023</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2024</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2025</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2026</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2027</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2028</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2029</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2030</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2031</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2032</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2033</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2034</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2035</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3571,64 +3587,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2016</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2019</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2021</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2022</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2023</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2024</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2025</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2026</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2027</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2028</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2029</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2030</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2031</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2032</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2033</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2034</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2035</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3874,64 +3890,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2016</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2019</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2021</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2022</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2023</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2024</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2025</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2026</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2027</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2028</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2029</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2030</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2031</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2032</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2033</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2034</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2035</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4728,11 +4744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AC137"/>
+  <dimension ref="A2:AE137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B35" sqref="B35"/>
+      <selection pane="topRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4889,10 +4905,10 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="172" t="s">
+      <c r="A11" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="176">
+      <c r="B11" s="172">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="F11" t="s">
@@ -4944,10 +4960,10 @@
       </c>
     </row>
     <row r="16" spans="1:29" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A16" s="170" t="s">
+      <c r="A16" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="171">
+      <c r="B16" s="167">
         <v>0.71040000000000003</v>
       </c>
       <c r="F16" s="111" t="s">
@@ -4977,11 +4993,11 @@
       <c r="AB16" s="112"/>
       <c r="AC16" s="112"/>
     </row>
-    <row r="17" spans="1:29" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="173" t="s">
+    <row r="17" spans="1:31" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A17" s="169" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="174">
+      <c r="B17" s="170">
         <v>22</v>
       </c>
       <c r="C17" t="s">
@@ -4989,7 +5005,7 @@
       </c>
       <c r="F17" s="79"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -5006,70 +5022,72 @@
         <v>2</v>
       </c>
       <c r="J18" s="78">
-        <v>2016</v>
+        <v>2025</v>
       </c>
       <c r="K18" s="78">
-        <v>2017</v>
+        <v>2026</v>
       </c>
       <c r="L18" s="78">
-        <v>2018</v>
+        <v>2027</v>
       </c>
       <c r="M18" s="78">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="N18" s="78">
-        <v>2020</v>
+        <v>2029</v>
       </c>
       <c r="O18" s="78">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="P18" s="78">
-        <v>2022</v>
+        <v>2031</v>
       </c>
       <c r="Q18" s="78">
-        <v>2023</v>
+        <v>2032</v>
       </c>
       <c r="R18" s="78">
-        <v>2024</v>
+        <v>2033</v>
       </c>
       <c r="S18" s="78">
-        <v>2025</v>
+        <v>2034</v>
       </c>
       <c r="T18" s="78">
-        <v>2026</v>
+        <v>2035</v>
       </c>
       <c r="U18" s="78">
-        <v>2027</v>
+        <v>2036</v>
       </c>
       <c r="V18" s="78">
-        <v>2028</v>
+        <v>2037</v>
       </c>
       <c r="W18" s="78">
-        <v>2029</v>
+        <v>2038</v>
       </c>
       <c r="X18" s="78">
-        <v>2030</v>
+        <v>2039</v>
       </c>
       <c r="Y18" s="78">
-        <v>2031</v>
+        <v>2040</v>
       </c>
       <c r="Z18" s="78">
-        <v>2032</v>
+        <v>2041</v>
       </c>
       <c r="AA18" s="78">
-        <v>2033</v>
+        <v>2042</v>
       </c>
       <c r="AB18" s="78">
-        <v>2034</v>
+        <v>2043</v>
       </c>
       <c r="AC18" s="78">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+        <v>2044</v>
+      </c>
+      <c r="AD18" s="188"/>
+      <c r="AE18" s="78"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F20" s="80" t="s">
         <v>185</v>
       </c>
@@ -5157,7 +5175,7 @@
         <v>1297715.8284000002</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F21" s="81" t="s">
         <v>186</v>
       </c>
@@ -5247,7 +5265,7 @@
         <v>-1261318.6691361333</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F22" s="86" t="s">
         <v>25</v>
       </c>
@@ -5337,7 +5355,7 @@
         <v>36397.159263866954</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -5430,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="83" t="s">
         <v>159</v>
       </c>
@@ -5526,9 +5544,9 @@
         <v>36397.159263866954</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
-      <c r="B25" s="178">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" s="173"/>
+      <c r="B25" s="174">
         <f>-Daten!C63</f>
         <v>-10658771</v>
       </c>
@@ -5621,7 +5639,7 @@
         <v>-6840.2154902452648</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>160</v>
       </c>
@@ -5721,7 +5739,7 @@
         <v>29556.94377362169</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F27" s="87" t="s">
         <v>188</v>
       </c>
@@ -5811,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F28" s="1" t="s">
         <v>32</v>
       </c>
@@ -5899,12 +5917,12 @@
         <v>29556.94377362169</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -5913,10 +5931,10 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A33" s="175" t="s">
+      <c r="A33" s="171" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="176">
+      <c r="B33" s="172">
         <v>0.72731126527420797</v>
       </c>
     </row>
@@ -5959,13 +5977,13 @@
       <c r="AC34" s="115"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="175" t="s">
+      <c r="A35" s="171" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="179">
+      <c r="B35" s="175">
         <v>17</v>
       </c>
-      <c r="C35" s="175" t="s">
+      <c r="C35" s="171" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5980,64 +5998,64 @@
         <v>3</v>
       </c>
       <c r="J36" s="78">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="K36" s="78">
-        <v>2016</v>
+        <v>2026</v>
       </c>
       <c r="L36" s="78">
-        <v>2017</v>
+        <v>2027</v>
       </c>
       <c r="M36" s="78">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="N36" s="78">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="O36" s="78">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="P36" s="78">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="Q36" s="78">
-        <v>2022</v>
+        <v>2032</v>
       </c>
       <c r="R36" s="78">
-        <v>2023</v>
+        <v>2033</v>
       </c>
       <c r="S36" s="78">
-        <v>2024</v>
+        <v>2034</v>
       </c>
       <c r="T36" s="78">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="U36" s="78">
-        <v>2026</v>
+        <v>2036</v>
       </c>
       <c r="V36" s="78">
-        <v>2027</v>
+        <v>2037</v>
       </c>
       <c r="W36" s="78">
-        <v>2028</v>
+        <v>2038</v>
       </c>
       <c r="X36" s="78">
-        <v>2029</v>
+        <v>2039</v>
       </c>
       <c r="Y36" s="78">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="Z36" s="78">
-        <v>2031</v>
+        <v>2041</v>
       </c>
       <c r="AA36" s="78">
-        <v>2032</v>
+        <v>2042</v>
       </c>
       <c r="AB36" s="78">
-        <v>2033</v>
+        <v>2043</v>
       </c>
       <c r="AC36" s="78">
-        <v>2034</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
@@ -6336,10 +6354,10 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="176">
+      <c r="B41" s="172">
         <v>1.15E-2</v>
       </c>
       <c r="F41" s="85" t="s">
@@ -6432,10 +6450,10 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A42" s="175" t="s">
+      <c r="A42" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="176">
+      <c r="B42" s="172">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F42" s="82" t="s">
@@ -6526,10 +6544,10 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A43" s="175" t="s">
+      <c r="A43" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="B43" s="179">
+      <c r="B43" s="175">
         <v>0.3</v>
       </c>
       <c r="F43" s="81" t="s">
@@ -6750,10 +6768,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="175" t="s">
+      <c r="A52" s="171" t="s">
         <v>174</v>
       </c>
-      <c r="B52" s="176">
+      <c r="B52" s="172">
         <f>B46</f>
         <v>2.9168299359086332E-2</v>
       </c>
@@ -6785,10 +6803,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="180" t="s">
+      <c r="A61" s="176" t="s">
         <v>177</v>
       </c>
-      <c r="B61" s="181">
+      <c r="B61" s="177">
         <v>24500</v>
       </c>
       <c r="C61" s="23" t="s">
@@ -6797,20 +6815,20 @@
       <c r="D61"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="180" t="s">
+      <c r="A62" s="176" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="182">
+      <c r="B62" s="178">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="180" t="s">
+      <c r="A63" s="176" t="s">
         <v>179</v>
       </c>
-      <c r="B63" s="183">
+      <c r="B63" s="179">
         <v>0.7</v>
       </c>
       <c r="C63" s="124"/>
@@ -6818,10 +6836,10 @@
       <c r="E63" s="132"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="180" t="s">
+      <c r="A64" s="176" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="184">
+      <c r="B64" s="180">
         <v>0.3</v>
       </c>
       <c r="C64" s="135"/>
@@ -6829,10 +6847,10 @@
       <c r="E64" s="132"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="180" t="s">
+      <c r="A65" s="176" t="s">
         <v>181</v>
       </c>
-      <c r="B65" s="183">
+      <c r="B65" s="179">
         <v>3.57</v>
       </c>
       <c r="C65" s="135" t="s">
@@ -6842,10 +6860,10 @@
       <c r="E65" s="132"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="180" t="s">
+      <c r="A66" s="176" t="s">
         <v>182</v>
       </c>
-      <c r="B66" s="184">
+      <c r="B66" s="180">
         <v>4.7</v>
       </c>
       <c r="C66" s="136" t="s">
@@ -7484,10 +7502,10 @@
   <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7508,67 +7526,67 @@
       </c>
       <c r="B1" s="90"/>
       <c r="C1" s="89">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="D1" s="89">
-        <v>2016</v>
+        <v>2026</v>
       </c>
       <c r="E1" s="89">
-        <v>2017</v>
+        <v>2027</v>
       </c>
       <c r="F1" s="89">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="G1" s="89">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="H1" s="89">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="I1" s="89">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="J1" s="89">
-        <v>2022</v>
+        <v>2032</v>
       </c>
       <c r="K1" s="89">
-        <v>2023</v>
+        <v>2033</v>
       </c>
       <c r="L1" s="89">
-        <v>2024</v>
+        <v>2034</v>
       </c>
       <c r="M1" s="89">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="N1" s="89">
-        <v>2026</v>
+        <v>2036</v>
       </c>
       <c r="O1" s="89">
-        <v>2027</v>
+        <v>2037</v>
       </c>
       <c r="P1" s="89">
-        <v>2028</v>
+        <v>2038</v>
       </c>
       <c r="Q1" s="89">
-        <v>2029</v>
+        <v>2039</v>
       </c>
       <c r="R1" s="89">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="S1" s="89">
-        <v>2031</v>
+        <v>2041</v>
       </c>
       <c r="T1" s="89">
-        <v>2032</v>
+        <v>2042</v>
       </c>
       <c r="U1" s="89">
-        <v>2033</v>
+        <v>2043</v>
       </c>
       <c r="V1" s="89">
-        <v>2034</v>
+        <v>2044</v>
       </c>
       <c r="W1" s="89">
-        <v>2035</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -12061,10 +12079,10 @@
       <c r="A6" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="167"/>
+      <c r="C6" s="185"/>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
     </row>
@@ -12072,10 +12090,10 @@
       <c r="A7" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="186" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="168"/>
+      <c r="C7" s="186"/>
       <c r="F7" t="s">
         <v>147</v>
       </c>
@@ -12123,11 +12141,11 @@
       <c r="C10" s="122">
         <v>45658</v>
       </c>
-      <c r="F10" s="175" t="s">
+      <c r="F10" s="171" t="s">
         <v>262</v>
       </c>
-      <c r="G10" s="185"/>
-      <c r="H10" s="186">
+      <c r="G10" s="181"/>
+      <c r="H10" s="182">
         <v>0</v>
       </c>
     </row>
@@ -12244,11 +12262,11 @@
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="185"/>
-      <c r="C22" s="187">
+      <c r="B22" s="181"/>
+      <c r="C22" s="183">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F22" t="s">
@@ -12449,7 +12467,7 @@
         <f t="shared" si="0"/>
         <v>199974</v>
       </c>
-      <c r="E37" s="175">
+      <c r="E37" s="171">
         <v>6</v>
       </c>
       <c r="F37" s="23">
@@ -13114,11 +13132,11 @@
       <c r="G89" t="s">
         <v>116</v>
       </c>
-      <c r="H89" s="166" t="s">
+      <c r="H89" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="I89" s="166"/>
-      <c r="J89" s="166"/>
+      <c r="I89" s="184"/>
+      <c r="J89" s="184"/>
       <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -13146,19 +13164,19 @@
         <v>16500</v>
       </c>
       <c r="F91" s="23"/>
-      <c r="G91" s="169" t="s">
+      <c r="G91" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="H91" s="169"/>
-      <c r="I91" s="169"/>
+      <c r="H91" s="187"/>
+      <c r="I91" s="187"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="23"/>
       <c r="F92" s="23"/>
-      <c r="G92" s="169"/>
-      <c r="H92" s="169"/>
-      <c r="I92" s="169"/>
+      <c r="G92" s="187"/>
+      <c r="H92" s="187"/>
+      <c r="I92" s="187"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -13439,8 +13457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A41:M187"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
+++ b/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Wind-Farm-Project-Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0831C238-CC47-474B-A146-DB4764A0E7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671EF6B9-B835-4A3E-B8C8-0EA7F788F190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -1871,6 +1871,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1883,7 +1884,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2553,6 +2553,76 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Equity</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>27%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F8DB-4805-9BE9-BA401EEB74D6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Debt capital</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>73%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-F8DB-4805-9BE9-BA401EEB74D6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2654,7 +2724,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Schuldendienst Ratendarlehen</a:t>
+              <a:t>Debt service installment loan</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4746,9 +4816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AE137"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5081,7 +5151,7 @@
       <c r="AC18" s="78">
         <v>2044</v>
       </c>
-      <c r="AD18" s="188"/>
+      <c r="AD18" s="184"/>
       <c r="AE18" s="78"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
@@ -12079,10 +12149,10 @@
       <c r="A6" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="185"/>
+      <c r="C6" s="186"/>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
     </row>
@@ -12090,10 +12160,10 @@
       <c r="A7" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="187" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="186"/>
+      <c r="C7" s="187"/>
       <c r="F7" t="s">
         <v>147</v>
       </c>
@@ -13132,11 +13202,11 @@
       <c r="G89" t="s">
         <v>116</v>
       </c>
-      <c r="H89" s="184" t="s">
+      <c r="H89" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="I89" s="184"/>
-      <c r="J89" s="184"/>
+      <c r="I89" s="185"/>
+      <c r="J89" s="185"/>
       <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -13164,19 +13234,19 @@
         <v>16500</v>
       </c>
       <c r="F91" s="23"/>
-      <c r="G91" s="187" t="s">
+      <c r="G91" s="188" t="s">
         <v>129</v>
       </c>
-      <c r="H91" s="187"/>
-      <c r="I91" s="187"/>
+      <c r="H91" s="188"/>
+      <c r="I91" s="188"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="23"/>
       <c r="F92" s="23"/>
-      <c r="G92" s="187"/>
-      <c r="H92" s="187"/>
-      <c r="I92" s="187"/>
+      <c r="G92" s="188"/>
+      <c r="H92" s="188"/>
+      <c r="I92" s="188"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -13457,8 +13527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A41:M187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
+++ b/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Wind-Farm-Project-Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671EF6B9-B835-4A3E-B8C8-0EA7F788F190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079676A0-EC2B-4117-8048-64E2B983446E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -4816,9 +4816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AE137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K39" sqref="K39"/>
+      <selection pane="topRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7572,16 +7572,16 @@
   <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="15" style="26" customWidth="1"/>
+    <col min="2" max="2" width="27" style="26" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="20" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -12094,7 +12094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>

--- a/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
+++ b/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Wind-Farm-Project-Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079676A0-EC2B-4117-8048-64E2B983446E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F44B10A-CDCA-4989-8A6A-8FDB392F6248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="268">
   <si>
     <t>Input - Parameter</t>
   </si>
@@ -599,9 +599,6 @@
     <t>Collateral (Damage)</t>
   </si>
   <si>
-    <t>3 Rs/kwh</t>
-  </si>
-  <si>
     <t>Total investment costs</t>
   </si>
   <si>
@@ -924,6 +921,12 @@
   </si>
   <si>
     <t>Share of management in Gujarat</t>
+  </si>
+  <si>
+    <t>3.61 Rs/kwh</t>
+  </si>
+  <si>
+    <t>India Inflation Rate 1960-2024 | MacroTrends</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
     <numFmt numFmtId="174" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="175" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1067,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1583,12 +1594,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1884,9 +1896,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -2034,64 +2048,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1297715.8284000002</c:v>
+                  <c:v>1564892.6166000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,64 +2362,64 @@
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>552215.68794527999</c:v>
+                  <c:v>540096.19452319993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577153.06059788738</c:v>
+                  <c:v>551799.08035889594</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>603636.55035495642</c:v>
+                  <c:v>563853.05276966281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>481762.0164769637</c:v>
+                  <c:v>426268.64435275277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>511631.2614985354</c:v>
+                  <c:v>439056.70368333533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>543352.39971144474</c:v>
+                  <c:v>452228.40479383542</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>577040.2484935543</c:v>
+                  <c:v>465795.2569376505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>612816.74390015472</c:v>
+                  <c:v>479769.11464578006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>650811.38202196441</c:v>
+                  <c:v>494162.18808515347</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>691161.68770732614</c:v>
+                  <c:v>508987.05372770806</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>734013.71234518033</c:v>
+                  <c:v>524256.66533953929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>779522.56251058169</c:v>
+                  <c:v>539984.36529972544</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>827852.96138623776</c:v>
+                  <c:v>556183.89625871729</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>879179.84499218455</c:v>
+                  <c:v>572869.41314647882</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>933688.99538170011</c:v>
+                  <c:v>590055.49554087326</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>991577.71309536556</c:v>
+                  <c:v>607757.16040709952</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1053055.5313072784</c:v>
+                  <c:v>625989.8752193125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1118344.9742483296</c:v>
+                  <c:v>644769.57147589186</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1187682.3626517262</c:v>
+                  <c:v>664112.65862016869</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1261318.6691361333</c:v>
+                  <c:v>684036.03837877372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3726,7 +3740,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>994.86208723069183</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3735,55 +3749,55 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15149.999367223803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>15253.349389857902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>15312.267939750851</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>15325.42207272045</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>15291.438856258934</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>15208.904169883439</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>15076.361469496504</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>14892.310514677789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>14655.206057794356</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>14363.456493784253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>14015.422469433674</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>102029.0985484324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>101563.37934595594</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>101036.156593985</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>100445.58518603479</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>99789.764662425907</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>99066.737549688565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4029,64 +4043,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>512932.81378637918</c:v>
+                  <c:v>791234.23332122841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>487995.44113377179</c:v>
+                  <c:v>780526.20957276307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>461511.95137670275</c:v>
+                  <c:v>768472.23716199619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134212.33472858591</c:v>
+                  <c:v>441732.49568557285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>118023.52068750479</c:v>
+                  <c:v>442521.51731284685</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99982.813455086201</c:v>
+                  <c:v>442971.3286329445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79975.395653467276</c:v>
+                  <c:v>443071.75333665044</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57879.331227357499</c:v>
+                  <c:v>442812.309825473</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33565.124086038442</c:v>
+                  <c:v>442182.20205296588</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6895.2493811673485</c:v>
+                  <c:v>441170.31009128876</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-22276.344276196091</c:v>
+                  <c:v>439765.180414767</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-54104.763461106806</c:v>
+                  <c:v>437955.01589195488</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-88754.731356272241</c:v>
+                  <c:v>435727.66547746386</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-126401.18398172839</c:v>
+                  <c:v>433070.61359454354</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-167229.90339075332</c:v>
+                  <c:v>341551.2861016409</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-211438.19012392813</c:v>
+                  <c:v>337995.77141838183</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-259235.57735535037</c:v>
+                  <c:v>333970.71033863036</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-310844.58931591088</c:v>
+                  <c:v>329462.01647049194</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-366501.54673881683</c:v>
+                  <c:v>324455.18083031458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-426457.42224273324</c:v>
+                  <c:v>318935.2591649376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4816,9 +4830,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AE137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B34" sqref="B34"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4875,7 +4889,7 @@
       </c>
       <c r="G5" s="63">
         <f>NPV(B52,Kalkulation!D78:W78)-B34</f>
-        <v>-2314321.1933511491</v>
+        <v>4264327.8188097626</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -4888,7 +4902,7 @@
       </c>
       <c r="G6" s="63">
         <f>NPV(Parameters!B46,Kalkulation!D21:W21)+ NPV(Parameters!B46,Kalkulation!D60:W60)</f>
-        <v>-8944655.563892968</v>
+        <v>-5877098.6628305223</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -4929,9 +4943,9 @@
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="59" t="e">
+      <c r="G8" s="59">
         <f>IRR(Kalkulation!C78:W78)</f>
-        <v>#NUM!</v>
+        <v>0.19362418111969304</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4950,7 +4964,7 @@
       </c>
       <c r="G9" s="64">
         <f>((-G6-B25)/G7)</f>
-        <v>3.4257573533524363E-2</v>
+        <v>2.8896926211796747E-2</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -4971,7 +4985,7 @@
       </c>
       <c r="G10" s="148">
         <f>MIN(Kalkulation!D84:W84)</f>
-        <v>7.8636273071757287E-2</v>
+        <v>1.6429119156404552</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4986,7 +5000,7 @@
       </c>
       <c r="G11" s="148">
         <f>Kalkulation!C85</f>
-        <v>0.80729223350765511</v>
+        <v>1.7019335777891615</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5080,13 +5094,13 @@
         <v>154</v>
       </c>
       <c r="B18" s="66">
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>158</v>
+        <v>266</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>2</v>
@@ -5159,95 +5173,95 @@
     </row>
     <row r="20" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F20" s="80" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="23">
         <f>Kalkulation!D12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="K20" s="23">
         <f>Kalkulation!E12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="L20" s="23">
         <f>Kalkulation!F12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="M20" s="23">
         <f>Kalkulation!G12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="N20" s="23">
         <f>Kalkulation!H12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="O20" s="23">
         <f>Kalkulation!I12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="P20" s="23">
         <f>Kalkulation!J12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="Q20" s="23">
         <f>Kalkulation!K12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="R20" s="23">
         <f>Kalkulation!L12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="S20" s="23">
         <f>Kalkulation!M12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="T20" s="23">
         <f>Kalkulation!N12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="U20" s="23">
         <f>Kalkulation!O12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="V20" s="23">
         <f>Kalkulation!P12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="W20" s="23">
         <f>Kalkulation!Q12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="X20" s="23">
         <f>Kalkulation!R12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="Y20" s="23">
         <f>Kalkulation!S12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="Z20" s="23">
         <f>Kalkulation!T12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="AA20" s="23">
         <f>Kalkulation!U12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="AB20" s="23">
         <f>Kalkulation!V12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="AC20" s="23">
         <f>Kalkulation!W12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F21" s="81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G21" s="84" t="s">
         <v>23</v>
@@ -5256,83 +5270,83 @@
       <c r="I21" s="84"/>
       <c r="J21" s="88">
         <f>Kalkulation!D21</f>
-        <v>-552215.68794527999</v>
+        <v>-540096.19452319993</v>
       </c>
       <c r="K21" s="88">
         <f>Kalkulation!E21</f>
-        <v>-577153.06059788738</v>
+        <v>-551799.08035889594</v>
       </c>
       <c r="L21" s="88">
         <f>Kalkulation!F21</f>
-        <v>-603636.55035495642</v>
+        <v>-563853.05276966281</v>
       </c>
       <c r="M21" s="88">
         <f>Kalkulation!G21</f>
-        <v>-481762.0164769637</v>
+        <v>-426268.64435275277</v>
       </c>
       <c r="N21" s="88">
         <f>Kalkulation!H21</f>
-        <v>-511631.2614985354</v>
+        <v>-439056.70368333533</v>
       </c>
       <c r="O21" s="88">
         <f>Kalkulation!I21</f>
-        <v>-543352.39971144474</v>
+        <v>-452228.40479383542</v>
       </c>
       <c r="P21" s="88">
         <f>Kalkulation!J21</f>
-        <v>-577040.2484935543</v>
+        <v>-465795.2569376505</v>
       </c>
       <c r="Q21" s="88">
         <f>Kalkulation!K21</f>
-        <v>-612816.74390015472</v>
+        <v>-479769.11464578006</v>
       </c>
       <c r="R21" s="88">
         <f>Kalkulation!L21</f>
-        <v>-650811.38202196441</v>
+        <v>-494162.18808515347</v>
       </c>
       <c r="S21" s="88">
         <f>Kalkulation!M21</f>
-        <v>-691161.68770732614</v>
+        <v>-508987.05372770806</v>
       </c>
       <c r="T21" s="88">
         <f>Kalkulation!N21</f>
-        <v>-734013.71234518033</v>
+        <v>-524256.66533953929</v>
       </c>
       <c r="U21" s="88">
         <f>Kalkulation!O21</f>
-        <v>-779522.56251058169</v>
+        <v>-539984.36529972544</v>
       </c>
       <c r="V21" s="88">
         <f>Kalkulation!P21</f>
-        <v>-827852.96138623776</v>
+        <v>-556183.89625871729</v>
       </c>
       <c r="W21" s="88">
         <f>Kalkulation!Q21</f>
-        <v>-879179.84499218455</v>
+        <v>-572869.41314647882</v>
       </c>
       <c r="X21" s="88">
         <f>Kalkulation!R21</f>
-        <v>-933688.99538170011</v>
+        <v>-590055.49554087326</v>
       </c>
       <c r="Y21" s="88">
         <f>Kalkulation!S21</f>
-        <v>-991577.71309536556</v>
+        <v>-607757.16040709952</v>
       </c>
       <c r="Z21" s="88">
         <f>Kalkulation!T21</f>
-        <v>-1053055.5313072784</v>
+        <v>-625989.8752193125</v>
       </c>
       <c r="AA21" s="88">
         <f>Kalkulation!U21</f>
-        <v>-1118344.9742483296</v>
+        <v>-644769.57147589186</v>
       </c>
       <c r="AB21" s="88">
         <f>Kalkulation!V21</f>
-        <v>-1187682.3626517262</v>
+        <v>-664112.65862016869</v>
       </c>
       <c r="AC21" s="88">
         <f>Kalkulation!W21</f>
-        <v>-1261318.6691361333</v>
+        <v>-684036.03837877372</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5346,83 +5360,83 @@
       <c r="I22" s="84"/>
       <c r="J22" s="88">
         <f>SUM(J20:J21)</f>
-        <v>745500.14045472024</v>
+        <v>1024796.4220768001</v>
       </c>
       <c r="K22" s="88">
         <f t="shared" ref="K22:AC22" si="0">SUM(K20:K21)</f>
-        <v>720562.76780211285</v>
+        <v>1013093.5362411041</v>
       </c>
       <c r="L22" s="88">
         <f t="shared" si="0"/>
-        <v>694079.27804504381</v>
+        <v>1001039.5638303373</v>
       </c>
       <c r="M22" s="88">
         <f t="shared" si="0"/>
-        <v>815953.81192303658</v>
+        <v>1138623.9722472474</v>
       </c>
       <c r="N22" s="88">
         <f t="shared" si="0"/>
-        <v>786084.56690146483</v>
+        <v>1125835.9129166647</v>
       </c>
       <c r="O22" s="88">
         <f t="shared" si="0"/>
-        <v>754363.42868855549</v>
+        <v>1112664.2118061646</v>
       </c>
       <c r="P22" s="88">
         <f t="shared" si="0"/>
-        <v>720675.57990644593</v>
+        <v>1099097.3596623496</v>
       </c>
       <c r="Q22" s="88">
         <f t="shared" si="0"/>
-        <v>684899.08449984551</v>
+        <v>1085123.50195422</v>
       </c>
       <c r="R22" s="88">
         <f t="shared" si="0"/>
-        <v>646904.44637803582</v>
+        <v>1070730.4285148466</v>
       </c>
       <c r="S22" s="88">
         <f t="shared" si="0"/>
-        <v>606554.14069267409</v>
+        <v>1055905.562872292</v>
       </c>
       <c r="T22" s="88">
         <f t="shared" si="0"/>
-        <v>563702.1160548199</v>
+        <v>1040635.9512604608</v>
       </c>
       <c r="U22" s="88">
         <f t="shared" si="0"/>
-        <v>518193.26588941854</v>
+        <v>1024908.2513002746</v>
       </c>
       <c r="V22" s="88">
         <f t="shared" si="0"/>
-        <v>469862.86701376247</v>
+        <v>1008708.7203412828</v>
       </c>
       <c r="W22" s="88">
         <f t="shared" si="0"/>
-        <v>418535.98340781569</v>
+        <v>992023.20345352124</v>
       </c>
       <c r="X22" s="88">
         <f t="shared" si="0"/>
-        <v>364026.83301830012</v>
+        <v>974837.1210591268</v>
       </c>
       <c r="Y22" s="88">
         <f t="shared" si="0"/>
-        <v>306138.11530463467</v>
+        <v>957135.45619290054</v>
       </c>
       <c r="Z22" s="88">
         <f t="shared" si="0"/>
-        <v>244660.2970927218</v>
+        <v>938902.74138068757</v>
       </c>
       <c r="AA22" s="88">
         <f t="shared" si="0"/>
-        <v>179370.85415167059</v>
+        <v>920123.0451241082</v>
       </c>
       <c r="AB22" s="88">
         <f t="shared" si="0"/>
-        <v>110033.465748274</v>
+        <v>900779.95797983138</v>
       </c>
       <c r="AC22" s="88">
         <f t="shared" si="0"/>
-        <v>36397.159263866954</v>
+        <v>880856.57822122634</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
@@ -5430,7 +5444,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G23" s="84" t="s">
         <v>23</v>
@@ -5520,7 +5534,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
@@ -5535,83 +5549,83 @@
       <c r="I24" s="84"/>
       <c r="J24" s="88">
         <f>SUM(J22:J23)</f>
-        <v>-15840.645259565441</v>
+        <v>263455.63636251446</v>
       </c>
       <c r="K24" s="88">
         <f t="shared" ref="K24:AC24" si="1">SUM(K22:K23)</f>
-        <v>-40778.017912172829</v>
+        <v>251752.75052681845</v>
       </c>
       <c r="L24" s="88">
         <f t="shared" si="1"/>
-        <v>-67261.507669241866</v>
+        <v>239698.77811605157</v>
       </c>
       <c r="M24" s="88">
         <f t="shared" si="1"/>
-        <v>54613.026208750904</v>
+        <v>377283.18653296167</v>
       </c>
       <c r="N24" s="88">
         <f t="shared" si="1"/>
-        <v>24743.781187179149</v>
+        <v>364495.12720237905</v>
       </c>
       <c r="O24" s="88">
         <f t="shared" si="1"/>
-        <v>-6977.3570257301908</v>
+        <v>351323.42609187891</v>
       </c>
       <c r="P24" s="88">
         <f t="shared" si="1"/>
-        <v>-40665.205807839753</v>
+        <v>337756.57394806389</v>
       </c>
       <c r="Q24" s="88">
         <f t="shared" si="1"/>
-        <v>-76441.701214440167</v>
+        <v>323782.71623993432</v>
       </c>
       <c r="R24" s="88">
         <f t="shared" si="1"/>
-        <v>-114436.33933624986</v>
+        <v>309389.64280056092</v>
       </c>
       <c r="S24" s="88">
         <f t="shared" si="1"/>
-        <v>-154786.64502161159</v>
+        <v>294564.77715800633</v>
       </c>
       <c r="T24" s="88">
         <f t="shared" si="1"/>
-        <v>-197638.66965946578</v>
+        <v>279295.16554617509</v>
       </c>
       <c r="U24" s="88">
         <f t="shared" si="1"/>
-        <v>-243147.51982486714</v>
+        <v>263567.46558598895</v>
       </c>
       <c r="V24" s="88">
         <f t="shared" si="1"/>
-        <v>-291477.91870052321</v>
+        <v>247367.9346269971</v>
       </c>
       <c r="W24" s="88">
         <f t="shared" si="1"/>
-        <v>-342804.80230647</v>
+        <v>230682.41773923556</v>
       </c>
       <c r="X24" s="88">
         <f t="shared" si="1"/>
-        <v>364026.83301830012</v>
+        <v>974837.1210591268</v>
       </c>
       <c r="Y24" s="88">
         <f t="shared" si="1"/>
-        <v>306138.11530463467</v>
+        <v>957135.45619290054</v>
       </c>
       <c r="Z24" s="88">
         <f t="shared" si="1"/>
-        <v>244660.2970927218</v>
+        <v>938902.74138068757</v>
       </c>
       <c r="AA24" s="88">
         <f t="shared" si="1"/>
-        <v>179370.85415167059</v>
+        <v>920123.0451241082</v>
       </c>
       <c r="AB24" s="88">
         <f t="shared" si="1"/>
-        <v>110033.465748274</v>
+        <v>900779.95797983138</v>
       </c>
       <c r="AC24" s="88">
         <f t="shared" si="1"/>
-        <v>36397.159263866954</v>
+        <v>880856.57822122634</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
@@ -5711,7 +5725,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" s="131">
         <f>-Daten!C103</f>
@@ -5730,88 +5744,88 @@
       <c r="I26" s="84"/>
       <c r="J26" s="88">
         <f>SUM(J24:J25)</f>
-        <v>-248407.97192790647</v>
+        <v>30888.309694173426</v>
       </c>
       <c r="K26" s="88">
         <f t="shared" ref="K26:AC26" si="2">SUM(K24:K25)</f>
-        <v>-273345.34458051389</v>
+        <v>19185.423858477414</v>
       </c>
       <c r="L26" s="88">
         <f t="shared" si="2"/>
-        <v>-299828.83433758293</v>
+        <v>7131.4514477105404</v>
       </c>
       <c r="M26" s="88">
         <f t="shared" si="2"/>
-        <v>-171114.08496934481</v>
+        <v>151556.07535486596</v>
       </c>
       <c r="N26" s="88">
         <f t="shared" si="2"/>
-        <v>-187302.8990104259</v>
+        <v>152448.447004774</v>
       </c>
       <c r="O26" s="88">
         <f t="shared" si="2"/>
-        <v>-205343.60624284457</v>
+        <v>152957.17687476453</v>
       </c>
       <c r="P26" s="88">
         <f t="shared" si="2"/>
-        <v>-225351.02404446347</v>
+        <v>153070.75571144017</v>
       </c>
       <c r="Q26" s="88">
         <f t="shared" si="2"/>
-        <v>-247447.08847057325</v>
+        <v>152777.32898380124</v>
       </c>
       <c r="R26" s="88">
         <f t="shared" si="2"/>
-        <v>-271761.29561189224</v>
+        <v>152064.68652491851</v>
       </c>
       <c r="S26" s="88">
         <f t="shared" si="2"/>
-        <v>-298431.17031676334</v>
+        <v>150920.25186285458</v>
       </c>
       <c r="T26" s="88">
         <f t="shared" si="2"/>
-        <v>-327602.76397412689</v>
+        <v>149331.07123151401</v>
       </c>
       <c r="U26" s="88">
         <f t="shared" si="2"/>
-        <v>-359431.18315903755</v>
+        <v>147283.80225181853</v>
       </c>
       <c r="V26" s="88">
         <f t="shared" si="2"/>
-        <v>-394081.15105420299</v>
+        <v>144764.70227331732</v>
       </c>
       <c r="W26" s="88">
         <f t="shared" si="2"/>
-        <v>-431727.60367965914</v>
+        <v>141759.61636604642</v>
       </c>
       <c r="X26" s="88">
         <f t="shared" si="2"/>
-        <v>288784.46262560162</v>
+        <v>899594.75066642836</v>
       </c>
       <c r="Y26" s="88">
         <f t="shared" si="2"/>
-        <v>244576.17589242681</v>
+        <v>895573.51678069273</v>
       </c>
       <c r="Z26" s="88">
         <f t="shared" si="2"/>
-        <v>196778.7886610046</v>
+        <v>891021.2329489704</v>
       </c>
       <c r="AA26" s="88">
         <f t="shared" si="2"/>
-        <v>145169.77670044402</v>
+        <v>885921.96767288167</v>
       </c>
       <c r="AB26" s="88">
         <f t="shared" si="2"/>
-        <v>89512.819277538088</v>
+        <v>880259.31150909548</v>
       </c>
       <c r="AC26" s="88">
         <f t="shared" si="2"/>
-        <v>29556.94377362169</v>
+        <v>874016.36273098108</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F27" s="87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G27" s="84" t="s">
         <v>23</v>
@@ -5820,7 +5834,7 @@
       <c r="I27" s="84"/>
       <c r="J27" s="88">
         <f>-Kalkulation!D54</f>
-        <v>0</v>
+        <v>-994.86208723069183</v>
       </c>
       <c r="K27" s="88">
         <f>-Kalkulation!E54</f>
@@ -5832,71 +5846,71 @@
       </c>
       <c r="M27" s="88">
         <f>-Kalkulation!G54</f>
-        <v>0</v>
+        <v>-15149.999367223803</v>
       </c>
       <c r="N27" s="88">
         <f>-Kalkulation!H54</f>
-        <v>0</v>
+        <v>-15253.349389857902</v>
       </c>
       <c r="O27" s="88">
         <f>-Kalkulation!I54</f>
-        <v>0</v>
+        <v>-15312.267939750851</v>
       </c>
       <c r="P27" s="88">
         <f>-Kalkulation!J54</f>
-        <v>0</v>
+        <v>-15325.42207272045</v>
       </c>
       <c r="Q27" s="88">
         <f>-Kalkulation!K54</f>
-        <v>0</v>
+        <v>-15291.438856258934</v>
       </c>
       <c r="R27" s="88">
         <f>-Kalkulation!L54</f>
-        <v>0</v>
+        <v>-15208.904169883439</v>
       </c>
       <c r="S27" s="88">
         <f>-Kalkulation!M54</f>
-        <v>0</v>
+        <v>-15076.361469496504</v>
       </c>
       <c r="T27" s="88">
         <f>-Kalkulation!N54</f>
-        <v>0</v>
+        <v>-14892.310514677789</v>
       </c>
       <c r="U27" s="88">
         <f>-Kalkulation!O54</f>
-        <v>0</v>
+        <v>-14655.206057794356</v>
       </c>
       <c r="V27" s="88">
         <f>-Kalkulation!P54</f>
-        <v>0</v>
+        <v>-14363.456493784253</v>
       </c>
       <c r="W27" s="88">
         <f>-Kalkulation!Q54</f>
-        <v>0</v>
+        <v>-14015.422469433674</v>
       </c>
       <c r="X27" s="88">
         <f>-Kalkulation!R54</f>
-        <v>0</v>
+        <v>-102029.0985484324</v>
       </c>
       <c r="Y27" s="88">
         <f>-Kalkulation!S54</f>
-        <v>0</v>
+        <v>-101563.37934595594</v>
       </c>
       <c r="Z27" s="88">
         <f>-Kalkulation!T54</f>
-        <v>0</v>
+        <v>-101036.156593985</v>
       </c>
       <c r="AA27" s="88">
         <f>-Kalkulation!U54</f>
-        <v>0</v>
+        <v>-100445.58518603479</v>
       </c>
       <c r="AB27" s="88">
         <f>-Kalkulation!V54</f>
-        <v>0</v>
+        <v>-99789.764662425907</v>
       </c>
       <c r="AC27" s="88">
         <f>-Kalkulation!W54</f>
-        <v>0</v>
+        <v>-99066.737549688565</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
@@ -5908,93 +5922,94 @@
       </c>
       <c r="J28" s="23">
         <f>SUM(J26:J27)</f>
-        <v>-248407.97192790647</v>
+        <v>29893.447606942733</v>
       </c>
       <c r="K28" s="23">
         <f t="shared" ref="K28:AC28" si="3">SUM(K26:K27)</f>
-        <v>-273345.34458051389</v>
+        <v>19185.423858477414</v>
       </c>
       <c r="L28" s="23">
         <f t="shared" si="3"/>
-        <v>-299828.83433758293</v>
+        <v>7131.4514477105404</v>
       </c>
       <c r="M28" s="23">
         <f t="shared" si="3"/>
-        <v>-171114.08496934481</v>
+        <v>136406.07598764217</v>
       </c>
       <c r="N28" s="23">
         <f t="shared" si="3"/>
-        <v>-187302.8990104259</v>
+        <v>137195.0976149161</v>
       </c>
       <c r="O28" s="23">
         <f t="shared" si="3"/>
-        <v>-205343.60624284457</v>
+        <v>137644.90893501366</v>
       </c>
       <c r="P28" s="23">
         <f t="shared" si="3"/>
-        <v>-225351.02404446347</v>
+        <v>137745.33363871972</v>
       </c>
       <c r="Q28" s="23">
         <f t="shared" si="3"/>
-        <v>-247447.08847057325</v>
+        <v>137485.89012754231</v>
       </c>
       <c r="R28" s="23">
         <f t="shared" si="3"/>
-        <v>-271761.29561189224</v>
+        <v>136855.78235503507</v>
       </c>
       <c r="S28" s="23">
         <f t="shared" si="3"/>
-        <v>-298431.17031676334</v>
+        <v>135843.89039335807</v>
       </c>
       <c r="T28" s="23">
         <f t="shared" si="3"/>
-        <v>-327602.76397412689</v>
+        <v>134438.76071683623</v>
       </c>
       <c r="U28" s="23">
         <f t="shared" si="3"/>
-        <v>-359431.18315903755</v>
+        <v>132628.59619402417</v>
       </c>
       <c r="V28" s="23">
         <f t="shared" si="3"/>
-        <v>-394081.15105420299</v>
+        <v>130401.24577953307</v>
       </c>
       <c r="W28" s="23">
         <f t="shared" si="3"/>
-        <v>-431727.60367965914</v>
+        <v>127744.19389661275</v>
       </c>
       <c r="X28" s="23">
         <f t="shared" si="3"/>
-        <v>288784.46262560162</v>
+        <v>797565.65211799601</v>
       </c>
       <c r="Y28" s="23">
         <f t="shared" si="3"/>
-        <v>244576.17589242681</v>
+        <v>794010.13743473683</v>
       </c>
       <c r="Z28" s="23">
         <f t="shared" si="3"/>
-        <v>196778.7886610046</v>
+        <v>789985.07635498536</v>
       </c>
       <c r="AA28" s="23">
         <f t="shared" si="3"/>
-        <v>145169.77670044402</v>
+        <v>785476.38248684688</v>
       </c>
       <c r="AB28" s="23">
         <f t="shared" si="3"/>
-        <v>89512.819277538088</v>
+        <v>780469.54684666963</v>
       </c>
       <c r="AC28" s="23">
         <f t="shared" si="3"/>
-        <v>29556.94377362169</v>
-      </c>
+        <v>774949.62518129253</v>
+      </c>
+      <c r="AD28" s="23"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B32" s="66" t="s">
         <v>33</v>
@@ -6002,7 +6017,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="171" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B33" s="172">
         <v>0.72731126527420797</v>
@@ -6010,7 +6025,7 @@
     </row>
     <row r="34" spans="1:29" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B34" s="28">
         <f>-B25*(1-B33)</f>
@@ -6048,7 +6063,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="171" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" s="175">
         <v>17</v>
@@ -6059,7 +6074,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B36" s="67">
         <v>0.02</v>
@@ -6130,7 +6145,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" s="67">
         <v>0.01</v>
@@ -6139,203 +6154,206 @@
     </row>
     <row r="38" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B38" s="2">
         <f>SUM(B36:B37)</f>
         <v>0.03</v>
       </c>
+      <c r="C38" s="189" t="s">
+        <v>267</v>
+      </c>
       <c r="F38" s="80" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G38" t="s">
         <v>23</v>
       </c>
       <c r="J38" s="23">
         <f>Kalkulation!D12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="K38" s="23">
         <f>Kalkulation!E12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="L38" s="23">
         <f>Kalkulation!F12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="M38" s="23">
         <f>Kalkulation!G12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="N38" s="23">
         <f>Kalkulation!H12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="O38" s="23">
         <f>Kalkulation!I12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="P38" s="23">
         <f>Kalkulation!J12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="Q38" s="23">
         <f>Kalkulation!K12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="R38" s="23">
         <f>Kalkulation!L12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="S38" s="23">
         <f>Kalkulation!M12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="T38" s="23">
         <f>Kalkulation!N12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="U38" s="23">
         <f>Kalkulation!O12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="V38" s="23">
         <f>Kalkulation!P12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="W38" s="23">
         <f>Kalkulation!Q12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="X38" s="23">
         <f>Kalkulation!R12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="Y38" s="23">
         <f>Kalkulation!S12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="Z38" s="23">
         <f>Kalkulation!T12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="AA38" s="23">
         <f>Kalkulation!U12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="AB38" s="23">
         <f>Kalkulation!V12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="AC38" s="23">
         <f>Kalkulation!W12</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" s="29">
         <f>-(B25+B34)</f>
         <v>7752244.2222780343</v>
       </c>
       <c r="F39" s="80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G39" t="s">
         <v>7</v>
       </c>
       <c r="J39" s="23">
         <f>Kalkulation!D21</f>
-        <v>-552215.68794527999</v>
+        <v>-540096.19452319993</v>
       </c>
       <c r="K39" s="23">
         <f>Kalkulation!E21</f>
-        <v>-577153.06059788738</v>
+        <v>-551799.08035889594</v>
       </c>
       <c r="L39" s="23">
         <f>Kalkulation!F21</f>
-        <v>-603636.55035495642</v>
+        <v>-563853.05276966281</v>
       </c>
       <c r="M39" s="23">
         <f>Kalkulation!G21</f>
-        <v>-481762.0164769637</v>
+        <v>-426268.64435275277</v>
       </c>
       <c r="N39" s="23">
         <f>Kalkulation!H21</f>
-        <v>-511631.2614985354</v>
+        <v>-439056.70368333533</v>
       </c>
       <c r="O39" s="23">
         <f>Kalkulation!I21</f>
-        <v>-543352.39971144474</v>
+        <v>-452228.40479383542</v>
       </c>
       <c r="P39" s="23">
         <f>Kalkulation!J21</f>
-        <v>-577040.2484935543</v>
+        <v>-465795.2569376505</v>
       </c>
       <c r="Q39" s="23">
         <f>Kalkulation!K21</f>
-        <v>-612816.74390015472</v>
+        <v>-479769.11464578006</v>
       </c>
       <c r="R39" s="23">
         <f>Kalkulation!L21</f>
-        <v>-650811.38202196441</v>
+        <v>-494162.18808515347</v>
       </c>
       <c r="S39" s="23">
         <f>Kalkulation!M21</f>
-        <v>-691161.68770732614</v>
+        <v>-508987.05372770806</v>
       </c>
       <c r="T39" s="23">
         <f>Kalkulation!N21</f>
-        <v>-734013.71234518033</v>
+        <v>-524256.66533953929</v>
       </c>
       <c r="U39" s="23">
         <f>Kalkulation!O21</f>
-        <v>-779522.56251058169</v>
+        <v>-539984.36529972544</v>
       </c>
       <c r="V39" s="23">
         <f>Kalkulation!P21</f>
-        <v>-827852.96138623776</v>
+        <v>-556183.89625871729</v>
       </c>
       <c r="W39" s="23">
         <f>Kalkulation!Q21</f>
-        <v>-879179.84499218455</v>
+        <v>-572869.41314647882</v>
       </c>
       <c r="X39" s="23">
         <f>Kalkulation!R21</f>
-        <v>-933688.99538170011</v>
+        <v>-590055.49554087326</v>
       </c>
       <c r="Y39" s="23">
         <f>Kalkulation!S21</f>
-        <v>-991577.71309536556</v>
+        <v>-607757.16040709952</v>
       </c>
       <c r="Z39" s="23">
         <f>Kalkulation!T21</f>
-        <v>-1053055.5313072784</v>
+        <v>-625989.8752193125</v>
       </c>
       <c r="AA39" s="23">
         <f>Kalkulation!U21</f>
-        <v>-1118344.9742483296</v>
+        <v>-644769.57147589186</v>
       </c>
       <c r="AB39" s="23">
         <f>Kalkulation!V21</f>
-        <v>-1187682.3626517262</v>
+        <v>-664112.65862016869</v>
       </c>
       <c r="AC39" s="23">
         <f>Kalkulation!W21</f>
-        <v>-1261318.6691361333</v>
+        <v>-684036.03837877372</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>39</v>
       </c>
       <c r="F40" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G40" s="84" t="s">
         <v>7</v>
@@ -6344,7 +6362,7 @@
       <c r="I40" s="84"/>
       <c r="J40" s="88">
         <f>J27</f>
-        <v>0</v>
+        <v>-994.86208723069183</v>
       </c>
       <c r="K40" s="88">
         <f t="shared" ref="K40:AC40" si="4">K27</f>
@@ -6356,71 +6374,71 @@
       </c>
       <c r="M40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-15149.999367223803</v>
       </c>
       <c r="N40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-15253.349389857902</v>
       </c>
       <c r="O40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-15312.267939750851</v>
       </c>
       <c r="P40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-15325.42207272045</v>
       </c>
       <c r="Q40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-15291.438856258934</v>
       </c>
       <c r="R40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-15208.904169883439</v>
       </c>
       <c r="S40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-15076.361469496504</v>
       </c>
       <c r="T40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-14892.310514677789</v>
       </c>
       <c r="U40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-14655.206057794356</v>
       </c>
       <c r="V40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-14363.456493784253</v>
       </c>
       <c r="W40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-14015.422469433674</v>
       </c>
       <c r="X40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-102029.0985484324</v>
       </c>
       <c r="Y40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-101563.37934595594</v>
       </c>
       <c r="Z40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-101036.156593985</v>
       </c>
       <c r="AA40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-100445.58518603479</v>
       </c>
       <c r="AB40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-99789.764662425907</v>
       </c>
       <c r="AC40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-99066.737549688565</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
@@ -6440,83 +6458,83 @@
       <c r="I41" s="84"/>
       <c r="J41" s="88">
         <f>SUM(J38:J40)</f>
-        <v>745500.14045472024</v>
+        <v>1023801.5599895695</v>
       </c>
       <c r="K41" s="88">
         <f t="shared" ref="K41:AC41" si="5">SUM(K38:K40)</f>
-        <v>720562.76780211285</v>
+        <v>1013093.5362411041</v>
       </c>
       <c r="L41" s="88">
         <f t="shared" si="5"/>
-        <v>694079.27804504381</v>
+        <v>1001039.5638303373</v>
       </c>
       <c r="M41" s="88">
         <f t="shared" si="5"/>
-        <v>815953.81192303658</v>
+        <v>1123473.9728800235</v>
       </c>
       <c r="N41" s="88">
         <f t="shared" si="5"/>
-        <v>786084.56690146483</v>
+        <v>1110582.5635268069</v>
       </c>
       <c r="O41" s="88">
         <f t="shared" si="5"/>
-        <v>754363.42868855549</v>
+        <v>1097351.9438664138</v>
       </c>
       <c r="P41" s="88">
         <f t="shared" si="5"/>
-        <v>720675.57990644593</v>
+        <v>1083771.9375896291</v>
       </c>
       <c r="Q41" s="88">
         <f t="shared" si="5"/>
-        <v>684899.08449984551</v>
+        <v>1069832.063097961</v>
       </c>
       <c r="R41" s="88">
         <f t="shared" si="5"/>
-        <v>646904.44637803582</v>
+        <v>1055521.5243449633</v>
       </c>
       <c r="S41" s="88">
         <f t="shared" si="5"/>
-        <v>606554.14069267409</v>
+        <v>1040829.2014027955</v>
       </c>
       <c r="T41" s="88">
         <f t="shared" si="5"/>
-        <v>563702.1160548199</v>
+        <v>1025743.640745783</v>
       </c>
       <c r="U41" s="88">
         <f t="shared" si="5"/>
-        <v>518193.26588941854</v>
+        <v>1010253.0452424802</v>
       </c>
       <c r="V41" s="88">
         <f t="shared" si="5"/>
-        <v>469862.86701376247</v>
+        <v>994345.26384749857</v>
       </c>
       <c r="W41" s="88">
         <f t="shared" si="5"/>
-        <v>418535.98340781569</v>
+        <v>978007.78098408761</v>
       </c>
       <c r="X41" s="88">
         <f t="shared" si="5"/>
-        <v>364026.83301830012</v>
+        <v>872808.02251069434</v>
       </c>
       <c r="Y41" s="88">
         <f t="shared" si="5"/>
-        <v>306138.11530463467</v>
+        <v>855572.07684694463</v>
       </c>
       <c r="Z41" s="88">
         <f t="shared" si="5"/>
-        <v>244660.2970927218</v>
+        <v>837866.58478670253</v>
       </c>
       <c r="AA41" s="88">
         <f t="shared" si="5"/>
-        <v>179370.85415167059</v>
+        <v>819677.45993807341</v>
       </c>
       <c r="AB41" s="88">
         <f t="shared" si="5"/>
-        <v>110033.465748274</v>
+        <v>800990.19331740541</v>
       </c>
       <c r="AC41" s="88">
         <f t="shared" si="5"/>
-        <v>36397.159263866954</v>
+        <v>781789.84067153779</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
@@ -6527,7 +6545,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F42" s="82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G42" t="s">
         <v>7</v>
@@ -6615,7 +6633,7 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B43" s="175">
         <v>0.3</v>
@@ -6711,7 +6729,7 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B44" s="2">
         <f>B41+(B43*B42)</f>
@@ -6725,83 +6743,83 @@
       </c>
       <c r="J44" s="23">
         <f>SUM(J41:J43)</f>
-        <v>512932.81378637918</v>
+        <v>791234.23332122841</v>
       </c>
       <c r="K44" s="23">
         <f t="shared" ref="K44:AC44" si="6">SUM(K41:K43)</f>
-        <v>487995.44113377179</v>
+        <v>780526.20957276307</v>
       </c>
       <c r="L44" s="23">
         <f t="shared" si="6"/>
-        <v>461511.95137670275</v>
+        <v>768472.23716199619</v>
       </c>
       <c r="M44" s="23">
         <f t="shared" si="6"/>
-        <v>134212.33472858596</v>
+        <v>441732.49568557291</v>
       </c>
       <c r="N44" s="23">
         <f t="shared" si="6"/>
-        <v>118023.52068750485</v>
+        <v>442521.5173128469</v>
       </c>
       <c r="O44" s="23">
         <f t="shared" si="6"/>
-        <v>99982.813455086143</v>
+        <v>442971.32863294444</v>
       </c>
       <c r="P44" s="23">
         <f t="shared" si="6"/>
-        <v>79975.395653467334</v>
+        <v>443071.75333665049</v>
       </c>
       <c r="Q44" s="23">
         <f t="shared" si="6"/>
-        <v>57879.331227357499</v>
+        <v>442812.30982547294</v>
       </c>
       <c r="R44" s="23">
         <f t="shared" si="6"/>
-        <v>33565.124086038501</v>
+        <v>442182.20205296593</v>
       </c>
       <c r="S44" s="23">
         <f t="shared" si="6"/>
-        <v>6895.2493811674067</v>
+        <v>441170.31009128882</v>
       </c>
       <c r="T44" s="23">
         <f t="shared" si="6"/>
-        <v>-22276.344276196149</v>
+        <v>439765.18041476695</v>
       </c>
       <c r="U44" s="23">
         <f t="shared" si="6"/>
-        <v>-54104.763461106806</v>
+        <v>437955.01589195483</v>
       </c>
       <c r="V44" s="23">
         <f t="shared" si="6"/>
-        <v>-88754.731356272241</v>
+        <v>435727.66547746392</v>
       </c>
       <c r="W44" s="23">
         <f t="shared" si="6"/>
-        <v>-126401.18398172839</v>
+        <v>433070.6135945436</v>
       </c>
       <c r="X44" s="23">
         <f t="shared" si="6"/>
-        <v>-167229.90339075332</v>
+        <v>341551.28610164096</v>
       </c>
       <c r="Y44" s="23">
         <f t="shared" si="6"/>
-        <v>-211438.19012392813</v>
+        <v>337995.77141838189</v>
       </c>
       <c r="Z44" s="23">
         <f t="shared" si="6"/>
-        <v>-259235.57735535034</v>
+        <v>333970.71033863042</v>
       </c>
       <c r="AA44" s="23">
         <f t="shared" si="6"/>
-        <v>-310844.58931591094</v>
+        <v>329462.01647049194</v>
       </c>
       <c r="AB44" s="23">
         <f t="shared" si="6"/>
-        <v>-366501.54673881683</v>
+        <v>324455.18083031458</v>
       </c>
       <c r="AC44" s="23">
         <f t="shared" si="6"/>
-        <v>-426457.42224273324</v>
+        <v>318935.2591649376</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
@@ -6815,12 +6833,12 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50" s="66">
         <v>14</v>
@@ -6834,12 +6852,12 @@
         <v>46</v>
       </c>
       <c r="B51" s="67">
-        <v>6.2E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B52" s="172">
         <f>B46</f>
@@ -6848,7 +6866,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B53" s="66">
         <v>25</v>
@@ -6869,12 +6887,12 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B61" s="177">
         <v>24500</v>
@@ -6886,7 +6904,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62" s="178">
         <v>3.5000000000000003E-2</v>
@@ -6896,7 +6914,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B63" s="179">
         <v>0.7</v>
@@ -6907,7 +6925,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B64" s="180">
         <v>0.3</v>
@@ -6918,7 +6936,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="176" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65" s="179">
         <v>3.57</v>
@@ -6931,7 +6949,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="176" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B66" s="180">
         <v>4.7</v>
@@ -6948,7 +6966,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="132" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B69">
         <f>B10*(1-B14)</f>
@@ -6957,7 +6975,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="132" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B70">
         <f>B10*(1-B11-B12)</f>
@@ -7556,9 +7574,12 @@
       <formula1>$A$56:$A$57</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C38" r:id="rId1" display="https://www.macrotrends.net/global-metrics/countries/IND/india/inflation-rate-cpi" xr:uid="{BA07FAA1-2D10-4ED8-B014-28F87945E5D7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7572,10 +7593,10 @@
   <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7813,83 +7834,83 @@
       </c>
       <c r="D6" s="19">
         <f>C6*(1+Parameters!$B$51)</f>
-        <v>1.0620000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="E6" s="19">
         <f>D6*(1+Parameters!$B$51)</f>
-        <v>1.1278440000000001</v>
+        <v>1.0609</v>
       </c>
       <c r="F6" s="19">
         <f>E6*(1+Parameters!$B$51)</f>
-        <v>1.1977703280000001</v>
+        <v>1.092727</v>
       </c>
       <c r="G6" s="19">
         <f>F6*(1+Parameters!$B$51)</f>
-        <v>1.2720320883360001</v>
+        <v>1.1255088100000001</v>
       </c>
       <c r="H6" s="19">
         <f>G6*(1+Parameters!$B$51)</f>
-        <v>1.3508980778128321</v>
+        <v>1.1592740743000001</v>
       </c>
       <c r="I6" s="19">
         <f>H6*(1+Parameters!$B$51)</f>
-        <v>1.4346537586372279</v>
+        <v>1.1940522965290001</v>
       </c>
       <c r="J6" s="19">
         <f>I6*(1+Parameters!$B$51)</f>
-        <v>1.5236022916727361</v>
+        <v>1.2298738654248702</v>
       </c>
       <c r="K6" s="19">
         <f>J6*(1+Parameters!$B$51)</f>
-        <v>1.6180656337564459</v>
+        <v>1.2667700813876164</v>
       </c>
       <c r="L6" s="19">
         <f>K6*(1+Parameters!$B$51)</f>
-        <v>1.7183857030493457</v>
+        <v>1.3047731838292449</v>
       </c>
       <c r="M6" s="19">
         <f>L6*(1+Parameters!$B$51)</f>
-        <v>1.8249256166384051</v>
+        <v>1.3439163793441222</v>
       </c>
       <c r="N6" s="19">
         <f>M6*(1+Parameters!$B$51)</f>
-        <v>1.9380710048699863</v>
+        <v>1.3842338707244459</v>
       </c>
       <c r="O6" s="19">
         <f>N6*(1+Parameters!$B$51)</f>
-        <v>2.0582314071719257</v>
+        <v>1.4257608868461793</v>
       </c>
       <c r="P6" s="19">
         <f>O6*(1+Parameters!$B$51)</f>
-        <v>2.1858417544165851</v>
+        <v>1.4685337134515648</v>
       </c>
       <c r="Q6" s="19">
         <f>P6*(1+Parameters!$B$51)</f>
-        <v>2.3213639431904136</v>
+        <v>1.5125897248551119</v>
       </c>
       <c r="R6" s="19">
         <f>Q6*(1+Parameters!$B$51)</f>
-        <v>2.4652885076682196</v>
+        <v>1.5579674166007653</v>
       </c>
       <c r="S6" s="19">
         <f>R6*(1+Parameters!$B$51)</f>
-        <v>2.6181363951436492</v>
+        <v>1.6047064390987884</v>
       </c>
       <c r="T6" s="19">
         <f>S6*(1+Parameters!$B$51)</f>
-        <v>2.7804608516425557</v>
+        <v>1.652847632271752</v>
       </c>
       <c r="U6" s="19">
         <f>T6*(1+Parameters!$B$51)</f>
-        <v>2.9528494244443944</v>
+        <v>1.7024330612399046</v>
       </c>
       <c r="V6" s="19">
         <f>U6*(1+Parameters!$B$51)</f>
-        <v>3.1359260887599469</v>
+        <v>1.7535060530771018</v>
       </c>
       <c r="W6" s="19">
         <f>V6*(1+Parameters!$B$51)</f>
-        <v>3.330353506263064</v>
+        <v>1.806111234669415</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -7995,83 +8016,83 @@
       </c>
       <c r="D10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="H10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="I10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="J10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="K10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="L10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="M10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="N10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="O10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="P10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="R10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="S10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="T10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="U10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="V10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="W10">
         <f>Parameters!$B$18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8108,87 +8129,87 @@
       </c>
       <c r="D12" s="30">
         <f>D9*D10</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="E12" s="30">
         <f t="shared" ref="E12:W12" si="0">E9*E10</f>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="G12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="H12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="I12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="J12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="K12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="L12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="M12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="N12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="O12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="P12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="Q12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="R12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="S12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="T12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="U12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="V12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="W12" s="30">
         <f t="shared" si="0"/>
-        <v>1297715.8284000002</v>
+        <v>1564892.6166000001</v>
       </c>
       <c r="Y12" s="30">
         <f>SUM(D12:W12)</f>
-        <v>25954316.568000011</v>
+        <v>31297852.331999991</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -8218,83 +8239,83 @@
       </c>
       <c r="D18" s="23">
         <f>Parameters!$B$26*D$6</f>
-        <v>-402215.68794527999</v>
+        <v>-390096.19452319999</v>
       </c>
       <c r="E18" s="23">
         <f>Parameters!$B$26*E$6</f>
-        <v>-427153.06059788738</v>
+        <v>-401799.08035889594</v>
       </c>
       <c r="F18" s="23">
         <f>Parameters!$B$26*F$6</f>
-        <v>-453636.55035495636</v>
+        <v>-413853.05276966287</v>
       </c>
       <c r="G18" s="23">
         <f>Parameters!$B$26*G$6</f>
-        <v>-481762.0164769637</v>
+        <v>-426268.64435275277</v>
       </c>
       <c r="H18" s="23">
         <f>Parameters!$B$26*H$6</f>
-        <v>-511631.2614985354</v>
+        <v>-439056.70368333533</v>
       </c>
       <c r="I18" s="23">
         <f>Parameters!$B$26*I$6</f>
-        <v>-543352.39971144474</v>
+        <v>-452228.40479383542</v>
       </c>
       <c r="J18" s="23">
         <f>Parameters!$B$26*J$6</f>
-        <v>-577040.2484935543</v>
+        <v>-465795.2569376505</v>
       </c>
       <c r="K18" s="23">
         <f>Parameters!$B$26*K$6</f>
-        <v>-612816.74390015472</v>
+        <v>-479769.11464578006</v>
       </c>
       <c r="L18" s="23">
         <f>Parameters!$B$26*L$6</f>
-        <v>-650811.38202196441</v>
+        <v>-494162.18808515347</v>
       </c>
       <c r="M18" s="23">
         <f>Parameters!$B$26*M$6</f>
-        <v>-691161.68770732614</v>
+        <v>-508987.05372770806</v>
       </c>
       <c r="N18" s="23">
         <f>Parameters!$B$26*N$6</f>
-        <v>-734013.71234518033</v>
+        <v>-524256.66533953929</v>
       </c>
       <c r="O18" s="23">
         <f>Parameters!$B$26*O$6</f>
-        <v>-779522.56251058169</v>
+        <v>-539984.36529972544</v>
       </c>
       <c r="P18" s="23">
         <f>Parameters!$B$26*P$6</f>
-        <v>-827852.96138623776</v>
+        <v>-556183.89625871729</v>
       </c>
       <c r="Q18" s="23">
         <f>Parameters!$B$26*Q$6</f>
-        <v>-879179.84499218455</v>
+        <v>-572869.41314647882</v>
       </c>
       <c r="R18" s="23">
         <f>Parameters!$B$26*R$6</f>
-        <v>-933688.99538170011</v>
+        <v>-590055.49554087326</v>
       </c>
       <c r="S18" s="23">
         <f>Parameters!$B$26*S$6</f>
-        <v>-991577.71309536556</v>
+        <v>-607757.16040709952</v>
       </c>
       <c r="T18" s="23">
         <f>Parameters!$B$26*T$6</f>
-        <v>-1053055.5313072784</v>
+        <v>-625989.8752193125</v>
       </c>
       <c r="U18" s="23">
         <f>Parameters!$B$26*U$6</f>
-        <v>-1118344.9742483296</v>
+        <v>-644769.57147589186</v>
       </c>
       <c r="V18" s="23">
         <f>Parameters!$B$26*V$6</f>
-        <v>-1187682.3626517262</v>
+        <v>-664112.65862016869</v>
       </c>
       <c r="W18" s="23">
         <f>Parameters!$B$26*W$6</f>
-        <v>-1261318.6691361333</v>
+        <v>-684036.03837877372</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -8369,83 +8390,83 @@
       </c>
       <c r="D21" s="23">
         <f>D17+D18+D19</f>
-        <v>-552215.68794527999</v>
+        <v>-540096.19452319993</v>
       </c>
       <c r="E21" s="23">
         <f t="shared" ref="E21:W21" si="1">E17+E18+E19</f>
-        <v>-577153.06059788738</v>
+        <v>-551799.08035889594</v>
       </c>
       <c r="F21" s="23">
         <f t="shared" si="1"/>
-        <v>-603636.55035495642</v>
+        <v>-563853.05276966281</v>
       </c>
       <c r="G21" s="23">
         <f t="shared" si="1"/>
-        <v>-481762.0164769637</v>
+        <v>-426268.64435275277</v>
       </c>
       <c r="H21" s="23">
         <f t="shared" si="1"/>
-        <v>-511631.2614985354</v>
+        <v>-439056.70368333533</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" si="1"/>
-        <v>-543352.39971144474</v>
+        <v>-452228.40479383542</v>
       </c>
       <c r="J21" s="23">
         <f t="shared" si="1"/>
-        <v>-577040.2484935543</v>
+        <v>-465795.2569376505</v>
       </c>
       <c r="K21" s="23">
         <f t="shared" si="1"/>
-        <v>-612816.74390015472</v>
+        <v>-479769.11464578006</v>
       </c>
       <c r="L21" s="23">
         <f t="shared" si="1"/>
-        <v>-650811.38202196441</v>
+        <v>-494162.18808515347</v>
       </c>
       <c r="M21" s="23">
         <f t="shared" si="1"/>
-        <v>-691161.68770732614</v>
+        <v>-508987.05372770806</v>
       </c>
       <c r="N21" s="23">
         <f t="shared" si="1"/>
-        <v>-734013.71234518033</v>
+        <v>-524256.66533953929</v>
       </c>
       <c r="O21" s="23">
         <f t="shared" si="1"/>
-        <v>-779522.56251058169</v>
+        <v>-539984.36529972544</v>
       </c>
       <c r="P21" s="23">
         <f t="shared" si="1"/>
-        <v>-827852.96138623776</v>
+        <v>-556183.89625871729</v>
       </c>
       <c r="Q21" s="23">
         <f t="shared" si="1"/>
-        <v>-879179.84499218455</v>
+        <v>-572869.41314647882</v>
       </c>
       <c r="R21" s="23">
         <f t="shared" si="1"/>
-        <v>-933688.99538170011</v>
+        <v>-590055.49554087326</v>
       </c>
       <c r="S21" s="23">
         <f t="shared" si="1"/>
-        <v>-991577.71309536556</v>
+        <v>-607757.16040709952</v>
       </c>
       <c r="T21" s="23">
         <f t="shared" si="1"/>
-        <v>-1053055.5313072784</v>
+        <v>-625989.8752193125</v>
       </c>
       <c r="U21" s="23">
         <f t="shared" si="1"/>
-        <v>-1118344.9742483296</v>
+        <v>-644769.57147589186</v>
       </c>
       <c r="V21" s="23">
         <f t="shared" si="1"/>
-        <v>-1187682.3626517262</v>
+        <v>-664112.65862016869</v>
       </c>
       <c r="W21" s="23">
         <f t="shared" si="1"/>
-        <v>-1261318.6691361333</v>
+        <v>-684036.03837877372</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -8462,83 +8483,83 @@
       </c>
       <c r="D24" s="105">
         <f>D12+D21</f>
-        <v>745500.14045472024</v>
+        <v>1024796.4220768001</v>
       </c>
       <c r="E24" s="105">
         <f t="shared" ref="E24:W24" si="2">E12+E21</f>
-        <v>720562.76780211285</v>
+        <v>1013093.5362411041</v>
       </c>
       <c r="F24" s="105">
         <f t="shared" si="2"/>
-        <v>694079.27804504381</v>
+        <v>1001039.5638303373</v>
       </c>
       <c r="G24" s="105">
         <f t="shared" si="2"/>
-        <v>815953.81192303658</v>
+        <v>1138623.9722472474</v>
       </c>
       <c r="H24" s="105">
         <f t="shared" si="2"/>
-        <v>786084.56690146483</v>
+        <v>1125835.9129166647</v>
       </c>
       <c r="I24" s="105">
         <f t="shared" si="2"/>
-        <v>754363.42868855549</v>
+        <v>1112664.2118061646</v>
       </c>
       <c r="J24" s="105">
         <f t="shared" si="2"/>
-        <v>720675.57990644593</v>
+        <v>1099097.3596623496</v>
       </c>
       <c r="K24" s="105">
         <f t="shared" si="2"/>
-        <v>684899.08449984551</v>
+        <v>1085123.50195422</v>
       </c>
       <c r="L24" s="105">
         <f t="shared" si="2"/>
-        <v>646904.44637803582</v>
+        <v>1070730.4285148466</v>
       </c>
       <c r="M24" s="105">
         <f t="shared" si="2"/>
-        <v>606554.14069267409</v>
+        <v>1055905.562872292</v>
       </c>
       <c r="N24" s="105">
         <f t="shared" si="2"/>
-        <v>563702.1160548199</v>
+        <v>1040635.9512604608</v>
       </c>
       <c r="O24" s="105">
         <f t="shared" si="2"/>
-        <v>518193.26588941854</v>
+        <v>1024908.2513002746</v>
       </c>
       <c r="P24" s="105">
         <f t="shared" si="2"/>
-        <v>469862.86701376247</v>
+        <v>1008708.7203412828</v>
       </c>
       <c r="Q24" s="105">
         <f t="shared" si="2"/>
-        <v>418535.98340781569</v>
+        <v>992023.20345352124</v>
       </c>
       <c r="R24" s="105">
         <f t="shared" si="2"/>
-        <v>364026.83301830012</v>
+        <v>974837.1210591268</v>
       </c>
       <c r="S24" s="105">
         <f t="shared" si="2"/>
-        <v>306138.11530463467</v>
+        <v>957135.45619290054</v>
       </c>
       <c r="T24" s="105">
         <f t="shared" si="2"/>
-        <v>244660.2970927218</v>
+        <v>938902.74138068757</v>
       </c>
       <c r="U24" s="105">
         <f t="shared" si="2"/>
-        <v>179370.85415167059</v>
+        <v>920123.0451241082</v>
       </c>
       <c r="V24" s="105">
         <f t="shared" si="2"/>
-        <v>110033.465748274</v>
+        <v>900779.95797983138</v>
       </c>
       <c r="W24" s="105">
         <f t="shared" si="2"/>
-        <v>36397.159263866954</v>
+        <v>880856.57822122634</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8649,83 +8670,83 @@
       </c>
       <c r="D28" s="108">
         <f t="shared" ref="D28:W28" si="4">D24+D26</f>
-        <v>-15840.645259565441</v>
+        <v>263455.63636251446</v>
       </c>
       <c r="E28" s="108">
         <f t="shared" si="4"/>
-        <v>-40778.017912172829</v>
+        <v>251752.75052681845</v>
       </c>
       <c r="F28" s="108">
         <f t="shared" si="4"/>
-        <v>-67261.507669241866</v>
+        <v>239698.77811605157</v>
       </c>
       <c r="G28" s="108">
         <f t="shared" si="4"/>
-        <v>54613.026208750904</v>
+        <v>377283.18653296167</v>
       </c>
       <c r="H28" s="108">
         <f t="shared" si="4"/>
-        <v>24743.781187179149</v>
+        <v>364495.12720237905</v>
       </c>
       <c r="I28" s="108">
         <f t="shared" si="4"/>
-        <v>-6977.3570257301908</v>
+        <v>351323.42609187891</v>
       </c>
       <c r="J28" s="108">
         <f t="shared" si="4"/>
-        <v>-40665.205807839753</v>
+        <v>337756.57394806389</v>
       </c>
       <c r="K28" s="108">
         <f t="shared" si="4"/>
-        <v>-76441.701214440167</v>
+        <v>323782.71623993432</v>
       </c>
       <c r="L28" s="108">
         <f t="shared" si="4"/>
-        <v>-114436.33933624986</v>
+        <v>309389.64280056092</v>
       </c>
       <c r="M28" s="108">
         <f t="shared" si="4"/>
-        <v>-154786.64502161159</v>
+        <v>294564.77715800633</v>
       </c>
       <c r="N28" s="108">
         <f t="shared" si="4"/>
-        <v>-197638.66965946578</v>
+        <v>279295.16554617509</v>
       </c>
       <c r="O28" s="108">
         <f t="shared" si="4"/>
-        <v>-243147.51982486714</v>
+        <v>263567.46558598895</v>
       </c>
       <c r="P28" s="108">
         <f t="shared" si="4"/>
-        <v>-291477.91870052321</v>
+        <v>247367.9346269971</v>
       </c>
       <c r="Q28" s="108">
         <f t="shared" si="4"/>
-        <v>-342804.80230647</v>
+        <v>230682.41773923556</v>
       </c>
       <c r="R28" s="108">
         <f t="shared" si="4"/>
-        <v>364026.83301830012</v>
+        <v>974837.1210591268</v>
       </c>
       <c r="S28" s="108">
         <f t="shared" si="4"/>
-        <v>306138.11530463467</v>
+        <v>957135.45619290054</v>
       </c>
       <c r="T28" s="108">
         <f t="shared" si="4"/>
-        <v>244660.2970927218</v>
+        <v>938902.74138068757</v>
       </c>
       <c r="U28" s="108">
         <f t="shared" si="4"/>
-        <v>179370.85415167059</v>
+        <v>920123.0451241082</v>
       </c>
       <c r="V28" s="108">
         <f t="shared" si="4"/>
-        <v>110033.465748274</v>
+        <v>900779.95797983138</v>
       </c>
       <c r="W28" s="109">
         <f t="shared" si="4"/>
-        <v>36397.159263866954</v>
+        <v>880856.57822122634</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -8737,7 +8758,7 @@
       </c>
       <c r="D30" s="23">
         <f>D54</f>
-        <v>0</v>
+        <v>994.86208723069183</v>
       </c>
       <c r="E30" s="23">
         <f t="shared" ref="E30:W30" si="5">E54</f>
@@ -8749,71 +8770,71 @@
       </c>
       <c r="G30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15149.999367223803</v>
       </c>
       <c r="H30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15253.349389857902</v>
       </c>
       <c r="I30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15312.267939750851</v>
       </c>
       <c r="J30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15325.42207272045</v>
       </c>
       <c r="K30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15291.438856258934</v>
       </c>
       <c r="L30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15208.904169883439</v>
       </c>
       <c r="M30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15076.361469496504</v>
       </c>
       <c r="N30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14892.310514677789</v>
       </c>
       <c r="O30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14655.206057794356</v>
       </c>
       <c r="P30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14363.456493784253</v>
       </c>
       <c r="Q30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14015.422469433674</v>
       </c>
       <c r="R30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>102029.0985484324</v>
       </c>
       <c r="S30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>101563.37934595594</v>
       </c>
       <c r="T30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>101036.156593985</v>
       </c>
       <c r="U30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>100445.58518603479</v>
       </c>
       <c r="V30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>99789.764662425907</v>
       </c>
       <c r="W30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>99066.737549688565</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -8829,83 +8850,83 @@
       </c>
       <c r="D31" s="52">
         <f t="shared" ref="D31:W31" si="6">D24-D30</f>
-        <v>745500.14045472024</v>
+        <v>1023801.5599895695</v>
       </c>
       <c r="E31" s="52">
         <f t="shared" si="6"/>
-        <v>720562.76780211285</v>
+        <v>1013093.5362411041</v>
       </c>
       <c r="F31" s="52">
         <f t="shared" si="6"/>
-        <v>694079.27804504381</v>
+        <v>1001039.5638303373</v>
       </c>
       <c r="G31" s="52">
         <f t="shared" si="6"/>
-        <v>815953.81192303658</v>
+        <v>1123473.9728800235</v>
       </c>
       <c r="H31" s="52">
         <f t="shared" si="6"/>
-        <v>786084.56690146483</v>
+        <v>1110582.5635268069</v>
       </c>
       <c r="I31" s="52">
         <f t="shared" si="6"/>
-        <v>754363.42868855549</v>
+        <v>1097351.9438664138</v>
       </c>
       <c r="J31" s="52">
         <f t="shared" si="6"/>
-        <v>720675.57990644593</v>
+        <v>1083771.9375896291</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="6"/>
-        <v>684899.08449984551</v>
+        <v>1069832.063097961</v>
       </c>
       <c r="L31" s="52">
         <f t="shared" si="6"/>
-        <v>646904.44637803582</v>
+        <v>1055521.5243449633</v>
       </c>
       <c r="M31" s="52">
         <f t="shared" si="6"/>
-        <v>606554.14069267409</v>
+        <v>1040829.2014027955</v>
       </c>
       <c r="N31" s="52">
         <f t="shared" si="6"/>
-        <v>563702.1160548199</v>
+        <v>1025743.640745783</v>
       </c>
       <c r="O31" s="52">
         <f t="shared" si="6"/>
-        <v>518193.26588941854</v>
+        <v>1010253.0452424802</v>
       </c>
       <c r="P31" s="52">
         <f t="shared" si="6"/>
-        <v>469862.86701376247</v>
+        <v>994345.26384749857</v>
       </c>
       <c r="Q31" s="52">
         <f t="shared" si="6"/>
-        <v>418535.98340781569</v>
+        <v>978007.78098408761</v>
       </c>
       <c r="R31" s="52">
         <f t="shared" si="6"/>
-        <v>364026.83301830012</v>
+        <v>872808.02251069434</v>
       </c>
       <c r="S31" s="52">
         <f t="shared" si="6"/>
-        <v>306138.11530463467</v>
+        <v>855572.07684694463</v>
       </c>
       <c r="T31" s="52">
         <f t="shared" si="6"/>
-        <v>244660.2970927218</v>
+        <v>837866.58478670253</v>
       </c>
       <c r="U31" s="52">
         <f t="shared" si="6"/>
-        <v>179370.85415167059</v>
+        <v>819677.45993807341</v>
       </c>
       <c r="V31" s="52">
         <f t="shared" si="6"/>
-        <v>110033.465748274</v>
+        <v>800990.19331740541</v>
       </c>
       <c r="W31" s="52">
         <f t="shared" si="6"/>
-        <v>36397.159263866954</v>
+        <v>781789.84067153779</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8974,83 +8995,83 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38">
         <f t="shared" ref="D36:W36" si="7">D24</f>
-        <v>745500.14045472024</v>
+        <v>1024796.4220768001</v>
       </c>
       <c r="E36" s="38">
         <f t="shared" si="7"/>
-        <v>720562.76780211285</v>
+        <v>1013093.5362411041</v>
       </c>
       <c r="F36" s="38">
         <f t="shared" si="7"/>
-        <v>694079.27804504381</v>
+        <v>1001039.5638303373</v>
       </c>
       <c r="G36" s="38">
         <f t="shared" si="7"/>
-        <v>815953.81192303658</v>
+        <v>1138623.9722472474</v>
       </c>
       <c r="H36" s="38">
         <f t="shared" si="7"/>
-        <v>786084.56690146483</v>
+        <v>1125835.9129166647</v>
       </c>
       <c r="I36" s="38">
         <f t="shared" si="7"/>
-        <v>754363.42868855549</v>
+        <v>1112664.2118061646</v>
       </c>
       <c r="J36" s="38">
         <f t="shared" si="7"/>
-        <v>720675.57990644593</v>
+        <v>1099097.3596623496</v>
       </c>
       <c r="K36" s="38">
         <f t="shared" si="7"/>
-        <v>684899.08449984551</v>
+        <v>1085123.50195422</v>
       </c>
       <c r="L36" s="38">
         <f t="shared" si="7"/>
-        <v>646904.44637803582</v>
+        <v>1070730.4285148466</v>
       </c>
       <c r="M36" s="38">
         <f t="shared" si="7"/>
-        <v>606554.14069267409</v>
+        <v>1055905.562872292</v>
       </c>
       <c r="N36" s="38">
         <f t="shared" si="7"/>
-        <v>563702.1160548199</v>
+        <v>1040635.9512604608</v>
       </c>
       <c r="O36" s="38">
         <f t="shared" si="7"/>
-        <v>518193.26588941854</v>
+        <v>1024908.2513002746</v>
       </c>
       <c r="P36" s="38">
         <f t="shared" si="7"/>
-        <v>469862.86701376247</v>
+        <v>1008708.7203412828</v>
       </c>
       <c r="Q36" s="38">
         <f t="shared" si="7"/>
-        <v>418535.98340781569</v>
+        <v>992023.20345352124</v>
       </c>
       <c r="R36" s="38">
         <f t="shared" si="7"/>
-        <v>364026.83301830012</v>
+        <v>974837.1210591268</v>
       </c>
       <c r="S36" s="38">
         <f t="shared" si="7"/>
-        <v>306138.11530463467</v>
+        <v>957135.45619290054</v>
       </c>
       <c r="T36" s="38">
         <f t="shared" si="7"/>
-        <v>244660.2970927218</v>
+        <v>938902.74138068757</v>
       </c>
       <c r="U36" s="38">
         <f t="shared" si="7"/>
-        <v>179370.85415167059</v>
+        <v>920123.0451241082</v>
       </c>
       <c r="V36" s="38">
         <f t="shared" si="7"/>
-        <v>110033.465748274</v>
+        <v>900779.95797983138</v>
       </c>
       <c r="W36" s="42">
         <f t="shared" si="7"/>
-        <v>36397.159263866954</v>
+        <v>880856.57822122634</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
@@ -9266,83 +9287,83 @@
       <c r="C40" s="49"/>
       <c r="D40" s="50">
         <f>SUM(D36:D39)</f>
-        <v>-248407.9719279065</v>
+        <v>30888.309694173397</v>
       </c>
       <c r="E40" s="50">
         <f t="shared" ref="E40:W40" si="10">SUM(E36:E39)</f>
-        <v>-273345.34458051389</v>
+        <v>19185.423858477385</v>
       </c>
       <c r="F40" s="50">
         <f t="shared" si="10"/>
-        <v>-299828.83433758293</v>
+        <v>7131.4514477105113</v>
       </c>
       <c r="G40" s="50">
         <f t="shared" si="10"/>
-        <v>-171114.08496934478</v>
+        <v>151556.07535486598</v>
       </c>
       <c r="H40" s="50">
         <f t="shared" si="10"/>
-        <v>-187302.8990104259</v>
+        <v>152448.447004774</v>
       </c>
       <c r="I40" s="50">
         <f t="shared" si="10"/>
-        <v>-205343.6062428446</v>
+        <v>152957.1768747645</v>
       </c>
       <c r="J40" s="50">
         <f t="shared" si="10"/>
-        <v>-225351.02404446341</v>
+        <v>153070.75571144023</v>
       </c>
       <c r="K40" s="50">
         <f t="shared" si="10"/>
-        <v>-247447.08847057325</v>
+        <v>152777.32898380118</v>
       </c>
       <c r="L40" s="50">
         <f t="shared" si="10"/>
-        <v>-271761.29561189224</v>
+        <v>152064.68652491854</v>
       </c>
       <c r="M40" s="50">
         <f t="shared" si="10"/>
-        <v>-298431.17031676334</v>
+        <v>150920.25186285458</v>
       </c>
       <c r="N40" s="50">
         <f t="shared" si="10"/>
-        <v>-327602.76397412689</v>
+        <v>149331.07123151398</v>
       </c>
       <c r="O40" s="50">
         <f t="shared" si="10"/>
-        <v>-359431.18315903755</v>
+        <v>147283.80225181847</v>
       </c>
       <c r="P40" s="50">
         <f t="shared" si="10"/>
-        <v>-394081.15105420299</v>
+        <v>144764.70227331738</v>
       </c>
       <c r="Q40" s="50">
         <f t="shared" si="10"/>
-        <v>-431727.60367965914</v>
+        <v>141759.61636604648</v>
       </c>
       <c r="R40" s="50">
         <f t="shared" si="10"/>
-        <v>288784.46262560162</v>
+        <v>899594.75066642836</v>
       </c>
       <c r="S40" s="50">
         <f t="shared" si="10"/>
-        <v>244576.17589242681</v>
+        <v>895573.51678069273</v>
       </c>
       <c r="T40" s="50">
         <f t="shared" si="10"/>
-        <v>196778.7886610046</v>
+        <v>891021.2329489704</v>
       </c>
       <c r="U40" s="50">
         <f t="shared" si="10"/>
-        <v>145169.77670044402</v>
+        <v>885921.96767288167</v>
       </c>
       <c r="V40" s="50">
         <f t="shared" si="10"/>
-        <v>89512.819277538088</v>
+        <v>880259.31150909548</v>
       </c>
       <c r="W40" s="50">
         <f t="shared" si="10"/>
-        <v>29556.94377362169</v>
+        <v>874016.36273098108</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
@@ -9358,79 +9379,79 @@
       </c>
       <c r="E41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!D42&lt;0,Kalkulation!D42,0),0)</f>
-        <v>-248407.9719279065</v>
+        <v>0</v>
       </c>
       <c r="F41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!E42&lt;0,Kalkulation!E42,0),0)</f>
-        <v>-521753.31650842039</v>
+        <v>0</v>
       </c>
       <c r="G41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!F42&lt;0,Kalkulation!F42,0),0)</f>
-        <v>-821582.15084600332</v>
+        <v>0</v>
       </c>
       <c r="H41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!G42&lt;0,Kalkulation!G42,0),0)</f>
-        <v>-992696.2358153481</v>
+        <v>0</v>
       </c>
       <c r="I41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!H42&lt;0,Kalkulation!H42,0),0)</f>
-        <v>-1179999.134825774</v>
+        <v>0</v>
       </c>
       <c r="J41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!I42&lt;0,Kalkulation!I42,0),0)</f>
-        <v>-1385342.7410686186</v>
+        <v>0</v>
       </c>
       <c r="K41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!J42&lt;0,Kalkulation!J42,0),0)</f>
-        <v>-1610693.765113082</v>
+        <v>0</v>
       </c>
       <c r="L41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!K42&lt;0,Kalkulation!K42,0),0)</f>
-        <v>-1858140.8535836553</v>
+        <v>0</v>
       </c>
       <c r="M41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!L42&lt;0,Kalkulation!L42,0),0)</f>
-        <v>-2129902.1491955477</v>
+        <v>0</v>
       </c>
       <c r="N41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!M42&lt;0,Kalkulation!M42,0),0)</f>
-        <v>-2428333.3195123109</v>
+        <v>0</v>
       </c>
       <c r="O41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!N42&lt;0,Kalkulation!N42,0),0)</f>
-        <v>-2755936.0834864378</v>
+        <v>0</v>
       </c>
       <c r="P41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!O42&lt;0,Kalkulation!O42,0),0)</f>
-        <v>-3115367.2666454753</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!P42&lt;0,Kalkulation!P42,0),0)</f>
-        <v>-3509448.4176996783</v>
+        <v>0</v>
       </c>
       <c r="R41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!Q42&lt;0,Kalkulation!Q42,0),0)</f>
-        <v>-3941176.0213793376</v>
+        <v>0</v>
       </c>
       <c r="S41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!R42&lt;0,Kalkulation!R42,0),0)</f>
-        <v>-3652391.5587537359</v>
+        <v>0</v>
       </c>
       <c r="T41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!S42&lt;0,Kalkulation!S42,0),0)</f>
-        <v>-3407815.3828613092</v>
+        <v>0</v>
       </c>
       <c r="U41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!T42&lt;0,Kalkulation!T42,0),0)</f>
-        <v>-3211036.5942003047</v>
+        <v>0</v>
       </c>
       <c r="V41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!U42&lt;0,Kalkulation!U42,0),0)</f>
-        <v>-3065866.8174998607</v>
+        <v>0</v>
       </c>
       <c r="W41" s="58">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!V42&lt;0,Kalkulation!V42,0),0)</f>
-        <v>-2976353.9982223227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9443,83 +9464,83 @@
       <c r="C42" s="45"/>
       <c r="D42" s="46">
         <f>D40-D41</f>
-        <v>-248407.9719279065</v>
+        <v>30888.309694173397</v>
       </c>
       <c r="E42" s="46">
         <f>E40+E41</f>
-        <v>-521753.31650842039</v>
+        <v>19185.423858477385</v>
       </c>
       <c r="F42" s="46">
         <f t="shared" ref="F42:W42" si="11">F40+F41</f>
-        <v>-821582.15084600332</v>
+        <v>7131.4514477105113</v>
       </c>
       <c r="G42" s="46">
         <f t="shared" si="11"/>
-        <v>-992696.2358153481</v>
+        <v>151556.07535486598</v>
       </c>
       <c r="H42" s="46">
         <f t="shared" si="11"/>
-        <v>-1179999.134825774</v>
+        <v>152448.447004774</v>
       </c>
       <c r="I42" s="46">
         <f t="shared" si="11"/>
-        <v>-1385342.7410686186</v>
+        <v>152957.1768747645</v>
       </c>
       <c r="J42" s="46">
         <f t="shared" si="11"/>
-        <v>-1610693.765113082</v>
+        <v>153070.75571144023</v>
       </c>
       <c r="K42" s="46">
         <f t="shared" si="11"/>
-        <v>-1858140.8535836553</v>
+        <v>152777.32898380118</v>
       </c>
       <c r="L42" s="46">
         <f t="shared" si="11"/>
-        <v>-2129902.1491955477</v>
+        <v>152064.68652491854</v>
       </c>
       <c r="M42" s="46">
         <f t="shared" si="11"/>
-        <v>-2428333.3195123109</v>
+        <v>150920.25186285458</v>
       </c>
       <c r="N42" s="46">
         <f t="shared" si="11"/>
-        <v>-2755936.0834864378</v>
+        <v>149331.07123151398</v>
       </c>
       <c r="O42" s="46">
         <f t="shared" si="11"/>
-        <v>-3115367.2666454753</v>
+        <v>147283.80225181847</v>
       </c>
       <c r="P42" s="46">
         <f t="shared" si="11"/>
-        <v>-3509448.4176996783</v>
+        <v>144764.70227331738</v>
       </c>
       <c r="Q42" s="46">
         <f t="shared" si="11"/>
-        <v>-3941176.0213793376</v>
+        <v>141759.61636604648</v>
       </c>
       <c r="R42" s="46">
         <f t="shared" si="11"/>
-        <v>-3652391.5587537359</v>
+        <v>899594.75066642836</v>
       </c>
       <c r="S42" s="46">
         <f t="shared" si="11"/>
-        <v>-3407815.3828613092</v>
+        <v>895573.51678069273</v>
       </c>
       <c r="T42" s="46">
         <f t="shared" si="11"/>
-        <v>-3211036.5942003047</v>
+        <v>891021.2329489704</v>
       </c>
       <c r="U42" s="46">
         <f t="shared" si="11"/>
-        <v>-3065866.8174998607</v>
+        <v>885921.96767288167</v>
       </c>
       <c r="V42" s="46">
         <f t="shared" si="11"/>
-        <v>-2976353.9982223227</v>
+        <v>880259.31150909548</v>
       </c>
       <c r="W42" s="46">
         <f t="shared" si="11"/>
-        <v>-2946797.054448701</v>
+        <v>874016.36273098108</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -9559,7 +9580,7 @@
       <c r="C44" s="142"/>
       <c r="D44" s="143">
         <f>IF(D42&gt;24500,D42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>6388.3096941733966</v>
       </c>
       <c r="E44" s="143">
         <f>IF(E42&gt;24500,E42-Parameters!$B$61,0)</f>
@@ -9571,71 +9592,71 @@
       </c>
       <c r="G44" s="143">
         <f>IF(G42&gt;24500,G42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>127056.07535486598</v>
       </c>
       <c r="H44" s="143">
         <f>IF(H42&gt;24500,H42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>127948.447004774</v>
       </c>
       <c r="I44" s="143">
         <f>IF(I42&gt;24500,I42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>128457.1768747645</v>
       </c>
       <c r="J44" s="143">
         <f>IF(J42&gt;24500,J42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>128570.75571144023</v>
       </c>
       <c r="K44" s="143">
         <f>IF(K42&gt;24500,K42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>128277.32898380118</v>
       </c>
       <c r="L44" s="143">
         <f>IF(L42&gt;24500,L42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>127564.68652491854</v>
       </c>
       <c r="M44" s="143">
         <f>IF(M42&gt;24500,M42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>126420.25186285458</v>
       </c>
       <c r="N44" s="143">
         <f>IF(N42&gt;24500,N42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>124831.07123151398</v>
       </c>
       <c r="O44" s="143">
         <f>IF(O42&gt;24500,O42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>122783.80225181847</v>
       </c>
       <c r="P44" s="143">
         <f>IF(P42&gt;24500,P42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>120264.70227331738</v>
       </c>
       <c r="Q44" s="143">
         <f>IF(Q42&gt;24500,Q42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>117259.61636604648</v>
       </c>
       <c r="R44" s="143">
         <f>IF(R42&gt;24500,R42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>875094.75066642836</v>
       </c>
       <c r="S44" s="143">
         <f>IF(S42&gt;24500,S42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>871073.51678069273</v>
       </c>
       <c r="T44" s="143">
         <f>IF(T42&gt;24500,T42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>866521.2329489704</v>
       </c>
       <c r="U44" s="143">
         <f>IF(U42&gt;24500,U42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>861421.96767288167</v>
       </c>
       <c r="V44" s="143">
         <f>IF(V42&gt;24500,V42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>855759.31150909548</v>
       </c>
       <c r="W44" s="143">
         <f>IF(W42&gt;24500,W42-Parameters!$B$61,0)</f>
-        <v>0</v>
+        <v>849516.36273098108</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
@@ -9648,7 +9669,7 @@
       <c r="C45" s="45"/>
       <c r="D45" s="46">
         <f>D44*0.7</f>
-        <v>0</v>
+        <v>4471.8167859213772</v>
       </c>
       <c r="E45" s="46">
         <f t="shared" ref="E45:W45" si="12">E44*0.7</f>
@@ -9660,71 +9681,71 @@
       </c>
       <c r="G45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>88939.252748406187</v>
       </c>
       <c r="H45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>89563.912903341799</v>
       </c>
       <c r="I45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>89920.023812335145</v>
       </c>
       <c r="J45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>89999.528998008158</v>
       </c>
       <c r="K45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>89794.130288660817</v>
       </c>
       <c r="L45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>89295.280567442969</v>
       </c>
       <c r="M45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>88494.176303998203</v>
       </c>
       <c r="N45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>87381.749862059776</v>
       </c>
       <c r="O45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>85948.66157627292</v>
       </c>
       <c r="P45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>84185.291591322166</v>
       </c>
       <c r="Q45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>82081.731456232534</v>
       </c>
       <c r="R45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>612566.32546649978</v>
       </c>
       <c r="S45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>609751.46174648486</v>
       </c>
       <c r="T45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>606564.8630642792</v>
       </c>
       <c r="U45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>602995.37737101712</v>
       </c>
       <c r="V45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>599031.51805636683</v>
       </c>
       <c r="W45" s="46">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>594661.45391168667</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
@@ -9737,7 +9758,7 @@
       <c r="C46" s="45"/>
       <c r="D46" s="46">
         <f>IF(D45=0,0,IF(D45&lt;=65000,120,IF(D45&lt;=80000,200,IF(D45&lt;=105000,300,400))))</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E46" s="46">
         <f t="shared" ref="E46:W46" si="13">IF(E45=0,0,IF(E45&lt;=65000,120,IF(E45&lt;=80000,200,IF(E45&lt;=105000,300,400))))</f>
@@ -9749,71 +9770,71 @@
       </c>
       <c r="G46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="U46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="V46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="W46" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
@@ -9826,7 +9847,7 @@
       <c r="C47" s="45"/>
       <c r="D47" s="46">
         <f>D45*0.035*3.57</f>
-        <v>0</v>
+        <v>558.75350740087606</v>
       </c>
       <c r="E47" s="46">
         <f t="shared" ref="E47:W47" si="14">E45*0.035*3.57</f>
@@ -9838,71 +9859,71 @@
       </c>
       <c r="G47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>11112.959630913352</v>
       </c>
       <c r="H47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>11191.010917272559</v>
       </c>
       <c r="I47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>11235.506975351276</v>
       </c>
       <c r="J47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>11245.441148301119</v>
       </c>
       <c r="K47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>11219.77657956817</v>
       </c>
       <c r="L47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>11157.445306901998</v>
       </c>
       <c r="M47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>11057.347329184577</v>
       </c>
       <c r="N47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10918.349645264369</v>
       </c>
       <c r="O47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10739.285263955302</v>
       </c>
       <c r="P47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10518.952184335705</v>
       </c>
       <c r="Q47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10256.112345456255</v>
       </c>
       <c r="R47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>76540.162367039156</v>
       </c>
       <c r="S47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>76188.44514522329</v>
       </c>
       <c r="T47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>75790.279639881686</v>
       </c>
       <c r="U47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>75344.272402508592</v>
       </c>
       <c r="V47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>74848.988181143039</v>
       </c>
       <c r="W47" s="46">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>74302.948666265249</v>
       </c>
     </row>
     <row r="48" spans="1:23" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9915,7 +9936,7 @@
       <c r="C48" s="43"/>
       <c r="D48" s="44">
         <f>D46+D47</f>
-        <v>0</v>
+        <v>678.75350740087606</v>
       </c>
       <c r="E48" s="44">
         <f t="shared" ref="E48:W48" si="15">E46+E47</f>
@@ -9927,71 +9948,71 @@
       </c>
       <c r="G48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>11412.959630913352</v>
       </c>
       <c r="H48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>11491.010917272559</v>
       </c>
       <c r="I48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>11535.506975351276</v>
       </c>
       <c r="J48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>11545.441148301119</v>
       </c>
       <c r="K48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>11519.77657956817</v>
       </c>
       <c r="L48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>11457.445306901998</v>
       </c>
       <c r="M48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>11357.347329184577</v>
       </c>
       <c r="N48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>11218.349645264369</v>
       </c>
       <c r="O48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>11039.285263955302</v>
       </c>
       <c r="P48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10818.952184335705</v>
       </c>
       <c r="Q48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10556.112345456255</v>
       </c>
       <c r="R48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>76940.162367039156</v>
       </c>
       <c r="S48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>76588.44514522329</v>
       </c>
       <c r="T48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>76190.279639881686</v>
       </c>
       <c r="U48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>75744.272402508592</v>
       </c>
       <c r="V48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>75248.988181143039</v>
       </c>
       <c r="W48" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>74702.948666265249</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
@@ -10004,7 +10025,7 @@
       <c r="C49" s="142"/>
       <c r="D49" s="143">
         <f>D44*0.3</f>
-        <v>0</v>
+        <v>1916.4929082520189</v>
       </c>
       <c r="E49" s="143">
         <f t="shared" ref="E49:W49" si="16">E44*0.3</f>
@@ -10016,71 +10037,71 @@
       </c>
       <c r="G49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>38116.822606459791</v>
       </c>
       <c r="H49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>38384.534101432197</v>
       </c>
       <c r="I49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>38537.153062429345</v>
       </c>
       <c r="J49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>38571.226713432065</v>
       </c>
       <c r="K49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>38483.198695140352</v>
       </c>
       <c r="L49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>38269.405957475559</v>
       </c>
       <c r="M49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>37926.07555885637</v>
       </c>
       <c r="N49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>37449.321369454192</v>
       </c>
       <c r="O49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>36835.140675545539</v>
       </c>
       <c r="P49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>36079.410681995214</v>
       </c>
       <c r="Q49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>35177.88490981394</v>
       </c>
       <c r="R49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>262528.42519992852</v>
       </c>
       <c r="S49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>261322.05503420782</v>
       </c>
       <c r="T49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>259956.36988469111</v>
       </c>
       <c r="U49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>258426.59030186449</v>
       </c>
       <c r="V49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>256727.79345272863</v>
       </c>
       <c r="W49" s="143">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>254854.9088192943</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
@@ -10093,7 +10114,7 @@
       <c r="C50" s="45"/>
       <c r="D50" s="46">
         <f>IF(D49=0,0,IF(D49&lt;=75000,135,IF(D49&lt;=500000,280,575)))</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="E50" s="46">
         <f t="shared" ref="E50:W50" si="17">IF(E49=0,0,IF(E49&lt;=75000,135,IF(E49&lt;=500000,280,575)))</f>
@@ -10105,71 +10126,71 @@
       </c>
       <c r="G50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="H50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="I50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="K50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="L50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="M50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="N50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="O50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="P50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="Q50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="R50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="S50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="T50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="U50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="V50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="W50" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
@@ -10182,7 +10203,7 @@
       <c r="C51" s="45"/>
       <c r="D51" s="46">
         <f>D49*0.035*2.7</f>
-        <v>0</v>
+        <v>181.1085798298158</v>
       </c>
       <c r="E51" s="46">
         <f t="shared" ref="E51:W51" si="18">E49*0.035*2.7</f>
@@ -10194,71 +10215,71 @@
       </c>
       <c r="G51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3602.0397363104507</v>
       </c>
       <c r="H51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3627.338472585343</v>
       </c>
       <c r="I51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3641.7609643995738</v>
       </c>
       <c r="J51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3644.9809244193307</v>
       </c>
       <c r="K51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3636.662276690764</v>
       </c>
       <c r="L51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3616.4588629814407</v>
       </c>
       <c r="M51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3584.0141403119278</v>
       </c>
       <c r="N51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3538.9608694134213</v>
       </c>
       <c r="O51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3480.9207938390541</v>
       </c>
       <c r="P51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3409.5043094485482</v>
       </c>
       <c r="Q51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3324.3101239774178</v>
       </c>
       <c r="R51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>24808.936181393252</v>
       </c>
       <c r="S51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>24694.934200732641</v>
       </c>
       <c r="T51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>24565.876954103314</v>
       </c>
       <c r="U51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>24421.312783526198</v>
       </c>
       <c r="V51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>24260.776481282861</v>
       </c>
       <c r="W51" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>24083.788883423313</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10271,7 +10292,7 @@
       <c r="C52" s="43"/>
       <c r="D52" s="44">
         <f>D50+D51</f>
-        <v>0</v>
+        <v>316.10857982981577</v>
       </c>
       <c r="E52" s="44">
         <f t="shared" ref="E52:W52" si="19">E50+E51</f>
@@ -10283,71 +10304,71 @@
       </c>
       <c r="G52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3737.0397363104507</v>
       </c>
       <c r="H52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3762.338472585343</v>
       </c>
       <c r="I52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3776.7609643995738</v>
       </c>
       <c r="J52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3779.9809244193307</v>
       </c>
       <c r="K52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3771.662276690764</v>
       </c>
       <c r="L52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3751.4588629814407</v>
       </c>
       <c r="M52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3719.0141403119278</v>
       </c>
       <c r="N52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3673.9608694134213</v>
       </c>
       <c r="O52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3615.9207938390541</v>
       </c>
       <c r="P52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3544.5043094485482</v>
       </c>
       <c r="Q52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3459.3101239774178</v>
       </c>
       <c r="R52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>25088.936181393252</v>
       </c>
       <c r="S52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>24974.934200732641</v>
       </c>
       <c r="T52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>24845.876954103314</v>
       </c>
       <c r="U52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>24701.312783526198</v>
       </c>
       <c r="V52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>24540.776481282861</v>
       </c>
       <c r="W52" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>24363.788883423313</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
@@ -10385,7 +10406,7 @@
       <c r="C54" s="43"/>
       <c r="D54" s="44">
         <f>D48+D52</f>
-        <v>0</v>
+        <v>994.86208723069183</v>
       </c>
       <c r="E54" s="44">
         <f t="shared" ref="E54:W54" si="20">E48+E52</f>
@@ -10397,71 +10418,71 @@
       </c>
       <c r="G54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>15149.999367223803</v>
       </c>
       <c r="H54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>15253.349389857902</v>
       </c>
       <c r="I54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>15312.267939750851</v>
       </c>
       <c r="J54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>15325.42207272045</v>
       </c>
       <c r="K54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>15291.438856258934</v>
       </c>
       <c r="L54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>15208.904169883439</v>
       </c>
       <c r="M54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>15076.361469496504</v>
       </c>
       <c r="N54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>14892.310514677789</v>
       </c>
       <c r="O54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>14655.206057794356</v>
       </c>
       <c r="P54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>14363.456493784253</v>
       </c>
       <c r="Q54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>14015.422469433674</v>
       </c>
       <c r="R54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>102029.0985484324</v>
       </c>
       <c r="S54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>101563.37934595594</v>
       </c>
       <c r="T54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>101036.156593985</v>
       </c>
       <c r="U54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>100445.58518603479</v>
       </c>
       <c r="V54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>99789.764662425907</v>
       </c>
       <c r="W54" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>99066.737549688565</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -11702,83 +11723,83 @@
       </c>
       <c r="D78" s="23">
         <f>D31-D61</f>
-        <v>512932.81378637918</v>
+        <v>791234.23332122841</v>
       </c>
       <c r="E78" s="23">
         <f t="shared" ref="E78:W78" si="27">E31-E61</f>
-        <v>487995.44113377179</v>
+        <v>780526.20957276307</v>
       </c>
       <c r="F78" s="23">
         <f t="shared" si="27"/>
-        <v>461511.95137670275</v>
+        <v>768472.23716199619</v>
       </c>
       <c r="G78" s="23">
         <f t="shared" si="27"/>
-        <v>134212.33472858591</v>
+        <v>441732.49568557285</v>
       </c>
       <c r="H78" s="23">
         <f t="shared" si="27"/>
-        <v>118023.52068750479</v>
+        <v>442521.51731284685</v>
       </c>
       <c r="I78" s="23">
         <f t="shared" si="27"/>
-        <v>99982.813455086201</v>
+        <v>442971.3286329445</v>
       </c>
       <c r="J78" s="23">
         <f t="shared" si="27"/>
-        <v>79975.395653467276</v>
+        <v>443071.75333665044</v>
       </c>
       <c r="K78" s="23">
         <f t="shared" si="27"/>
-        <v>57879.331227357499</v>
+        <v>442812.309825473</v>
       </c>
       <c r="L78" s="23">
         <f t="shared" si="27"/>
-        <v>33565.124086038442</v>
+        <v>442182.20205296588</v>
       </c>
       <c r="M78" s="23">
         <f t="shared" si="27"/>
-        <v>6895.2493811673485</v>
+        <v>441170.31009128876</v>
       </c>
       <c r="N78" s="23">
         <f t="shared" si="27"/>
-        <v>-22276.344276196091</v>
+        <v>439765.180414767</v>
       </c>
       <c r="O78" s="23">
         <f t="shared" si="27"/>
-        <v>-54104.763461106806</v>
+        <v>437955.01589195488</v>
       </c>
       <c r="P78" s="23">
         <f t="shared" si="27"/>
-        <v>-88754.731356272241</v>
+        <v>435727.66547746386</v>
       </c>
       <c r="Q78" s="23">
         <f t="shared" si="27"/>
-        <v>-126401.18398172839</v>
+        <v>433070.61359454354</v>
       </c>
       <c r="R78" s="23">
         <f t="shared" si="27"/>
-        <v>-167229.90339075332</v>
+        <v>341551.2861016409</v>
       </c>
       <c r="S78" s="23">
         <f t="shared" si="27"/>
-        <v>-211438.19012392813</v>
+        <v>337995.77141838183</v>
       </c>
       <c r="T78" s="23">
         <f t="shared" si="27"/>
-        <v>-259235.57735535037</v>
+        <v>333970.71033863036</v>
       </c>
       <c r="U78" s="23">
         <f t="shared" si="27"/>
-        <v>-310844.58931591088</v>
+        <v>329462.01647049194</v>
       </c>
       <c r="V78" s="23">
         <f t="shared" si="27"/>
-        <v>-366501.54673881683</v>
+        <v>324455.18083031458</v>
       </c>
       <c r="W78" s="23">
         <f t="shared" si="27"/>
-        <v>-426457.42224273324</v>
+        <v>318935.2591649376</v>
       </c>
       <c r="Y78" s="23"/>
     </row>
@@ -11793,83 +11814,83 @@
       <c r="B81" s="83"/>
       <c r="D81" s="24">
         <f>D78</f>
-        <v>512932.81378637918</v>
+        <v>791234.23332122841</v>
       </c>
       <c r="E81" s="24">
         <f t="shared" ref="E81:W81" si="28">E78</f>
-        <v>487995.44113377179</v>
+        <v>780526.20957276307</v>
       </c>
       <c r="F81" s="24">
         <f t="shared" si="28"/>
-        <v>461511.95137670275</v>
+        <v>768472.23716199619</v>
       </c>
       <c r="G81" s="24">
         <f t="shared" si="28"/>
-        <v>134212.33472858591</v>
+        <v>441732.49568557285</v>
       </c>
       <c r="H81" s="24">
         <f t="shared" si="28"/>
-        <v>118023.52068750479</v>
+        <v>442521.51731284685</v>
       </c>
       <c r="I81" s="24">
         <f t="shared" si="28"/>
-        <v>99982.813455086201</v>
+        <v>442971.3286329445</v>
       </c>
       <c r="J81" s="24">
         <f t="shared" si="28"/>
-        <v>79975.395653467276</v>
+        <v>443071.75333665044</v>
       </c>
       <c r="K81" s="24">
         <f t="shared" si="28"/>
-        <v>57879.331227357499</v>
+        <v>442812.309825473</v>
       </c>
       <c r="L81" s="24">
         <f t="shared" si="28"/>
-        <v>33565.124086038442</v>
+        <v>442182.20205296588</v>
       </c>
       <c r="M81" s="24">
         <f t="shared" si="28"/>
-        <v>6895.2493811673485</v>
+        <v>441170.31009128876</v>
       </c>
       <c r="N81" s="24">
         <f t="shared" si="28"/>
-        <v>-22276.344276196091</v>
+        <v>439765.180414767</v>
       </c>
       <c r="O81" s="24">
         <f t="shared" si="28"/>
-        <v>-54104.763461106806</v>
+        <v>437955.01589195488</v>
       </c>
       <c r="P81" s="24">
         <f t="shared" si="28"/>
-        <v>-88754.731356272241</v>
+        <v>435727.66547746386</v>
       </c>
       <c r="Q81" s="24">
         <f t="shared" si="28"/>
-        <v>-126401.18398172839</v>
+        <v>433070.61359454354</v>
       </c>
       <c r="R81" s="24">
         <f t="shared" si="28"/>
-        <v>-167229.90339075332</v>
+        <v>341551.2861016409</v>
       </c>
       <c r="S81" s="24">
         <f t="shared" si="28"/>
-        <v>-211438.19012392813</v>
+        <v>337995.77141838183</v>
       </c>
       <c r="T81" s="24">
         <f t="shared" si="28"/>
-        <v>-259235.57735535037</v>
+        <v>333970.71033863036</v>
       </c>
       <c r="U81" s="24">
         <f t="shared" si="28"/>
-        <v>-310844.58931591088</v>
+        <v>329462.01647049194</v>
       </c>
       <c r="V81" s="24">
         <f t="shared" si="28"/>
-        <v>-366501.54673881683</v>
+        <v>324455.18083031458</v>
       </c>
       <c r="W81" s="24">
         <f t="shared" si="28"/>
-        <v>-426457.42224273324</v>
+        <v>318935.2591649376</v>
       </c>
     </row>
     <row r="82" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -11902,83 +11923,83 @@
       <c r="B84" s="83"/>
       <c r="D84" s="19">
         <f>IF(D61&gt;0.01,D31/D61,"-")</f>
-        <v>3.2055239707762606</v>
+        <v>4.40217280155432</v>
       </c>
       <c r="E84" s="19">
         <f t="shared" ref="E84:W84" si="29">IF(E61&gt;0.01,E31/E61,"-")</f>
-        <v>3.0982975043166361</v>
+        <v>4.3561301183371031</v>
       </c>
       <c r="F84" s="19">
         <f t="shared" si="29"/>
-        <v>2.984422996936515</v>
+        <v>4.3043000844993884</v>
       </c>
       <c r="G84" s="19">
         <f t="shared" si="29"/>
-        <v>1.196866905151357</v>
+        <v>1.6479472211422734</v>
       </c>
       <c r="H84" s="19">
         <f t="shared" si="29"/>
-        <v>1.1766657723218088</v>
+        <v>1.6623968270874461</v>
       </c>
       <c r="I84" s="19">
         <f t="shared" si="29"/>
-        <v>1.1527899988593251</v>
+        <v>1.676932229227025</v>
       </c>
       <c r="J84" s="19">
         <f t="shared" si="29"/>
-        <v>1.1248249924365392</v>
+        <v>1.6915430402962157</v>
       </c>
       <c r="K84" s="19">
         <f t="shared" si="29"/>
-        <v>1.092308624928128</v>
+        <v>1.7062174796158889</v>
       </c>
       <c r="L84" s="19">
         <f t="shared" si="29"/>
-        <v>1.0547252114222978</v>
+        <v>1.72094220276073</v>
       </c>
       <c r="M84" s="19">
         <f t="shared" si="29"/>
-        <v>1.0114986194336031</v>
+        <v>1.7357021074538068</v>
       </c>
       <c r="N84" s="19">
         <f t="shared" si="29"/>
-        <v>0.96198436327572123</v>
+        <v>1.7504801117883175</v>
       </c>
       <c r="O84" s="19">
         <f t="shared" si="29"/>
-        <v>0.90546051063200794</v>
+        <v>1.7652569001311604</v>
       </c>
       <c r="P84" s="19">
         <f t="shared" si="29"/>
-        <v>0.84111719427521492</v>
+        <v>1.7800106311524271</v>
       </c>
       <c r="Q84" s="19">
         <f t="shared" si="29"/>
-        <v>0.7680444800870565</v>
+        <v>1.7947166013085807</v>
       </c>
       <c r="R84" s="19">
         <f t="shared" si="29"/>
-        <v>0.68521829102607223</v>
+        <v>1.6429119156404552</v>
       </c>
       <c r="S84" s="19">
         <f t="shared" si="29"/>
-        <v>0.59148402292324143</v>
+        <v>1.6530356352741362</v>
       </c>
       <c r="T84" s="19">
         <f t="shared" si="29"/>
-        <v>0.48553740861780903</v>
+        <v>1.6627772269507775</v>
       </c>
       <c r="U84" s="19">
         <f t="shared" si="29"/>
-        <v>0.36590208762676935</v>
+        <v>1.6720759634580538</v>
       </c>
       <c r="V84" s="19">
         <f t="shared" si="29"/>
-        <v>0.23090321354142843</v>
+        <v>1.6808632573227849</v>
       </c>
       <c r="W84" s="19">
         <f t="shared" si="29"/>
-        <v>7.8636273071757287E-2</v>
+        <v>1.6890614718056749</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
@@ -11988,7 +12009,7 @@
       <c r="B85" s="83"/>
       <c r="C85" s="19">
         <f>AVERAGE(G84:W84)</f>
-        <v>0.80729223350765511</v>
+        <v>1.7019335777891615</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
@@ -12000,83 +12021,83 @@
       </c>
       <c r="D88" s="159">
         <f>D21*-1</f>
-        <v>552215.68794527999</v>
+        <v>540096.19452319993</v>
       </c>
       <c r="E88" s="159">
         <f t="shared" ref="E88:W88" si="30">E21*-1</f>
-        <v>577153.06059788738</v>
+        <v>551799.08035889594</v>
       </c>
       <c r="F88" s="159">
         <f t="shared" si="30"/>
-        <v>603636.55035495642</v>
+        <v>563853.05276966281</v>
       </c>
       <c r="G88" s="159">
         <f t="shared" si="30"/>
-        <v>481762.0164769637</v>
+        <v>426268.64435275277</v>
       </c>
       <c r="H88" s="159">
         <f t="shared" si="30"/>
-        <v>511631.2614985354</v>
+        <v>439056.70368333533</v>
       </c>
       <c r="I88" s="159">
         <f t="shared" si="30"/>
-        <v>543352.39971144474</v>
+        <v>452228.40479383542</v>
       </c>
       <c r="J88" s="159">
         <f t="shared" si="30"/>
-        <v>577040.2484935543</v>
+        <v>465795.2569376505</v>
       </c>
       <c r="K88" s="159">
         <f t="shared" si="30"/>
-        <v>612816.74390015472</v>
+        <v>479769.11464578006</v>
       </c>
       <c r="L88" s="159">
         <f t="shared" si="30"/>
-        <v>650811.38202196441</v>
+        <v>494162.18808515347</v>
       </c>
       <c r="M88" s="159">
         <f t="shared" si="30"/>
-        <v>691161.68770732614</v>
+        <v>508987.05372770806</v>
       </c>
       <c r="N88" s="159">
         <f t="shared" si="30"/>
-        <v>734013.71234518033</v>
+        <v>524256.66533953929</v>
       </c>
       <c r="O88" s="159">
         <f t="shared" si="30"/>
-        <v>779522.56251058169</v>
+        <v>539984.36529972544</v>
       </c>
       <c r="P88" s="159">
         <f t="shared" si="30"/>
-        <v>827852.96138623776</v>
+        <v>556183.89625871729</v>
       </c>
       <c r="Q88" s="159">
         <f t="shared" si="30"/>
-        <v>879179.84499218455</v>
+        <v>572869.41314647882</v>
       </c>
       <c r="R88" s="159">
         <f t="shared" si="30"/>
-        <v>933688.99538170011</v>
+        <v>590055.49554087326</v>
       </c>
       <c r="S88" s="159">
         <f t="shared" si="30"/>
-        <v>991577.71309536556</v>
+        <v>607757.16040709952</v>
       </c>
       <c r="T88" s="159">
         <f t="shared" si="30"/>
-        <v>1053055.5313072784</v>
+        <v>625989.8752193125</v>
       </c>
       <c r="U88" s="159">
         <f t="shared" si="30"/>
-        <v>1118344.9742483296</v>
+        <v>644769.57147589186</v>
       </c>
       <c r="V88" s="159">
         <f t="shared" si="30"/>
-        <v>1187682.3626517262</v>
+        <v>664112.65862016869</v>
       </c>
       <c r="W88" s="159">
         <f t="shared" si="30"/>
-        <v>1261318.6691361333</v>
+        <v>684036.03837877372</v>
       </c>
     </row>
   </sheetData>
@@ -12094,8 +12115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12124,7 +12145,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="155" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" s="115"/>
       <c r="C3" s="115"/>
@@ -12141,13 +12162,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="186" t="s">
         <v>84</v>
@@ -12158,10 +12179,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="187" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="187"/>
       <c r="F7" t="s">
@@ -12176,7 +12197,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8">
@@ -12187,7 +12208,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>85</v>
@@ -12196,7 +12217,7 @@
         <v>2.1</v>
       </c>
       <c r="F9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="124">
@@ -12205,14 +12226,14 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="122">
         <v>45658</v>
       </c>
       <c r="F10" s="171" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G10" s="181"/>
       <c r="H10" s="182">
@@ -12221,7 +12242,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>48</v>
@@ -12234,7 +12255,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>55</v>
@@ -12255,7 +12276,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="155" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="115"/>
       <c r="C14" s="115"/>
@@ -12272,7 +12293,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>55</v>
@@ -12284,7 +12305,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>15</v>
@@ -12296,7 +12317,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>86</v>
@@ -12318,7 +12339,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>20</v>
@@ -12352,7 +12373,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>90</v>
@@ -12374,7 +12395,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>90</v>
@@ -12387,7 +12408,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>90</v>
@@ -12399,7 +12420,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>90</v>
@@ -12412,7 +12433,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>90</v>
@@ -12424,7 +12445,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B30" s="155"/>
       <c r="C30" s="155"/>
@@ -12443,7 +12464,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>48</v>
@@ -12465,7 +12486,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>48</v>
@@ -12486,7 +12507,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -12507,7 +12528,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>48</v>
@@ -12528,7 +12549,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>48</v>
@@ -12547,12 +12568,12 @@
         <v>99</v>
       </c>
       <c r="H37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>48</v>
@@ -12573,7 +12594,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>48</v>
@@ -12594,7 +12615,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>48</v>
@@ -12615,7 +12636,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>48</v>
@@ -12636,7 +12657,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>48</v>
@@ -12657,7 +12678,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>48</v>
@@ -12678,7 +12699,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>48</v>
@@ -12699,7 +12720,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>48</v>
@@ -12720,7 +12741,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>48</v>
@@ -12741,7 +12762,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>48</v>
@@ -12762,7 +12783,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>48</v>
@@ -12783,7 +12804,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>48</v>
@@ -12804,7 +12825,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>48</v>
@@ -12825,7 +12846,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>48</v>
@@ -12846,7 +12867,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>48</v>
@@ -12858,7 +12879,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>48</v>
@@ -12879,7 +12900,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>48</v>
@@ -12900,7 +12921,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>48</v>
@@ -12916,14 +12937,14 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="23"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>48</v>
@@ -12934,7 +12955,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>48</v>
@@ -12962,7 +12983,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>48</v>
@@ -12977,7 +12998,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>119</v>
@@ -12989,7 +13010,7 @@
     </row>
     <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="153" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B67" s="152" t="s">
         <v>48</v>
@@ -13002,7 +13023,7 @@
     <row r="68" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="155" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B69" s="155"/>
       <c r="C69" s="155"/>
@@ -13016,7 +13037,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B71" s="121">
         <v>0.2727</v>
@@ -13031,7 +13052,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B72" s="121">
         <v>0.72729999999999995</v>
@@ -13051,12 +13072,12 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>48</v>
@@ -13068,7 +13089,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>20</v>
@@ -13079,7 +13100,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="123">
@@ -13088,7 +13109,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="123">
@@ -13097,7 +13118,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>20</v>
@@ -13108,7 +13129,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C82" s="122">
         <v>42005</v>
@@ -13116,7 +13137,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="155" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B84" s="155"/>
       <c r="C84" s="155"/>
@@ -13130,7 +13151,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>89</v>
@@ -13148,7 +13169,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>89</v>
@@ -13167,7 +13188,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>89</v>
@@ -13186,7 +13207,7 @@
     </row>
     <row r="89" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>89</v>
@@ -13211,7 +13232,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>89</v>
@@ -13225,7 +13246,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>89</v>
@@ -13250,7 +13271,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>89</v>
@@ -13282,7 +13303,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>89</v>
@@ -13314,7 +13335,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>89</v>
@@ -13346,7 +13367,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>89</v>
@@ -13358,7 +13379,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>89</v>
@@ -13391,7 +13412,7 @@
     </row>
     <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="149" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B103" s="150"/>
       <c r="C103" s="151">
@@ -13413,7 +13434,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="155" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B107" s="155"/>
       <c r="C107" s="155"/>
@@ -13425,12 +13446,12 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="132" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B110" s="133" t="s">
         <v>48</v>
@@ -13441,7 +13462,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B111" s="134"/>
       <c r="C111" s="124">
@@ -13450,7 +13471,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="132" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B112" s="132"/>
       <c r="C112" s="135">
@@ -13463,7 +13484,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="132" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B113" s="132"/>
       <c r="C113" s="136">
@@ -13476,7 +13497,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B114" s="132"/>
       <c r="C114" s="135">
@@ -13489,7 +13510,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="132" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B115" s="132"/>
       <c r="C115" s="136">
@@ -13527,8 +13548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A41:M187"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13926,7 +13947,7 @@
       </c>
       <c r="B182" s="165">
         <f>Parameters!B18</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>

--- a/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
+++ b/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Wind-Farm-Project-Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F44B10A-CDCA-4989-8A6A-8FDB392F6248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB42D9C7-2E8E-471B-AC8F-2355A715FADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="271">
   <si>
     <t>Input - Parameter</t>
   </si>
@@ -923,10 +923,19 @@
     <t>Share of management in Gujarat</t>
   </si>
   <si>
-    <t>3.61 Rs/kwh</t>
-  </si>
-  <si>
     <t>India Inflation Rate 1960-2024 | MacroTrends</t>
+  </si>
+  <si>
+    <t>Ref. PDF</t>
+  </si>
+  <si>
+    <t>2.84 Rs/kwh</t>
+  </si>
+  <si>
+    <t>https://www.mercomindia.com/gujarat-tariff-wind-projects-2027</t>
+  </si>
+  <si>
+    <t>GERC Updates Regulations for Small Wind Projects - Asia Pacific | Energetica India Magazine</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1609,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1826,7 +1835,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1884,6 +1892,7 @@
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1896,7 +1905,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2048,64 +2066,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1564892.6166000001</c:v>
+                  <c:v>1221379.6032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,64 +2380,64 @@
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>540096.19452319993</c:v>
+                  <c:v>258150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>551799.08035889594</c:v>
+                  <c:v>261394.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563853.05276966281</c:v>
+                  <c:v>264736.33500000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>426268.64435275277</c:v>
+                  <c:v>118178.42505000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>439056.70368333533</c:v>
+                  <c:v>121723.77780150001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>452228.40479383542</c:v>
+                  <c:v>125375.49113554502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>465795.2569376505</c:v>
+                  <c:v>129136.75586961137</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>479769.11464578006</c:v>
+                  <c:v>133010.85854569971</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>494162.18808515347</c:v>
+                  <c:v>137001.1843020707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>508987.05372770806</c:v>
+                  <c:v>141111.21983113282</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>524256.66533953929</c:v>
+                  <c:v>145344.55642606682</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>539984.36529972544</c:v>
+                  <c:v>149704.89311884882</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>556183.89625871729</c:v>
+                  <c:v>154196.0399124143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>572869.41314647882</c:v>
+                  <c:v>158821.92110978675</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>590055.49554087326</c:v>
+                  <c:v>163586.57874308035</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>607757.16040709952</c:v>
+                  <c:v>168494.17610537278</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>625989.8752193125</c:v>
+                  <c:v>173549.00138853397</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>644769.57147589186</c:v>
+                  <c:v>178755.47143018997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>664112.65862016869</c:v>
+                  <c:v>184118.1355730957</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>684036.03837877372</c:v>
+                  <c:v>189641.67964028858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2843,55 +2861,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="3" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="#,##0">
-                  <c:v>456014.36601635494</c:v>
+                  <c:v>419583.85813495715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2993,64 +3011,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>232567.32666834103</c:v>
+                  <c:v>213987.76764882813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232567.32666834103</c:v>
+                  <c:v>213987.76764882813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>232567.32666834103</c:v>
+                  <c:v>213987.76764882813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225727.11117809571</c:v>
+                  <c:v>207694.00977680378</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>212046.68019760505</c:v>
+                  <c:v>195106.49403275506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>198366.24921711438</c:v>
+                  <c:v>182518.97828870636</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>184685.81823662372</c:v>
+                  <c:v>169931.46254465764</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>171005.38725613308</c:v>
+                  <c:v>157343.94680060894</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>157324.95627564241</c:v>
+                  <c:v>144756.43105656022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>143644.52529515175</c:v>
+                  <c:v>132168.91531251153</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>129964.09431466108</c:v>
+                  <c:v>119581.3995684628</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>116283.66333417043</c:v>
+                  <c:v>106993.88382441409</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>102603.23235367978</c:v>
+                  <c:v>94406.368080365384</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>88922.801373189141</c:v>
+                  <c:v>81818.852336316675</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75242.370392698489</c:v>
+                  <c:v>69231.336592267966</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61561.939412207852</c:v>
+                  <c:v>56643.820848219249</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47881.508431717208</c:v>
+                  <c:v>44056.30510417054</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34201.077451226556</c:v>
+                  <c:v>31468.789360121831</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20520.646470735912</c:v>
+                  <c:v>18881.273616073115</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6840.2154902452648</c:v>
+                  <c:v>6293.7578720244028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3291,55 +3309,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="3" formatCode="#,##0">
-                  <c:v>356235.23035392363</c:v>
+                  <c:v>327775.97263269941</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0">
-                  <c:v>366922.28726454137</c:v>
+                  <c:v>337609.25181168038</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0">
-                  <c:v>377929.95588247763</c:v>
+                  <c:v>347737.52936603077</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0">
-                  <c:v>389267.85455895192</c:v>
+                  <c:v>358169.65524701169</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="#,##0">
-                  <c:v>400945.89019572048</c:v>
+                  <c:v>368914.74490442203</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="#,##0">
-                  <c:v>412974.26690159214</c:v>
+                  <c:v>379982.18725155469</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>425363.49490863993</c:v>
+                  <c:v>391381.65286910132</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
-                  <c:v>438124.3997558991</c:v>
+                  <c:v>403123.10245517438</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>451268.13174857607</c:v>
+                  <c:v>415216.79552882962</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="#,##0">
-                  <c:v>464806.17570103332</c:v>
+                  <c:v>427673.29939469451</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="#,##0">
-                  <c:v>478750.36097206437</c:v>
+                  <c:v>440503.49837653537</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="#,##0">
-                  <c:v>493112.87180122628</c:v>
+                  <c:v>453718.60332783137</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="#,##0">
-                  <c:v>507906.25795526308</c:v>
+                  <c:v>467330.16142766632</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="#,##0">
-                  <c:v>523143.44569392095</c:v>
+                  <c:v>481350.06627049635</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="#,##0">
-                  <c:v>538837.74906473863</c:v>
+                  <c:v>495790.56825861119</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="#,##0">
-                  <c:v>555002.88153668074</c:v>
+                  <c:v>510664.28530636954</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="#,##0">
-                  <c:v>571652.96798278112</c:v>
+                  <c:v>525984.2138655606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3441,64 +3459,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>232567.32666834103</c:v>
+                  <c:v>213987.76764882813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232567.32666834103</c:v>
+                  <c:v>213987.76764882813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>232567.32666834103</c:v>
+                  <c:v>213987.76764882813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>232567.32666834103</c:v>
+                  <c:v>213987.76764882813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>221880.26975772332</c:v>
+                  <c:v>204154.48846984716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210872.60113978706</c:v>
+                  <c:v>194026.21091549675</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>199534.70246331274</c:v>
+                  <c:v>183594.08503451583</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>187856.66682654418</c:v>
+                  <c:v>172848.99537710549</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>175828.29012067255</c:v>
+                  <c:v>161781.55302997283</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>163439.06211362479</c:v>
+                  <c:v>150382.08741242619</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150678.1572663656</c:v>
+                  <c:v>138640.63782635314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>137534.42527368863</c:v>
+                  <c:v>126546.94475269789</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>123996.38132123134</c:v>
+                  <c:v>114090.44088683301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>110052.19605020033</c:v>
+                  <c:v>101260.24190499217</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95689.68522103841</c:v>
+                  <c:v>88045.136953696114</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80896.299067001615</c:v>
+                  <c:v>74433.578853861181</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>65659.11132834373</c:v>
+                  <c:v>60413.67401103118</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49964.807957526107</c:v>
+                  <c:v>45973.172022916297</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33799.675485583946</c:v>
+                  <c:v>31099.454975157958</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17149.589039483522</c:v>
+                  <c:v>15779.526415966873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,7 +3758,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>994.86208723069183</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3749,55 +3767,55 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15149.999367223803</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15253.349389857902</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15312.267939750851</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15325.42207272045</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15291.438856258934</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15208.904169883439</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15076.361469496504</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14892.310514677789</c:v>
+                  <c:v>76780.672733069659</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14655.206057794356</c:v>
+                  <c:v>79248.82644844969</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14363.456493784253</c:v>
+                  <c:v>81677.737133594666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14015.422469433674</c:v>
+                  <c:v>84066.227497597531</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>102029.0985484324</c:v>
+                  <c:v>296568.50635939551</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101563.37934595594</c:v>
+                  <c:v>298872.4818739224</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>101036.156593985</c:v>
+                  <c:v>301132.28901218862</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100445.58518603479</c:v>
+                  <c:v>303346.60272290645</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>99789.764662425907</c:v>
+                  <c:v>305514.05820324935</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>99066.737549688565</c:v>
+                  <c:v>307633.24970630609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4043,64 +4061,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>791234.23332122841</c:v>
+                  <c:v>749241.83555117191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>780526.20957276307</c:v>
+                  <c:v>745997.33555117191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>768472.23716199619</c:v>
+                  <c:v>742655.50055117195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>441732.49568557285</c:v>
+                  <c:v>475923.31023823912</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>442521.51731284685</c:v>
+                  <c:v>484965.4732307879</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>442971.3286329445</c:v>
+                  <c:v>493901.2756407914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>443071.75333665044</c:v>
+                  <c:v>502727.52665077383</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>442812.309825473</c:v>
+                  <c:v>511440.93971873424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>442182.20205296588</c:v>
+                  <c:v>520038.12970641197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>441170.31009128876</c:v>
+                  <c:v>528515.60992139857</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>439765.180414767</c:v>
+                  <c:v>460089.11633744347</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>437955.01589195488</c:v>
+                  <c:v>465848.14167333033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>435727.66547746386</c:v>
+                  <c:v>471515.59993866854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>433070.61359454354</c:v>
+                  <c:v>477088.74412134191</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>341551.2861016409</c:v>
+                  <c:v>272409.32337029895</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>337995.77141838183</c:v>
+                  <c:v>277785.26623752835</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>333970.71033863036</c:v>
+                  <c:v>283058.14956014982</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>329462.01647049194</c:v>
+                  <c:v>288224.88155182463</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>324455.18083031458</c:v>
+                  <c:v>293282.27767262474</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>318935.2591649376</c:v>
+                  <c:v>298227.05784642376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4832,7 +4850,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4889,7 +4907,7 @@
       </c>
       <c r="G5" s="63">
         <f>NPV(B52,Kalkulation!D78:W78)-B34</f>
-        <v>4264327.8188097626</v>
+        <v>4658659.4773428347</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -4902,7 +4920,7 @@
       </c>
       <c r="G6" s="63">
         <f>NPV(Parameters!B46,Kalkulation!D21:W21)+ NPV(Parameters!B46,Kalkulation!D60:W60)</f>
-        <v>-5877098.6628305223</v>
+        <v>-530451.91929000965</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -4945,7 +4963,7 @@
       </c>
       <c r="G8" s="59">
         <f>IRR(Kalkulation!C78:W78)</f>
-        <v>0.19362418111969304</v>
+        <v>0.21971173388464438</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4964,7 +4982,7 @@
       </c>
       <c r="G9" s="64">
         <f>((-G6-B25)/G7)</f>
-        <v>2.8896926211796747E-2</v>
+        <v>1.8065448164697073E-2</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -4985,14 +5003,14 @@
       </c>
       <c r="G10" s="148">
         <f>MIN(Kalkulation!D84:W84)</f>
-        <v>1.6429119156404552</v>
+        <v>1.5572848927544329</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="167" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="172">
+      <c r="B11" s="171">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="F11" t="s">
@@ -5000,7 +5018,7 @@
       </c>
       <c r="G11" s="148">
         <f>Kalkulation!C85</f>
-        <v>1.7019335777891615</v>
+        <v>1.7854559682065219</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5044,10 +5062,10 @@
       </c>
     </row>
     <row r="16" spans="1:29" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="165" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="167">
+      <c r="B16" s="166">
         <v>0.71040000000000003</v>
       </c>
       <c r="F16" s="111" t="s">
@@ -5078,10 +5096,10 @@
       <c r="AC16" s="112"/>
     </row>
     <row r="17" spans="1:31" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="168" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="170">
+      <c r="B17" s="169">
         <v>22</v>
       </c>
       <c r="C17" t="s">
@@ -5094,13 +5112,16 @@
         <v>154</v>
       </c>
       <c r="B18" s="66">
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="E18" s="194" t="s">
+        <v>269</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>2</v>
@@ -5165,7 +5186,7 @@
       <c r="AC18" s="78">
         <v>2044</v>
       </c>
-      <c r="AD18" s="184"/>
+      <c r="AD18" s="183"/>
       <c r="AE18" s="78"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
@@ -5180,83 +5201,83 @@
       </c>
       <c r="J20" s="23">
         <f>Kalkulation!D12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="K20" s="23">
         <f>Kalkulation!E12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="L20" s="23">
         <f>Kalkulation!F12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="M20" s="23">
         <f>Kalkulation!G12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="N20" s="23">
         <f>Kalkulation!H12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="O20" s="23">
         <f>Kalkulation!I12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="P20" s="23">
         <f>Kalkulation!J12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="Q20" s="23">
         <f>Kalkulation!K12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="R20" s="23">
         <f>Kalkulation!L12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="S20" s="23">
         <f>Kalkulation!M12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="T20" s="23">
         <f>Kalkulation!N12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="U20" s="23">
         <f>Kalkulation!O12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="V20" s="23">
         <f>Kalkulation!P12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="W20" s="23">
         <f>Kalkulation!Q12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="X20" s="23">
         <f>Kalkulation!R12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="Y20" s="23">
         <f>Kalkulation!S12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="Z20" s="23">
         <f>Kalkulation!T12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="AA20" s="23">
         <f>Kalkulation!U12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="AB20" s="23">
         <f>Kalkulation!V12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="AC20" s="23">
         <f>Kalkulation!W12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
@@ -5270,83 +5291,83 @@
       <c r="I21" s="84"/>
       <c r="J21" s="88">
         <f>Kalkulation!D21</f>
-        <v>-540096.19452319993</v>
+        <v>-258150</v>
       </c>
       <c r="K21" s="88">
         <f>Kalkulation!E21</f>
-        <v>-551799.08035889594</v>
+        <v>-261394.5</v>
       </c>
       <c r="L21" s="88">
         <f>Kalkulation!F21</f>
-        <v>-563853.05276966281</v>
+        <v>-264736.33500000002</v>
       </c>
       <c r="M21" s="88">
         <f>Kalkulation!G21</f>
-        <v>-426268.64435275277</v>
+        <v>-118178.42505000002</v>
       </c>
       <c r="N21" s="88">
         <f>Kalkulation!H21</f>
-        <v>-439056.70368333533</v>
+        <v>-121723.77780150001</v>
       </c>
       <c r="O21" s="88">
         <f>Kalkulation!I21</f>
-        <v>-452228.40479383542</v>
+        <v>-125375.49113554502</v>
       </c>
       <c r="P21" s="88">
         <f>Kalkulation!J21</f>
-        <v>-465795.2569376505</v>
+        <v>-129136.75586961137</v>
       </c>
       <c r="Q21" s="88">
         <f>Kalkulation!K21</f>
-        <v>-479769.11464578006</v>
+        <v>-133010.85854569971</v>
       </c>
       <c r="R21" s="88">
         <f>Kalkulation!L21</f>
-        <v>-494162.18808515347</v>
+        <v>-137001.1843020707</v>
       </c>
       <c r="S21" s="88">
         <f>Kalkulation!M21</f>
-        <v>-508987.05372770806</v>
+        <v>-141111.21983113282</v>
       </c>
       <c r="T21" s="88">
         <f>Kalkulation!N21</f>
-        <v>-524256.66533953929</v>
+        <v>-145344.55642606682</v>
       </c>
       <c r="U21" s="88">
         <f>Kalkulation!O21</f>
-        <v>-539984.36529972544</v>
+        <v>-149704.89311884882</v>
       </c>
       <c r="V21" s="88">
         <f>Kalkulation!P21</f>
-        <v>-556183.89625871729</v>
+        <v>-154196.0399124143</v>
       </c>
       <c r="W21" s="88">
         <f>Kalkulation!Q21</f>
-        <v>-572869.41314647882</v>
+        <v>-158821.92110978675</v>
       </c>
       <c r="X21" s="88">
         <f>Kalkulation!R21</f>
-        <v>-590055.49554087326</v>
+        <v>-163586.57874308035</v>
       </c>
       <c r="Y21" s="88">
         <f>Kalkulation!S21</f>
-        <v>-607757.16040709952</v>
+        <v>-168494.17610537278</v>
       </c>
       <c r="Z21" s="88">
         <f>Kalkulation!T21</f>
-        <v>-625989.8752193125</v>
+        <v>-173549.00138853397</v>
       </c>
       <c r="AA21" s="88">
         <f>Kalkulation!U21</f>
-        <v>-644769.57147589186</v>
+        <v>-178755.47143018997</v>
       </c>
       <c r="AB21" s="88">
         <f>Kalkulation!V21</f>
-        <v>-664112.65862016869</v>
+        <v>-184118.1355730957</v>
       </c>
       <c r="AC21" s="88">
         <f>Kalkulation!W21</f>
-        <v>-684036.03837877372</v>
+        <v>-189641.67964028858</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5360,83 +5381,83 @@
       <c r="I22" s="84"/>
       <c r="J22" s="88">
         <f>SUM(J20:J21)</f>
-        <v>1024796.4220768001</v>
+        <v>963229.60320000001</v>
       </c>
       <c r="K22" s="88">
         <f t="shared" ref="K22:AC22" si="0">SUM(K20:K21)</f>
-        <v>1013093.5362411041</v>
+        <v>959985.10320000001</v>
       </c>
       <c r="L22" s="88">
         <f t="shared" si="0"/>
-        <v>1001039.5638303373</v>
+        <v>956643.26820000005</v>
       </c>
       <c r="M22" s="88">
         <f t="shared" si="0"/>
-        <v>1138623.9722472474</v>
+        <v>1103201.1781500001</v>
       </c>
       <c r="N22" s="88">
         <f t="shared" si="0"/>
-        <v>1125835.9129166647</v>
+        <v>1099655.8253985001</v>
       </c>
       <c r="O22" s="88">
         <f t="shared" si="0"/>
-        <v>1112664.2118061646</v>
+        <v>1096004.1120644549</v>
       </c>
       <c r="P22" s="88">
         <f t="shared" si="0"/>
-        <v>1099097.3596623496</v>
+        <v>1092242.8473303886</v>
       </c>
       <c r="Q22" s="88">
         <f t="shared" si="0"/>
-        <v>1085123.50195422</v>
+        <v>1088368.7446543004</v>
       </c>
       <c r="R22" s="88">
         <f t="shared" si="0"/>
-        <v>1070730.4285148466</v>
+        <v>1084378.4188979294</v>
       </c>
       <c r="S22" s="88">
         <f t="shared" si="0"/>
-        <v>1055905.562872292</v>
+        <v>1080268.3833688672</v>
       </c>
       <c r="T22" s="88">
         <f t="shared" si="0"/>
-        <v>1040635.9512604608</v>
+        <v>1076035.0467739331</v>
       </c>
       <c r="U22" s="88">
         <f t="shared" si="0"/>
-        <v>1024908.2513002746</v>
+        <v>1071674.7100811512</v>
       </c>
       <c r="V22" s="88">
         <f t="shared" si="0"/>
-        <v>1008708.7203412828</v>
+        <v>1067183.5632875857</v>
       </c>
       <c r="W22" s="88">
         <f t="shared" si="0"/>
-        <v>992023.20345352124</v>
+        <v>1062557.6820902133</v>
       </c>
       <c r="X22" s="88">
         <f t="shared" si="0"/>
-        <v>974837.1210591268</v>
+        <v>1057793.0244569196</v>
       </c>
       <c r="Y22" s="88">
         <f t="shared" si="0"/>
-        <v>957135.45619290054</v>
+        <v>1052885.4270946272</v>
       </c>
       <c r="Z22" s="88">
         <f t="shared" si="0"/>
-        <v>938902.74138068757</v>
+        <v>1047830.601811466</v>
       </c>
       <c r="AA22" s="88">
         <f t="shared" si="0"/>
-        <v>920123.0451241082</v>
+        <v>1042624.1317698101</v>
       </c>
       <c r="AB22" s="88">
         <f t="shared" si="0"/>
-        <v>900779.95797983138</v>
+        <v>1037261.4676269044</v>
       </c>
       <c r="AC22" s="88">
         <f t="shared" si="0"/>
-        <v>880856.57822122634</v>
+        <v>1031737.9235597114</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
@@ -5453,59 +5474,59 @@
       <c r="I23" s="84"/>
       <c r="J23" s="88">
         <f>Kalkulation!D39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="K23" s="88">
         <f>Kalkulation!E39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="L23" s="88">
         <f>Kalkulation!F39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="M23" s="88">
         <f>Kalkulation!G39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="N23" s="88">
         <f>Kalkulation!H39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="O23" s="88">
         <f>Kalkulation!I39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="P23" s="88">
         <f>Kalkulation!J39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="Q23" s="88">
         <f>Kalkulation!K39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="R23" s="88">
         <f>Kalkulation!L39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="S23" s="88">
         <f>Kalkulation!M39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="T23" s="88">
         <f>Kalkulation!N39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="U23" s="88">
         <f>Kalkulation!O39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="V23" s="88">
         <f>Kalkulation!P39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="W23" s="88">
         <f>Kalkulation!Q39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="X23" s="88">
         <f>Kalkulation!R39</f>
@@ -5549,90 +5570,90 @@
       <c r="I24" s="84"/>
       <c r="J24" s="88">
         <f>SUM(J22:J23)</f>
-        <v>263455.63636251446</v>
+        <v>262711.53177142853</v>
       </c>
       <c r="K24" s="88">
         <f t="shared" ref="K24:AC24" si="1">SUM(K22:K23)</f>
-        <v>251752.75052681845</v>
+        <v>259467.03177142853</v>
       </c>
       <c r="L24" s="88">
         <f t="shared" si="1"/>
-        <v>239698.77811605157</v>
+        <v>256125.19677142857</v>
       </c>
       <c r="M24" s="88">
         <f t="shared" si="1"/>
-        <v>377283.18653296167</v>
+        <v>402683.10672142857</v>
       </c>
       <c r="N24" s="88">
         <f t="shared" si="1"/>
-        <v>364495.12720237905</v>
+        <v>399137.7539699286</v>
       </c>
       <c r="O24" s="88">
         <f t="shared" si="1"/>
-        <v>351323.42609187891</v>
+        <v>395486.04063588346</v>
       </c>
       <c r="P24" s="88">
         <f t="shared" si="1"/>
-        <v>337756.57394806389</v>
+        <v>391724.77590181713</v>
       </c>
       <c r="Q24" s="88">
         <f t="shared" si="1"/>
-        <v>323782.71623993432</v>
+        <v>387850.67322572891</v>
       </c>
       <c r="R24" s="88">
         <f t="shared" si="1"/>
-        <v>309389.64280056092</v>
+        <v>383860.34746935789</v>
       </c>
       <c r="S24" s="88">
         <f t="shared" si="1"/>
-        <v>294564.77715800633</v>
+        <v>379750.31194029574</v>
       </c>
       <c r="T24" s="88">
         <f t="shared" si="1"/>
-        <v>279295.16554617509</v>
+        <v>375516.97534536163</v>
       </c>
       <c r="U24" s="88">
         <f t="shared" si="1"/>
-        <v>263567.46558598895</v>
+        <v>371156.63865257974</v>
       </c>
       <c r="V24" s="88">
         <f t="shared" si="1"/>
-        <v>247367.9346269971</v>
+        <v>366665.49185901426</v>
       </c>
       <c r="W24" s="88">
         <f t="shared" si="1"/>
-        <v>230682.41773923556</v>
+        <v>362039.61066164181</v>
       </c>
       <c r="X24" s="88">
         <f t="shared" si="1"/>
-        <v>974837.1210591268</v>
+        <v>1057793.0244569196</v>
       </c>
       <c r="Y24" s="88">
         <f t="shared" si="1"/>
-        <v>957135.45619290054</v>
+        <v>1052885.4270946272</v>
       </c>
       <c r="Z24" s="88">
         <f t="shared" si="1"/>
-        <v>938902.74138068757</v>
+        <v>1047830.601811466</v>
       </c>
       <c r="AA24" s="88">
         <f t="shared" si="1"/>
-        <v>920123.0451241082</v>
+        <v>1042624.1317698101</v>
       </c>
       <c r="AB24" s="88">
         <f t="shared" si="1"/>
-        <v>900779.95797983138</v>
+        <v>1037261.4676269044</v>
       </c>
       <c r="AC24" s="88">
         <f t="shared" si="1"/>
-        <v>880856.57822122634</v>
+        <v>1031737.9235597114</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="173"/>
-      <c r="B25" s="174">
+      <c r="A25" s="172"/>
+      <c r="B25" s="173">
         <f>-Daten!C63</f>
-        <v>-10658771</v>
+        <v>-9807253</v>
       </c>
       <c r="F25" s="81" t="s">
         <v>29</v>
@@ -5644,83 +5665,83 @@
       <c r="I25" s="84"/>
       <c r="J25" s="88">
         <f>Kalkulation!D38</f>
-        <v>-232567.32666834103</v>
+        <v>-213987.76764882813</v>
       </c>
       <c r="K25" s="88">
         <f>Kalkulation!E38</f>
-        <v>-232567.32666834103</v>
+        <v>-213987.76764882813</v>
       </c>
       <c r="L25" s="88">
         <f>Kalkulation!F38</f>
-        <v>-232567.32666834103</v>
+        <v>-213987.76764882813</v>
       </c>
       <c r="M25" s="88">
         <f>Kalkulation!G38</f>
-        <v>-225727.11117809571</v>
+        <v>-207694.00977680378</v>
       </c>
       <c r="N25" s="88">
         <f>Kalkulation!H38</f>
-        <v>-212046.68019760505</v>
+        <v>-195106.49403275506</v>
       </c>
       <c r="O25" s="88">
         <f>Kalkulation!I38</f>
-        <v>-198366.24921711438</v>
+        <v>-182518.97828870636</v>
       </c>
       <c r="P25" s="88">
         <f>Kalkulation!J38</f>
-        <v>-184685.81823662372</v>
+        <v>-169931.46254465764</v>
       </c>
       <c r="Q25" s="88">
         <f>Kalkulation!K38</f>
-        <v>-171005.38725613308</v>
+        <v>-157343.94680060894</v>
       </c>
       <c r="R25" s="88">
         <f>Kalkulation!L38</f>
-        <v>-157324.95627564241</v>
+        <v>-144756.43105656022</v>
       </c>
       <c r="S25" s="88">
         <f>Kalkulation!M38</f>
-        <v>-143644.52529515175</v>
+        <v>-132168.91531251153</v>
       </c>
       <c r="T25" s="88">
         <f>Kalkulation!N38</f>
-        <v>-129964.09431466108</v>
+        <v>-119581.3995684628</v>
       </c>
       <c r="U25" s="88">
         <f>Kalkulation!O38</f>
-        <v>-116283.66333417043</v>
+        <v>-106993.88382441409</v>
       </c>
       <c r="V25" s="88">
         <f>Kalkulation!P38</f>
-        <v>-102603.23235367978</v>
+        <v>-94406.368080365384</v>
       </c>
       <c r="W25" s="88">
         <f>Kalkulation!Q38</f>
-        <v>-88922.801373189141</v>
+        <v>-81818.852336316675</v>
       </c>
       <c r="X25" s="88">
         <f>Kalkulation!R38</f>
-        <v>-75242.370392698489</v>
+        <v>-69231.336592267966</v>
       </c>
       <c r="Y25" s="88">
         <f>Kalkulation!S38</f>
-        <v>-61561.939412207852</v>
+        <v>-56643.820848219249</v>
       </c>
       <c r="Z25" s="88">
         <f>Kalkulation!T38</f>
-        <v>-47881.508431717208</v>
+        <v>-44056.30510417054</v>
       </c>
       <c r="AA25" s="88">
         <f>Kalkulation!U38</f>
-        <v>-34201.077451226556</v>
+        <v>-31468.789360121831</v>
       </c>
       <c r="AB25" s="88">
         <f>Kalkulation!V38</f>
-        <v>-20520.646470735912</v>
+        <v>-18881.273616073115</v>
       </c>
       <c r="AC25" s="88">
         <f>Kalkulation!W38</f>
-        <v>-6840.2154902452648</v>
+        <v>-6293.7578720244028</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
@@ -5729,7 +5750,7 @@
       </c>
       <c r="B26" s="131">
         <f>-Daten!C103</f>
-        <v>-378734.16943999997</v>
+        <v>-105000</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
@@ -5744,83 +5765,83 @@
       <c r="I26" s="84"/>
       <c r="J26" s="88">
         <f>SUM(J24:J25)</f>
-        <v>30888.309694173426</v>
+        <v>48723.764122600405</v>
       </c>
       <c r="K26" s="88">
         <f t="shared" ref="K26:AC26" si="2">SUM(K24:K25)</f>
-        <v>19185.423858477414</v>
+        <v>45479.264122600405</v>
       </c>
       <c r="L26" s="88">
         <f t="shared" si="2"/>
-        <v>7131.4514477105404</v>
+        <v>42137.429122600442</v>
       </c>
       <c r="M26" s="88">
         <f t="shared" si="2"/>
-        <v>151556.07535486596</v>
+        <v>194989.09694462479</v>
       </c>
       <c r="N26" s="88">
         <f t="shared" si="2"/>
-        <v>152448.447004774</v>
+        <v>204031.25993717354</v>
       </c>
       <c r="O26" s="88">
         <f t="shared" si="2"/>
-        <v>152957.17687476453</v>
+        <v>212967.0623471771</v>
       </c>
       <c r="P26" s="88">
         <f t="shared" si="2"/>
-        <v>153070.75571144017</v>
+        <v>221793.3133571595</v>
       </c>
       <c r="Q26" s="88">
         <f t="shared" si="2"/>
-        <v>152777.32898380124</v>
+        <v>230506.72642511997</v>
       </c>
       <c r="R26" s="88">
         <f t="shared" si="2"/>
-        <v>152064.68652491851</v>
+        <v>239103.91641279767</v>
       </c>
       <c r="S26" s="88">
         <f t="shared" si="2"/>
-        <v>150920.25186285458</v>
+        <v>247581.39662778421</v>
       </c>
       <c r="T26" s="88">
         <f t="shared" si="2"/>
-        <v>149331.07123151401</v>
+        <v>255935.57577689883</v>
       </c>
       <c r="U26" s="88">
         <f t="shared" si="2"/>
-        <v>147283.80225181853</v>
+        <v>264162.75482816563</v>
       </c>
       <c r="V26" s="88">
         <f t="shared" si="2"/>
-        <v>144764.70227331732</v>
+        <v>272259.12377864891</v>
       </c>
       <c r="W26" s="88">
         <f t="shared" si="2"/>
-        <v>141759.61636604642</v>
+        <v>280220.75832532515</v>
       </c>
       <c r="X26" s="88">
         <f t="shared" si="2"/>
-        <v>899594.75066642836</v>
+        <v>988561.68786465167</v>
       </c>
       <c r="Y26" s="88">
         <f t="shared" si="2"/>
-        <v>895573.51678069273</v>
+        <v>996241.60624640796</v>
       </c>
       <c r="Z26" s="88">
         <f t="shared" si="2"/>
-        <v>891021.2329489704</v>
+        <v>1003774.2967072955</v>
       </c>
       <c r="AA26" s="88">
         <f t="shared" si="2"/>
-        <v>885921.96767288167</v>
+        <v>1011155.3424096883</v>
       </c>
       <c r="AB26" s="88">
         <f t="shared" si="2"/>
-        <v>880259.31150909548</v>
+        <v>1018380.1940108313</v>
       </c>
       <c r="AC26" s="88">
         <f t="shared" si="2"/>
-        <v>874016.36273098108</v>
+        <v>1025444.165687687</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
@@ -5834,7 +5855,7 @@
       <c r="I27" s="84"/>
       <c r="J27" s="88">
         <f>-Kalkulation!D54</f>
-        <v>-994.86208723069183</v>
+        <v>0</v>
       </c>
       <c r="K27" s="88">
         <f>-Kalkulation!E54</f>
@@ -5846,71 +5867,71 @@
       </c>
       <c r="M27" s="88">
         <f>-Kalkulation!G54</f>
-        <v>-15149.999367223803</v>
+        <v>0</v>
       </c>
       <c r="N27" s="88">
         <f>-Kalkulation!H54</f>
-        <v>-15253.349389857902</v>
+        <v>0</v>
       </c>
       <c r="O27" s="88">
         <f>-Kalkulation!I54</f>
-        <v>-15312.267939750851</v>
+        <v>0</v>
       </c>
       <c r="P27" s="88">
         <f>-Kalkulation!J54</f>
-        <v>-15325.42207272045</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="88">
         <f>-Kalkulation!K54</f>
-        <v>-15291.438856258934</v>
+        <v>0</v>
       </c>
       <c r="R27" s="88">
         <f>-Kalkulation!L54</f>
-        <v>-15208.904169883439</v>
+        <v>0</v>
       </c>
       <c r="S27" s="88">
         <f>-Kalkulation!M54</f>
-        <v>-15076.361469496504</v>
+        <v>0</v>
       </c>
       <c r="T27" s="88">
         <f>-Kalkulation!N54</f>
-        <v>-14892.310514677789</v>
+        <v>-76780.672733069659</v>
       </c>
       <c r="U27" s="88">
         <f>-Kalkulation!O54</f>
-        <v>-14655.206057794356</v>
+        <v>-79248.82644844969</v>
       </c>
       <c r="V27" s="88">
         <f>-Kalkulation!P54</f>
-        <v>-14363.456493784253</v>
+        <v>-81677.737133594666</v>
       </c>
       <c r="W27" s="88">
         <f>-Kalkulation!Q54</f>
-        <v>-14015.422469433674</v>
+        <v>-84066.227497597531</v>
       </c>
       <c r="X27" s="88">
         <f>-Kalkulation!R54</f>
-        <v>-102029.0985484324</v>
+        <v>-296568.50635939551</v>
       </c>
       <c r="Y27" s="88">
         <f>-Kalkulation!S54</f>
-        <v>-101563.37934595594</v>
+        <v>-298872.4818739224</v>
       </c>
       <c r="Z27" s="88">
         <f>-Kalkulation!T54</f>
-        <v>-101036.156593985</v>
+        <v>-301132.28901218862</v>
       </c>
       <c r="AA27" s="88">
         <f>-Kalkulation!U54</f>
-        <v>-100445.58518603479</v>
+        <v>-303346.60272290645</v>
       </c>
       <c r="AB27" s="88">
         <f>-Kalkulation!V54</f>
-        <v>-99789.764662425907</v>
+        <v>-305514.05820324935</v>
       </c>
       <c r="AC27" s="88">
         <f>-Kalkulation!W54</f>
-        <v>-99066.737549688565</v>
+        <v>-307633.24970630609</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
@@ -5922,83 +5943,83 @@
       </c>
       <c r="J28" s="23">
         <f>SUM(J26:J27)</f>
-        <v>29893.447606942733</v>
+        <v>48723.764122600405</v>
       </c>
       <c r="K28" s="23">
         <f t="shared" ref="K28:AC28" si="3">SUM(K26:K27)</f>
-        <v>19185.423858477414</v>
+        <v>45479.264122600405</v>
       </c>
       <c r="L28" s="23">
         <f t="shared" si="3"/>
-        <v>7131.4514477105404</v>
+        <v>42137.429122600442</v>
       </c>
       <c r="M28" s="23">
         <f t="shared" si="3"/>
-        <v>136406.07598764217</v>
+        <v>194989.09694462479</v>
       </c>
       <c r="N28" s="23">
         <f t="shared" si="3"/>
-        <v>137195.0976149161</v>
+        <v>204031.25993717354</v>
       </c>
       <c r="O28" s="23">
         <f t="shared" si="3"/>
-        <v>137644.90893501366</v>
+        <v>212967.0623471771</v>
       </c>
       <c r="P28" s="23">
         <f t="shared" si="3"/>
-        <v>137745.33363871972</v>
+        <v>221793.3133571595</v>
       </c>
       <c r="Q28" s="23">
         <f t="shared" si="3"/>
-        <v>137485.89012754231</v>
+        <v>230506.72642511997</v>
       </c>
       <c r="R28" s="23">
         <f t="shared" si="3"/>
-        <v>136855.78235503507</v>
+        <v>239103.91641279767</v>
       </c>
       <c r="S28" s="23">
         <f t="shared" si="3"/>
-        <v>135843.89039335807</v>
+        <v>247581.39662778421</v>
       </c>
       <c r="T28" s="23">
         <f t="shared" si="3"/>
-        <v>134438.76071683623</v>
+        <v>179154.90304382917</v>
       </c>
       <c r="U28" s="23">
         <f t="shared" si="3"/>
-        <v>132628.59619402417</v>
+        <v>184913.92837971594</v>
       </c>
       <c r="V28" s="23">
         <f t="shared" si="3"/>
-        <v>130401.24577953307</v>
+        <v>190581.38664505424</v>
       </c>
       <c r="W28" s="23">
         <f t="shared" si="3"/>
-        <v>127744.19389661275</v>
+        <v>196154.53082772763</v>
       </c>
       <c r="X28" s="23">
         <f t="shared" si="3"/>
-        <v>797565.65211799601</v>
+        <v>691993.1815052561</v>
       </c>
       <c r="Y28" s="23">
         <f t="shared" si="3"/>
-        <v>794010.13743473683</v>
+        <v>697369.12437248556</v>
       </c>
       <c r="Z28" s="23">
         <f t="shared" si="3"/>
-        <v>789985.07635498536</v>
+        <v>702642.00769510679</v>
       </c>
       <c r="AA28" s="23">
         <f t="shared" si="3"/>
-        <v>785476.38248684688</v>
+        <v>707808.73968678177</v>
       </c>
       <c r="AB28" s="23">
         <f t="shared" si="3"/>
-        <v>780469.54684666963</v>
+        <v>712866.13580758194</v>
       </c>
       <c r="AC28" s="23">
         <f t="shared" si="3"/>
-        <v>774949.62518129253</v>
+        <v>717810.91598138097</v>
       </c>
       <c r="AD28" s="23"/>
     </row>
@@ -6016,10 +6037,10 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A33" s="171" t="s">
+      <c r="A33" s="170" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="172">
+      <c r="B33" s="171">
         <v>0.72731126527420797</v>
       </c>
     </row>
@@ -6029,7 +6050,7 @@
       </c>
       <c r="B34" s="28">
         <f>-B25*(1-B33)</f>
-        <v>2906526.7777219652</v>
+        <v>2674327.4117057282</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -6062,13 +6083,13 @@
       <c r="AC34" s="115"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="171" t="s">
+      <c r="A35" s="170" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="175">
+      <c r="B35" s="174">
         <v>17</v>
       </c>
-      <c r="C35" s="171" t="s">
+      <c r="C35" s="170" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6160,8 +6181,8 @@
         <f>SUM(B36:B37)</f>
         <v>0.03</v>
       </c>
-      <c r="C38" s="189" t="s">
-        <v>267</v>
+      <c r="C38" s="184" t="s">
+        <v>266</v>
       </c>
       <c r="F38" s="80" t="s">
         <v>184</v>
@@ -6171,83 +6192,83 @@
       </c>
       <c r="J38" s="23">
         <f>Kalkulation!D12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="K38" s="23">
         <f>Kalkulation!E12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="L38" s="23">
         <f>Kalkulation!F12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="M38" s="23">
         <f>Kalkulation!G12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="N38" s="23">
         <f>Kalkulation!H12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="O38" s="23">
         <f>Kalkulation!I12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="P38" s="23">
         <f>Kalkulation!J12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="Q38" s="23">
         <f>Kalkulation!K12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="R38" s="23">
         <f>Kalkulation!L12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="S38" s="23">
         <f>Kalkulation!M12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="T38" s="23">
         <f>Kalkulation!N12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="U38" s="23">
         <f>Kalkulation!O12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="V38" s="23">
         <f>Kalkulation!P12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="W38" s="23">
         <f>Kalkulation!Q12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="X38" s="23">
         <f>Kalkulation!R12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="Y38" s="23">
         <f>Kalkulation!S12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="Z38" s="23">
         <f>Kalkulation!T12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="AA38" s="23">
         <f>Kalkulation!U12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="AB38" s="23">
         <f>Kalkulation!V12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="AC38" s="23">
         <f>Kalkulation!W12</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
@@ -6256,7 +6277,7 @@
       </c>
       <c r="B39" s="29">
         <f>-(B25+B34)</f>
-        <v>7752244.2222780343</v>
+        <v>7132925.5882942714</v>
       </c>
       <c r="F39" s="80" t="s">
         <v>185</v>
@@ -6266,83 +6287,83 @@
       </c>
       <c r="J39" s="23">
         <f>Kalkulation!D21</f>
-        <v>-540096.19452319993</v>
+        <v>-258150</v>
       </c>
       <c r="K39" s="23">
         <f>Kalkulation!E21</f>
-        <v>-551799.08035889594</v>
+        <v>-261394.5</v>
       </c>
       <c r="L39" s="23">
         <f>Kalkulation!F21</f>
-        <v>-563853.05276966281</v>
+        <v>-264736.33500000002</v>
       </c>
       <c r="M39" s="23">
         <f>Kalkulation!G21</f>
-        <v>-426268.64435275277</v>
+        <v>-118178.42505000002</v>
       </c>
       <c r="N39" s="23">
         <f>Kalkulation!H21</f>
-        <v>-439056.70368333533</v>
+        <v>-121723.77780150001</v>
       </c>
       <c r="O39" s="23">
         <f>Kalkulation!I21</f>
-        <v>-452228.40479383542</v>
+        <v>-125375.49113554502</v>
       </c>
       <c r="P39" s="23">
         <f>Kalkulation!J21</f>
-        <v>-465795.2569376505</v>
+        <v>-129136.75586961137</v>
       </c>
       <c r="Q39" s="23">
         <f>Kalkulation!K21</f>
-        <v>-479769.11464578006</v>
+        <v>-133010.85854569971</v>
       </c>
       <c r="R39" s="23">
         <f>Kalkulation!L21</f>
-        <v>-494162.18808515347</v>
+        <v>-137001.1843020707</v>
       </c>
       <c r="S39" s="23">
         <f>Kalkulation!M21</f>
-        <v>-508987.05372770806</v>
+        <v>-141111.21983113282</v>
       </c>
       <c r="T39" s="23">
         <f>Kalkulation!N21</f>
-        <v>-524256.66533953929</v>
+        <v>-145344.55642606682</v>
       </c>
       <c r="U39" s="23">
         <f>Kalkulation!O21</f>
-        <v>-539984.36529972544</v>
+        <v>-149704.89311884882</v>
       </c>
       <c r="V39" s="23">
         <f>Kalkulation!P21</f>
-        <v>-556183.89625871729</v>
+        <v>-154196.0399124143</v>
       </c>
       <c r="W39" s="23">
         <f>Kalkulation!Q21</f>
-        <v>-572869.41314647882</v>
+        <v>-158821.92110978675</v>
       </c>
       <c r="X39" s="23">
         <f>Kalkulation!R21</f>
-        <v>-590055.49554087326</v>
+        <v>-163586.57874308035</v>
       </c>
       <c r="Y39" s="23">
         <f>Kalkulation!S21</f>
-        <v>-607757.16040709952</v>
+        <v>-168494.17610537278</v>
       </c>
       <c r="Z39" s="23">
         <f>Kalkulation!T21</f>
-        <v>-625989.8752193125</v>
+        <v>-173549.00138853397</v>
       </c>
       <c r="AA39" s="23">
         <f>Kalkulation!U21</f>
-        <v>-644769.57147589186</v>
+        <v>-178755.47143018997</v>
       </c>
       <c r="AB39" s="23">
         <f>Kalkulation!V21</f>
-        <v>-664112.65862016869</v>
+        <v>-184118.1355730957</v>
       </c>
       <c r="AC39" s="23">
         <f>Kalkulation!W21</f>
-        <v>-684036.03837877372</v>
+        <v>-189641.67964028858</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6362,7 +6383,7 @@
       <c r="I40" s="84"/>
       <c r="J40" s="88">
         <f>J27</f>
-        <v>-994.86208723069183</v>
+        <v>0</v>
       </c>
       <c r="K40" s="88">
         <f t="shared" ref="K40:AC40" si="4">K27</f>
@@ -6374,78 +6395,78 @@
       </c>
       <c r="M40" s="88">
         <f t="shared" si="4"/>
-        <v>-15149.999367223803</v>
+        <v>0</v>
       </c>
       <c r="N40" s="88">
         <f t="shared" si="4"/>
-        <v>-15253.349389857902</v>
+        <v>0</v>
       </c>
       <c r="O40" s="88">
         <f t="shared" si="4"/>
-        <v>-15312.267939750851</v>
+        <v>0</v>
       </c>
       <c r="P40" s="88">
         <f t="shared" si="4"/>
-        <v>-15325.42207272045</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="88">
         <f t="shared" si="4"/>
-        <v>-15291.438856258934</v>
+        <v>0</v>
       </c>
       <c r="R40" s="88">
         <f t="shared" si="4"/>
-        <v>-15208.904169883439</v>
+        <v>0</v>
       </c>
       <c r="S40" s="88">
         <f t="shared" si="4"/>
-        <v>-15076.361469496504</v>
+        <v>0</v>
       </c>
       <c r="T40" s="88">
         <f t="shared" si="4"/>
-        <v>-14892.310514677789</v>
+        <v>-76780.672733069659</v>
       </c>
       <c r="U40" s="88">
         <f t="shared" si="4"/>
-        <v>-14655.206057794356</v>
+        <v>-79248.82644844969</v>
       </c>
       <c r="V40" s="88">
         <f t="shared" si="4"/>
-        <v>-14363.456493784253</v>
+        <v>-81677.737133594666</v>
       </c>
       <c r="W40" s="88">
         <f t="shared" si="4"/>
-        <v>-14015.422469433674</v>
+        <v>-84066.227497597531</v>
       </c>
       <c r="X40" s="88">
         <f t="shared" si="4"/>
-        <v>-102029.0985484324</v>
+        <v>-296568.50635939551</v>
       </c>
       <c r="Y40" s="88">
         <f t="shared" si="4"/>
-        <v>-101563.37934595594</v>
+        <v>-298872.4818739224</v>
       </c>
       <c r="Z40" s="88">
         <f t="shared" si="4"/>
-        <v>-101036.156593985</v>
+        <v>-301132.28901218862</v>
       </c>
       <c r="AA40" s="88">
         <f t="shared" si="4"/>
-        <v>-100445.58518603479</v>
+        <v>-303346.60272290645</v>
       </c>
       <c r="AB40" s="88">
         <f t="shared" si="4"/>
-        <v>-99789.764662425907</v>
+        <v>-305514.05820324935</v>
       </c>
       <c r="AC40" s="88">
         <f t="shared" si="4"/>
-        <v>-99066.737549688565</v>
+        <v>-307633.24970630609</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A41" s="171" t="s">
+      <c r="A41" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="172">
+      <c r="B41" s="171">
         <v>1.15E-2</v>
       </c>
       <c r="F41" s="85" t="s">
@@ -6458,90 +6479,90 @@
       <c r="I41" s="84"/>
       <c r="J41" s="88">
         <f>SUM(J38:J40)</f>
-        <v>1023801.5599895695</v>
+        <v>963229.60320000001</v>
       </c>
       <c r="K41" s="88">
         <f t="shared" ref="K41:AC41" si="5">SUM(K38:K40)</f>
-        <v>1013093.5362411041</v>
+        <v>959985.10320000001</v>
       </c>
       <c r="L41" s="88">
         <f t="shared" si="5"/>
-        <v>1001039.5638303373</v>
+        <v>956643.26820000005</v>
       </c>
       <c r="M41" s="88">
         <f t="shared" si="5"/>
-        <v>1123473.9728800235</v>
+        <v>1103201.1781500001</v>
       </c>
       <c r="N41" s="88">
         <f t="shared" si="5"/>
-        <v>1110582.5635268069</v>
+        <v>1099655.8253985001</v>
       </c>
       <c r="O41" s="88">
         <f t="shared" si="5"/>
-        <v>1097351.9438664138</v>
+        <v>1096004.1120644549</v>
       </c>
       <c r="P41" s="88">
         <f t="shared" si="5"/>
-        <v>1083771.9375896291</v>
+        <v>1092242.8473303886</v>
       </c>
       <c r="Q41" s="88">
         <f t="shared" si="5"/>
-        <v>1069832.063097961</v>
+        <v>1088368.7446543004</v>
       </c>
       <c r="R41" s="88">
         <f t="shared" si="5"/>
-        <v>1055521.5243449633</v>
+        <v>1084378.4188979294</v>
       </c>
       <c r="S41" s="88">
         <f t="shared" si="5"/>
-        <v>1040829.2014027955</v>
+        <v>1080268.3833688672</v>
       </c>
       <c r="T41" s="88">
         <f t="shared" si="5"/>
-        <v>1025743.640745783</v>
+        <v>999254.37404086348</v>
       </c>
       <c r="U41" s="88">
         <f t="shared" si="5"/>
-        <v>1010253.0452424802</v>
+        <v>992425.88363270159</v>
       </c>
       <c r="V41" s="88">
         <f t="shared" si="5"/>
-        <v>994345.26384749857</v>
+        <v>985505.82615399105</v>
       </c>
       <c r="W41" s="88">
         <f t="shared" si="5"/>
-        <v>978007.78098408761</v>
+        <v>978491.45459261572</v>
       </c>
       <c r="X41" s="88">
         <f t="shared" si="5"/>
-        <v>872808.02251069434</v>
+        <v>761224.51809752407</v>
       </c>
       <c r="Y41" s="88">
         <f t="shared" si="5"/>
-        <v>855572.07684694463</v>
+        <v>754012.94522070477</v>
       </c>
       <c r="Z41" s="88">
         <f t="shared" si="5"/>
-        <v>837866.58478670253</v>
+        <v>746698.31279927748</v>
       </c>
       <c r="AA41" s="88">
         <f t="shared" si="5"/>
-        <v>819677.45993807341</v>
+        <v>739277.5290469036</v>
       </c>
       <c r="AB41" s="88">
         <f t="shared" si="5"/>
-        <v>800990.19331740541</v>
+        <v>731747.40942365502</v>
       </c>
       <c r="AC41" s="88">
         <f t="shared" si="5"/>
-        <v>781789.84067153779</v>
+        <v>724104.67385340529</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A42" s="171" t="s">
+      <c r="A42" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="172">
+      <c r="B42" s="171">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F42" s="82" t="s">
@@ -6552,90 +6573,90 @@
       </c>
       <c r="J42" s="23">
         <f>-Kalkulation!D60</f>
-        <v>-232567.32666834103</v>
+        <v>-213987.76764882813</v>
       </c>
       <c r="K42" s="23">
         <f>-Kalkulation!E60</f>
-        <v>-232567.32666834103</v>
+        <v>-213987.76764882813</v>
       </c>
       <c r="L42" s="23">
         <f>-Kalkulation!F60</f>
-        <v>-232567.32666834103</v>
+        <v>-213987.76764882813</v>
       </c>
       <c r="M42" s="23">
         <f>-Kalkulation!G60</f>
-        <v>-225727.11117809571</v>
+        <v>-207694.00977680378</v>
       </c>
       <c r="N42" s="23">
         <f>-Kalkulation!H60</f>
-        <v>-212046.68019760505</v>
+        <v>-195106.49403275506</v>
       </c>
       <c r="O42" s="23">
         <f>-Kalkulation!I60</f>
-        <v>-198366.24921711438</v>
+        <v>-182518.97828870636</v>
       </c>
       <c r="P42" s="23">
         <f>-Kalkulation!J60</f>
-        <v>-184685.81823662372</v>
+        <v>-169931.46254465764</v>
       </c>
       <c r="Q42" s="23">
         <f>-Kalkulation!K60</f>
-        <v>-171005.38725613308</v>
+        <v>-157343.94680060894</v>
       </c>
       <c r="R42" s="23">
         <f>-Kalkulation!L60</f>
-        <v>-157324.95627564241</v>
+        <v>-144756.43105656022</v>
       </c>
       <c r="S42" s="23">
         <f>-Kalkulation!M60</f>
-        <v>-143644.52529515175</v>
+        <v>-132168.91531251153</v>
       </c>
       <c r="T42" s="23">
         <f>-Kalkulation!N60</f>
-        <v>-129964.09431466108</v>
+        <v>-119581.3995684628</v>
       </c>
       <c r="U42" s="23">
         <f>-Kalkulation!O60</f>
-        <v>-116283.66333417043</v>
+        <v>-106993.88382441409</v>
       </c>
       <c r="V42" s="23">
         <f>-Kalkulation!P60</f>
-        <v>-102603.23235367978</v>
+        <v>-94406.368080365384</v>
       </c>
       <c r="W42" s="23">
         <f>-Kalkulation!Q60</f>
-        <v>-88922.801373189141</v>
+        <v>-81818.852336316675</v>
       </c>
       <c r="X42" s="23">
         <f>-Kalkulation!R60</f>
-        <v>-75242.370392698489</v>
+        <v>-69231.336592267966</v>
       </c>
       <c r="Y42" s="23">
         <f>-Kalkulation!S60</f>
-        <v>-61561.939412207852</v>
+        <v>-56643.820848219249</v>
       </c>
       <c r="Z42" s="23">
         <f>-Kalkulation!T60</f>
-        <v>-47881.508431717208</v>
+        <v>-44056.30510417054</v>
       </c>
       <c r="AA42" s="23">
         <f>-Kalkulation!U60</f>
-        <v>-34201.077451226556</v>
+        <v>-31468.789360121831</v>
       </c>
       <c r="AB42" s="23">
         <f>-Kalkulation!V60</f>
-        <v>-20520.646470735912</v>
+        <v>-18881.273616073115</v>
       </c>
       <c r="AC42" s="23">
         <f>-Kalkulation!W60</f>
-        <v>-6840.2154902452648</v>
+        <v>-6293.7578720244028</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A43" s="171" t="s">
+      <c r="A43" s="170" t="s">
         <v>169</v>
       </c>
-      <c r="B43" s="175">
+      <c r="B43" s="174">
         <v>0.3</v>
       </c>
       <c r="F43" s="81" t="s">
@@ -6660,71 +6681,71 @@
       </c>
       <c r="M43" s="88">
         <f>-Kalkulation!G59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="N43" s="88">
         <f>-Kalkulation!H59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="O43" s="88">
         <f>-Kalkulation!I59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="P43" s="88">
         <f>-Kalkulation!J59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="Q43" s="88">
         <f>-Kalkulation!K59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="R43" s="88">
         <f>-Kalkulation!L59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="S43" s="88">
         <f>-Kalkulation!M59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="T43" s="88">
         <f>-Kalkulation!N59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="U43" s="88">
         <f>-Kalkulation!O59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="V43" s="88">
         <f>-Kalkulation!P59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="W43" s="88">
         <f>-Kalkulation!Q59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="X43" s="88">
         <f>-Kalkulation!R59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="Y43" s="88">
         <f>-Kalkulation!S59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="Z43" s="88">
         <f>-Kalkulation!T59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="AA43" s="88">
         <f>-Kalkulation!U59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="AB43" s="88">
         <f>-Kalkulation!V59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
       <c r="AC43" s="88">
         <f>-Kalkulation!W59</f>
-        <v>-456014.36601635494</v>
+        <v>-419583.85813495715</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
@@ -6743,83 +6764,83 @@
       </c>
       <c r="J44" s="23">
         <f>SUM(J41:J43)</f>
-        <v>791234.23332122841</v>
+        <v>749241.83555117191</v>
       </c>
       <c r="K44" s="23">
         <f t="shared" ref="K44:AC44" si="6">SUM(K41:K43)</f>
-        <v>780526.20957276307</v>
+        <v>745997.33555117191</v>
       </c>
       <c r="L44" s="23">
         <f t="shared" si="6"/>
-        <v>768472.23716199619</v>
+        <v>742655.50055117195</v>
       </c>
       <c r="M44" s="23">
         <f t="shared" si="6"/>
-        <v>441732.49568557291</v>
+        <v>475923.31023823912</v>
       </c>
       <c r="N44" s="23">
         <f t="shared" si="6"/>
-        <v>442521.5173128469</v>
+        <v>484965.4732307879</v>
       </c>
       <c r="O44" s="23">
         <f t="shared" si="6"/>
-        <v>442971.32863294444</v>
+        <v>493901.2756407914</v>
       </c>
       <c r="P44" s="23">
         <f t="shared" si="6"/>
-        <v>443071.75333665049</v>
+        <v>502727.52665077383</v>
       </c>
       <c r="Q44" s="23">
         <f t="shared" si="6"/>
-        <v>442812.30982547294</v>
+        <v>511440.93971873436</v>
       </c>
       <c r="R44" s="23">
         <f t="shared" si="6"/>
-        <v>442182.20205296593</v>
+        <v>520038.12970641197</v>
       </c>
       <c r="S44" s="23">
         <f t="shared" si="6"/>
-        <v>441170.31009128882</v>
+        <v>528515.60992139857</v>
       </c>
       <c r="T44" s="23">
         <f t="shared" si="6"/>
-        <v>439765.18041476695</v>
+        <v>460089.11633744359</v>
       </c>
       <c r="U44" s="23">
         <f t="shared" si="6"/>
-        <v>437955.01589195483</v>
+        <v>465848.14167333033</v>
       </c>
       <c r="V44" s="23">
         <f t="shared" si="6"/>
-        <v>435727.66547746392</v>
+        <v>471515.59993866854</v>
       </c>
       <c r="W44" s="23">
         <f t="shared" si="6"/>
-        <v>433070.6135945436</v>
+        <v>477088.74412134185</v>
       </c>
       <c r="X44" s="23">
         <f t="shared" si="6"/>
-        <v>341551.28610164096</v>
+        <v>272409.32337029895</v>
       </c>
       <c r="Y44" s="23">
         <f t="shared" si="6"/>
-        <v>337995.77141838189</v>
+        <v>277785.26623752841</v>
       </c>
       <c r="Z44" s="23">
         <f t="shared" si="6"/>
-        <v>333970.71033863042</v>
+        <v>283058.14956014976</v>
       </c>
       <c r="AA44" s="23">
         <f t="shared" si="6"/>
-        <v>329462.01647049194</v>
+        <v>288224.88155182463</v>
       </c>
       <c r="AB44" s="23">
         <f t="shared" si="6"/>
-        <v>324455.18083031458</v>
+        <v>293282.2776726248</v>
       </c>
       <c r="AC44" s="23">
         <f t="shared" si="6"/>
-        <v>318935.2591649376</v>
+        <v>298227.0578464237</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
@@ -6856,10 +6877,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="171" t="s">
+      <c r="A52" s="170" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="172">
+      <c r="B52" s="171">
         <f>B46</f>
         <v>2.9168299359086332E-2</v>
       </c>
@@ -6891,10 +6912,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="176" t="s">
+      <c r="A61" s="175" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="177">
+      <c r="B61" s="176">
         <v>24500</v>
       </c>
       <c r="C61" s="23" t="s">
@@ -6903,20 +6924,20 @@
       <c r="D61"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="176" t="s">
+      <c r="A62" s="175" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="178">
+      <c r="B62" s="177">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="176" t="s">
+      <c r="A63" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="179">
+      <c r="B63" s="178">
         <v>0.7</v>
       </c>
       <c r="C63" s="124"/>
@@ -6924,10 +6945,10 @@
       <c r="E63" s="132"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="176" t="s">
+      <c r="A64" s="175" t="s">
         <v>179</v>
       </c>
-      <c r="B64" s="180">
+      <c r="B64" s="179">
         <v>0.3</v>
       </c>
       <c r="C64" s="135"/>
@@ -6935,10 +6956,10 @@
       <c r="E64" s="132"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="176" t="s">
+      <c r="A65" s="175" t="s">
         <v>180</v>
       </c>
-      <c r="B65" s="179">
+      <c r="B65" s="178">
         <v>3.57</v>
       </c>
       <c r="C65" s="135" t="s">
@@ -6948,10 +6969,10 @@
       <c r="E65" s="132"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="176" t="s">
+      <c r="A66" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="B66" s="180">
+      <c r="B66" s="179">
         <v>4.7</v>
       </c>
       <c r="C66" s="136" t="s">
@@ -7576,10 +7597,11 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C38" r:id="rId1" display="https://www.macrotrends.net/global-metrics/countries/IND/india/inflation-rate-cpi" xr:uid="{BA07FAA1-2D10-4ED8-B014-28F87945E5D7}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{CA8A5249-5DC9-409F-99D2-B0195CBF1D1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7593,7 +7615,7 @@
   <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
@@ -8016,83 +8038,83 @@
       </c>
       <c r="D10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="K10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="L10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="M10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="N10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="O10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="P10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="R10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="S10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="T10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="U10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="V10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="W10">
         <f>Parameters!$B$18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8129,87 +8151,87 @@
       </c>
       <c r="D12" s="30">
         <f>D9*D10</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="E12" s="30">
         <f t="shared" ref="E12:W12" si="0">E9*E10</f>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="G12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="H12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="I12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="J12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="K12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="L12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="M12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="N12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="O12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="P12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="Q12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="R12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="S12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="T12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="U12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="V12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="W12" s="30">
         <f t="shared" si="0"/>
-        <v>1564892.6166000001</v>
+        <v>1221379.6032</v>
       </c>
       <c r="Y12" s="30">
         <f>SUM(D12:W12)</f>
-        <v>31297852.331999991</v>
+        <v>24427592.063999999</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -8227,7 +8249,7 @@
       </c>
       <c r="C17" s="23">
         <f>Parameters!B25</f>
-        <v>-10658771</v>
+        <v>-9807253</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -8239,83 +8261,83 @@
       </c>
       <c r="D18" s="23">
         <f>Parameters!$B$26*D$6</f>
-        <v>-390096.19452319999</v>
+        <v>-108150</v>
       </c>
       <c r="E18" s="23">
         <f>Parameters!$B$26*E$6</f>
-        <v>-401799.08035889594</v>
+        <v>-111394.5</v>
       </c>
       <c r="F18" s="23">
         <f>Parameters!$B$26*F$6</f>
-        <v>-413853.05276966287</v>
+        <v>-114736.33500000001</v>
       </c>
       <c r="G18" s="23">
         <f>Parameters!$B$26*G$6</f>
-        <v>-426268.64435275277</v>
+        <v>-118178.42505000002</v>
       </c>
       <c r="H18" s="23">
         <f>Parameters!$B$26*H$6</f>
-        <v>-439056.70368333533</v>
+        <v>-121723.77780150001</v>
       </c>
       <c r="I18" s="23">
         <f>Parameters!$B$26*I$6</f>
-        <v>-452228.40479383542</v>
+        <v>-125375.49113554502</v>
       </c>
       <c r="J18" s="23">
         <f>Parameters!$B$26*J$6</f>
-        <v>-465795.2569376505</v>
+        <v>-129136.75586961137</v>
       </c>
       <c r="K18" s="23">
         <f>Parameters!$B$26*K$6</f>
-        <v>-479769.11464578006</v>
+        <v>-133010.85854569971</v>
       </c>
       <c r="L18" s="23">
         <f>Parameters!$B$26*L$6</f>
-        <v>-494162.18808515347</v>
+        <v>-137001.1843020707</v>
       </c>
       <c r="M18" s="23">
         <f>Parameters!$B$26*M$6</f>
-        <v>-508987.05372770806</v>
+        <v>-141111.21983113282</v>
       </c>
       <c r="N18" s="23">
         <f>Parameters!$B$26*N$6</f>
-        <v>-524256.66533953929</v>
+        <v>-145344.55642606682</v>
       </c>
       <c r="O18" s="23">
         <f>Parameters!$B$26*O$6</f>
-        <v>-539984.36529972544</v>
+        <v>-149704.89311884882</v>
       </c>
       <c r="P18" s="23">
         <f>Parameters!$B$26*P$6</f>
-        <v>-556183.89625871729</v>
+        <v>-154196.0399124143</v>
       </c>
       <c r="Q18" s="23">
         <f>Parameters!$B$26*Q$6</f>
-        <v>-572869.41314647882</v>
+        <v>-158821.92110978675</v>
       </c>
       <c r="R18" s="23">
         <f>Parameters!$B$26*R$6</f>
-        <v>-590055.49554087326</v>
+        <v>-163586.57874308035</v>
       </c>
       <c r="S18" s="23">
         <f>Parameters!$B$26*S$6</f>
-        <v>-607757.16040709952</v>
+        <v>-168494.17610537278</v>
       </c>
       <c r="T18" s="23">
         <f>Parameters!$B$26*T$6</f>
-        <v>-625989.8752193125</v>
+        <v>-173549.00138853397</v>
       </c>
       <c r="U18" s="23">
         <f>Parameters!$B$26*U$6</f>
-        <v>-644769.57147589186</v>
+        <v>-178755.47143018997</v>
       </c>
       <c r="V18" s="23">
         <f>Parameters!$B$26*V$6</f>
-        <v>-664112.65862016869</v>
+        <v>-184118.1355730957</v>
       </c>
       <c r="W18" s="23">
         <f>Parameters!$B$26*W$6</f>
-        <v>-684036.03837877372</v>
+        <v>-189641.67964028858</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -8386,87 +8408,87 @@
       </c>
       <c r="C21" s="23">
         <f>C17</f>
-        <v>-10658771</v>
+        <v>-9807253</v>
       </c>
       <c r="D21" s="23">
         <f>D17+D18+D19</f>
-        <v>-540096.19452319993</v>
+        <v>-258150</v>
       </c>
       <c r="E21" s="23">
         <f t="shared" ref="E21:W21" si="1">E17+E18+E19</f>
-        <v>-551799.08035889594</v>
+        <v>-261394.5</v>
       </c>
       <c r="F21" s="23">
         <f t="shared" si="1"/>
-        <v>-563853.05276966281</v>
+        <v>-264736.33500000002</v>
       </c>
       <c r="G21" s="23">
         <f t="shared" si="1"/>
-        <v>-426268.64435275277</v>
+        <v>-118178.42505000002</v>
       </c>
       <c r="H21" s="23">
         <f t="shared" si="1"/>
-        <v>-439056.70368333533</v>
+        <v>-121723.77780150001</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" si="1"/>
-        <v>-452228.40479383542</v>
+        <v>-125375.49113554502</v>
       </c>
       <c r="J21" s="23">
         <f t="shared" si="1"/>
-        <v>-465795.2569376505</v>
+        <v>-129136.75586961137</v>
       </c>
       <c r="K21" s="23">
         <f t="shared" si="1"/>
-        <v>-479769.11464578006</v>
+        <v>-133010.85854569971</v>
       </c>
       <c r="L21" s="23">
         <f t="shared" si="1"/>
-        <v>-494162.18808515347</v>
+        <v>-137001.1843020707</v>
       </c>
       <c r="M21" s="23">
         <f t="shared" si="1"/>
-        <v>-508987.05372770806</v>
+        <v>-141111.21983113282</v>
       </c>
       <c r="N21" s="23">
         <f t="shared" si="1"/>
-        <v>-524256.66533953929</v>
+        <v>-145344.55642606682</v>
       </c>
       <c r="O21" s="23">
         <f t="shared" si="1"/>
-        <v>-539984.36529972544</v>
+        <v>-149704.89311884882</v>
       </c>
       <c r="P21" s="23">
         <f t="shared" si="1"/>
-        <v>-556183.89625871729</v>
+        <v>-154196.0399124143</v>
       </c>
       <c r="Q21" s="23">
         <f t="shared" si="1"/>
-        <v>-572869.41314647882</v>
+        <v>-158821.92110978675</v>
       </c>
       <c r="R21" s="23">
         <f t="shared" si="1"/>
-        <v>-590055.49554087326</v>
+        <v>-163586.57874308035</v>
       </c>
       <c r="S21" s="23">
         <f t="shared" si="1"/>
-        <v>-607757.16040709952</v>
+        <v>-168494.17610537278</v>
       </c>
       <c r="T21" s="23">
         <f t="shared" si="1"/>
-        <v>-625989.8752193125</v>
+        <v>-173549.00138853397</v>
       </c>
       <c r="U21" s="23">
         <f t="shared" si="1"/>
-        <v>-644769.57147589186</v>
+        <v>-178755.47143018997</v>
       </c>
       <c r="V21" s="23">
         <f t="shared" si="1"/>
-        <v>-664112.65862016869</v>
+        <v>-184118.1355730957</v>
       </c>
       <c r="W21" s="23">
         <f t="shared" si="1"/>
-        <v>-684036.03837877372</v>
+        <v>-189641.67964028858</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -8479,87 +8501,87 @@
       </c>
       <c r="C24" s="105">
         <f>C12+SUM(C17:C18)</f>
-        <v>-10658771</v>
+        <v>-9807253</v>
       </c>
       <c r="D24" s="105">
         <f>D12+D21</f>
-        <v>1024796.4220768001</v>
+        <v>963229.60320000001</v>
       </c>
       <c r="E24" s="105">
         <f t="shared" ref="E24:W24" si="2">E12+E21</f>
-        <v>1013093.5362411041</v>
+        <v>959985.10320000001</v>
       </c>
       <c r="F24" s="105">
         <f t="shared" si="2"/>
-        <v>1001039.5638303373</v>
+        <v>956643.26820000005</v>
       </c>
       <c r="G24" s="105">
         <f t="shared" si="2"/>
-        <v>1138623.9722472474</v>
+        <v>1103201.1781500001</v>
       </c>
       <c r="H24" s="105">
         <f t="shared" si="2"/>
-        <v>1125835.9129166647</v>
+        <v>1099655.8253985001</v>
       </c>
       <c r="I24" s="105">
         <f t="shared" si="2"/>
-        <v>1112664.2118061646</v>
+        <v>1096004.1120644549</v>
       </c>
       <c r="J24" s="105">
         <f t="shared" si="2"/>
-        <v>1099097.3596623496</v>
+        <v>1092242.8473303886</v>
       </c>
       <c r="K24" s="105">
         <f t="shared" si="2"/>
-        <v>1085123.50195422</v>
+        <v>1088368.7446543004</v>
       </c>
       <c r="L24" s="105">
         <f t="shared" si="2"/>
-        <v>1070730.4285148466</v>
+        <v>1084378.4188979294</v>
       </c>
       <c r="M24" s="105">
         <f t="shared" si="2"/>
-        <v>1055905.562872292</v>
+        <v>1080268.3833688672</v>
       </c>
       <c r="N24" s="105">
         <f t="shared" si="2"/>
-        <v>1040635.9512604608</v>
+        <v>1076035.0467739331</v>
       </c>
       <c r="O24" s="105">
         <f t="shared" si="2"/>
-        <v>1024908.2513002746</v>
+        <v>1071674.7100811512</v>
       </c>
       <c r="P24" s="105">
         <f t="shared" si="2"/>
-        <v>1008708.7203412828</v>
+        <v>1067183.5632875857</v>
       </c>
       <c r="Q24" s="105">
         <f t="shared" si="2"/>
-        <v>992023.20345352124</v>
+        <v>1062557.6820902133</v>
       </c>
       <c r="R24" s="105">
         <f t="shared" si="2"/>
-        <v>974837.1210591268</v>
+        <v>1057793.0244569196</v>
       </c>
       <c r="S24" s="105">
         <f t="shared" si="2"/>
-        <v>957135.45619290054</v>
+        <v>1052885.4270946272</v>
       </c>
       <c r="T24" s="105">
         <f t="shared" si="2"/>
-        <v>938902.74138068757</v>
+        <v>1047830.601811466</v>
       </c>
       <c r="U24" s="105">
         <f t="shared" si="2"/>
-        <v>920123.0451241082</v>
+        <v>1042624.1317698101</v>
       </c>
       <c r="V24" s="105">
         <f t="shared" si="2"/>
-        <v>900779.95797983138</v>
+        <v>1037261.4676269044</v>
       </c>
       <c r="W24" s="105">
         <f t="shared" si="2"/>
-        <v>880856.57822122634</v>
+        <v>1031737.9235597114</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8577,59 +8599,59 @@
       </c>
       <c r="D26" s="108">
         <f>D39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="E26" s="108">
         <f t="shared" ref="E26:W26" si="3">E39</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="F26" s="108">
         <f t="shared" si="3"/>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="G26" s="108">
         <f t="shared" si="3"/>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="H26" s="108">
         <f t="shared" si="3"/>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="I26" s="108">
         <f t="shared" si="3"/>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="J26" s="108">
         <f t="shared" si="3"/>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="K26" s="108">
         <f t="shared" si="3"/>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="L26" s="108">
         <f t="shared" si="3"/>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="M26" s="108">
         <f t="shared" si="3"/>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="N26" s="108">
         <f t="shared" si="3"/>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="O26" s="108">
         <f t="shared" si="3"/>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="P26" s="108">
         <f t="shared" si="3"/>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="Q26" s="108">
         <f t="shared" si="3"/>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="R26" s="108">
         <f t="shared" si="3"/>
@@ -8666,87 +8688,87 @@
       </c>
       <c r="C28" s="108">
         <f>C24+C26</f>
-        <v>-10658771</v>
+        <v>-9807253</v>
       </c>
       <c r="D28" s="108">
         <f t="shared" ref="D28:W28" si="4">D24+D26</f>
-        <v>263455.63636251446</v>
+        <v>262711.53177142853</v>
       </c>
       <c r="E28" s="108">
         <f t="shared" si="4"/>
-        <v>251752.75052681845</v>
+        <v>259467.03177142853</v>
       </c>
       <c r="F28" s="108">
         <f t="shared" si="4"/>
-        <v>239698.77811605157</v>
+        <v>256125.19677142857</v>
       </c>
       <c r="G28" s="108">
         <f t="shared" si="4"/>
-        <v>377283.18653296167</v>
+        <v>402683.10672142857</v>
       </c>
       <c r="H28" s="108">
         <f t="shared" si="4"/>
-        <v>364495.12720237905</v>
+        <v>399137.7539699286</v>
       </c>
       <c r="I28" s="108">
         <f t="shared" si="4"/>
-        <v>351323.42609187891</v>
+        <v>395486.04063588346</v>
       </c>
       <c r="J28" s="108">
         <f t="shared" si="4"/>
-        <v>337756.57394806389</v>
+        <v>391724.77590181713</v>
       </c>
       <c r="K28" s="108">
         <f t="shared" si="4"/>
-        <v>323782.71623993432</v>
+        <v>387850.67322572891</v>
       </c>
       <c r="L28" s="108">
         <f t="shared" si="4"/>
-        <v>309389.64280056092</v>
+        <v>383860.34746935789</v>
       </c>
       <c r="M28" s="108">
         <f t="shared" si="4"/>
-        <v>294564.77715800633</v>
+        <v>379750.31194029574</v>
       </c>
       <c r="N28" s="108">
         <f t="shared" si="4"/>
-        <v>279295.16554617509</v>
+        <v>375516.97534536163</v>
       </c>
       <c r="O28" s="108">
         <f t="shared" si="4"/>
-        <v>263567.46558598895</v>
+        <v>371156.63865257974</v>
       </c>
       <c r="P28" s="108">
         <f t="shared" si="4"/>
-        <v>247367.9346269971</v>
+        <v>366665.49185901426</v>
       </c>
       <c r="Q28" s="108">
         <f t="shared" si="4"/>
-        <v>230682.41773923556</v>
+        <v>362039.61066164181</v>
       </c>
       <c r="R28" s="108">
         <f t="shared" si="4"/>
-        <v>974837.1210591268</v>
+        <v>1057793.0244569196</v>
       </c>
       <c r="S28" s="108">
         <f t="shared" si="4"/>
-        <v>957135.45619290054</v>
+        <v>1052885.4270946272</v>
       </c>
       <c r="T28" s="108">
         <f t="shared" si="4"/>
-        <v>938902.74138068757</v>
+        <v>1047830.601811466</v>
       </c>
       <c r="U28" s="108">
         <f t="shared" si="4"/>
-        <v>920123.0451241082</v>
+        <v>1042624.1317698101</v>
       </c>
       <c r="V28" s="108">
         <f t="shared" si="4"/>
-        <v>900779.95797983138</v>
+        <v>1037261.4676269044</v>
       </c>
       <c r="W28" s="109">
         <f t="shared" si="4"/>
-        <v>880856.57822122634</v>
+        <v>1031737.9235597114</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -8758,7 +8780,7 @@
       </c>
       <c r="D30" s="23">
         <f>D54</f>
-        <v>994.86208723069183</v>
+        <v>0</v>
       </c>
       <c r="E30" s="23">
         <f t="shared" ref="E30:W30" si="5">E54</f>
@@ -8770,71 +8792,71 @@
       </c>
       <c r="G30" s="23">
         <f t="shared" si="5"/>
-        <v>15149.999367223803</v>
+        <v>0</v>
       </c>
       <c r="H30" s="23">
         <f t="shared" si="5"/>
-        <v>15253.349389857902</v>
+        <v>0</v>
       </c>
       <c r="I30" s="23">
         <f t="shared" si="5"/>
-        <v>15312.267939750851</v>
+        <v>0</v>
       </c>
       <c r="J30" s="23">
         <f t="shared" si="5"/>
-        <v>15325.42207272045</v>
+        <v>0</v>
       </c>
       <c r="K30" s="23">
         <f t="shared" si="5"/>
-        <v>15291.438856258934</v>
+        <v>0</v>
       </c>
       <c r="L30" s="23">
         <f t="shared" si="5"/>
-        <v>15208.904169883439</v>
+        <v>0</v>
       </c>
       <c r="M30" s="23">
         <f t="shared" si="5"/>
-        <v>15076.361469496504</v>
+        <v>0</v>
       </c>
       <c r="N30" s="23">
         <f t="shared" si="5"/>
-        <v>14892.310514677789</v>
+        <v>76780.672733069659</v>
       </c>
       <c r="O30" s="23">
         <f t="shared" si="5"/>
-        <v>14655.206057794356</v>
+        <v>79248.82644844969</v>
       </c>
       <c r="P30" s="23">
         <f t="shared" si="5"/>
-        <v>14363.456493784253</v>
+        <v>81677.737133594666</v>
       </c>
       <c r="Q30" s="23">
         <f t="shared" si="5"/>
-        <v>14015.422469433674</v>
+        <v>84066.227497597531</v>
       </c>
       <c r="R30" s="23">
         <f t="shared" si="5"/>
-        <v>102029.0985484324</v>
+        <v>296568.50635939551</v>
       </c>
       <c r="S30" s="23">
         <f t="shared" si="5"/>
-        <v>101563.37934595594</v>
+        <v>298872.4818739224</v>
       </c>
       <c r="T30" s="23">
         <f t="shared" si="5"/>
-        <v>101036.156593985</v>
+        <v>301132.28901218862</v>
       </c>
       <c r="U30" s="23">
         <f t="shared" si="5"/>
-        <v>100445.58518603479</v>
+        <v>303346.60272290645</v>
       </c>
       <c r="V30" s="23">
         <f t="shared" si="5"/>
-        <v>99789.764662425907</v>
+        <v>305514.05820324935</v>
       </c>
       <c r="W30" s="23">
         <f t="shared" si="5"/>
-        <v>99066.737549688565</v>
+        <v>307633.24970630609</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -8846,87 +8868,87 @@
       </c>
       <c r="C31" s="52">
         <f>C24-C30</f>
-        <v>-10658771</v>
+        <v>-9807253</v>
       </c>
       <c r="D31" s="52">
         <f t="shared" ref="D31:W31" si="6">D24-D30</f>
-        <v>1023801.5599895695</v>
+        <v>963229.60320000001</v>
       </c>
       <c r="E31" s="52">
         <f t="shared" si="6"/>
-        <v>1013093.5362411041</v>
+        <v>959985.10320000001</v>
       </c>
       <c r="F31" s="52">
         <f t="shared" si="6"/>
-        <v>1001039.5638303373</v>
+        <v>956643.26820000005</v>
       </c>
       <c r="G31" s="52">
         <f t="shared" si="6"/>
-        <v>1123473.9728800235</v>
+        <v>1103201.1781500001</v>
       </c>
       <c r="H31" s="52">
         <f t="shared" si="6"/>
-        <v>1110582.5635268069</v>
+        <v>1099655.8253985001</v>
       </c>
       <c r="I31" s="52">
         <f t="shared" si="6"/>
-        <v>1097351.9438664138</v>
+        <v>1096004.1120644549</v>
       </c>
       <c r="J31" s="52">
         <f t="shared" si="6"/>
-        <v>1083771.9375896291</v>
+        <v>1092242.8473303886</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="6"/>
-        <v>1069832.063097961</v>
+        <v>1088368.7446543004</v>
       </c>
       <c r="L31" s="52">
         <f t="shared" si="6"/>
-        <v>1055521.5243449633</v>
+        <v>1084378.4188979294</v>
       </c>
       <c r="M31" s="52">
         <f t="shared" si="6"/>
-        <v>1040829.2014027955</v>
+        <v>1080268.3833688672</v>
       </c>
       <c r="N31" s="52">
         <f t="shared" si="6"/>
-        <v>1025743.640745783</v>
+        <v>999254.37404086348</v>
       </c>
       <c r="O31" s="52">
         <f t="shared" si="6"/>
-        <v>1010253.0452424802</v>
+        <v>992425.88363270159</v>
       </c>
       <c r="P31" s="52">
         <f t="shared" si="6"/>
-        <v>994345.26384749857</v>
+        <v>985505.82615399105</v>
       </c>
       <c r="Q31" s="52">
         <f t="shared" si="6"/>
-        <v>978007.78098408761</v>
+        <v>978491.45459261572</v>
       </c>
       <c r="R31" s="52">
         <f t="shared" si="6"/>
-        <v>872808.02251069434</v>
+        <v>761224.51809752407</v>
       </c>
       <c r="S31" s="52">
         <f t="shared" si="6"/>
-        <v>855572.07684694463</v>
+        <v>754012.94522070477</v>
       </c>
       <c r="T31" s="52">
         <f t="shared" si="6"/>
-        <v>837866.58478670253</v>
+        <v>746698.31279927748</v>
       </c>
       <c r="U31" s="52">
         <f t="shared" si="6"/>
-        <v>819677.45993807341</v>
+        <v>739277.5290469036</v>
       </c>
       <c r="V31" s="52">
         <f t="shared" si="6"/>
-        <v>800990.19331740541</v>
+        <v>731747.40942365502</v>
       </c>
       <c r="W31" s="52">
         <f t="shared" si="6"/>
-        <v>781789.84067153779</v>
+        <v>724104.67385340529</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8995,83 +9017,83 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38">
         <f t="shared" ref="D36:W36" si="7">D24</f>
-        <v>1024796.4220768001</v>
+        <v>963229.60320000001</v>
       </c>
       <c r="E36" s="38">
         <f t="shared" si="7"/>
-        <v>1013093.5362411041</v>
+        <v>959985.10320000001</v>
       </c>
       <c r="F36" s="38">
         <f t="shared" si="7"/>
-        <v>1001039.5638303373</v>
+        <v>956643.26820000005</v>
       </c>
       <c r="G36" s="38">
         <f t="shared" si="7"/>
-        <v>1138623.9722472474</v>
+        <v>1103201.1781500001</v>
       </c>
       <c r="H36" s="38">
         <f t="shared" si="7"/>
-        <v>1125835.9129166647</v>
+        <v>1099655.8253985001</v>
       </c>
       <c r="I36" s="38">
         <f t="shared" si="7"/>
-        <v>1112664.2118061646</v>
+        <v>1096004.1120644549</v>
       </c>
       <c r="J36" s="38">
         <f t="shared" si="7"/>
-        <v>1099097.3596623496</v>
+        <v>1092242.8473303886</v>
       </c>
       <c r="K36" s="38">
         <f t="shared" si="7"/>
-        <v>1085123.50195422</v>
+        <v>1088368.7446543004</v>
       </c>
       <c r="L36" s="38">
         <f t="shared" si="7"/>
-        <v>1070730.4285148466</v>
+        <v>1084378.4188979294</v>
       </c>
       <c r="M36" s="38">
         <f t="shared" si="7"/>
-        <v>1055905.562872292</v>
+        <v>1080268.3833688672</v>
       </c>
       <c r="N36" s="38">
         <f t="shared" si="7"/>
-        <v>1040635.9512604608</v>
+        <v>1076035.0467739331</v>
       </c>
       <c r="O36" s="38">
         <f t="shared" si="7"/>
-        <v>1024908.2513002746</v>
+        <v>1071674.7100811512</v>
       </c>
       <c r="P36" s="38">
         <f t="shared" si="7"/>
-        <v>1008708.7203412828</v>
+        <v>1067183.5632875857</v>
       </c>
       <c r="Q36" s="38">
         <f t="shared" si="7"/>
-        <v>992023.20345352124</v>
+        <v>1062557.6820902133</v>
       </c>
       <c r="R36" s="38">
         <f t="shared" si="7"/>
-        <v>974837.1210591268</v>
+        <v>1057793.0244569196</v>
       </c>
       <c r="S36" s="38">
         <f t="shared" si="7"/>
-        <v>957135.45619290054</v>
+        <v>1052885.4270946272</v>
       </c>
       <c r="T36" s="38">
         <f t="shared" si="7"/>
-        <v>938902.74138068757</v>
+        <v>1047830.601811466</v>
       </c>
       <c r="U36" s="38">
         <f t="shared" si="7"/>
-        <v>920123.0451241082</v>
+        <v>1042624.1317698101</v>
       </c>
       <c r="V36" s="38">
         <f t="shared" si="7"/>
-        <v>900779.95797983138</v>
+        <v>1037261.4676269044</v>
       </c>
       <c r="W36" s="42">
         <f t="shared" si="7"/>
-        <v>880856.57822122634</v>
+        <v>1031737.9235597114</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
@@ -9109,83 +9131,83 @@
       <c r="C38" s="37"/>
       <c r="D38" s="38">
         <f t="shared" ref="D38:F38" si="8">-D60</f>
-        <v>-232567.32666834103</v>
+        <v>-213987.76764882813</v>
       </c>
       <c r="E38" s="38">
         <f t="shared" si="8"/>
-        <v>-232567.32666834103</v>
+        <v>-213987.76764882813</v>
       </c>
       <c r="F38" s="38">
         <f t="shared" si="8"/>
-        <v>-232567.32666834103</v>
+        <v>-213987.76764882813</v>
       </c>
       <c r="G38" s="38">
         <f>-G60</f>
-        <v>-225727.11117809571</v>
+        <v>-207694.00977680378</v>
       </c>
       <c r="H38" s="38">
         <f t="shared" ref="H38:W38" si="9">-H60</f>
-        <v>-212046.68019760505</v>
+        <v>-195106.49403275506</v>
       </c>
       <c r="I38" s="38">
         <f t="shared" si="9"/>
-        <v>-198366.24921711438</v>
+        <v>-182518.97828870636</v>
       </c>
       <c r="J38" s="38">
         <f t="shared" si="9"/>
-        <v>-184685.81823662372</v>
+        <v>-169931.46254465764</v>
       </c>
       <c r="K38" s="38">
         <f t="shared" si="9"/>
-        <v>-171005.38725613308</v>
+        <v>-157343.94680060894</v>
       </c>
       <c r="L38" s="38">
         <f t="shared" si="9"/>
-        <v>-157324.95627564241</v>
+        <v>-144756.43105656022</v>
       </c>
       <c r="M38" s="38">
         <f t="shared" si="9"/>
-        <v>-143644.52529515175</v>
+        <v>-132168.91531251153</v>
       </c>
       <c r="N38" s="38">
         <f t="shared" si="9"/>
-        <v>-129964.09431466108</v>
+        <v>-119581.3995684628</v>
       </c>
       <c r="O38" s="38">
         <f t="shared" si="9"/>
-        <v>-116283.66333417043</v>
+        <v>-106993.88382441409</v>
       </c>
       <c r="P38" s="38">
         <f t="shared" si="9"/>
-        <v>-102603.23235367978</v>
+        <v>-94406.368080365384</v>
       </c>
       <c r="Q38" s="38">
         <f t="shared" si="9"/>
-        <v>-88922.801373189141</v>
+        <v>-81818.852336316675</v>
       </c>
       <c r="R38" s="38">
         <f t="shared" si="9"/>
-        <v>-75242.370392698489</v>
+        <v>-69231.336592267966</v>
       </c>
       <c r="S38" s="38">
         <f t="shared" si="9"/>
-        <v>-61561.939412207852</v>
+        <v>-56643.820848219249</v>
       </c>
       <c r="T38" s="38">
         <f t="shared" si="9"/>
-        <v>-47881.508431717208</v>
+        <v>-44056.30510417054</v>
       </c>
       <c r="U38" s="38">
         <f t="shared" si="9"/>
-        <v>-34201.077451226556</v>
+        <v>-31468.789360121831</v>
       </c>
       <c r="V38" s="38">
         <f t="shared" si="9"/>
-        <v>-20520.646470735912</v>
+        <v>-18881.273616073115</v>
       </c>
       <c r="W38" s="38">
         <f t="shared" si="9"/>
-        <v>-6840.2154902452648</v>
+        <v>-6293.7578720244028</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9198,59 +9220,59 @@
       <c r="C39" s="45"/>
       <c r="D39" s="46">
         <f>IF(D4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="E39" s="46">
         <f>IF(E4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="F39" s="46">
         <f>IF(F4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="G39" s="46">
         <f>IF(G4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="H39" s="46">
         <f>IF(H4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="I39" s="46">
         <f>IF(I4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="J39" s="46">
         <f>IF(J4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="K39" s="46">
         <f>IF(K4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="L39" s="46">
         <f>IF(L4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="M39" s="46">
         <f>IF(M4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="N39" s="46">
         <f>IF(N4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="O39" s="46">
         <f>IF(O4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="P39" s="46">
         <f>IF(P4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="Q39" s="46">
         <f>IF(Q4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
-        <v>-761340.78571428568</v>
+        <v>-700518.07142857148</v>
       </c>
       <c r="R39" s="46">
         <f>IF(R4&lt;=Parameters!$B$50,Parameters!$B$25/Parameters!$B$50,0)</f>
@@ -9287,83 +9309,83 @@
       <c r="C40" s="49"/>
       <c r="D40" s="50">
         <f>SUM(D36:D39)</f>
-        <v>30888.309694173397</v>
+        <v>48723.764122600434</v>
       </c>
       <c r="E40" s="50">
         <f t="shared" ref="E40:W40" si="10">SUM(E36:E39)</f>
-        <v>19185.423858477385</v>
+        <v>45479.264122600434</v>
       </c>
       <c r="F40" s="50">
         <f t="shared" si="10"/>
-        <v>7131.4514477105113</v>
+        <v>42137.429122600472</v>
       </c>
       <c r="G40" s="50">
         <f t="shared" si="10"/>
-        <v>151556.07535486598</v>
+        <v>194989.09694462479</v>
       </c>
       <c r="H40" s="50">
         <f t="shared" si="10"/>
-        <v>152448.447004774</v>
+        <v>204031.25993717357</v>
       </c>
       <c r="I40" s="50">
         <f t="shared" si="10"/>
-        <v>152957.1768747645</v>
+        <v>212967.06234717707</v>
       </c>
       <c r="J40" s="50">
         <f t="shared" si="10"/>
-        <v>153070.75571144023</v>
+        <v>221793.3133571595</v>
       </c>
       <c r="K40" s="50">
         <f t="shared" si="10"/>
-        <v>152777.32898380118</v>
+        <v>230506.72642512002</v>
       </c>
       <c r="L40" s="50">
         <f t="shared" si="10"/>
-        <v>152064.68652491854</v>
+        <v>239103.91641279764</v>
       </c>
       <c r="M40" s="50">
         <f t="shared" si="10"/>
-        <v>150920.25186285458</v>
+        <v>247581.39662778424</v>
       </c>
       <c r="N40" s="50">
         <f t="shared" si="10"/>
-        <v>149331.07123151398</v>
+        <v>255935.57577689888</v>
       </c>
       <c r="O40" s="50">
         <f t="shared" si="10"/>
-        <v>147283.80225181847</v>
+        <v>264162.75482816563</v>
       </c>
       <c r="P40" s="50">
         <f t="shared" si="10"/>
-        <v>144764.70227331738</v>
+        <v>272259.12377864891</v>
       </c>
       <c r="Q40" s="50">
         <f t="shared" si="10"/>
-        <v>141759.61636604648</v>
+        <v>280220.75832532509</v>
       </c>
       <c r="R40" s="50">
         <f t="shared" si="10"/>
-        <v>899594.75066642836</v>
+        <v>988561.68786465167</v>
       </c>
       <c r="S40" s="50">
         <f t="shared" si="10"/>
-        <v>895573.51678069273</v>
+        <v>996241.60624640796</v>
       </c>
       <c r="T40" s="50">
         <f t="shared" si="10"/>
-        <v>891021.2329489704</v>
+        <v>1003774.2967072955</v>
       </c>
       <c r="U40" s="50">
         <f t="shared" si="10"/>
-        <v>885921.96767288167</v>
+        <v>1011155.3424096883</v>
       </c>
       <c r="V40" s="50">
         <f t="shared" si="10"/>
-        <v>880259.31150909548</v>
+        <v>1018380.1940108313</v>
       </c>
       <c r="W40" s="50">
         <f t="shared" si="10"/>
-        <v>874016.36273098108</v>
+        <v>1025444.165687687</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
@@ -9464,83 +9486,83 @@
       <c r="C42" s="45"/>
       <c r="D42" s="46">
         <f>D40-D41</f>
-        <v>30888.309694173397</v>
+        <v>48723.764122600434</v>
       </c>
       <c r="E42" s="46">
         <f>E40+E41</f>
-        <v>19185.423858477385</v>
+        <v>45479.264122600434</v>
       </c>
       <c r="F42" s="46">
         <f t="shared" ref="F42:W42" si="11">F40+F41</f>
-        <v>7131.4514477105113</v>
+        <v>42137.429122600472</v>
       </c>
       <c r="G42" s="46">
         <f t="shared" si="11"/>
-        <v>151556.07535486598</v>
+        <v>194989.09694462479</v>
       </c>
       <c r="H42" s="46">
         <f t="shared" si="11"/>
-        <v>152448.447004774</v>
+        <v>204031.25993717357</v>
       </c>
       <c r="I42" s="46">
         <f t="shared" si="11"/>
-        <v>152957.1768747645</v>
+        <v>212967.06234717707</v>
       </c>
       <c r="J42" s="46">
         <f t="shared" si="11"/>
-        <v>153070.75571144023</v>
+        <v>221793.3133571595</v>
       </c>
       <c r="K42" s="46">
         <f t="shared" si="11"/>
-        <v>152777.32898380118</v>
+        <v>230506.72642512002</v>
       </c>
       <c r="L42" s="46">
         <f t="shared" si="11"/>
-        <v>152064.68652491854</v>
+        <v>239103.91641279764</v>
       </c>
       <c r="M42" s="46">
         <f t="shared" si="11"/>
-        <v>150920.25186285458</v>
+        <v>247581.39662778424</v>
       </c>
       <c r="N42" s="46">
         <f t="shared" si="11"/>
-        <v>149331.07123151398</v>
+        <v>255935.57577689888</v>
       </c>
       <c r="O42" s="46">
         <f t="shared" si="11"/>
-        <v>147283.80225181847</v>
+        <v>264162.75482816563</v>
       </c>
       <c r="P42" s="46">
         <f t="shared" si="11"/>
-        <v>144764.70227331738</v>
+        <v>272259.12377864891</v>
       </c>
       <c r="Q42" s="46">
         <f t="shared" si="11"/>
-        <v>141759.61636604648</v>
+        <v>280220.75832532509</v>
       </c>
       <c r="R42" s="46">
         <f t="shared" si="11"/>
-        <v>899594.75066642836</v>
+        <v>988561.68786465167</v>
       </c>
       <c r="S42" s="46">
         <f t="shared" si="11"/>
-        <v>895573.51678069273</v>
+        <v>996241.60624640796</v>
       </c>
       <c r="T42" s="46">
         <f t="shared" si="11"/>
-        <v>891021.2329489704</v>
+        <v>1003774.2967072955</v>
       </c>
       <c r="U42" s="46">
         <f t="shared" si="11"/>
-        <v>885921.96767288167</v>
+        <v>1011155.3424096883</v>
       </c>
       <c r="V42" s="46">
         <f t="shared" si="11"/>
-        <v>880259.31150909548</v>
+        <v>1018380.1940108313</v>
       </c>
       <c r="W42" s="46">
         <f t="shared" si="11"/>
-        <v>874016.36273098108</v>
+        <v>1025444.165687687</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -9578,86 +9600,26 @@
         <v>7</v>
       </c>
       <c r="C44" s="142"/>
-      <c r="D44" s="143">
-        <f>IF(D42&gt;24500,D42-Parameters!$B$61,0)</f>
-        <v>6388.3096941733966</v>
-      </c>
-      <c r="E44" s="143">
-        <f>IF(E42&gt;24500,E42-Parameters!$B$61,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="143">
-        <f>IF(F42&gt;24500,F42-Parameters!$B$61,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="143">
-        <f>IF(G42&gt;24500,G42-Parameters!$B$61,0)</f>
-        <v>127056.07535486598</v>
-      </c>
-      <c r="H44" s="143">
-        <f>IF(H42&gt;24500,H42-Parameters!$B$61,0)</f>
-        <v>127948.447004774</v>
-      </c>
-      <c r="I44" s="143">
-        <f>IF(I42&gt;24500,I42-Parameters!$B$61,0)</f>
-        <v>128457.1768747645</v>
-      </c>
-      <c r="J44" s="143">
-        <f>IF(J42&gt;24500,J42-Parameters!$B$61,0)</f>
-        <v>128570.75571144023</v>
-      </c>
-      <c r="K44" s="143">
-        <f>IF(K42&gt;24500,K42-Parameters!$B$61,0)</f>
-        <v>128277.32898380118</v>
-      </c>
-      <c r="L44" s="143">
-        <f>IF(L42&gt;24500,L42-Parameters!$B$61,0)</f>
-        <v>127564.68652491854</v>
-      </c>
-      <c r="M44" s="143">
-        <f>IF(M42&gt;24500,M42-Parameters!$B$61,0)</f>
-        <v>126420.25186285458</v>
-      </c>
-      <c r="N44" s="143">
-        <f>IF(N42&gt;24500,N42-Parameters!$B$61,0)</f>
-        <v>124831.07123151398</v>
-      </c>
-      <c r="O44" s="143">
-        <f>IF(O42&gt;24500,O42-Parameters!$B$61,0)</f>
-        <v>122783.80225181847</v>
-      </c>
-      <c r="P44" s="143">
-        <f>IF(P42&gt;24500,P42-Parameters!$B$61,0)</f>
-        <v>120264.70227331738</v>
-      </c>
-      <c r="Q44" s="143">
-        <f>IF(Q42&gt;24500,Q42-Parameters!$B$61,0)</f>
-        <v>117259.61636604648</v>
-      </c>
-      <c r="R44" s="143">
-        <f>IF(R42&gt;24500,R42-Parameters!$B$61,0)</f>
-        <v>875094.75066642836</v>
-      </c>
-      <c r="S44" s="143">
-        <f>IF(S42&gt;24500,S42-Parameters!$B$61,0)</f>
-        <v>871073.51678069273</v>
-      </c>
-      <c r="T44" s="143">
-        <f>IF(T42&gt;24500,T42-Parameters!$B$61,0)</f>
-        <v>866521.2329489704</v>
-      </c>
-      <c r="U44" s="143">
-        <f>IF(U42&gt;24500,U42-Parameters!$B$61,0)</f>
-        <v>861421.96767288167</v>
-      </c>
-      <c r="V44" s="143">
-        <f>IF(V42&gt;24500,V42-Parameters!$B$61,0)</f>
-        <v>855759.31150909548</v>
-      </c>
-      <c r="W44" s="143">
-        <f>IF(W42&gt;24500,W42-Parameters!$B$61,0)</f>
-        <v>849516.36273098108</v>
-      </c>
+      <c r="D44" s="143"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="143"/>
+      <c r="G44" s="143"/>
+      <c r="H44" s="143"/>
+      <c r="I44" s="143"/>
+      <c r="J44" s="143"/>
+      <c r="K44" s="143"/>
+      <c r="L44" s="143"/>
+      <c r="M44" s="143"/>
+      <c r="N44" s="143"/>
+      <c r="O44" s="143"/>
+      <c r="P44" s="143"/>
+      <c r="Q44" s="143"/>
+      <c r="R44" s="143"/>
+      <c r="S44" s="143"/>
+      <c r="T44" s="143"/>
+      <c r="U44" s="143"/>
+      <c r="V44" s="143"/>
+      <c r="W44" s="143"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
@@ -9669,7 +9631,7 @@
       <c r="C45" s="45"/>
       <c r="D45" s="46">
         <f>D44*0.7</f>
-        <v>4471.8167859213772</v>
+        <v>0</v>
       </c>
       <c r="E45" s="46">
         <f t="shared" ref="E45:W45" si="12">E44*0.7</f>
@@ -9681,71 +9643,53 @@
       </c>
       <c r="G45" s="46">
         <f t="shared" si="12"/>
-        <v>88939.252748406187</v>
+        <v>0</v>
       </c>
       <c r="H45" s="46">
         <f t="shared" si="12"/>
-        <v>89563.912903341799</v>
+        <v>0</v>
       </c>
       <c r="I45" s="46">
         <f t="shared" si="12"/>
-        <v>89920.023812335145</v>
+        <v>0</v>
       </c>
       <c r="J45" s="46">
         <f t="shared" si="12"/>
-        <v>89999.528998008158</v>
+        <v>0</v>
       </c>
       <c r="K45" s="46">
         <f t="shared" si="12"/>
-        <v>89794.130288660817</v>
+        <v>0</v>
       </c>
       <c r="L45" s="46">
         <f t="shared" si="12"/>
-        <v>89295.280567442969</v>
+        <v>0</v>
       </c>
       <c r="M45" s="46">
         <f t="shared" si="12"/>
-        <v>88494.176303998203</v>
-      </c>
-      <c r="N45" s="46">
-        <f t="shared" si="12"/>
-        <v>87381.749862059776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N45" s="46"/>
       <c r="O45" s="46">
         <f t="shared" si="12"/>
-        <v>85948.66157627292</v>
+        <v>0</v>
       </c>
       <c r="P45" s="46">
         <f t="shared" si="12"/>
-        <v>84185.291591322166</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="46">
         <f t="shared" si="12"/>
-        <v>82081.731456232534</v>
-      </c>
-      <c r="R45" s="46">
-        <f t="shared" si="12"/>
-        <v>612566.32546649978</v>
-      </c>
-      <c r="S45" s="46">
-        <f t="shared" si="12"/>
-        <v>609751.46174648486</v>
-      </c>
-      <c r="T45" s="46">
-        <f t="shared" si="12"/>
-        <v>606564.8630642792</v>
-      </c>
-      <c r="U45" s="46">
-        <f t="shared" si="12"/>
-        <v>602995.37737101712</v>
-      </c>
-      <c r="V45" s="46">
-        <f t="shared" si="12"/>
-        <v>599031.51805636683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
       <c r="W45" s="46">
         <f t="shared" si="12"/>
-        <v>594661.45391168667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
@@ -9758,7 +9702,7 @@
       <c r="C46" s="45"/>
       <c r="D46" s="46">
         <f>IF(D45=0,0,IF(D45&lt;=65000,120,IF(D45&lt;=80000,200,IF(D45&lt;=105000,300,400))))</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E46" s="46">
         <f t="shared" ref="E46:W46" si="13">IF(E45=0,0,IF(E45&lt;=65000,120,IF(E45&lt;=80000,200,IF(E45&lt;=105000,300,400))))</f>
@@ -9770,71 +9714,53 @@
       </c>
       <c r="G46" s="46">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H46" s="46">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I46" s="46">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J46" s="46">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K46" s="46">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L46" s="46">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M46" s="46">
         <f t="shared" si="13"/>
-        <v>300</v>
-      </c>
-      <c r="N46" s="46">
-        <f t="shared" si="13"/>
-        <v>300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N46" s="46"/>
       <c r="O46" s="46">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P46" s="46">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="46">
         <f t="shared" si="13"/>
-        <v>300</v>
-      </c>
-      <c r="R46" s="46">
-        <f t="shared" si="13"/>
-        <v>400</v>
-      </c>
-      <c r="S46" s="46">
-        <f t="shared" si="13"/>
-        <v>400</v>
-      </c>
-      <c r="T46" s="46">
-        <f t="shared" si="13"/>
-        <v>400</v>
-      </c>
-      <c r="U46" s="46">
-        <f t="shared" si="13"/>
-        <v>400</v>
-      </c>
-      <c r="V46" s="46">
-        <f t="shared" si="13"/>
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
       <c r="W46" s="46">
         <f t="shared" si="13"/>
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
@@ -9847,7 +9773,7 @@
       <c r="C47" s="45"/>
       <c r="D47" s="46">
         <f>D45*0.035*3.57</f>
-        <v>558.75350740087606</v>
+        <v>0</v>
       </c>
       <c r="E47" s="46">
         <f t="shared" ref="E47:W47" si="14">E45*0.035*3.57</f>
@@ -9859,71 +9785,53 @@
       </c>
       <c r="G47" s="46">
         <f t="shared" si="14"/>
-        <v>11112.959630913352</v>
+        <v>0</v>
       </c>
       <c r="H47" s="46">
         <f t="shared" si="14"/>
-        <v>11191.010917272559</v>
+        <v>0</v>
       </c>
       <c r="I47" s="46">
         <f t="shared" si="14"/>
-        <v>11235.506975351276</v>
+        <v>0</v>
       </c>
       <c r="J47" s="46">
         <f t="shared" si="14"/>
-        <v>11245.441148301119</v>
+        <v>0</v>
       </c>
       <c r="K47" s="46">
         <f t="shared" si="14"/>
-        <v>11219.77657956817</v>
+        <v>0</v>
       </c>
       <c r="L47" s="46">
         <f t="shared" si="14"/>
-        <v>11157.445306901998</v>
+        <v>0</v>
       </c>
       <c r="M47" s="46">
         <f t="shared" si="14"/>
-        <v>11057.347329184577</v>
-      </c>
-      <c r="N47" s="46">
-        <f t="shared" si="14"/>
-        <v>10918.349645264369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N47" s="46"/>
       <c r="O47" s="46">
         <f t="shared" si="14"/>
-        <v>10739.285263955302</v>
+        <v>0</v>
       </c>
       <c r="P47" s="46">
         <f t="shared" si="14"/>
-        <v>10518.952184335705</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="46">
         <f t="shared" si="14"/>
-        <v>10256.112345456255</v>
-      </c>
-      <c r="R47" s="46">
-        <f t="shared" si="14"/>
-        <v>76540.162367039156</v>
-      </c>
-      <c r="S47" s="46">
-        <f t="shared" si="14"/>
-        <v>76188.44514522329</v>
-      </c>
-      <c r="T47" s="46">
-        <f t="shared" si="14"/>
-        <v>75790.279639881686</v>
-      </c>
-      <c r="U47" s="46">
-        <f t="shared" si="14"/>
-        <v>75344.272402508592</v>
-      </c>
-      <c r="V47" s="46">
-        <f t="shared" si="14"/>
-        <v>74848.988181143039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
       <c r="W47" s="46">
         <f t="shared" si="14"/>
-        <v>74302.948666265249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:23" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9936,7 +9844,7 @@
       <c r="C48" s="43"/>
       <c r="D48" s="44">
         <f>D46+D47</f>
-        <v>678.75350740087606</v>
+        <v>0</v>
       </c>
       <c r="E48" s="44">
         <f t="shared" ref="E48:W48" si="15">E46+E47</f>
@@ -9948,71 +9856,53 @@
       </c>
       <c r="G48" s="44">
         <f t="shared" si="15"/>
-        <v>11412.959630913352</v>
+        <v>0</v>
       </c>
       <c r="H48" s="44">
         <f t="shared" si="15"/>
-        <v>11491.010917272559</v>
+        <v>0</v>
       </c>
       <c r="I48" s="44">
         <f t="shared" si="15"/>
-        <v>11535.506975351276</v>
+        <v>0</v>
       </c>
       <c r="J48" s="44">
         <f t="shared" si="15"/>
-        <v>11545.441148301119</v>
+        <v>0</v>
       </c>
       <c r="K48" s="44">
         <f t="shared" si="15"/>
-        <v>11519.77657956817</v>
+        <v>0</v>
       </c>
       <c r="L48" s="44">
         <f t="shared" si="15"/>
-        <v>11457.445306901998</v>
+        <v>0</v>
       </c>
       <c r="M48" s="44">
         <f t="shared" si="15"/>
-        <v>11357.347329184577</v>
-      </c>
-      <c r="N48" s="44">
-        <f t="shared" si="15"/>
-        <v>11218.349645264369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N48" s="44"/>
       <c r="O48" s="44">
         <f t="shared" si="15"/>
-        <v>11039.285263955302</v>
+        <v>0</v>
       </c>
       <c r="P48" s="44">
         <f t="shared" si="15"/>
-        <v>10818.952184335705</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="44">
         <f t="shared" si="15"/>
-        <v>10556.112345456255</v>
-      </c>
-      <c r="R48" s="44">
-        <f t="shared" si="15"/>
-        <v>76940.162367039156</v>
-      </c>
-      <c r="S48" s="44">
-        <f t="shared" si="15"/>
-        <v>76588.44514522329</v>
-      </c>
-      <c r="T48" s="44">
-        <f t="shared" si="15"/>
-        <v>76190.279639881686</v>
-      </c>
-      <c r="U48" s="44">
-        <f t="shared" si="15"/>
-        <v>75744.272402508592</v>
-      </c>
-      <c r="V48" s="44">
-        <f t="shared" si="15"/>
-        <v>75248.988181143039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
       <c r="W48" s="44">
         <f t="shared" si="15"/>
-        <v>74702.948666265249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
@@ -10025,7 +9915,7 @@
       <c r="C49" s="142"/>
       <c r="D49" s="143">
         <f>D44*0.3</f>
-        <v>1916.4929082520189</v>
+        <v>0</v>
       </c>
       <c r="E49" s="143">
         <f t="shared" ref="E49:W49" si="16">E44*0.3</f>
@@ -10037,71 +9927,56 @@
       </c>
       <c r="G49" s="143">
         <f t="shared" si="16"/>
-        <v>38116.822606459791</v>
+        <v>0</v>
       </c>
       <c r="H49" s="143">
         <f t="shared" si="16"/>
-        <v>38384.534101432197</v>
+        <v>0</v>
       </c>
       <c r="I49" s="143">
         <f t="shared" si="16"/>
-        <v>38537.153062429345</v>
+        <v>0</v>
       </c>
       <c r="J49" s="143">
         <f t="shared" si="16"/>
-        <v>38571.226713432065</v>
+        <v>0</v>
       </c>
       <c r="K49" s="143">
         <f t="shared" si="16"/>
-        <v>38483.198695140352</v>
+        <v>0</v>
       </c>
       <c r="L49" s="143">
         <f t="shared" si="16"/>
-        <v>38269.405957475559</v>
+        <v>0</v>
       </c>
       <c r="M49" s="143">
         <f t="shared" si="16"/>
-        <v>37926.07555885637</v>
+        <v>0</v>
       </c>
       <c r="N49" s="143">
         <f t="shared" si="16"/>
-        <v>37449.321369454192</v>
+        <v>0</v>
       </c>
       <c r="O49" s="143">
         <f t="shared" si="16"/>
-        <v>36835.140675545539</v>
+        <v>0</v>
       </c>
       <c r="P49" s="143">
         <f t="shared" si="16"/>
-        <v>36079.410681995214</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="143">
         <f t="shared" si="16"/>
-        <v>35177.88490981394</v>
-      </c>
-      <c r="R49" s="143">
-        <f t="shared" si="16"/>
-        <v>262528.42519992852</v>
-      </c>
-      <c r="S49" s="143">
-        <f t="shared" si="16"/>
-        <v>261322.05503420782</v>
-      </c>
-      <c r="T49" s="143">
-        <f t="shared" si="16"/>
-        <v>259956.36988469111</v>
-      </c>
-      <c r="U49" s="143">
-        <f t="shared" si="16"/>
-        <v>258426.59030186449</v>
-      </c>
-      <c r="V49" s="143">
-        <f t="shared" si="16"/>
-        <v>256727.79345272863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R49" s="143"/>
+      <c r="S49" s="143"/>
+      <c r="T49" s="143"/>
+      <c r="U49" s="143"/>
+      <c r="V49" s="143"/>
       <c r="W49" s="143">
         <f t="shared" si="16"/>
-        <v>254854.9088192943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
@@ -10114,7 +9989,7 @@
       <c r="C50" s="45"/>
       <c r="D50" s="46">
         <f>IF(D49=0,0,IF(D49&lt;=75000,135,IF(D49&lt;=500000,280,575)))</f>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="E50" s="46">
         <f t="shared" ref="E50:W50" si="17">IF(E49=0,0,IF(E49&lt;=75000,135,IF(E49&lt;=500000,280,575)))</f>
@@ -10126,71 +10001,56 @@
       </c>
       <c r="G50" s="46">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="H50" s="46">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="I50" s="46">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="J50" s="46">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="K50" s="46">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="L50" s="46">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="M50" s="46">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="N50" s="46">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="O50" s="46">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="P50" s="46">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="46">
         <f t="shared" si="17"/>
-        <v>135</v>
-      </c>
-      <c r="R50" s="46">
-        <f t="shared" si="17"/>
-        <v>280</v>
-      </c>
-      <c r="S50" s="46">
-        <f t="shared" si="17"/>
-        <v>280</v>
-      </c>
-      <c r="T50" s="46">
-        <f t="shared" si="17"/>
-        <v>280</v>
-      </c>
-      <c r="U50" s="46">
-        <f t="shared" si="17"/>
-        <v>280</v>
-      </c>
-      <c r="V50" s="46">
-        <f t="shared" si="17"/>
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
       <c r="W50" s="46">
         <f t="shared" si="17"/>
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
@@ -10203,7 +10063,7 @@
       <c r="C51" s="45"/>
       <c r="D51" s="46">
         <f>D49*0.035*2.7</f>
-        <v>181.1085798298158</v>
+        <v>0</v>
       </c>
       <c r="E51" s="46">
         <f t="shared" ref="E51:W51" si="18">E49*0.035*2.7</f>
@@ -10215,71 +10075,56 @@
       </c>
       <c r="G51" s="46">
         <f t="shared" si="18"/>
-        <v>3602.0397363104507</v>
+        <v>0</v>
       </c>
       <c r="H51" s="46">
         <f t="shared" si="18"/>
-        <v>3627.338472585343</v>
+        <v>0</v>
       </c>
       <c r="I51" s="46">
         <f t="shared" si="18"/>
-        <v>3641.7609643995738</v>
+        <v>0</v>
       </c>
       <c r="J51" s="46">
         <f t="shared" si="18"/>
-        <v>3644.9809244193307</v>
+        <v>0</v>
       </c>
       <c r="K51" s="46">
         <f t="shared" si="18"/>
-        <v>3636.662276690764</v>
+        <v>0</v>
       </c>
       <c r="L51" s="46">
         <f t="shared" si="18"/>
-        <v>3616.4588629814407</v>
+        <v>0</v>
       </c>
       <c r="M51" s="46">
         <f t="shared" si="18"/>
-        <v>3584.0141403119278</v>
+        <v>0</v>
       </c>
       <c r="N51" s="46">
         <f t="shared" si="18"/>
-        <v>3538.9608694134213</v>
+        <v>0</v>
       </c>
       <c r="O51" s="46">
         <f t="shared" si="18"/>
-        <v>3480.9207938390541</v>
+        <v>0</v>
       </c>
       <c r="P51" s="46">
         <f t="shared" si="18"/>
-        <v>3409.5043094485482</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="46">
         <f t="shared" si="18"/>
-        <v>3324.3101239774178</v>
-      </c>
-      <c r="R51" s="46">
-        <f t="shared" si="18"/>
-        <v>24808.936181393252</v>
-      </c>
-      <c r="S51" s="46">
-        <f t="shared" si="18"/>
-        <v>24694.934200732641</v>
-      </c>
-      <c r="T51" s="46">
-        <f t="shared" si="18"/>
-        <v>24565.876954103314</v>
-      </c>
-      <c r="U51" s="46">
-        <f t="shared" si="18"/>
-        <v>24421.312783526198</v>
-      </c>
-      <c r="V51" s="46">
-        <f t="shared" si="18"/>
-        <v>24260.776481282861</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
       <c r="W51" s="46">
         <f t="shared" si="18"/>
-        <v>24083.788883423313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10292,7 +10137,7 @@
       <c r="C52" s="43"/>
       <c r="D52" s="44">
         <f>D50+D51</f>
-        <v>316.10857982981577</v>
+        <v>0</v>
       </c>
       <c r="E52" s="44">
         <f t="shared" ref="E52:W52" si="19">E50+E51</f>
@@ -10304,71 +10149,56 @@
       </c>
       <c r="G52" s="44">
         <f t="shared" si="19"/>
-        <v>3737.0397363104507</v>
+        <v>0</v>
       </c>
       <c r="H52" s="44">
         <f t="shared" si="19"/>
-        <v>3762.338472585343</v>
+        <v>0</v>
       </c>
       <c r="I52" s="44">
         <f t="shared" si="19"/>
-        <v>3776.7609643995738</v>
+        <v>0</v>
       </c>
       <c r="J52" s="44">
         <f t="shared" si="19"/>
-        <v>3779.9809244193307</v>
+        <v>0</v>
       </c>
       <c r="K52" s="44">
         <f t="shared" si="19"/>
-        <v>3771.662276690764</v>
+        <v>0</v>
       </c>
       <c r="L52" s="44">
         <f t="shared" si="19"/>
-        <v>3751.4588629814407</v>
+        <v>0</v>
       </c>
       <c r="M52" s="44">
         <f t="shared" si="19"/>
-        <v>3719.0141403119278</v>
+        <v>0</v>
       </c>
       <c r="N52" s="44">
         <f t="shared" si="19"/>
-        <v>3673.9608694134213</v>
+        <v>0</v>
       </c>
       <c r="O52" s="44">
         <f t="shared" si="19"/>
-        <v>3615.9207938390541</v>
+        <v>0</v>
       </c>
       <c r="P52" s="44">
         <f t="shared" si="19"/>
-        <v>3544.5043094485482</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="44">
         <f t="shared" si="19"/>
-        <v>3459.3101239774178</v>
-      </c>
-      <c r="R52" s="44">
-        <f t="shared" si="19"/>
-        <v>25088.936181393252</v>
-      </c>
-      <c r="S52" s="44">
-        <f t="shared" si="19"/>
-        <v>24974.934200732641</v>
-      </c>
-      <c r="T52" s="44">
-        <f t="shared" si="19"/>
-        <v>24845.876954103314</v>
-      </c>
-      <c r="U52" s="44">
-        <f t="shared" si="19"/>
-        <v>24701.312783526198</v>
-      </c>
-      <c r="V52" s="44">
-        <f t="shared" si="19"/>
-        <v>24540.776481282861</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
       <c r="W52" s="44">
         <f t="shared" si="19"/>
-        <v>24363.788883423313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
@@ -10404,85 +10234,55 @@
         <v>7</v>
       </c>
       <c r="C54" s="43"/>
-      <c r="D54" s="44">
-        <f>D48+D52</f>
-        <v>994.86208723069183</v>
-      </c>
-      <c r="E54" s="44">
-        <f t="shared" ref="E54:W54" si="20">E48+E52</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="44">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="44">
-        <f t="shared" si="20"/>
-        <v>15149.999367223803</v>
-      </c>
-      <c r="H54" s="44">
-        <f t="shared" si="20"/>
-        <v>15253.349389857902</v>
-      </c>
-      <c r="I54" s="44">
-        <f t="shared" si="20"/>
-        <v>15312.267939750851</v>
-      </c>
-      <c r="J54" s="44">
-        <f t="shared" si="20"/>
-        <v>15325.42207272045</v>
-      </c>
-      <c r="K54" s="44">
-        <f t="shared" si="20"/>
-        <v>15291.438856258934</v>
-      </c>
-      <c r="L54" s="44">
-        <f t="shared" si="20"/>
-        <v>15208.904169883439</v>
-      </c>
-      <c r="M54" s="44">
-        <f t="shared" si="20"/>
-        <v>15076.361469496504</v>
-      </c>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
       <c r="N54" s="44">
-        <f t="shared" si="20"/>
-        <v>14892.310514677789</v>
+        <f xml:space="preserve"> N42*0.3</f>
+        <v>76780.672733069659</v>
       </c>
       <c r="O54" s="44">
-        <f t="shared" si="20"/>
-        <v>14655.206057794356</v>
+        <f xml:space="preserve"> O42*0.3</f>
+        <v>79248.82644844969</v>
       </c>
       <c r="P54" s="44">
-        <f t="shared" si="20"/>
-        <v>14363.456493784253</v>
+        <f t="shared" ref="P54:W54" si="20" xml:space="preserve"> P42*0.3</f>
+        <v>81677.737133594666</v>
       </c>
       <c r="Q54" s="44">
         <f t="shared" si="20"/>
-        <v>14015.422469433674</v>
+        <v>84066.227497597531</v>
       </c>
       <c r="R54" s="44">
         <f t="shared" si="20"/>
-        <v>102029.0985484324</v>
+        <v>296568.50635939551</v>
       </c>
       <c r="S54" s="44">
         <f t="shared" si="20"/>
-        <v>101563.37934595594</v>
+        <v>298872.4818739224</v>
       </c>
       <c r="T54" s="44">
         <f t="shared" si="20"/>
-        <v>101036.156593985</v>
+        <v>301132.28901218862</v>
       </c>
       <c r="U54" s="44">
         <f t="shared" si="20"/>
-        <v>100445.58518603479</v>
+        <v>303346.60272290645</v>
       </c>
       <c r="V54" s="44">
         <f t="shared" si="20"/>
-        <v>99789.764662425907</v>
+        <v>305514.05820324935</v>
       </c>
       <c r="W54" s="44">
         <f t="shared" si="20"/>
-        <v>99066.737549688565</v>
+        <v>307633.24970630609</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10549,83 +10349,83 @@
       <c r="C58" s="13"/>
       <c r="D58" s="53">
         <f>IF(Parameters!$B$32=$A$63,D65,IF(Parameters!$B$32=$A$70,D72))</f>
-        <v>7752244.2222780343</v>
+        <v>7132925.5882942714</v>
       </c>
       <c r="E58" s="53">
         <f>IF(Parameters!$B$32=$A$63,E65,IF(Parameters!$B$32=$A$70,E72))</f>
-        <v>7752244.2222780343</v>
+        <v>7132925.5882942714</v>
       </c>
       <c r="F58" s="53">
         <f>IF(Parameters!$B$32=$A$63,F65,IF(Parameters!$B$32=$A$70,F72))</f>
-        <v>7752244.2222780343</v>
+        <v>7132925.5882942714</v>
       </c>
       <c r="G58" s="53">
         <f>IF(Parameters!$B$32=$A$63,G65,IF(Parameters!$B$32=$A$70,G72))</f>
-        <v>7752244.2222780343</v>
+        <v>7132925.5882942714</v>
       </c>
       <c r="H58" s="53">
         <f>IF(Parameters!$B$32=$A$63,H65,IF(Parameters!$B$32=$A$70,H72))</f>
-        <v>7296229.856261679</v>
+        <v>6713341.7301593143</v>
       </c>
       <c r="I58" s="53">
         <f>IF(Parameters!$B$32=$A$63,I65,IF(Parameters!$B$32=$A$70,I72))</f>
-        <v>6840215.4902453236</v>
+        <v>6293757.8720243573</v>
       </c>
       <c r="J58" s="53">
         <f>IF(Parameters!$B$32=$A$63,J65,IF(Parameters!$B$32=$A$70,J72))</f>
-        <v>6384201.1242289683</v>
+        <v>5874174.0138894003</v>
       </c>
       <c r="K58" s="53">
         <f>IF(Parameters!$B$32=$A$63,K65,IF(Parameters!$B$32=$A$70,K72))</f>
-        <v>5928186.7582126129</v>
+        <v>5454590.1557544433</v>
       </c>
       <c r="L58" s="53">
         <f>IF(Parameters!$B$32=$A$63,L65,IF(Parameters!$B$32=$A$70,L72))</f>
-        <v>5472172.3921962576</v>
+        <v>5035006.2976194862</v>
       </c>
       <c r="M58" s="53">
         <f>IF(Parameters!$B$32=$A$63,M65,IF(Parameters!$B$32=$A$70,M72))</f>
-        <v>5016158.0261799023</v>
+        <v>4615422.4394845292</v>
       </c>
       <c r="N58" s="53">
         <f>IF(Parameters!$B$32=$A$63,N65,IF(Parameters!$B$32=$A$70,N72))</f>
-        <v>4560143.6601635469</v>
+        <v>4195838.5813495722</v>
       </c>
       <c r="O58" s="53">
         <f>IF(Parameters!$B$32=$A$63,O65,IF(Parameters!$B$32=$A$70,O72))</f>
-        <v>4104129.294147192</v>
+        <v>3776254.7232146151</v>
       </c>
       <c r="P58" s="53">
         <f>IF(Parameters!$B$32=$A$63,P65,IF(Parameters!$B$32=$A$70,P72))</f>
-        <v>3648114.9281308372</v>
+        <v>3356670.8650796581</v>
       </c>
       <c r="Q58" s="53">
         <f>IF(Parameters!$B$32=$A$63,Q65,IF(Parameters!$B$32=$A$70,Q72))</f>
-        <v>3192100.5621144823</v>
+        <v>2937087.0069447011</v>
       </c>
       <c r="R58" s="53">
         <f>IF(Parameters!$B$32=$A$63,R65,IF(Parameters!$B$32=$A$70,R72))</f>
-        <v>2736086.1960981274</v>
+        <v>2517503.148809744</v>
       </c>
       <c r="S58" s="53">
         <f>IF(Parameters!$B$32=$A$63,S65,IF(Parameters!$B$32=$A$70,S72))</f>
-        <v>2280071.8300817725</v>
+        <v>2097919.290674787</v>
       </c>
       <c r="T58" s="53">
         <f>IF(Parameters!$B$32=$A$63,T65,IF(Parameters!$B$32=$A$70,T72))</f>
-        <v>1824057.4640654176</v>
+        <v>1678335.43253983</v>
       </c>
       <c r="U58" s="53">
         <f>IF(Parameters!$B$32=$A$63,U65,IF(Parameters!$B$32=$A$70,U72))</f>
-        <v>1368043.0980490628</v>
+        <v>1258751.574404873</v>
       </c>
       <c r="V58" s="53">
         <f>IF(Parameters!$B$32=$A$63,V65,IF(Parameters!$B$32=$A$70,V72))</f>
-        <v>912028.73203270789</v>
+        <v>839167.71626991581</v>
       </c>
       <c r="W58" s="53">
         <f>IF(Parameters!$B$32=$A$63,W65,IF(Parameters!$B$32=$A$70,W72))</f>
-        <v>456014.36601635296</v>
+        <v>419583.85813495866</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
@@ -10650,71 +10450,71 @@
       </c>
       <c r="G59" s="53">
         <f>IF(Parameters!$B$32=$A$63,G66,IF(Parameters!$B$32=$A$70,G73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="H59" s="53">
         <f>IF(Parameters!$B$32=$A$63,H66,IF(Parameters!$B$32=$A$70,H73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="I59" s="53">
         <f>IF(Parameters!$B$32=$A$63,I66,IF(Parameters!$B$32=$A$70,I73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="J59" s="53">
         <f>IF(Parameters!$B$32=$A$63,J66,IF(Parameters!$B$32=$A$70,J73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="K59" s="53">
         <f>IF(Parameters!$B$32=$A$63,K66,IF(Parameters!$B$32=$A$70,K73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="L59" s="53">
         <f>IF(Parameters!$B$32=$A$63,L66,IF(Parameters!$B$32=$A$70,L73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="M59" s="53">
         <f>IF(Parameters!$B$32=$A$63,M66,IF(Parameters!$B$32=$A$70,M73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="N59" s="53">
         <f>IF(Parameters!$B$32=$A$63,N66,IF(Parameters!$B$32=$A$70,N73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="O59" s="53">
         <f>IF(Parameters!$B$32=$A$63,O66,IF(Parameters!$B$32=$A$70,O73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="P59" s="53">
         <f>IF(Parameters!$B$32=$A$63,P66,IF(Parameters!$B$32=$A$70,P73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="Q59" s="53">
         <f>IF(Parameters!$B$32=$A$63,Q66,IF(Parameters!$B$32=$A$70,Q73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="R59" s="53">
         <f>IF(Parameters!$B$32=$A$63,R66,IF(Parameters!$B$32=$A$70,R73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="S59" s="53">
         <f>IF(Parameters!$B$32=$A$63,S66,IF(Parameters!$B$32=$A$70,S73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="T59" s="53">
         <f>IF(Parameters!$B$32=$A$63,T66,IF(Parameters!$B$32=$A$70,T73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="U59" s="53">
         <f>IF(Parameters!$B$32=$A$63,U66,IF(Parameters!$B$32=$A$70,U73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="V59" s="53">
         <f>IF(Parameters!$B$32=$A$63,V66,IF(Parameters!$B$32=$A$70,V73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="W59" s="53">
         <f>IF(Parameters!$B$32=$A$63,W66,IF(Parameters!$B$32=$A$70,W73))</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10727,83 +10527,83 @@
       <c r="C60" s="17"/>
       <c r="D60" s="54">
         <f>IF(Parameters!$B$32=$A$63,D67,IF(Parameters!$B$32=$A$70,D74))</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="E60" s="54">
         <f>IF(Parameters!$B$32=$A$63,E67,IF(Parameters!$B$32=$A$70,E74))</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="F60" s="54">
         <f>IF(Parameters!$B$32=$A$63,F67,IF(Parameters!$B$32=$A$70,F74))</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="G60" s="54">
         <f>IF(Parameters!$B$32=$A$63,G67,IF(Parameters!$B$32=$A$70,G74))</f>
-        <v>225727.11117809571</v>
+        <v>207694.00977680378</v>
       </c>
       <c r="H60" s="54">
         <f>IF(Parameters!$B$32=$A$63,H67,IF(Parameters!$B$32=$A$70,H74))</f>
-        <v>212046.68019760505</v>
+        <v>195106.49403275506</v>
       </c>
       <c r="I60" s="54">
         <f>IF(Parameters!$B$32=$A$63,I67,IF(Parameters!$B$32=$A$70,I74))</f>
-        <v>198366.24921711438</v>
+        <v>182518.97828870636</v>
       </c>
       <c r="J60" s="54">
         <f>IF(Parameters!$B$32=$A$63,J67,IF(Parameters!$B$32=$A$70,J74))</f>
-        <v>184685.81823662372</v>
+        <v>169931.46254465764</v>
       </c>
       <c r="K60" s="54">
         <f>IF(Parameters!$B$32=$A$63,K67,IF(Parameters!$B$32=$A$70,K74))</f>
-        <v>171005.38725613308</v>
+        <v>157343.94680060894</v>
       </c>
       <c r="L60" s="54">
         <f>IF(Parameters!$B$32=$A$63,L67,IF(Parameters!$B$32=$A$70,L74))</f>
-        <v>157324.95627564241</v>
+        <v>144756.43105656022</v>
       </c>
       <c r="M60" s="54">
         <f>IF(Parameters!$B$32=$A$63,M67,IF(Parameters!$B$32=$A$70,M74))</f>
-        <v>143644.52529515175</v>
+        <v>132168.91531251153</v>
       </c>
       <c r="N60" s="54">
         <f>IF(Parameters!$B$32=$A$63,N67,IF(Parameters!$B$32=$A$70,N74))</f>
-        <v>129964.09431466108</v>
+        <v>119581.3995684628</v>
       </c>
       <c r="O60" s="54">
         <f>IF(Parameters!$B$32=$A$63,O67,IF(Parameters!$B$32=$A$70,O74))</f>
-        <v>116283.66333417043</v>
+        <v>106993.88382441409</v>
       </c>
       <c r="P60" s="54">
         <f>IF(Parameters!$B$32=$A$63,P67,IF(Parameters!$B$32=$A$70,P74))</f>
-        <v>102603.23235367978</v>
+        <v>94406.368080365384</v>
       </c>
       <c r="Q60" s="54">
         <f>IF(Parameters!$B$32=$A$63,Q67,IF(Parameters!$B$32=$A$70,Q74))</f>
-        <v>88922.801373189141</v>
+        <v>81818.852336316675</v>
       </c>
       <c r="R60" s="54">
         <f>IF(Parameters!$B$32=$A$63,R67,IF(Parameters!$B$32=$A$70,R74))</f>
-        <v>75242.370392698489</v>
+        <v>69231.336592267966</v>
       </c>
       <c r="S60" s="54">
         <f>IF(Parameters!$B$32=$A$63,S67,IF(Parameters!$B$32=$A$70,S74))</f>
-        <v>61561.939412207852</v>
+        <v>56643.820848219249</v>
       </c>
       <c r="T60" s="54">
         <f>IF(Parameters!$B$32=$A$63,T67,IF(Parameters!$B$32=$A$70,T74))</f>
-        <v>47881.508431717208</v>
+        <v>44056.30510417054</v>
       </c>
       <c r="U60" s="54">
         <f>IF(Parameters!$B$32=$A$63,U67,IF(Parameters!$B$32=$A$70,U74))</f>
-        <v>34201.077451226556</v>
+        <v>31468.789360121831</v>
       </c>
       <c r="V60" s="54">
         <f>IF(Parameters!$B$32=$A$63,V67,IF(Parameters!$B$32=$A$70,V74))</f>
-        <v>20520.646470735912</v>
+        <v>18881.273616073115</v>
       </c>
       <c r="W60" s="54">
         <f>IF(Parameters!$B$32=$A$63,W67,IF(Parameters!$B$32=$A$70,W74))</f>
-        <v>6840.2154902452648</v>
+        <v>6293.7578720244028</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10816,83 +10616,83 @@
       <c r="C61" s="55"/>
       <c r="D61" s="56">
         <f>IF(Parameters!$B$32=$A$63,D68,IF(Parameters!$B$32=$A$70,D75))</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="E61" s="56">
         <f>IF(Parameters!$B$32=$A$63,E68,IF(Parameters!$B$32=$A$70,E75))</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="F61" s="56">
         <f>IF(Parameters!$B$32=$A$63,F68,IF(Parameters!$B$32=$A$70,F75))</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="G61" s="56">
         <f>IF(Parameters!$B$32=$A$63,G68,IF(Parameters!$B$32=$A$70,G75))</f>
-        <v>681741.47719445068</v>
+        <v>627277.86791176093</v>
       </c>
       <c r="H61" s="56">
         <f>IF(Parameters!$B$32=$A$63,H68,IF(Parameters!$B$32=$A$70,H75))</f>
-        <v>668061.04621396004</v>
+        <v>614690.35216771218</v>
       </c>
       <c r="I61" s="56">
         <f>IF(Parameters!$B$32=$A$63,I68,IF(Parameters!$B$32=$A$70,I75))</f>
-        <v>654380.61523346929</v>
+        <v>602102.83642366354</v>
       </c>
       <c r="J61" s="56">
         <f>IF(Parameters!$B$32=$A$63,J68,IF(Parameters!$B$32=$A$70,J75))</f>
-        <v>640700.18425297865</v>
+        <v>589515.32067961479</v>
       </c>
       <c r="K61" s="56">
         <f>IF(Parameters!$B$32=$A$63,K68,IF(Parameters!$B$32=$A$70,K75))</f>
-        <v>627019.75327248801</v>
+        <v>576927.80493556615</v>
       </c>
       <c r="L61" s="56">
         <f>IF(Parameters!$B$32=$A$63,L68,IF(Parameters!$B$32=$A$70,L75))</f>
-        <v>613339.32229199738</v>
+        <v>564340.2891915174</v>
       </c>
       <c r="M61" s="56">
         <f>IF(Parameters!$B$32=$A$63,M68,IF(Parameters!$B$32=$A$70,M75))</f>
-        <v>599658.89131150674</v>
+        <v>551752.77344746864</v>
       </c>
       <c r="N61" s="56">
         <f>IF(Parameters!$B$32=$A$63,N68,IF(Parameters!$B$32=$A$70,N75))</f>
-        <v>585978.46033101599</v>
+        <v>539165.25770342001</v>
       </c>
       <c r="O61" s="56">
         <f>IF(Parameters!$B$32=$A$63,O68,IF(Parameters!$B$32=$A$70,O75))</f>
-        <v>572298.02935052535</v>
+        <v>526577.74195937125</v>
       </c>
       <c r="P61" s="56">
         <f>IF(Parameters!$B$32=$A$63,P68,IF(Parameters!$B$32=$A$70,P75))</f>
-        <v>558617.59837003471</v>
+        <v>513990.2262153225</v>
       </c>
       <c r="Q61" s="56">
         <f>IF(Parameters!$B$32=$A$63,Q68,IF(Parameters!$B$32=$A$70,Q75))</f>
-        <v>544937.16738954408</v>
+        <v>501402.71047127381</v>
       </c>
       <c r="R61" s="56">
         <f>IF(Parameters!$B$32=$A$63,R68,IF(Parameters!$B$32=$A$70,R75))</f>
-        <v>531256.73640905344</v>
+        <v>488815.19472722511</v>
       </c>
       <c r="S61" s="56">
         <f>IF(Parameters!$B$32=$A$63,S68,IF(Parameters!$B$32=$A$70,S75))</f>
-        <v>517576.3054285628</v>
+        <v>476227.67898317642</v>
       </c>
       <c r="T61" s="56">
         <f>IF(Parameters!$B$32=$A$63,T68,IF(Parameters!$B$32=$A$70,T75))</f>
-        <v>503895.87444807217</v>
+        <v>463640.16323912767</v>
       </c>
       <c r="U61" s="56">
         <f>IF(Parameters!$B$32=$A$63,U68,IF(Parameters!$B$32=$A$70,U75))</f>
-        <v>490215.44346758147</v>
+        <v>451052.64749507897</v>
       </c>
       <c r="V61" s="56">
         <f>IF(Parameters!$B$32=$A$63,V68,IF(Parameters!$B$32=$A$70,V75))</f>
-        <v>476535.01248709083</v>
+        <v>438465.13175103028</v>
       </c>
       <c r="W61" s="56">
         <f>IF(Parameters!$B$32=$A$63,W68,IF(Parameters!$B$32=$A$70,W75))</f>
-        <v>462854.5815066002</v>
+        <v>425877.61600698152</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10958,83 +10758,83 @@
       <c r="C65" s="13"/>
       <c r="D65" s="53">
         <f>Parameters!$B$39</f>
-        <v>7752244.2222780343</v>
+        <v>7132925.5882942714</v>
       </c>
       <c r="E65" s="53">
         <f>Parameters!$B$39</f>
-        <v>7752244.2222780343</v>
+        <v>7132925.5882942714</v>
       </c>
       <c r="F65" s="53">
         <f>Parameters!$B$39</f>
-        <v>7752244.2222780343</v>
+        <v>7132925.5882942714</v>
       </c>
       <c r="G65" s="53">
         <f>Parameters!$B$39</f>
-        <v>7752244.2222780343</v>
+        <v>7132925.5882942714</v>
       </c>
       <c r="H65" s="53">
         <f t="shared" ref="H65:W65" si="21">G65-G66</f>
-        <v>7296229.856261679</v>
+        <v>6713341.7301593143</v>
       </c>
       <c r="I65" s="53">
         <f t="shared" si="21"/>
-        <v>6840215.4902453236</v>
+        <v>6293757.8720243573</v>
       </c>
       <c r="J65" s="53">
         <f t="shared" si="21"/>
-        <v>6384201.1242289683</v>
+        <v>5874174.0138894003</v>
       </c>
       <c r="K65" s="53">
         <f t="shared" si="21"/>
-        <v>5928186.7582126129</v>
+        <v>5454590.1557544433</v>
       </c>
       <c r="L65" s="53">
         <f t="shared" si="21"/>
-        <v>5472172.3921962576</v>
+        <v>5035006.2976194862</v>
       </c>
       <c r="M65" s="53">
         <f t="shared" si="21"/>
-        <v>5016158.0261799023</v>
+        <v>4615422.4394845292</v>
       </c>
       <c r="N65" s="53">
         <f t="shared" si="21"/>
-        <v>4560143.6601635469</v>
+        <v>4195838.5813495722</v>
       </c>
       <c r="O65" s="53">
         <f t="shared" si="21"/>
-        <v>4104129.294147192</v>
+        <v>3776254.7232146151</v>
       </c>
       <c r="P65" s="53">
         <f t="shared" si="21"/>
-        <v>3648114.9281308372</v>
+        <v>3356670.8650796581</v>
       </c>
       <c r="Q65" s="53">
         <f t="shared" si="21"/>
-        <v>3192100.5621144823</v>
+        <v>2937087.0069447011</v>
       </c>
       <c r="R65" s="53">
         <f t="shared" si="21"/>
-        <v>2736086.1960981274</v>
+        <v>2517503.148809744</v>
       </c>
       <c r="S65" s="53">
         <f t="shared" si="21"/>
-        <v>2280071.8300817725</v>
+        <v>2097919.290674787</v>
       </c>
       <c r="T65" s="53">
         <f t="shared" si="21"/>
-        <v>1824057.4640654176</v>
+        <v>1678335.43253983</v>
       </c>
       <c r="U65" s="53">
         <f t="shared" si="21"/>
-        <v>1368043.0980490628</v>
+        <v>1258751.574404873</v>
       </c>
       <c r="V65" s="53">
         <f t="shared" si="21"/>
-        <v>912028.73203270789</v>
+        <v>839167.71626991581</v>
       </c>
       <c r="W65" s="53">
         <f t="shared" si="21"/>
-        <v>456014.36601635296</v>
+        <v>419583.85813495866</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
@@ -11050,71 +10850,71 @@
       <c r="F66" s="13"/>
       <c r="G66" s="53">
         <f>IF(D4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="H66" s="53">
         <f>IF(E4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="I66" s="53">
         <f>IF(F4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="J66" s="53">
         <f>IF(G4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="K66" s="53">
         <f>IF(H4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="L66" s="53">
         <f>IF(I4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="M66" s="53">
         <f>IF(J4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="N66" s="53">
         <f>IF(K4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="O66" s="53">
         <f>IF(L4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="P66" s="53">
         <f>IF(M4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="Q66" s="53">
         <f>IF(N4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="R66" s="53">
         <f>IF(O4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="S66" s="53">
         <f>IF(P4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="T66" s="53">
         <f>IF(Q4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="U66" s="53">
         <f>IF(R4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="V66" s="53">
         <f>IF(S4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
       <c r="W66" s="53">
         <f>IF(T4&lt;=Parameters!$B$35,Parameters!$B$39/Parameters!$B$35,0)</f>
-        <v>456014.36601635494</v>
+        <v>419583.85813495715</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11127,83 +10927,83 @@
       <c r="C67" s="17"/>
       <c r="D67" s="54">
         <f>(D65-D66/2)*Parameters!$B$38</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="E67" s="54">
         <f>(E65-E66/2)*Parameters!$B$38</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="F67" s="54">
         <f>(F65-F66/2)*Parameters!$B$38</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="G67" s="54">
         <f>(G65-G66/2)*Parameters!$B$38</f>
-        <v>225727.11117809571</v>
+        <v>207694.00977680378</v>
       </c>
       <c r="H67" s="54">
         <f>(H65-H66/2)*Parameters!$B$38</f>
-        <v>212046.68019760505</v>
+        <v>195106.49403275506</v>
       </c>
       <c r="I67" s="54">
         <f>(I65-I66/2)*Parameters!$B$38</f>
-        <v>198366.24921711438</v>
+        <v>182518.97828870636</v>
       </c>
       <c r="J67" s="54">
         <f>(J65-J66/2)*Parameters!$B$38</f>
-        <v>184685.81823662372</v>
+        <v>169931.46254465764</v>
       </c>
       <c r="K67" s="54">
         <f>(K65-K66/2)*Parameters!$B$38</f>
-        <v>171005.38725613308</v>
+        <v>157343.94680060894</v>
       </c>
       <c r="L67" s="54">
         <f>(L65-L66/2)*Parameters!$B$38</f>
-        <v>157324.95627564241</v>
+        <v>144756.43105656022</v>
       </c>
       <c r="M67" s="54">
         <f>(M65-M66/2)*Parameters!$B$38</f>
-        <v>143644.52529515175</v>
+        <v>132168.91531251153</v>
       </c>
       <c r="N67" s="54">
         <f>(N65-N66/2)*Parameters!$B$38</f>
-        <v>129964.09431466108</v>
+        <v>119581.3995684628</v>
       </c>
       <c r="O67" s="54">
         <f>(O65-O66/2)*Parameters!$B$38</f>
-        <v>116283.66333417043</v>
+        <v>106993.88382441409</v>
       </c>
       <c r="P67" s="54">
         <f>(P65-P66/2)*Parameters!$B$38</f>
-        <v>102603.23235367978</v>
+        <v>94406.368080365384</v>
       </c>
       <c r="Q67" s="54">
         <f>(Q65-Q66/2)*Parameters!$B$38</f>
-        <v>88922.801373189141</v>
+        <v>81818.852336316675</v>
       </c>
       <c r="R67" s="54">
         <f>(R65-R66/2)*Parameters!$B$38</f>
-        <v>75242.370392698489</v>
+        <v>69231.336592267966</v>
       </c>
       <c r="S67" s="54">
         <f>(S65-S66/2)*Parameters!$B$38</f>
-        <v>61561.939412207852</v>
+        <v>56643.820848219249</v>
       </c>
       <c r="T67" s="54">
         <f>(T65-T66/2)*Parameters!$B$38</f>
-        <v>47881.508431717208</v>
+        <v>44056.30510417054</v>
       </c>
       <c r="U67" s="54">
         <f>(U65-U66/2)*Parameters!$B$38</f>
-        <v>34201.077451226556</v>
+        <v>31468.789360121831</v>
       </c>
       <c r="V67" s="54">
         <f>(V65-V66/2)*Parameters!$B$38</f>
-        <v>20520.646470735912</v>
+        <v>18881.273616073115</v>
       </c>
       <c r="W67" s="54">
         <f>(W65-W66/2)*Parameters!$B$38</f>
-        <v>6840.2154902452648</v>
+        <v>6293.7578720244028</v>
       </c>
       <c r="Y67" s="15"/>
     </row>
@@ -11217,87 +11017,87 @@
       <c r="C68" s="55"/>
       <c r="D68" s="56">
         <f t="shared" ref="D68:F68" si="22">D66+D67</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="E68" s="56">
         <f t="shared" si="22"/>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="F68" s="56">
         <f t="shared" si="22"/>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="G68" s="56">
         <f t="shared" ref="G68:W68" si="23">G66+G67</f>
-        <v>681741.47719445068</v>
+        <v>627277.86791176093</v>
       </c>
       <c r="H68" s="56">
         <f t="shared" si="23"/>
-        <v>668061.04621396004</v>
+        <v>614690.35216771218</v>
       </c>
       <c r="I68" s="56">
         <f t="shared" si="23"/>
-        <v>654380.61523346929</v>
+        <v>602102.83642366354</v>
       </c>
       <c r="J68" s="56">
         <f t="shared" si="23"/>
-        <v>640700.18425297865</v>
+        <v>589515.32067961479</v>
       </c>
       <c r="K68" s="56">
         <f t="shared" si="23"/>
-        <v>627019.75327248801</v>
+        <v>576927.80493556615</v>
       </c>
       <c r="L68" s="56">
         <f t="shared" si="23"/>
-        <v>613339.32229199738</v>
+        <v>564340.2891915174</v>
       </c>
       <c r="M68" s="56">
         <f t="shared" si="23"/>
-        <v>599658.89131150674</v>
+        <v>551752.77344746864</v>
       </c>
       <c r="N68" s="56">
         <f t="shared" si="23"/>
-        <v>585978.46033101599</v>
+        <v>539165.25770342001</v>
       </c>
       <c r="O68" s="56">
         <f t="shared" si="23"/>
-        <v>572298.02935052535</v>
+        <v>526577.74195937125</v>
       </c>
       <c r="P68" s="56">
         <f t="shared" si="23"/>
-        <v>558617.59837003471</v>
+        <v>513990.2262153225</v>
       </c>
       <c r="Q68" s="56">
         <f t="shared" si="23"/>
-        <v>544937.16738954408</v>
+        <v>501402.71047127381</v>
       </c>
       <c r="R68" s="56">
         <f t="shared" si="23"/>
-        <v>531256.73640905344</v>
+        <v>488815.19472722511</v>
       </c>
       <c r="S68" s="56">
         <f t="shared" si="23"/>
-        <v>517576.3054285628</v>
+        <v>476227.67898317642</v>
       </c>
       <c r="T68" s="56">
         <f t="shared" si="23"/>
-        <v>503895.87444807217</v>
+        <v>463640.16323912767</v>
       </c>
       <c r="U68" s="56">
         <f t="shared" si="23"/>
-        <v>490215.44346758147</v>
+        <v>451052.64749507897</v>
       </c>
       <c r="V68" s="56">
         <f t="shared" si="23"/>
-        <v>476535.01248709083</v>
+        <v>438465.13175103028</v>
       </c>
       <c r="W68" s="56">
         <f t="shared" si="23"/>
-        <v>462854.5815066002</v>
-      </c>
-      <c r="Y68" s="159">
+        <v>425877.61600698152</v>
+      </c>
+      <c r="Y68" s="158">
         <f>NPV(Parameters!$B$46,Kalkulation!D68:W68)-Parameters!$B$39</f>
-        <v>-20231.556059700437</v>
+        <v>-18615.278333792463</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11365,83 +11165,83 @@
       <c r="C72" s="13"/>
       <c r="D72" s="53">
         <f>Parameters!$B$39</f>
-        <v>7752244.2222780343</v>
+        <v>7132925.5882942714</v>
       </c>
       <c r="E72" s="53">
         <f>Parameters!$B$39</f>
-        <v>7752244.2222780343</v>
+        <v>7132925.5882942714</v>
       </c>
       <c r="F72" s="53">
         <f>Parameters!$B$39</f>
-        <v>7752244.2222780343</v>
+        <v>7132925.5882942714</v>
       </c>
       <c r="G72" s="53">
         <f>Parameters!$B$39</f>
-        <v>7752244.2222780343</v>
+        <v>7132925.5882942714</v>
       </c>
       <c r="H72" s="53">
         <f t="shared" ref="H72:W72" si="24">G72-G73</f>
-        <v>7396008.9919241108</v>
+        <v>6805149.6156615717</v>
       </c>
       <c r="I72" s="53">
         <f t="shared" si="24"/>
-        <v>7029086.7046595691</v>
+        <v>6467540.3638498913</v>
       </c>
       <c r="J72" s="53">
         <f t="shared" si="24"/>
-        <v>6651156.7487770915</v>
+        <v>6119802.834483861</v>
       </c>
       <c r="K72" s="53">
         <f t="shared" si="24"/>
-        <v>6261888.8942181394</v>
+        <v>5761633.1792368498</v>
       </c>
       <c r="L72" s="53">
         <f t="shared" si="24"/>
-        <v>5860943.0040224185</v>
+        <v>5392718.4343324276</v>
       </c>
       <c r="M72" s="53">
         <f t="shared" si="24"/>
-        <v>5447968.7371208267</v>
+        <v>5012736.2470808728</v>
       </c>
       <c r="N72" s="53">
         <f t="shared" si="24"/>
-        <v>5022605.2422121866</v>
+        <v>4621354.5942117712</v>
       </c>
       <c r="O72" s="53">
         <f t="shared" si="24"/>
-        <v>4584480.8424562877</v>
+        <v>4218231.4917565966</v>
       </c>
       <c r="P72" s="53">
         <f t="shared" si="24"/>
-        <v>4133212.7107077115</v>
+        <v>3803014.696227767</v>
       </c>
       <c r="Q72" s="53">
         <f t="shared" si="24"/>
-        <v>3668406.5350066782</v>
+        <v>3375341.3968330724</v>
       </c>
       <c r="R72" s="53">
         <f t="shared" si="24"/>
-        <v>3189656.1740346137</v>
+        <v>2934837.8984565372</v>
       </c>
       <c r="S72" s="53">
         <f t="shared" si="24"/>
-        <v>2696543.3022333873</v>
+        <v>2481119.2951287059</v>
       </c>
       <c r="T72" s="53">
         <f t="shared" si="24"/>
-        <v>2188637.0442781243</v>
+        <v>2013789.1337010395</v>
       </c>
       <c r="U72" s="53">
         <f t="shared" si="24"/>
-        <v>1665493.5985842035</v>
+        <v>1532439.0674305432</v>
       </c>
       <c r="V72" s="53">
         <f t="shared" si="24"/>
-        <v>1126655.8495194649</v>
+        <v>1036648.499171932</v>
       </c>
       <c r="W72" s="53">
         <f t="shared" si="24"/>
-        <v>571652.96798278415</v>
+        <v>525984.21386556246</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
@@ -11457,71 +11257,71 @@
       <c r="F73" s="13"/>
       <c r="G73" s="53">
         <f t="shared" ref="G73:W73" si="25">IF(G72&lt;&gt;0,G75-G74,0)</f>
-        <v>356235.23035392363</v>
+        <v>327775.97263269941</v>
       </c>
       <c r="H73" s="53">
         <f t="shared" si="25"/>
-        <v>366922.28726454137</v>
+        <v>337609.25181168038</v>
       </c>
       <c r="I73" s="53">
         <f t="shared" si="25"/>
-        <v>377929.95588247763</v>
+        <v>347737.52936603077</v>
       </c>
       <c r="J73" s="53">
         <f t="shared" si="25"/>
-        <v>389267.85455895192</v>
+        <v>358169.65524701169</v>
       </c>
       <c r="K73" s="53">
         <f t="shared" si="25"/>
-        <v>400945.89019572048</v>
+        <v>368914.74490442203</v>
       </c>
       <c r="L73" s="53">
         <f t="shared" si="25"/>
-        <v>412974.26690159214</v>
+        <v>379982.18725155469</v>
       </c>
       <c r="M73" s="53">
         <f t="shared" si="25"/>
-        <v>425363.49490863993</v>
+        <v>391381.65286910132</v>
       </c>
       <c r="N73" s="53">
         <f t="shared" si="25"/>
-        <v>438124.3997558991</v>
+        <v>403123.10245517438</v>
       </c>
       <c r="O73" s="53">
         <f t="shared" si="25"/>
-        <v>451268.13174857607</v>
+        <v>415216.79552882962</v>
       </c>
       <c r="P73" s="53">
         <f t="shared" si="25"/>
-        <v>464806.17570103332</v>
+        <v>427673.29939469451</v>
       </c>
       <c r="Q73" s="53">
         <f t="shared" si="25"/>
-        <v>478750.36097206437</v>
+        <v>440503.49837653537</v>
       </c>
       <c r="R73" s="53">
         <f t="shared" si="25"/>
-        <v>493112.87180122628</v>
+        <v>453718.60332783137</v>
       </c>
       <c r="S73" s="53">
         <f t="shared" si="25"/>
-        <v>507906.25795526308</v>
+        <v>467330.16142766632</v>
       </c>
       <c r="T73" s="53">
         <f t="shared" si="25"/>
-        <v>523143.44569392095</v>
+        <v>481350.06627049635</v>
       </c>
       <c r="U73" s="53">
         <f t="shared" si="25"/>
-        <v>538837.74906473863</v>
+        <v>495790.56825861119</v>
       </c>
       <c r="V73" s="53">
         <f t="shared" si="25"/>
-        <v>555002.88153668074</v>
+        <v>510664.28530636954</v>
       </c>
       <c r="W73" s="53">
         <f t="shared" si="25"/>
-        <v>571652.96798278112</v>
+        <v>525984.2138655606</v>
       </c>
     </row>
     <row r="74" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11534,83 +11334,83 @@
       <c r="C74" s="13"/>
       <c r="D74" s="53">
         <f>D72*Parameters!$B$38</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="E74" s="53">
         <f>E72*Parameters!$B$38</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="F74" s="53">
         <f>F72*Parameters!$B$38</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="G74" s="53">
         <f>G72*Parameters!$B$38</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="H74" s="53">
         <f>H72*Parameters!$B$38</f>
-        <v>221880.26975772332</v>
+        <v>204154.48846984716</v>
       </c>
       <c r="I74" s="53">
         <f>I72*Parameters!$B$38</f>
-        <v>210872.60113978706</v>
+        <v>194026.21091549675</v>
       </c>
       <c r="J74" s="53">
         <f>J72*Parameters!$B$38</f>
-        <v>199534.70246331274</v>
+        <v>183594.08503451583</v>
       </c>
       <c r="K74" s="53">
         <f>K72*Parameters!$B$38</f>
-        <v>187856.66682654418</v>
+        <v>172848.99537710549</v>
       </c>
       <c r="L74" s="53">
         <f>L72*Parameters!$B$38</f>
-        <v>175828.29012067255</v>
+        <v>161781.55302997283</v>
       </c>
       <c r="M74" s="53">
         <f>M72*Parameters!$B$38</f>
-        <v>163439.06211362479</v>
+        <v>150382.08741242619</v>
       </c>
       <c r="N74" s="53">
         <f>N72*Parameters!$B$38</f>
-        <v>150678.1572663656</v>
+        <v>138640.63782635314</v>
       </c>
       <c r="O74" s="53">
         <f>O72*Parameters!$B$38</f>
-        <v>137534.42527368863</v>
+        <v>126546.94475269789</v>
       </c>
       <c r="P74" s="53">
         <f>P72*Parameters!$B$38</f>
-        <v>123996.38132123134</v>
+        <v>114090.44088683301</v>
       </c>
       <c r="Q74" s="53">
         <f>Q72*Parameters!$B$38</f>
-        <v>110052.19605020033</v>
+        <v>101260.24190499217</v>
       </c>
       <c r="R74" s="53">
         <f>R72*Parameters!$B$38</f>
-        <v>95689.68522103841</v>
+        <v>88045.136953696114</v>
       </c>
       <c r="S74" s="53">
         <f>S72*Parameters!$B$38</f>
-        <v>80896.299067001615</v>
+        <v>74433.578853861181</v>
       </c>
       <c r="T74" s="53">
         <f>T72*Parameters!$B$38</f>
-        <v>65659.11132834373</v>
+        <v>60413.67401103118</v>
       </c>
       <c r="U74" s="53">
         <f>U72*Parameters!$B$38</f>
-        <v>49964.807957526107</v>
+        <v>45973.172022916297</v>
       </c>
       <c r="V74" s="53">
         <f>V72*Parameters!$B$38</f>
-        <v>33799.675485583946</v>
+        <v>31099.454975157958</v>
       </c>
       <c r="W74" s="53">
         <f>W72*Parameters!$B$38</f>
-        <v>17149.589039483522</v>
+        <v>15779.526415966873</v>
       </c>
       <c r="Y74" s="15"/>
     </row>
@@ -11624,87 +11424,87 @@
       <c r="C75" s="119"/>
       <c r="D75" s="120">
         <f>D73+D74</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="E75" s="120">
         <f t="shared" ref="E75:F75" si="26">E73+E74</f>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="F75" s="120">
         <f t="shared" si="26"/>
-        <v>232567.32666834103</v>
+        <v>213987.76764882813</v>
       </c>
       <c r="G75" s="120">
         <f>IF(D4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="H75" s="120">
         <f>IF(E4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="I75" s="120">
         <f>IF(F4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="J75" s="120">
         <f>IF(G4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="K75" s="120">
         <f>IF(H4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="L75" s="120">
         <f>IF(I4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="M75" s="120">
         <f>IF(J4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="N75" s="120">
         <f>IF(K4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="O75" s="120">
         <f>IF(L4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="P75" s="120">
         <f>IF(M4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="Q75" s="120">
         <f>IF(N4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="R75" s="120">
         <f>IF(O4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="S75" s="120">
         <f>IF(P4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="T75" s="120">
         <f>IF(Q4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="U75" s="120">
         <f>IF(R4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="V75" s="120">
         <f>IF(S4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
+        <v>541763.74028152751</v>
       </c>
       <c r="W75" s="120">
         <f>IF(T4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>588802.55702226469</v>
-      </c>
-      <c r="Y75" s="159">
+        <v>541763.74028152751</v>
+      </c>
+      <c r="Y75" s="158">
         <f>NPV(Parameters!$B$46,Kalkulation!D75:W75)-Parameters!$B$39</f>
-        <v>66126.85520944465</v>
+        <v>60844.050325633027</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
@@ -11719,93 +11519,93 @@
       </c>
       <c r="C78" s="23">
         <f>-Parameters!B34</f>
-        <v>-2906526.7777219652</v>
+        <v>-2674327.4117057282</v>
       </c>
       <c r="D78" s="23">
         <f>D31-D61</f>
-        <v>791234.23332122841</v>
+        <v>749241.83555117191</v>
       </c>
       <c r="E78" s="23">
         <f t="shared" ref="E78:W78" si="27">E31-E61</f>
-        <v>780526.20957276307</v>
+        <v>745997.33555117191</v>
       </c>
       <c r="F78" s="23">
         <f t="shared" si="27"/>
-        <v>768472.23716199619</v>
+        <v>742655.50055117195</v>
       </c>
       <c r="G78" s="23">
         <f t="shared" si="27"/>
-        <v>441732.49568557285</v>
+        <v>475923.31023823912</v>
       </c>
       <c r="H78" s="23">
         <f t="shared" si="27"/>
-        <v>442521.51731284685</v>
+        <v>484965.4732307879</v>
       </c>
       <c r="I78" s="23">
         <f t="shared" si="27"/>
-        <v>442971.3286329445</v>
+        <v>493901.2756407914</v>
       </c>
       <c r="J78" s="23">
         <f t="shared" si="27"/>
-        <v>443071.75333665044</v>
+        <v>502727.52665077383</v>
       </c>
       <c r="K78" s="23">
         <f t="shared" si="27"/>
-        <v>442812.309825473</v>
+        <v>511440.93971873424</v>
       </c>
       <c r="L78" s="23">
         <f t="shared" si="27"/>
-        <v>442182.20205296588</v>
+        <v>520038.12970641197</v>
       </c>
       <c r="M78" s="23">
         <f t="shared" si="27"/>
-        <v>441170.31009128876</v>
+        <v>528515.60992139857</v>
       </c>
       <c r="N78" s="23">
         <f t="shared" si="27"/>
-        <v>439765.180414767</v>
+        <v>460089.11633744347</v>
       </c>
       <c r="O78" s="23">
         <f t="shared" si="27"/>
-        <v>437955.01589195488</v>
+        <v>465848.14167333033</v>
       </c>
       <c r="P78" s="23">
         <f t="shared" si="27"/>
-        <v>435727.66547746386</v>
+        <v>471515.59993866854</v>
       </c>
       <c r="Q78" s="23">
         <f t="shared" si="27"/>
-        <v>433070.61359454354</v>
+        <v>477088.74412134191</v>
       </c>
       <c r="R78" s="23">
         <f t="shared" si="27"/>
-        <v>341551.2861016409</v>
+        <v>272409.32337029895</v>
       </c>
       <c r="S78" s="23">
         <f t="shared" si="27"/>
-        <v>337995.77141838183</v>
+        <v>277785.26623752835</v>
       </c>
       <c r="T78" s="23">
         <f t="shared" si="27"/>
-        <v>333970.71033863036</v>
+        <v>283058.14956014982</v>
       </c>
       <c r="U78" s="23">
         <f t="shared" si="27"/>
-        <v>329462.01647049194</v>
+        <v>288224.88155182463</v>
       </c>
       <c r="V78" s="23">
         <f t="shared" si="27"/>
-        <v>324455.18083031458</v>
+        <v>293282.27767262474</v>
       </c>
       <c r="W78" s="23">
         <f t="shared" si="27"/>
-        <v>318935.2591649376</v>
+        <v>298227.05784642376</v>
       </c>
       <c r="Y78" s="23"/>
     </row>
     <row r="80" spans="1:25" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="27"/>
-      <c r="C80" s="158"/>
+      <c r="C80" s="157"/>
     </row>
     <row r="81" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
@@ -11814,83 +11614,83 @@
       <c r="B81" s="83"/>
       <c r="D81" s="24">
         <f>D78</f>
-        <v>791234.23332122841</v>
+        <v>749241.83555117191</v>
       </c>
       <c r="E81" s="24">
         <f t="shared" ref="E81:W81" si="28">E78</f>
-        <v>780526.20957276307</v>
+        <v>745997.33555117191</v>
       </c>
       <c r="F81" s="24">
         <f t="shared" si="28"/>
-        <v>768472.23716199619</v>
+        <v>742655.50055117195</v>
       </c>
       <c r="G81" s="24">
         <f t="shared" si="28"/>
-        <v>441732.49568557285</v>
+        <v>475923.31023823912</v>
       </c>
       <c r="H81" s="24">
         <f t="shared" si="28"/>
-        <v>442521.51731284685</v>
+        <v>484965.4732307879</v>
       </c>
       <c r="I81" s="24">
         <f t="shared" si="28"/>
-        <v>442971.3286329445</v>
+        <v>493901.2756407914</v>
       </c>
       <c r="J81" s="24">
         <f t="shared" si="28"/>
-        <v>443071.75333665044</v>
+        <v>502727.52665077383</v>
       </c>
       <c r="K81" s="24">
         <f t="shared" si="28"/>
-        <v>442812.309825473</v>
+        <v>511440.93971873424</v>
       </c>
       <c r="L81" s="24">
         <f t="shared" si="28"/>
-        <v>442182.20205296588</v>
+        <v>520038.12970641197</v>
       </c>
       <c r="M81" s="24">
         <f t="shared" si="28"/>
-        <v>441170.31009128876</v>
+        <v>528515.60992139857</v>
       </c>
       <c r="N81" s="24">
         <f t="shared" si="28"/>
-        <v>439765.180414767</v>
+        <v>460089.11633744347</v>
       </c>
       <c r="O81" s="24">
         <f t="shared" si="28"/>
-        <v>437955.01589195488</v>
+        <v>465848.14167333033</v>
       </c>
       <c r="P81" s="24">
         <f t="shared" si="28"/>
-        <v>435727.66547746386</v>
+        <v>471515.59993866854</v>
       </c>
       <c r="Q81" s="24">
         <f t="shared" si="28"/>
-        <v>433070.61359454354</v>
+        <v>477088.74412134191</v>
       </c>
       <c r="R81" s="24">
         <f t="shared" si="28"/>
-        <v>341551.2861016409</v>
+        <v>272409.32337029895</v>
       </c>
       <c r="S81" s="24">
         <f t="shared" si="28"/>
-        <v>337995.77141838183</v>
+        <v>277785.26623752835</v>
       </c>
       <c r="T81" s="24">
         <f t="shared" si="28"/>
-        <v>333970.71033863036</v>
+        <v>283058.14956014982</v>
       </c>
       <c r="U81" s="24">
         <f t="shared" si="28"/>
-        <v>329462.01647049194</v>
+        <v>288224.88155182463</v>
       </c>
       <c r="V81" s="24">
         <f t="shared" si="28"/>
-        <v>324455.18083031458</v>
+        <v>293282.27767262474</v>
       </c>
       <c r="W81" s="24">
         <f t="shared" si="28"/>
-        <v>318935.2591649376</v>
+        <v>298227.05784642376</v>
       </c>
     </row>
     <row r="82" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -11923,83 +11723,83 @@
       <c r="B84" s="83"/>
       <c r="D84" s="19">
         <f>IF(D61&gt;0.01,D31/D61,"-")</f>
-        <v>4.40217280155432</v>
+        <v>4.5013302105227835</v>
       </c>
       <c r="E84" s="19">
         <f t="shared" ref="E84:W84" si="29">IF(E61&gt;0.01,E31/E61,"-")</f>
-        <v>4.3561301183371031</v>
+        <v>4.4861681288970505</v>
       </c>
       <c r="F84" s="19">
         <f t="shared" si="29"/>
-        <v>4.3043000844993884</v>
+        <v>4.4705511848225452</v>
       </c>
       <c r="G84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6479472211422734</v>
+        <v>1.7587121028558068</v>
       </c>
       <c r="H84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6623968270874461</v>
+        <v>1.7889589799490946</v>
       </c>
       <c r="I84" s="19">
         <f t="shared" si="29"/>
-        <v>1.676932229227025</v>
+        <v>1.820293886297627</v>
       </c>
       <c r="J84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6915430402962157</v>
+        <v>1.8527811051139624</v>
       </c>
       <c r="K84" s="19">
         <f t="shared" si="29"/>
-        <v>1.7062174796158889</v>
+        <v>1.8864903638607853</v>
       </c>
       <c r="L84" s="19">
         <f t="shared" si="29"/>
-        <v>1.72094220276073</v>
+        <v>1.9214974363276927</v>
       </c>
       <c r="M84" s="19">
         <f t="shared" si="29"/>
-        <v>1.7357021074538068</v>
+        <v>1.9578848269653828</v>
       </c>
       <c r="N84" s="19">
         <f t="shared" si="29"/>
-        <v>1.7504801117883175</v>
+        <v>1.8533359851434008</v>
       </c>
       <c r="O84" s="19">
         <f t="shared" si="29"/>
-        <v>1.7652569001311604</v>
+        <v>1.8846711597416388</v>
       </c>
       <c r="P84" s="19">
         <f t="shared" si="29"/>
-        <v>1.7800106311524271</v>
+        <v>1.9173629689626426</v>
       </c>
       <c r="Q84" s="19">
         <f t="shared" si="29"/>
-        <v>1.7947166013085807</v>
+        <v>1.9515081074709808</v>
       </c>
       <c r="R84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6429119156404552</v>
+        <v>1.5572848927544329</v>
       </c>
       <c r="S84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6530356352741362</v>
+        <v>1.5833034880094434</v>
       </c>
       <c r="T84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6627772269507775</v>
+        <v>1.6105125741968116</v>
       </c>
       <c r="U84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6720759634580538</v>
+        <v>1.6390049657229186</v>
       </c>
       <c r="V84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6808632573227849</v>
+        <v>1.6688839235662565</v>
       </c>
       <c r="W84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6890614718056749</v>
+        <v>1.7002646925719966</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
@@ -12009,7 +11809,7 @@
       <c r="B85" s="83"/>
       <c r="C85" s="19">
         <f>AVERAGE(G84:W84)</f>
-        <v>1.7019335777891615</v>
+        <v>1.7854559682065219</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
@@ -12019,85 +11819,85 @@
       <c r="A88" t="s">
         <v>82</v>
       </c>
-      <c r="D88" s="159">
+      <c r="D88" s="158">
         <f>D21*-1</f>
-        <v>540096.19452319993</v>
-      </c>
-      <c r="E88" s="159">
+        <v>258150</v>
+      </c>
+      <c r="E88" s="158">
         <f t="shared" ref="E88:W88" si="30">E21*-1</f>
-        <v>551799.08035889594</v>
-      </c>
-      <c r="F88" s="159">
+        <v>261394.5</v>
+      </c>
+      <c r="F88" s="158">
         <f t="shared" si="30"/>
-        <v>563853.05276966281</v>
-      </c>
-      <c r="G88" s="159">
+        <v>264736.33500000002</v>
+      </c>
+      <c r="G88" s="158">
         <f t="shared" si="30"/>
-        <v>426268.64435275277</v>
-      </c>
-      <c r="H88" s="159">
+        <v>118178.42505000002</v>
+      </c>
+      <c r="H88" s="158">
         <f t="shared" si="30"/>
-        <v>439056.70368333533</v>
-      </c>
-      <c r="I88" s="159">
+        <v>121723.77780150001</v>
+      </c>
+      <c r="I88" s="158">
         <f t="shared" si="30"/>
-        <v>452228.40479383542</v>
-      </c>
-      <c r="J88" s="159">
+        <v>125375.49113554502</v>
+      </c>
+      <c r="J88" s="158">
         <f t="shared" si="30"/>
-        <v>465795.2569376505</v>
-      </c>
-      <c r="K88" s="159">
+        <v>129136.75586961137</v>
+      </c>
+      <c r="K88" s="158">
         <f t="shared" si="30"/>
-        <v>479769.11464578006</v>
-      </c>
-      <c r="L88" s="159">
+        <v>133010.85854569971</v>
+      </c>
+      <c r="L88" s="158">
         <f t="shared" si="30"/>
-        <v>494162.18808515347</v>
-      </c>
-      <c r="M88" s="159">
+        <v>137001.1843020707</v>
+      </c>
+      <c r="M88" s="158">
         <f t="shared" si="30"/>
-        <v>508987.05372770806</v>
-      </c>
-      <c r="N88" s="159">
+        <v>141111.21983113282</v>
+      </c>
+      <c r="N88" s="158">
         <f t="shared" si="30"/>
-        <v>524256.66533953929</v>
-      </c>
-      <c r="O88" s="159">
+        <v>145344.55642606682</v>
+      </c>
+      <c r="O88" s="158">
         <f t="shared" si="30"/>
-        <v>539984.36529972544</v>
-      </c>
-      <c r="P88" s="159">
+        <v>149704.89311884882</v>
+      </c>
+      <c r="P88" s="158">
         <f t="shared" si="30"/>
-        <v>556183.89625871729</v>
-      </c>
-      <c r="Q88" s="159">
+        <v>154196.0399124143</v>
+      </c>
+      <c r="Q88" s="158">
         <f t="shared" si="30"/>
-        <v>572869.41314647882</v>
-      </c>
-      <c r="R88" s="159">
+        <v>158821.92110978675</v>
+      </c>
+      <c r="R88" s="158">
         <f t="shared" si="30"/>
-        <v>590055.49554087326</v>
-      </c>
-      <c r="S88" s="159">
+        <v>163586.57874308035</v>
+      </c>
+      <c r="S88" s="158">
         <f t="shared" si="30"/>
-        <v>607757.16040709952</v>
-      </c>
-      <c r="T88" s="159">
+        <v>168494.17610537278</v>
+      </c>
+      <c r="T88" s="158">
         <f t="shared" si="30"/>
-        <v>625989.8752193125</v>
-      </c>
-      <c r="U88" s="159">
+        <v>173549.00138853397</v>
+      </c>
+      <c r="U88" s="158">
         <f t="shared" si="30"/>
-        <v>644769.57147589186</v>
-      </c>
-      <c r="V88" s="159">
+        <v>178755.47143018997</v>
+      </c>
+      <c r="V88" s="158">
         <f t="shared" si="30"/>
-        <v>664112.65862016869</v>
-      </c>
-      <c r="W88" s="159">
+        <v>184118.1355730957</v>
+      </c>
+      <c r="W88" s="158">
         <f t="shared" si="30"/>
-        <v>684036.03837877372</v>
+        <v>189641.67964028858</v>
       </c>
     </row>
   </sheetData>
@@ -12115,8 +11915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12130,21 +11930,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="154" t="s">
         <v>191</v>
       </c>
       <c r="B3" s="115"/>
@@ -12232,23 +12032,26 @@
       <c r="C10" s="122">
         <v>45658</v>
       </c>
-      <c r="F10" s="171" t="s">
+      <c r="F10" s="170" t="s">
         <v>261</v>
       </c>
-      <c r="G10" s="181"/>
-      <c r="H10" s="182">
+      <c r="G10" s="180"/>
+      <c r="H10" s="181">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="172" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="28">
-        <v>1470000</v>
+      <c r="C11" s="190">
+        <v>1166666</v>
+      </c>
+      <c r="D11" t="s">
+        <v>267</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="23"/>
@@ -12275,7 +12078,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="154" t="s">
         <v>198</v>
       </c>
       <c r="B14" s="115"/>
@@ -12353,11 +12156,11 @@
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="181"/>
-      <c r="C22" s="183">
+      <c r="B22" s="180"/>
+      <c r="C22" s="182">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F22" t="s">
@@ -12444,18 +12247,18 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="155" t="s">
+      <c r="A30" s="154" t="s">
         <v>207</v>
       </c>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
@@ -12471,7 +12274,7 @@
       </c>
       <c r="C32" s="23">
         <f>C11*C8</f>
-        <v>8820000</v>
+        <v>6999996</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -12556,13 +12359,13 @@
       </c>
       <c r="C37" s="23">
         <f t="shared" si="0"/>
-        <v>199974</v>
-      </c>
-      <c r="E37" s="171">
+        <v>139974</v>
+      </c>
+      <c r="E37" s="170">
         <v>6</v>
       </c>
       <c r="F37" s="23">
-        <v>33329</v>
+        <v>23329</v>
       </c>
       <c r="G37" t="s">
         <v>99</v>
@@ -12601,13 +12404,13 @@
       </c>
       <c r="C39" s="23">
         <f t="shared" si="0"/>
-        <v>867000</v>
-      </c>
-      <c r="E39">
-        <v>3000</v>
+        <v>1960000</v>
+      </c>
+      <c r="E39" s="172">
+        <v>20000</v>
       </c>
       <c r="F39" s="23">
-        <v>289</v>
+        <v>98</v>
       </c>
       <c r="G39" t="s">
         <v>102</v>
@@ -12643,13 +12446,13 @@
       </c>
       <c r="C41" s="23">
         <f t="shared" si="0"/>
-        <v>38500</v>
+        <v>28500</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" s="23">
-        <v>38500</v>
+        <v>28500</v>
       </c>
       <c r="G41" t="s">
         <v>103</v>
@@ -12685,13 +12488,13 @@
       </c>
       <c r="C43" s="23">
         <f>F43*E43</f>
-        <v>46200</v>
+        <v>16200</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" s="23">
-        <v>46200</v>
+        <v>16200</v>
       </c>
       <c r="G43" t="s">
         <v>103</v>
@@ -12748,13 +12551,13 @@
       </c>
       <c r="C46" s="23">
         <f t="shared" si="1"/>
-        <v>9625</v>
+        <v>7625</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" s="23">
-        <v>9625</v>
+        <v>7625</v>
       </c>
       <c r="G46" t="s">
         <v>103</v>
@@ -12832,13 +12635,13 @@
       </c>
       <c r="C50" s="23">
         <f t="shared" si="1"/>
-        <v>19250</v>
+        <v>15250</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" s="23">
-        <v>19250</v>
+        <v>15250</v>
       </c>
       <c r="G50" t="s">
         <v>103</v>
@@ -12873,26 +12676,27 @@
         <v>48</v>
       </c>
       <c r="C52" s="23">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="F52" s="23"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="172" t="s">
         <v>226</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="191">
         <f>E53*F53</f>
-        <v>9625</v>
-      </c>
-      <c r="E53">
+        <v>11111</v>
+      </c>
+      <c r="D53" s="172"/>
+      <c r="E53" s="172">
         <v>1</v>
       </c>
-      <c r="F53" s="23">
-        <v>9625</v>
+      <c r="F53" s="191">
+        <v>11111</v>
       </c>
       <c r="G53" t="s">
         <v>103</v>
@@ -12907,13 +12711,13 @@
       </c>
       <c r="C54" s="23">
         <f>E54*F54</f>
-        <v>57750</v>
+        <v>47750</v>
       </c>
       <c r="E54">
         <v>5</v>
       </c>
       <c r="F54" s="23">
-        <v>11550</v>
+        <v>9550</v>
       </c>
       <c r="G54" t="s">
         <v>116</v>
@@ -12982,15 +12786,18 @@
       <c r="C62" s="23"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="172" t="s">
         <v>232</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="191">
         <f>SUM(C32:C61)</f>
-        <v>10658771</v>
+        <v>9807253</v>
+      </c>
+      <c r="D63" s="184" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -13005,35 +12812,35 @@
       </c>
       <c r="C65" s="126">
         <f>C63/C17</f>
-        <v>0.2729787187016926</v>
+        <v>0.25117073609362006</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="153" t="s">
+      <c r="A67" s="152" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="152" t="s">
+      <c r="B67" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="154">
+      <c r="C67" s="153">
         <f>C63</f>
-        <v>10658771</v>
+        <v>9807253</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="155" t="s">
+      <c r="A69" s="154" t="s">
         <v>241</v>
       </c>
-      <c r="B69" s="155"/>
-      <c r="C69" s="155"/>
-      <c r="D69" s="155"/>
-      <c r="E69" s="155"/>
-      <c r="F69" s="155"/>
-      <c r="G69" s="155"/>
-      <c r="H69" s="155"/>
-      <c r="I69" s="155"/>
-      <c r="J69" s="155"/>
+      <c r="B69" s="154"/>
+      <c r="C69" s="154"/>
+      <c r="D69" s="154"/>
+      <c r="E69" s="154"/>
+      <c r="F69" s="154"/>
+      <c r="G69" s="154"/>
+      <c r="H69" s="154"/>
+      <c r="I69" s="154"/>
+      <c r="J69" s="154"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
@@ -13047,7 +12854,7 @@
       </c>
       <c r="D71" s="23">
         <f>B71*C63</f>
-        <v>2906646.8517</v>
+        <v>2674437.8931</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -13062,7 +12869,7 @@
       </c>
       <c r="D72" s="23">
         <f>B72*C63</f>
-        <v>7752124.1482999995</v>
+        <v>7132815.1068999991</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -13084,7 +12891,7 @@
       </c>
       <c r="C76" s="128">
         <f>D72</f>
-        <v>7752124.1482999995</v>
+        <v>7132815.1068999991</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -13136,18 +12943,18 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="155" t="s">
+      <c r="A84" s="154" t="s">
         <v>185</v>
       </c>
-      <c r="B84" s="155"/>
-      <c r="C84" s="155"/>
-      <c r="D84" s="155"/>
-      <c r="E84" s="155"/>
-      <c r="F84" s="155"/>
-      <c r="G84" s="155"/>
-      <c r="H84" s="155"/>
-      <c r="I84" s="155"/>
-      <c r="J84" s="155"/>
+      <c r="B84" s="154"/>
+      <c r="C84" s="154"/>
+      <c r="D84" s="154"/>
+      <c r="E84" s="154"/>
+      <c r="F84" s="154"/>
+      <c r="G84" s="154"/>
+      <c r="H84" s="154"/>
+      <c r="I84" s="154"/>
+      <c r="J84" s="154"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -13158,10 +12965,10 @@
       </c>
       <c r="C86" s="23">
         <f>F86*C63</f>
-        <v>159881.565</v>
+        <v>98072.53</v>
       </c>
       <c r="F86" s="129">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G86" t="s">
         <v>121</v>
@@ -13176,11 +12983,11 @@
       </c>
       <c r="C87" s="130">
         <f>F87*(C8*C9)</f>
-        <v>69300.000000000015</v>
+        <v>6930.0000000000009</v>
       </c>
       <c r="F87" s="23">
-        <f>10000*0.55</f>
-        <v>5500</v>
+        <f>10000*0.055</f>
+        <v>550</v>
       </c>
       <c r="G87" t="s">
         <v>123</v>
@@ -13214,11 +13021,11 @@
       </c>
       <c r="C89" s="23">
         <f>F89*$C$8</f>
-        <v>82500.000000000015</v>
+        <v>0</v>
       </c>
       <c r="F89" s="23">
-        <f>25000*0.55</f>
-        <v>13750.000000000002</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G89" t="s">
         <v>116</v>
@@ -13238,7 +13045,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="23">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -13252,7 +13059,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="23">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="F91" s="23"/>
       <c r="G91" s="188" t="s">
@@ -13294,7 +13101,7 @@
       <c r="F94" s="23"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="156" t="s">
+      <c r="A95" s="155" t="s">
         <v>131</v>
       </c>
       <c r="B95" s="4"/>
@@ -13315,7 +13122,7 @@
       <c r="E96">
         <v>0.4</v>
       </c>
-      <c r="F96" s="157">
+      <c r="F96" s="156">
         <f>7.32*0.55</f>
         <v>4.0260000000000007</v>
       </c>
@@ -13386,11 +13193,11 @@
       </c>
       <c r="C100" s="23">
         <f>F100*C8</f>
-        <v>16500</v>
+        <v>1650</v>
       </c>
       <c r="F100" s="23">
-        <f>5000*0.55</f>
-        <v>2750</v>
+        <f>5000*0.055</f>
+        <v>275</v>
       </c>
       <c r="G100" t="s">
         <v>116</v>
@@ -13415,11 +13222,10 @@
         <v>185</v>
       </c>
       <c r="B103" s="150"/>
-      <c r="C103" s="151">
-        <f>SUM(C86:C102)</f>
-        <v>378734.16943999997</v>
-      </c>
-      <c r="D103" s="150" t="s">
+      <c r="C103" s="192">
+        <v>105000</v>
+      </c>
+      <c r="D103" s="193" t="s">
         <v>136</v>
       </c>
       <c r="E103" s="4"/>
@@ -13433,16 +13239,16 @@
       <c r="F104" s="23"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="155" t="s">
+      <c r="A107" s="154" t="s">
         <v>253</v>
       </c>
-      <c r="B107" s="155"/>
-      <c r="C107" s="155"/>
-      <c r="D107" s="155"/>
-      <c r="E107" s="155"/>
-      <c r="F107" s="155"/>
-      <c r="G107" s="155"/>
-      <c r="H107" s="155"/>
+      <c r="B107" s="154"/>
+      <c r="C107" s="154"/>
+      <c r="D107" s="154"/>
+      <c r="E107" s="154"/>
+      <c r="F107" s="154"/>
+      <c r="G107" s="154"/>
+      <c r="H107" s="154"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
@@ -13534,6 +13340,9 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="G91:I92"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D63" r:id="rId1" display="https://www.energetica-india.net/news/gerc-updates-regulations-for-small-wind-projects" xr:uid="{348875DE-92A4-427F-982D-AF6809C57709}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <extLst>
@@ -13548,7 +13357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A41:M187"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
@@ -13799,7 +13608,7 @@
       <c r="B165" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C165" s="161">
+      <c r="C165" s="160">
         <v>401675.25</v>
       </c>
     </row>
@@ -13810,7 +13619,7 @@
       <c r="B166" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C166" s="161">
+      <c r="C166" s="160">
         <v>150000</v>
       </c>
     </row>
@@ -13821,7 +13630,7 @@
       <c r="B167" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C167" s="161">
+      <c r="C167" s="160">
         <v>15000</v>
       </c>
     </row>
@@ -13832,7 +13641,7 @@
       <c r="B168" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C168" s="161">
+      <c r="C168" s="160">
         <v>125000</v>
       </c>
     </row>
@@ -13843,7 +13652,7 @@
       <c r="B169" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C169" s="161">
+      <c r="C169" s="160">
         <v>12000</v>
       </c>
     </row>
@@ -13854,7 +13663,7 @@
       <c r="B170" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C170" s="161">
+      <c r="C170" s="160">
         <v>30000</v>
       </c>
     </row>
@@ -13865,7 +13674,7 @@
       <c r="B171" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C171" s="161">
+      <c r="C171" s="160">
         <v>15000</v>
       </c>
     </row>
@@ -13876,7 +13685,7 @@
       <c r="B172" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C172" s="161">
+      <c r="C172" s="160">
         <v>2835.06</v>
       </c>
     </row>
@@ -13887,13 +13696,13 @@
       <c r="B173" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C173" s="161">
+      <c r="C173" s="160">
         <v>25000</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B174" s="4"/>
-      <c r="C174" s="161"/>
+      <c r="C174" s="160"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
@@ -13902,7 +13711,7 @@
       <c r="B175" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C175" s="161">
+      <c r="C175" s="160">
         <v>776510.3060000001</v>
       </c>
     </row>
@@ -13921,7 +13730,7 @@
       <c r="A180" t="s">
         <v>142</v>
       </c>
-      <c r="B180" s="163">
+      <c r="B180" s="162">
         <f>C158</f>
         <v>26778350</v>
       </c>
@@ -13945,9 +13754,9 @@
       <c r="A182" t="s">
         <v>144</v>
       </c>
-      <c r="B182" s="165">
+      <c r="B182" s="164">
         <f>Parameters!B18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>
@@ -13957,7 +13766,7 @@
       <c r="A183" t="s">
         <v>145</v>
       </c>
-      <c r="B183" s="162">
+      <c r="B183" s="161">
         <v>20</v>
       </c>
       <c r="C183" t="s">
@@ -13979,7 +13788,7 @@
       <c r="A185" t="s">
         <v>12</v>
       </c>
-      <c r="B185" s="160">
+      <c r="B185" s="159">
         <v>5.7226122506694788E-2</v>
       </c>
     </row>
@@ -13987,7 +13796,7 @@
       <c r="A186" t="s">
         <v>16</v>
       </c>
-      <c r="B186" s="164">
+      <c r="B186" s="163">
         <v>1.1004203271360495</v>
       </c>
     </row>
@@ -13995,7 +13804,7 @@
       <c r="A187" t="s">
         <v>17</v>
       </c>
-      <c r="B187" s="164">
+      <c r="B187" s="163">
         <v>1.3204246863262747</v>
       </c>
     </row>

--- a/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
+++ b/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Wind-Farm-Project-Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB42D9C7-2E8E-471B-AC8F-2355A715FADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A05EA67-7B83-452A-8D7C-8883808DA5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="272">
   <si>
     <t>Input - Parameter</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t>GERC Updates Regulations for Small Wind Projects - Asia Pacific | Energetica India Magazine</t>
+  </si>
+  <si>
+    <t>(Last 10 years averages)</t>
   </si>
 </sst>
 </file>
@@ -1893,6 +1896,16 @@
     <xf numFmtId="171" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1905,16 +1918,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2380,64 +2383,64 @@
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>258150</c:v>
+                  <c:v>260419.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>261394.5</c:v>
+                  <c:v>266117.77717050002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>264736.33500000002</c:v>
+                  <c:v>272110.61565026949</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118178.42505000002</c:v>
+                  <c:v>128412.7445239799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121723.77780150001</c:v>
+                  <c:v>135040.12626886248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125375.49113554502</c:v>
+                  <c:v>142009.54718559847</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129136.75586961137</c:v>
+                  <c:v>149338.65991584721</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>133010.85854569971</c:v>
+                  <c:v>157046.02815410407</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137001.1843020707</c:v>
+                  <c:v>165151.17366713737</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>141111.21983113282</c:v>
+                  <c:v>173674.6257400983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>145344.55642606682</c:v>
+                  <c:v>182637.97317454478</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>149704.89311884882</c:v>
+                  <c:v>192063.91897008303</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>154196.0399124143</c:v>
+                  <c:v>201976.33782812901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>158821.92110978675</c:v>
+                  <c:v>212400.33662343872</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>163586.57874308035</c:v>
+                  <c:v>223362.31799657439</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>168494.17610537278</c:v>
+                  <c:v>234890.04722837757</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>173549.00138853397</c:v>
+                  <c:v>247012.72256583412</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>178755.47143018997</c:v>
+                  <c:v>259761.04917745676</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>184118.1355730957</c:v>
+                  <c:v>273167.31692550529</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>189641.67964028858</c:v>
+                  <c:v>287265.48215203057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3011,64 +3014,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>213987.76764882813</c:v>
+                  <c:v>723991.9472118686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213987.76764882813</c:v>
+                  <c:v>723991.9472118686</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213987.76764882813</c:v>
+                  <c:v>723991.9472118686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>207694.00977680378</c:v>
+                  <c:v>702698.06641151954</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195106.49403275506</c:v>
+                  <c:v>660110.30481082143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>182518.97828870636</c:v>
+                  <c:v>617522.5432101232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>169931.46254465764</c:v>
+                  <c:v>574934.78160942509</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>157343.94680060894</c:v>
+                  <c:v>532347.02000872698</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>144756.43105656022</c:v>
+                  <c:v>489759.25840802881</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>132168.91531251153</c:v>
+                  <c:v>447171.4968073307</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>119581.3995684628</c:v>
+                  <c:v>404583.73520663253</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>106993.88382441409</c:v>
+                  <c:v>361995.97360593441</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94406.368080365384</c:v>
+                  <c:v>319408.21200523624</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>81818.852336316675</c:v>
+                  <c:v>276820.45040453813</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69231.336592267966</c:v>
+                  <c:v>234232.68880383996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>56643.820848219249</c:v>
+                  <c:v>191644.92720314182</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44056.30510417054</c:v>
+                  <c:v>149057.16560244368</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31468.789360121831</c:v>
+                  <c:v>106469.40400174554</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18881.273616073115</c:v>
+                  <c:v>63881.642401047378</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6293.7578720244028</c:v>
+                  <c:v>21293.88080034923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3309,55 +3312,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="3" formatCode="#,##0">
-                  <c:v>327775.97263269941</c:v>
+                  <c:v>173497.30402997986</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0">
-                  <c:v>337609.25181168038</c:v>
+                  <c:v>191107.28038902278</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0">
-                  <c:v>347737.52936603077</c:v>
+                  <c:v>210504.66934850859</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0">
-                  <c:v>358169.65524701169</c:v>
+                  <c:v>231870.89328738221</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="#,##0">
-                  <c:v>368914.74490442203</c:v>
+                  <c:v>255405.78895605146</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="#,##0">
-                  <c:v>379982.18725155469</c:v>
+                  <c:v>281329.47653509071</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>391381.65286910132</c:v>
+                  <c:v>309884.41840340244</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
-                  <c:v>403123.10245517438</c:v>
+                  <c:v>341337.68687134772</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>415216.79552882962</c:v>
+                  <c:v>375983.46208878956</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="#,##0">
-                  <c:v>427673.29939469451</c:v>
+                  <c:v>414145.7834908017</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="#,##0">
-                  <c:v>440503.49837653537</c:v>
+                  <c:v>456181.58051511802</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="#,##0">
-                  <c:v>453718.60332783137</c:v>
+                  <c:v>502484.01093740249</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="#,##0">
-                  <c:v>467330.16142766632</c:v>
+                  <c:v>553486.13804754883</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="#,##0">
-                  <c:v>481350.06627049635</c:v>
+                  <c:v>609664.98105937499</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="#,##0">
-                  <c:v>495790.56825861119</c:v>
+                  <c:v>671545.97663690173</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="#,##0">
-                  <c:v>510664.28530636954</c:v>
+                  <c:v>739707.89326554723</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="#,##0">
-                  <c:v>525984.2138655606</c:v>
+                  <c:v>814788.24443200021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3459,64 +3462,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>213987.76764882813</c:v>
+                  <c:v>723991.9472118686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213987.76764882813</c:v>
+                  <c:v>723991.9472118686</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213987.76764882813</c:v>
+                  <c:v>723991.9472118686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213987.76764882813</c:v>
+                  <c:v>723991.9472118686</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>204154.48846984716</c:v>
+                  <c:v>706381.97085282567</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194026.21091549675</c:v>
+                  <c:v>686984.58189333987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>183594.08503451583</c:v>
+                  <c:v>665618.35795446625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>172848.99537710549</c:v>
+                  <c:v>642083.462285797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>161781.55302997283</c:v>
+                  <c:v>616159.77470675774</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150382.08741242619</c:v>
+                  <c:v>587604.83283844602</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>138640.63782635314</c:v>
+                  <c:v>556151.56437050074</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126546.94475269789</c:v>
+                  <c:v>521505.7891530589</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>114090.44088683301</c:v>
+                  <c:v>483343.46775104676</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>101260.24190499217</c:v>
+                  <c:v>441307.67072673043</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>88045.136953696114</c:v>
+                  <c:v>395005.24030444596</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>74433.578853861181</c:v>
+                  <c:v>344003.11319429963</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60413.67401103118</c:v>
+                  <c:v>287824.27018247341</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45973.172022916297</c:v>
+                  <c:v>225943.27460494678</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31099.454975157958</c:v>
+                  <c:v>157781.35797630125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15779.526415966873</c:v>
+                  <c:v>82701.006809848215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3788,34 +3791,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76780.672733069659</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79248.82644844969</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81677.737133594666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84066.227497597531</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>296568.50635939551</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>298872.4818739224</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>301132.28901218862</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>303346.60272290645</c:v>
+                  <c:v>100026.88080722072</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>305514.05820324935</c:v>
+                  <c:v>265299.19316203421</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>307633.24970630609</c:v>
+                  <c:v>273846.07207428606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4061,64 +4064,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>749241.83555117191</c:v>
+                  <c:v>236968.60598813137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>745997.33555117191</c:v>
+                  <c:v>231269.8788176314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>742655.50055117195</c:v>
+                  <c:v>225277.04033786198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>475923.31023823912</c:v>
+                  <c:v>-29315.06587045663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>484965.4732307879</c:v>
+                  <c:v>6645.3139853589237</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>493901.2756407914</c:v>
+                  <c:v>42263.654669321259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>502727.52665077383</c:v>
+                  <c:v>77522.303539770539</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>511440.93971873424</c:v>
+                  <c:v>112402.69690221187</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>520038.12970641197</c:v>
+                  <c:v>146885.31298987684</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>528515.60992139857</c:v>
+                  <c:v>180949.62251761393</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>460089.11633744347</c:v>
+                  <c:v>214574.03668386559</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>465848.14167333033</c:v>
+                  <c:v>247735.85248902545</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>471515.59993866854</c:v>
+                  <c:v>280411.1952316775</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>477088.74412134191</c:v>
+                  <c:v>312574.95803706592</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>272409.32337029895</c:v>
+                  <c:v>344200.73826462857</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>277785.26623752835</c:v>
+                  <c:v>375260.77063352347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>283058.14956014982</c:v>
+                  <c:v>405725.85689676506</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>288224.88155182463</c:v>
+                  <c:v>335538.41107861989</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>293282.27767262474</c:v>
+                  <c:v>199447.59257645602</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>298227.05784642376</c:v>
+                  <c:v>219390.31003837701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4848,9 +4851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AE137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4907,7 +4910,7 @@
       </c>
       <c r="G5" s="63">
         <f>NPV(B52,Kalkulation!D78:W78)-B34</f>
-        <v>4658659.4773428347</v>
+        <v>-918505.84937259951</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -4920,7 +4923,7 @@
       </c>
       <c r="G6" s="63">
         <f>NPV(Parameters!B46,Kalkulation!D21:W21)+ NPV(Parameters!B46,Kalkulation!D60:W60)</f>
-        <v>-530451.91929000965</v>
+        <v>3033902.1979134483</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -4941,7 +4944,7 @@
       </c>
       <c r="G7" s="63">
         <f>NPV(B46,Kalkulation!D9:W9)</f>
-        <v>572236283.59752655</v>
+        <v>371496868.8077113</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -4963,7 +4966,7 @@
       </c>
       <c r="G8" s="59">
         <f>IRR(Kalkulation!C78:W78)</f>
-        <v>0.21971173388464438</v>
+        <v>3.8276008506734405E-2</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4982,7 +4985,7 @@
       </c>
       <c r="G9" s="64">
         <f>((-G6-B25)/G7)</f>
-        <v>1.8065448164697073E-2</v>
+        <v>1.8232591902658735E-2</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -5003,7 +5006,7 @@
       </c>
       <c r="G10" s="148">
         <f>MIN(Kalkulation!D84:W84)</f>
-        <v>1.5572848927544329</v>
+        <v>0.97387905371254813</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5018,7 +5021,7 @@
       </c>
       <c r="G11" s="148">
         <f>Kalkulation!C85</f>
-        <v>1.7854559682065219</v>
+        <v>1.3173303689411684</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5120,7 +5123,7 @@
       <c r="D18" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="E18" s="194" t="s">
+      <c r="E18" s="190" t="s">
         <v>269</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -5291,83 +5294,83 @@
       <c r="I21" s="84"/>
       <c r="J21" s="88">
         <f>Kalkulation!D21</f>
-        <v>-258150</v>
+        <v>-260419.05</v>
       </c>
       <c r="K21" s="88">
         <f>Kalkulation!E21</f>
-        <v>-261394.5</v>
+        <v>-266117.77717050002</v>
       </c>
       <c r="L21" s="88">
         <f>Kalkulation!F21</f>
-        <v>-264736.33500000002</v>
+        <v>-272110.61565026949</v>
       </c>
       <c r="M21" s="88">
         <f>Kalkulation!G21</f>
-        <v>-118178.42505000002</v>
+        <v>-128412.7445239799</v>
       </c>
       <c r="N21" s="88">
         <f>Kalkulation!H21</f>
-        <v>-121723.77780150001</v>
+        <v>-135040.12626886248</v>
       </c>
       <c r="O21" s="88">
         <f>Kalkulation!I21</f>
-        <v>-125375.49113554502</v>
+        <v>-142009.54718559847</v>
       </c>
       <c r="P21" s="88">
         <f>Kalkulation!J21</f>
-        <v>-129136.75586961137</v>
+        <v>-149338.65991584721</v>
       </c>
       <c r="Q21" s="88">
         <f>Kalkulation!K21</f>
-        <v>-133010.85854569971</v>
+        <v>-157046.02815410407</v>
       </c>
       <c r="R21" s="88">
         <f>Kalkulation!L21</f>
-        <v>-137001.1843020707</v>
+        <v>-165151.17366713737</v>
       </c>
       <c r="S21" s="88">
         <f>Kalkulation!M21</f>
-        <v>-141111.21983113282</v>
+        <v>-173674.6257400983</v>
       </c>
       <c r="T21" s="88">
         <f>Kalkulation!N21</f>
-        <v>-145344.55642606682</v>
+        <v>-182637.97317454478</v>
       </c>
       <c r="U21" s="88">
         <f>Kalkulation!O21</f>
-        <v>-149704.89311884882</v>
+        <v>-192063.91897008303</v>
       </c>
       <c r="V21" s="88">
         <f>Kalkulation!P21</f>
-        <v>-154196.0399124143</v>
+        <v>-201976.33782812901</v>
       </c>
       <c r="W21" s="88">
         <f>Kalkulation!Q21</f>
-        <v>-158821.92110978675</v>
+        <v>-212400.33662343872</v>
       </c>
       <c r="X21" s="88">
         <f>Kalkulation!R21</f>
-        <v>-163586.57874308035</v>
+        <v>-223362.31799657439</v>
       </c>
       <c r="Y21" s="88">
         <f>Kalkulation!S21</f>
-        <v>-168494.17610537278</v>
+        <v>-234890.04722837757</v>
       </c>
       <c r="Z21" s="88">
         <f>Kalkulation!T21</f>
-        <v>-173549.00138853397</v>
+        <v>-247012.72256583412</v>
       </c>
       <c r="AA21" s="88">
         <f>Kalkulation!U21</f>
-        <v>-178755.47143018997</v>
+        <v>-259761.04917745676</v>
       </c>
       <c r="AB21" s="88">
         <f>Kalkulation!V21</f>
-        <v>-184118.1355730957</v>
+        <v>-273167.31692550529</v>
       </c>
       <c r="AC21" s="88">
         <f>Kalkulation!W21</f>
-        <v>-189641.67964028858</v>
+        <v>-287265.48215203057</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5381,83 +5384,83 @@
       <c r="I22" s="84"/>
       <c r="J22" s="88">
         <f>SUM(J20:J21)</f>
-        <v>963229.60320000001</v>
+        <v>960960.55319999997</v>
       </c>
       <c r="K22" s="88">
         <f t="shared" ref="K22:AC22" si="0">SUM(K20:K21)</f>
-        <v>959985.10320000001</v>
+        <v>955261.82602949999</v>
       </c>
       <c r="L22" s="88">
         <f t="shared" si="0"/>
-        <v>956643.26820000005</v>
+        <v>949268.98754973058</v>
       </c>
       <c r="M22" s="88">
         <f t="shared" si="0"/>
-        <v>1103201.1781500001</v>
+        <v>1092966.8586760201</v>
       </c>
       <c r="N22" s="88">
         <f t="shared" si="0"/>
-        <v>1099655.8253985001</v>
+        <v>1086339.4769311375</v>
       </c>
       <c r="O22" s="88">
         <f t="shared" si="0"/>
-        <v>1096004.1120644549</v>
+        <v>1079370.0560144016</v>
       </c>
       <c r="P22" s="88">
         <f t="shared" si="0"/>
-        <v>1092242.8473303886</v>
+        <v>1072040.9432841528</v>
       </c>
       <c r="Q22" s="88">
         <f t="shared" si="0"/>
-        <v>1088368.7446543004</v>
+        <v>1064333.575045896</v>
       </c>
       <c r="R22" s="88">
         <f t="shared" si="0"/>
-        <v>1084378.4188979294</v>
+        <v>1056228.4295328627</v>
       </c>
       <c r="S22" s="88">
         <f t="shared" si="0"/>
-        <v>1080268.3833688672</v>
+        <v>1047704.9774599017</v>
       </c>
       <c r="T22" s="88">
         <f t="shared" si="0"/>
-        <v>1076035.0467739331</v>
+        <v>1038741.6300254553</v>
       </c>
       <c r="U22" s="88">
         <f t="shared" si="0"/>
-        <v>1071674.7100811512</v>
+        <v>1029315.684229917</v>
       </c>
       <c r="V22" s="88">
         <f t="shared" si="0"/>
-        <v>1067183.5632875857</v>
+        <v>1019403.2653718709</v>
       </c>
       <c r="W22" s="88">
         <f t="shared" si="0"/>
-        <v>1062557.6820902133</v>
+        <v>1008979.2665765613</v>
       </c>
       <c r="X22" s="88">
         <f t="shared" si="0"/>
-        <v>1057793.0244569196</v>
+        <v>998017.28520342568</v>
       </c>
       <c r="Y22" s="88">
         <f t="shared" si="0"/>
-        <v>1052885.4270946272</v>
+        <v>986489.55597162247</v>
       </c>
       <c r="Z22" s="88">
         <f t="shared" si="0"/>
-        <v>1047830.601811466</v>
+        <v>974366.88063416583</v>
       </c>
       <c r="AA22" s="88">
         <f t="shared" si="0"/>
-        <v>1042624.1317698101</v>
+        <v>961618.55402254325</v>
       </c>
       <c r="AB22" s="88">
         <f t="shared" si="0"/>
-        <v>1037261.4676269044</v>
+        <v>948212.28627449472</v>
       </c>
       <c r="AC22" s="88">
         <f t="shared" si="0"/>
-        <v>1031737.9235597114</v>
+        <v>934114.12104796944</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
@@ -5570,83 +5573,83 @@
       <c r="I24" s="84"/>
       <c r="J24" s="88">
         <f>SUM(J22:J23)</f>
-        <v>262711.53177142853</v>
+        <v>260442.48177142849</v>
       </c>
       <c r="K24" s="88">
         <f t="shared" ref="K24:AC24" si="1">SUM(K22:K23)</f>
-        <v>259467.03177142853</v>
+        <v>254743.75460092851</v>
       </c>
       <c r="L24" s="88">
         <f t="shared" si="1"/>
-        <v>256125.19677142857</v>
+        <v>248750.9161211591</v>
       </c>
       <c r="M24" s="88">
         <f t="shared" si="1"/>
-        <v>402683.10672142857</v>
+        <v>392448.78724744858</v>
       </c>
       <c r="N24" s="88">
         <f t="shared" si="1"/>
-        <v>399137.7539699286</v>
+        <v>385821.40550256602</v>
       </c>
       <c r="O24" s="88">
         <f t="shared" si="1"/>
-        <v>395486.04063588346</v>
+        <v>378851.98458583013</v>
       </c>
       <c r="P24" s="88">
         <f t="shared" si="1"/>
-        <v>391724.77590181713</v>
+        <v>371522.8718555813</v>
       </c>
       <c r="Q24" s="88">
         <f t="shared" si="1"/>
-        <v>387850.67322572891</v>
+        <v>363815.50361732452</v>
       </c>
       <c r="R24" s="88">
         <f t="shared" si="1"/>
-        <v>383860.34746935789</v>
+        <v>355710.35810429126</v>
       </c>
       <c r="S24" s="88">
         <f t="shared" si="1"/>
-        <v>379750.31194029574</v>
+        <v>347186.90603133023</v>
       </c>
       <c r="T24" s="88">
         <f t="shared" si="1"/>
-        <v>375516.97534536163</v>
+        <v>338223.55859688378</v>
       </c>
       <c r="U24" s="88">
         <f t="shared" si="1"/>
-        <v>371156.63865257974</v>
+        <v>328797.61280134553</v>
       </c>
       <c r="V24" s="88">
         <f t="shared" si="1"/>
-        <v>366665.49185901426</v>
+        <v>318885.19394329947</v>
       </c>
       <c r="W24" s="88">
         <f t="shared" si="1"/>
-        <v>362039.61066164181</v>
+        <v>308461.19514798978</v>
       </c>
       <c r="X24" s="88">
         <f t="shared" si="1"/>
-        <v>1057793.0244569196</v>
+        <v>998017.28520342568</v>
       </c>
       <c r="Y24" s="88">
         <f t="shared" si="1"/>
-        <v>1052885.4270946272</v>
+        <v>986489.55597162247</v>
       </c>
       <c r="Z24" s="88">
         <f t="shared" si="1"/>
-        <v>1047830.601811466</v>
+        <v>974366.88063416583</v>
       </c>
       <c r="AA24" s="88">
         <f t="shared" si="1"/>
-        <v>1042624.1317698101</v>
+        <v>961618.55402254325</v>
       </c>
       <c r="AB24" s="88">
         <f t="shared" si="1"/>
-        <v>1037261.4676269044</v>
+        <v>948212.28627449472</v>
       </c>
       <c r="AC24" s="88">
         <f t="shared" si="1"/>
-        <v>1031737.9235597114</v>
+        <v>934114.12104796944</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
@@ -5665,83 +5668,83 @@
       <c r="I25" s="84"/>
       <c r="J25" s="88">
         <f>Kalkulation!D38</f>
-        <v>-213987.76764882813</v>
+        <v>-723991.9472118686</v>
       </c>
       <c r="K25" s="88">
         <f>Kalkulation!E38</f>
-        <v>-213987.76764882813</v>
+        <v>-723991.9472118686</v>
       </c>
       <c r="L25" s="88">
         <f>Kalkulation!F38</f>
-        <v>-213987.76764882813</v>
+        <v>-723991.9472118686</v>
       </c>
       <c r="M25" s="88">
         <f>Kalkulation!G38</f>
-        <v>-207694.00977680378</v>
+        <v>-702698.06641151954</v>
       </c>
       <c r="N25" s="88">
         <f>Kalkulation!H38</f>
-        <v>-195106.49403275506</v>
+        <v>-660110.30481082143</v>
       </c>
       <c r="O25" s="88">
         <f>Kalkulation!I38</f>
-        <v>-182518.97828870636</v>
+        <v>-617522.5432101232</v>
       </c>
       <c r="P25" s="88">
         <f>Kalkulation!J38</f>
-        <v>-169931.46254465764</v>
+        <v>-574934.78160942509</v>
       </c>
       <c r="Q25" s="88">
         <f>Kalkulation!K38</f>
-        <v>-157343.94680060894</v>
+        <v>-532347.02000872698</v>
       </c>
       <c r="R25" s="88">
         <f>Kalkulation!L38</f>
-        <v>-144756.43105656022</v>
+        <v>-489759.25840802881</v>
       </c>
       <c r="S25" s="88">
         <f>Kalkulation!M38</f>
-        <v>-132168.91531251153</v>
+        <v>-447171.4968073307</v>
       </c>
       <c r="T25" s="88">
         <f>Kalkulation!N38</f>
-        <v>-119581.3995684628</v>
+        <v>-404583.73520663253</v>
       </c>
       <c r="U25" s="88">
         <f>Kalkulation!O38</f>
-        <v>-106993.88382441409</v>
+        <v>-361995.97360593441</v>
       </c>
       <c r="V25" s="88">
         <f>Kalkulation!P38</f>
-        <v>-94406.368080365384</v>
+        <v>-319408.21200523624</v>
       </c>
       <c r="W25" s="88">
         <f>Kalkulation!Q38</f>
-        <v>-81818.852336316675</v>
+        <v>-276820.45040453813</v>
       </c>
       <c r="X25" s="88">
         <f>Kalkulation!R38</f>
-        <v>-69231.336592267966</v>
+        <v>-234232.68880383996</v>
       </c>
       <c r="Y25" s="88">
         <f>Kalkulation!S38</f>
-        <v>-56643.820848219249</v>
+        <v>-191644.92720314182</v>
       </c>
       <c r="Z25" s="88">
         <f>Kalkulation!T38</f>
-        <v>-44056.30510417054</v>
+        <v>-149057.16560244368</v>
       </c>
       <c r="AA25" s="88">
         <f>Kalkulation!U38</f>
-        <v>-31468.789360121831</v>
+        <v>-106469.40400174554</v>
       </c>
       <c r="AB25" s="88">
         <f>Kalkulation!V38</f>
-        <v>-18881.273616073115</v>
+        <v>-63881.642401047378</v>
       </c>
       <c r="AC25" s="88">
         <f>Kalkulation!W38</f>
-        <v>-6293.7578720244028</v>
+        <v>-21293.88080034923</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
@@ -5765,83 +5768,83 @@
       <c r="I26" s="84"/>
       <c r="J26" s="88">
         <f>SUM(J24:J25)</f>
-        <v>48723.764122600405</v>
+        <v>-463549.46544044011</v>
       </c>
       <c r="K26" s="88">
         <f t="shared" ref="K26:AC26" si="2">SUM(K24:K25)</f>
-        <v>45479.264122600405</v>
+        <v>-469248.19261094008</v>
       </c>
       <c r="L26" s="88">
         <f t="shared" si="2"/>
-        <v>42137.429122600442</v>
+        <v>-475241.0310907095</v>
       </c>
       <c r="M26" s="88">
         <f t="shared" si="2"/>
-        <v>194989.09694462479</v>
+        <v>-310249.27916407096</v>
       </c>
       <c r="N26" s="88">
         <f t="shared" si="2"/>
-        <v>204031.25993717354</v>
+        <v>-274288.89930825541</v>
       </c>
       <c r="O26" s="88">
         <f t="shared" si="2"/>
-        <v>212967.0623471771</v>
+        <v>-238670.55862429307</v>
       </c>
       <c r="P26" s="88">
         <f t="shared" si="2"/>
-        <v>221793.3133571595</v>
+        <v>-203411.90975384379</v>
       </c>
       <c r="Q26" s="88">
         <f t="shared" si="2"/>
-        <v>230506.72642511997</v>
+        <v>-168531.51639140246</v>
       </c>
       <c r="R26" s="88">
         <f t="shared" si="2"/>
-        <v>239103.91641279767</v>
+        <v>-134048.90030373755</v>
       </c>
       <c r="S26" s="88">
         <f t="shared" si="2"/>
-        <v>247581.39662778421</v>
+        <v>-99984.590776000463</v>
       </c>
       <c r="T26" s="88">
         <f t="shared" si="2"/>
-        <v>255935.57577689883</v>
+        <v>-66360.176609748742</v>
       </c>
       <c r="U26" s="88">
         <f t="shared" si="2"/>
-        <v>264162.75482816563</v>
+        <v>-33198.360804588883</v>
       </c>
       <c r="V26" s="88">
         <f t="shared" si="2"/>
-        <v>272259.12377864891</v>
+        <v>-523.01806193677476</v>
       </c>
       <c r="W26" s="88">
         <f t="shared" si="2"/>
-        <v>280220.75832532515</v>
+        <v>31640.744743451651</v>
       </c>
       <c r="X26" s="88">
         <f t="shared" si="2"/>
-        <v>988561.68786465167</v>
+        <v>763784.59639958572</v>
       </c>
       <c r="Y26" s="88">
         <f t="shared" si="2"/>
-        <v>996241.60624640796</v>
+        <v>794844.62876848062</v>
       </c>
       <c r="Z26" s="88">
         <f t="shared" si="2"/>
-        <v>1003774.2967072955</v>
+        <v>825309.71503172209</v>
       </c>
       <c r="AA26" s="88">
         <f t="shared" si="2"/>
-        <v>1011155.3424096883</v>
+        <v>855149.15002079774</v>
       </c>
       <c r="AB26" s="88">
         <f t="shared" si="2"/>
-        <v>1018380.1940108313</v>
+        <v>884330.64387344732</v>
       </c>
       <c r="AC26" s="88">
         <f t="shared" si="2"/>
-        <v>1025444.165687687</v>
+        <v>912820.24024762027</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
@@ -5895,43 +5898,43 @@
       </c>
       <c r="T27" s="88">
         <f>-Kalkulation!N54</f>
-        <v>-76780.672733069659</v>
+        <v>0</v>
       </c>
       <c r="U27" s="88">
         <f>-Kalkulation!O54</f>
-        <v>-79248.82644844969</v>
+        <v>0</v>
       </c>
       <c r="V27" s="88">
         <f>-Kalkulation!P54</f>
-        <v>-81677.737133594666</v>
+        <v>0</v>
       </c>
       <c r="W27" s="88">
         <f>-Kalkulation!Q54</f>
-        <v>-84066.227497597531</v>
+        <v>0</v>
       </c>
       <c r="X27" s="88">
         <f>-Kalkulation!R54</f>
-        <v>-296568.50635939551</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="88">
         <f>-Kalkulation!S54</f>
-        <v>-298872.4818739224</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="88">
         <f>-Kalkulation!T54</f>
-        <v>-301132.28901218862</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="88">
         <f>-Kalkulation!U54</f>
-        <v>-303346.60272290645</v>
+        <v>-100026.88080722072</v>
       </c>
       <c r="AB27" s="88">
         <f>-Kalkulation!V54</f>
-        <v>-305514.05820324935</v>
+        <v>-265299.19316203421</v>
       </c>
       <c r="AC27" s="88">
         <f>-Kalkulation!W54</f>
-        <v>-307633.24970630609</v>
+        <v>-273846.07207428606</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
@@ -5943,83 +5946,83 @@
       </c>
       <c r="J28" s="23">
         <f>SUM(J26:J27)</f>
-        <v>48723.764122600405</v>
+        <v>-463549.46544044011</v>
       </c>
       <c r="K28" s="23">
         <f t="shared" ref="K28:AC28" si="3">SUM(K26:K27)</f>
-        <v>45479.264122600405</v>
+        <v>-469248.19261094008</v>
       </c>
       <c r="L28" s="23">
         <f t="shared" si="3"/>
-        <v>42137.429122600442</v>
+        <v>-475241.0310907095</v>
       </c>
       <c r="M28" s="23">
         <f t="shared" si="3"/>
-        <v>194989.09694462479</v>
+        <v>-310249.27916407096</v>
       </c>
       <c r="N28" s="23">
         <f t="shared" si="3"/>
-        <v>204031.25993717354</v>
+        <v>-274288.89930825541</v>
       </c>
       <c r="O28" s="23">
         <f t="shared" si="3"/>
-        <v>212967.0623471771</v>
+        <v>-238670.55862429307</v>
       </c>
       <c r="P28" s="23">
         <f t="shared" si="3"/>
-        <v>221793.3133571595</v>
+        <v>-203411.90975384379</v>
       </c>
       <c r="Q28" s="23">
         <f t="shared" si="3"/>
-        <v>230506.72642511997</v>
+        <v>-168531.51639140246</v>
       </c>
       <c r="R28" s="23">
         <f t="shared" si="3"/>
-        <v>239103.91641279767</v>
+        <v>-134048.90030373755</v>
       </c>
       <c r="S28" s="23">
         <f t="shared" si="3"/>
-        <v>247581.39662778421</v>
+        <v>-99984.590776000463</v>
       </c>
       <c r="T28" s="23">
         <f t="shared" si="3"/>
-        <v>179154.90304382917</v>
+        <v>-66360.176609748742</v>
       </c>
       <c r="U28" s="23">
         <f t="shared" si="3"/>
-        <v>184913.92837971594</v>
+        <v>-33198.360804588883</v>
       </c>
       <c r="V28" s="23">
         <f t="shared" si="3"/>
-        <v>190581.38664505424</v>
+        <v>-523.01806193677476</v>
       </c>
       <c r="W28" s="23">
         <f t="shared" si="3"/>
-        <v>196154.53082772763</v>
+        <v>31640.744743451651</v>
       </c>
       <c r="X28" s="23">
         <f t="shared" si="3"/>
-        <v>691993.1815052561</v>
+        <v>763784.59639958572</v>
       </c>
       <c r="Y28" s="23">
         <f t="shared" si="3"/>
-        <v>697369.12437248556</v>
+        <v>794844.62876848062</v>
       </c>
       <c r="Z28" s="23">
         <f t="shared" si="3"/>
-        <v>702642.00769510679</v>
+        <v>825309.71503172209</v>
       </c>
       <c r="AA28" s="23">
         <f t="shared" si="3"/>
-        <v>707808.73968678177</v>
+        <v>755122.26921357703</v>
       </c>
       <c r="AB28" s="23">
         <f t="shared" si="3"/>
-        <v>712866.13580758194</v>
+        <v>619031.45071141305</v>
       </c>
       <c r="AC28" s="23">
         <f t="shared" si="3"/>
-        <v>717810.91598138097</v>
+        <v>638974.16817333421</v>
       </c>
       <c r="AD28" s="23"/>
     </row>
@@ -6098,7 +6101,10 @@
         <v>164</v>
       </c>
       <c r="B36" s="67">
-        <v>0.02</v>
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="C36" t="s">
+        <v>269</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>3</v>
@@ -6169,7 +6175,7 @@
         <v>165</v>
       </c>
       <c r="B37" s="67">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -6179,7 +6185,7 @@
       </c>
       <c r="B38" s="2">
         <f>SUM(B36:B37)</f>
-        <v>0.03</v>
+        <v>0.10150000000000001</v>
       </c>
       <c r="C38" s="184" t="s">
         <v>266</v>
@@ -6287,83 +6293,83 @@
       </c>
       <c r="J39" s="23">
         <f>Kalkulation!D21</f>
-        <v>-258150</v>
+        <v>-260419.05</v>
       </c>
       <c r="K39" s="23">
         <f>Kalkulation!E21</f>
-        <v>-261394.5</v>
+        <v>-266117.77717050002</v>
       </c>
       <c r="L39" s="23">
         <f>Kalkulation!F21</f>
-        <v>-264736.33500000002</v>
+        <v>-272110.61565026949</v>
       </c>
       <c r="M39" s="23">
         <f>Kalkulation!G21</f>
-        <v>-118178.42505000002</v>
+        <v>-128412.7445239799</v>
       </c>
       <c r="N39" s="23">
         <f>Kalkulation!H21</f>
-        <v>-121723.77780150001</v>
+        <v>-135040.12626886248</v>
       </c>
       <c r="O39" s="23">
         <f>Kalkulation!I21</f>
-        <v>-125375.49113554502</v>
+        <v>-142009.54718559847</v>
       </c>
       <c r="P39" s="23">
         <f>Kalkulation!J21</f>
-        <v>-129136.75586961137</v>
+        <v>-149338.65991584721</v>
       </c>
       <c r="Q39" s="23">
         <f>Kalkulation!K21</f>
-        <v>-133010.85854569971</v>
+        <v>-157046.02815410407</v>
       </c>
       <c r="R39" s="23">
         <f>Kalkulation!L21</f>
-        <v>-137001.1843020707</v>
+        <v>-165151.17366713737</v>
       </c>
       <c r="S39" s="23">
         <f>Kalkulation!M21</f>
-        <v>-141111.21983113282</v>
+        <v>-173674.6257400983</v>
       </c>
       <c r="T39" s="23">
         <f>Kalkulation!N21</f>
-        <v>-145344.55642606682</v>
+        <v>-182637.97317454478</v>
       </c>
       <c r="U39" s="23">
         <f>Kalkulation!O21</f>
-        <v>-149704.89311884882</v>
+        <v>-192063.91897008303</v>
       </c>
       <c r="V39" s="23">
         <f>Kalkulation!P21</f>
-        <v>-154196.0399124143</v>
+        <v>-201976.33782812901</v>
       </c>
       <c r="W39" s="23">
         <f>Kalkulation!Q21</f>
-        <v>-158821.92110978675</v>
+        <v>-212400.33662343872</v>
       </c>
       <c r="X39" s="23">
         <f>Kalkulation!R21</f>
-        <v>-163586.57874308035</v>
+        <v>-223362.31799657439</v>
       </c>
       <c r="Y39" s="23">
         <f>Kalkulation!S21</f>
-        <v>-168494.17610537278</v>
+        <v>-234890.04722837757</v>
       </c>
       <c r="Z39" s="23">
         <f>Kalkulation!T21</f>
-        <v>-173549.00138853397</v>
+        <v>-247012.72256583412</v>
       </c>
       <c r="AA39" s="23">
         <f>Kalkulation!U21</f>
-        <v>-178755.47143018997</v>
+        <v>-259761.04917745676</v>
       </c>
       <c r="AB39" s="23">
         <f>Kalkulation!V21</f>
-        <v>-184118.1355730957</v>
+        <v>-273167.31692550529</v>
       </c>
       <c r="AC39" s="23">
         <f>Kalkulation!W21</f>
-        <v>-189641.67964028858</v>
+        <v>-287265.48215203057</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6423,43 +6429,43 @@
       </c>
       <c r="T40" s="88">
         <f t="shared" si="4"/>
-        <v>-76780.672733069659</v>
+        <v>0</v>
       </c>
       <c r="U40" s="88">
         <f t="shared" si="4"/>
-        <v>-79248.82644844969</v>
+        <v>0</v>
       </c>
       <c r="V40" s="88">
         <f t="shared" si="4"/>
-        <v>-81677.737133594666</v>
+        <v>0</v>
       </c>
       <c r="W40" s="88">
         <f t="shared" si="4"/>
-        <v>-84066.227497597531</v>
+        <v>0</v>
       </c>
       <c r="X40" s="88">
         <f t="shared" si="4"/>
-        <v>-296568.50635939551</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="88">
         <f t="shared" si="4"/>
-        <v>-298872.4818739224</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="88">
         <f t="shared" si="4"/>
-        <v>-301132.28901218862</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="88">
         <f t="shared" si="4"/>
-        <v>-303346.60272290645</v>
+        <v>-100026.88080722072</v>
       </c>
       <c r="AB40" s="88">
         <f t="shared" si="4"/>
-        <v>-305514.05820324935</v>
+        <v>-265299.19316203421</v>
       </c>
       <c r="AC40" s="88">
         <f t="shared" si="4"/>
-        <v>-307633.24970630609</v>
+        <v>-273846.07207428606</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
@@ -6479,83 +6485,83 @@
       <c r="I41" s="84"/>
       <c r="J41" s="88">
         <f>SUM(J38:J40)</f>
-        <v>963229.60320000001</v>
+        <v>960960.55319999997</v>
       </c>
       <c r="K41" s="88">
         <f t="shared" ref="K41:AC41" si="5">SUM(K38:K40)</f>
-        <v>959985.10320000001</v>
+        <v>955261.82602949999</v>
       </c>
       <c r="L41" s="88">
         <f t="shared" si="5"/>
-        <v>956643.26820000005</v>
+        <v>949268.98754973058</v>
       </c>
       <c r="M41" s="88">
         <f t="shared" si="5"/>
-        <v>1103201.1781500001</v>
+        <v>1092966.8586760201</v>
       </c>
       <c r="N41" s="88">
         <f t="shared" si="5"/>
-        <v>1099655.8253985001</v>
+        <v>1086339.4769311375</v>
       </c>
       <c r="O41" s="88">
         <f t="shared" si="5"/>
-        <v>1096004.1120644549</v>
+        <v>1079370.0560144016</v>
       </c>
       <c r="P41" s="88">
         <f t="shared" si="5"/>
-        <v>1092242.8473303886</v>
+        <v>1072040.9432841528</v>
       </c>
       <c r="Q41" s="88">
         <f t="shared" si="5"/>
-        <v>1088368.7446543004</v>
+        <v>1064333.575045896</v>
       </c>
       <c r="R41" s="88">
         <f t="shared" si="5"/>
-        <v>1084378.4188979294</v>
+        <v>1056228.4295328627</v>
       </c>
       <c r="S41" s="88">
         <f t="shared" si="5"/>
-        <v>1080268.3833688672</v>
+        <v>1047704.9774599017</v>
       </c>
       <c r="T41" s="88">
         <f t="shared" si="5"/>
-        <v>999254.37404086348</v>
+        <v>1038741.6300254553</v>
       </c>
       <c r="U41" s="88">
         <f t="shared" si="5"/>
-        <v>992425.88363270159</v>
+        <v>1029315.684229917</v>
       </c>
       <c r="V41" s="88">
         <f t="shared" si="5"/>
-        <v>985505.82615399105</v>
+        <v>1019403.2653718709</v>
       </c>
       <c r="W41" s="88">
         <f t="shared" si="5"/>
-        <v>978491.45459261572</v>
+        <v>1008979.2665765613</v>
       </c>
       <c r="X41" s="88">
         <f t="shared" si="5"/>
-        <v>761224.51809752407</v>
+        <v>998017.28520342568</v>
       </c>
       <c r="Y41" s="88">
         <f t="shared" si="5"/>
-        <v>754012.94522070477</v>
+        <v>986489.55597162247</v>
       </c>
       <c r="Z41" s="88">
         <f t="shared" si="5"/>
-        <v>746698.31279927748</v>
+        <v>974366.88063416583</v>
       </c>
       <c r="AA41" s="88">
         <f t="shared" si="5"/>
-        <v>739277.5290469036</v>
+        <v>861591.67321532255</v>
       </c>
       <c r="AB41" s="88">
         <f t="shared" si="5"/>
-        <v>731747.40942365502</v>
+        <v>682913.09311246057</v>
       </c>
       <c r="AC41" s="88">
         <f t="shared" si="5"/>
-        <v>724104.67385340529</v>
+        <v>660268.04897368338</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
@@ -6573,83 +6579,83 @@
       </c>
       <c r="J42" s="23">
         <f>-Kalkulation!D60</f>
-        <v>-213987.76764882813</v>
+        <v>-723991.9472118686</v>
       </c>
       <c r="K42" s="23">
         <f>-Kalkulation!E60</f>
-        <v>-213987.76764882813</v>
+        <v>-723991.9472118686</v>
       </c>
       <c r="L42" s="23">
         <f>-Kalkulation!F60</f>
-        <v>-213987.76764882813</v>
+        <v>-723991.9472118686</v>
       </c>
       <c r="M42" s="23">
         <f>-Kalkulation!G60</f>
-        <v>-207694.00977680378</v>
+        <v>-702698.06641151954</v>
       </c>
       <c r="N42" s="23">
         <f>-Kalkulation!H60</f>
-        <v>-195106.49403275506</v>
+        <v>-660110.30481082143</v>
       </c>
       <c r="O42" s="23">
         <f>-Kalkulation!I60</f>
-        <v>-182518.97828870636</v>
+        <v>-617522.5432101232</v>
       </c>
       <c r="P42" s="23">
         <f>-Kalkulation!J60</f>
-        <v>-169931.46254465764</v>
+        <v>-574934.78160942509</v>
       </c>
       <c r="Q42" s="23">
         <f>-Kalkulation!K60</f>
-        <v>-157343.94680060894</v>
+        <v>-532347.02000872698</v>
       </c>
       <c r="R42" s="23">
         <f>-Kalkulation!L60</f>
-        <v>-144756.43105656022</v>
+        <v>-489759.25840802881</v>
       </c>
       <c r="S42" s="23">
         <f>-Kalkulation!M60</f>
-        <v>-132168.91531251153</v>
+        <v>-447171.4968073307</v>
       </c>
       <c r="T42" s="23">
         <f>-Kalkulation!N60</f>
-        <v>-119581.3995684628</v>
+        <v>-404583.73520663253</v>
       </c>
       <c r="U42" s="23">
         <f>-Kalkulation!O60</f>
-        <v>-106993.88382441409</v>
+        <v>-361995.97360593441</v>
       </c>
       <c r="V42" s="23">
         <f>-Kalkulation!P60</f>
-        <v>-94406.368080365384</v>
+        <v>-319408.21200523624</v>
       </c>
       <c r="W42" s="23">
         <f>-Kalkulation!Q60</f>
-        <v>-81818.852336316675</v>
+        <v>-276820.45040453813</v>
       </c>
       <c r="X42" s="23">
         <f>-Kalkulation!R60</f>
-        <v>-69231.336592267966</v>
+        <v>-234232.68880383996</v>
       </c>
       <c r="Y42" s="23">
         <f>-Kalkulation!S60</f>
-        <v>-56643.820848219249</v>
+        <v>-191644.92720314182</v>
       </c>
       <c r="Z42" s="23">
         <f>-Kalkulation!T60</f>
-        <v>-44056.30510417054</v>
+        <v>-149057.16560244368</v>
       </c>
       <c r="AA42" s="23">
         <f>-Kalkulation!U60</f>
-        <v>-31468.789360121831</v>
+        <v>-106469.40400174554</v>
       </c>
       <c r="AB42" s="23">
         <f>-Kalkulation!V60</f>
-        <v>-18881.273616073115</v>
+        <v>-63881.642401047378</v>
       </c>
       <c r="AC42" s="23">
         <f>-Kalkulation!W60</f>
-        <v>-6293.7578720244028</v>
+        <v>-21293.88080034923</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
@@ -6764,83 +6770,83 @@
       </c>
       <c r="J44" s="23">
         <f>SUM(J41:J43)</f>
-        <v>749241.83555117191</v>
+        <v>236968.60598813137</v>
       </c>
       <c r="K44" s="23">
         <f t="shared" ref="K44:AC44" si="6">SUM(K41:K43)</f>
-        <v>745997.33555117191</v>
+        <v>231269.8788176314</v>
       </c>
       <c r="L44" s="23">
         <f t="shared" si="6"/>
-        <v>742655.50055117195</v>
+        <v>225277.04033786198</v>
       </c>
       <c r="M44" s="23">
         <f t="shared" si="6"/>
-        <v>475923.31023823912</v>
+        <v>-29315.06587045663</v>
       </c>
       <c r="N44" s="23">
         <f t="shared" si="6"/>
-        <v>484965.4732307879</v>
+        <v>6645.3139853589237</v>
       </c>
       <c r="O44" s="23">
         <f t="shared" si="6"/>
-        <v>493901.2756407914</v>
+        <v>42263.654669321259</v>
       </c>
       <c r="P44" s="23">
         <f t="shared" si="6"/>
-        <v>502727.52665077383</v>
+        <v>77522.303539770539</v>
       </c>
       <c r="Q44" s="23">
         <f t="shared" si="6"/>
-        <v>511440.93971873436</v>
+        <v>112402.69690221187</v>
       </c>
       <c r="R44" s="23">
         <f t="shared" si="6"/>
-        <v>520038.12970641197</v>
+        <v>146885.31298987672</v>
       </c>
       <c r="S44" s="23">
         <f t="shared" si="6"/>
-        <v>528515.60992139857</v>
+        <v>180949.62251761381</v>
       </c>
       <c r="T44" s="23">
         <f t="shared" si="6"/>
-        <v>460089.11633744359</v>
+        <v>214574.03668386559</v>
       </c>
       <c r="U44" s="23">
         <f t="shared" si="6"/>
-        <v>465848.14167333033</v>
+        <v>247735.85248902545</v>
       </c>
       <c r="V44" s="23">
         <f t="shared" si="6"/>
-        <v>471515.59993866854</v>
+        <v>280411.19523167762</v>
       </c>
       <c r="W44" s="23">
         <f t="shared" si="6"/>
-        <v>477088.74412134185</v>
+        <v>312574.95803706592</v>
       </c>
       <c r="X44" s="23">
         <f t="shared" si="6"/>
-        <v>272409.32337029895</v>
+        <v>344200.73826462857</v>
       </c>
       <c r="Y44" s="23">
         <f t="shared" si="6"/>
-        <v>277785.26623752841</v>
+        <v>375260.77063352347</v>
       </c>
       <c r="Z44" s="23">
         <f t="shared" si="6"/>
-        <v>283058.14956014976</v>
+        <v>405725.85689676495</v>
       </c>
       <c r="AA44" s="23">
         <f t="shared" si="6"/>
-        <v>288224.88155182463</v>
+        <v>335538.41107861989</v>
       </c>
       <c r="AB44" s="23">
         <f t="shared" si="6"/>
-        <v>293282.2776726248</v>
+        <v>199447.59257645602</v>
       </c>
       <c r="AC44" s="23">
         <f t="shared" si="6"/>
-        <v>298227.0578464237</v>
+        <v>219390.31003837695</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
@@ -6849,7 +6855,7 @@
       </c>
       <c r="B46" s="2">
         <f>(((1-B33)/1)*B44)+(((B33/1)*B38))</f>
-        <v>2.9168299359086332E-2</v>
+        <v>8.1171054826192204E-2</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
@@ -6873,7 +6879,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="67">
-        <v>0.03</v>
+        <v>5.1610000000000003E-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -6882,7 +6891,7 @@
       </c>
       <c r="B52" s="171">
         <f>B46</f>
-        <v>2.9168299359086332E-2</v>
+        <v>8.1171054826192204E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -7615,10 +7624,10 @@
   <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7856,83 +7865,83 @@
       </c>
       <c r="D6" s="19">
         <f>C6*(1+Parameters!$B$51)</f>
-        <v>1.03</v>
+        <v>1.0516099999999999</v>
       </c>
       <c r="E6" s="19">
         <f>D6*(1+Parameters!$B$51)</f>
-        <v>1.0609</v>
+        <v>1.1058835920999999</v>
       </c>
       <c r="F6" s="19">
         <f>E6*(1+Parameters!$B$51)</f>
-        <v>1.092727</v>
+        <v>1.1629582442882809</v>
       </c>
       <c r="G6" s="19">
         <f>F6*(1+Parameters!$B$51)</f>
-        <v>1.1255088100000001</v>
+        <v>1.222978519275999</v>
       </c>
       <c r="H6" s="19">
         <f>G6*(1+Parameters!$B$51)</f>
-        <v>1.1592740743000001</v>
+        <v>1.2860964406558333</v>
       </c>
       <c r="I6" s="19">
         <f>H6*(1+Parameters!$B$51)</f>
-        <v>1.1940522965290001</v>
+        <v>1.3524718779580807</v>
       </c>
       <c r="J6" s="19">
         <f>I6*(1+Parameters!$B$51)</f>
-        <v>1.2298738654248702</v>
+        <v>1.4222729515794972</v>
       </c>
       <c r="K6" s="19">
         <f>J6*(1+Parameters!$B$51)</f>
-        <v>1.2667700813876164</v>
+        <v>1.4956764586105149</v>
       </c>
       <c r="L6" s="19">
         <f>K6*(1+Parameters!$B$51)</f>
-        <v>1.3047731838292449</v>
+        <v>1.5728683206394034</v>
       </c>
       <c r="M6" s="19">
         <f>L6*(1+Parameters!$B$51)</f>
-        <v>1.3439163793441222</v>
+        <v>1.654044054667603</v>
       </c>
       <c r="N6" s="19">
         <f>M6*(1+Parameters!$B$51)</f>
-        <v>1.3842338707244459</v>
+        <v>1.7394092683289979</v>
       </c>
       <c r="O6" s="19">
         <f>N6*(1+Parameters!$B$51)</f>
-        <v>1.4257608868461793</v>
+        <v>1.8291801806674575</v>
       </c>
       <c r="P6" s="19">
         <f>O6*(1+Parameters!$B$51)</f>
-        <v>1.4685337134515648</v>
+        <v>1.9235841697917049</v>
       </c>
       <c r="Q6" s="19">
         <f>P6*(1+Parameters!$B$51)</f>
-        <v>1.5125897248551119</v>
+        <v>2.0228603487946546</v>
       </c>
       <c r="R6" s="19">
         <f>Q6*(1+Parameters!$B$51)</f>
-        <v>1.5579674166007653</v>
+        <v>2.1272601713959465</v>
       </c>
       <c r="S6" s="19">
         <f>R6*(1+Parameters!$B$51)</f>
-        <v>1.6047064390987884</v>
+        <v>2.2370480688416912</v>
       </c>
       <c r="T6" s="19">
         <f>S6*(1+Parameters!$B$51)</f>
-        <v>1.652847632271752</v>
+        <v>2.3525021196746105</v>
       </c>
       <c r="U6" s="19">
         <f>T6*(1+Parameters!$B$51)</f>
-        <v>1.7024330612399046</v>
+        <v>2.4739147540710169</v>
       </c>
       <c r="V6" s="19">
         <f>U6*(1+Parameters!$B$51)</f>
-        <v>1.7535060530771018</v>
+        <v>2.6015934945286219</v>
       </c>
       <c r="W6" s="19">
         <f>V6*(1+Parameters!$B$51)</f>
-        <v>1.806111234669415</v>
+        <v>2.7358617347812437</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -8261,83 +8270,83 @@
       </c>
       <c r="D18" s="23">
         <f>Parameters!$B$26*D$6</f>
-        <v>-108150</v>
+        <v>-110419.04999999999</v>
       </c>
       <c r="E18" s="23">
         <f>Parameters!$B$26*E$6</f>
-        <v>-111394.5</v>
+        <v>-116117.77717049999</v>
       </c>
       <c r="F18" s="23">
         <f>Parameters!$B$26*F$6</f>
-        <v>-114736.33500000001</v>
+        <v>-122110.61565026949</v>
       </c>
       <c r="G18" s="23">
         <f>Parameters!$B$26*G$6</f>
-        <v>-118178.42505000002</v>
+        <v>-128412.7445239799</v>
       </c>
       <c r="H18" s="23">
         <f>Parameters!$B$26*H$6</f>
-        <v>-121723.77780150001</v>
+        <v>-135040.12626886248</v>
       </c>
       <c r="I18" s="23">
         <f>Parameters!$B$26*I$6</f>
-        <v>-125375.49113554502</v>
+        <v>-142009.54718559847</v>
       </c>
       <c r="J18" s="23">
         <f>Parameters!$B$26*J$6</f>
-        <v>-129136.75586961137</v>
+        <v>-149338.65991584721</v>
       </c>
       <c r="K18" s="23">
         <f>Parameters!$B$26*K$6</f>
-        <v>-133010.85854569971</v>
+        <v>-157046.02815410407</v>
       </c>
       <c r="L18" s="23">
         <f>Parameters!$B$26*L$6</f>
-        <v>-137001.1843020707</v>
+        <v>-165151.17366713737</v>
       </c>
       <c r="M18" s="23">
         <f>Parameters!$B$26*M$6</f>
-        <v>-141111.21983113282</v>
+        <v>-173674.6257400983</v>
       </c>
       <c r="N18" s="23">
         <f>Parameters!$B$26*N$6</f>
-        <v>-145344.55642606682</v>
+        <v>-182637.97317454478</v>
       </c>
       <c r="O18" s="23">
         <f>Parameters!$B$26*O$6</f>
-        <v>-149704.89311884882</v>
+        <v>-192063.91897008303</v>
       </c>
       <c r="P18" s="23">
         <f>Parameters!$B$26*P$6</f>
-        <v>-154196.0399124143</v>
+        <v>-201976.33782812901</v>
       </c>
       <c r="Q18" s="23">
         <f>Parameters!$B$26*Q$6</f>
-        <v>-158821.92110978675</v>
+        <v>-212400.33662343872</v>
       </c>
       <c r="R18" s="23">
         <f>Parameters!$B$26*R$6</f>
-        <v>-163586.57874308035</v>
+        <v>-223362.31799657439</v>
       </c>
       <c r="S18" s="23">
         <f>Parameters!$B$26*S$6</f>
-        <v>-168494.17610537278</v>
+        <v>-234890.04722837757</v>
       </c>
       <c r="T18" s="23">
         <f>Parameters!$B$26*T$6</f>
-        <v>-173549.00138853397</v>
+        <v>-247012.72256583412</v>
       </c>
       <c r="U18" s="23">
         <f>Parameters!$B$26*U$6</f>
-        <v>-178755.47143018997</v>
+        <v>-259761.04917745676</v>
       </c>
       <c r="V18" s="23">
         <f>Parameters!$B$26*V$6</f>
-        <v>-184118.1355730957</v>
+        <v>-273167.31692550529</v>
       </c>
       <c r="W18" s="23">
         <f>Parameters!$B$26*W$6</f>
-        <v>-189641.67964028858</v>
+        <v>-287265.48215203057</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -8412,83 +8421,83 @@
       </c>
       <c r="D21" s="23">
         <f>D17+D18+D19</f>
-        <v>-258150</v>
+        <v>-260419.05</v>
       </c>
       <c r="E21" s="23">
         <f t="shared" ref="E21:W21" si="1">E17+E18+E19</f>
-        <v>-261394.5</v>
+        <v>-266117.77717050002</v>
       </c>
       <c r="F21" s="23">
         <f t="shared" si="1"/>
-        <v>-264736.33500000002</v>
+        <v>-272110.61565026949</v>
       </c>
       <c r="G21" s="23">
         <f t="shared" si="1"/>
-        <v>-118178.42505000002</v>
+        <v>-128412.7445239799</v>
       </c>
       <c r="H21" s="23">
         <f t="shared" si="1"/>
-        <v>-121723.77780150001</v>
+        <v>-135040.12626886248</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" si="1"/>
-        <v>-125375.49113554502</v>
+        <v>-142009.54718559847</v>
       </c>
       <c r="J21" s="23">
         <f t="shared" si="1"/>
-        <v>-129136.75586961137</v>
+        <v>-149338.65991584721</v>
       </c>
       <c r="K21" s="23">
         <f t="shared" si="1"/>
-        <v>-133010.85854569971</v>
+        <v>-157046.02815410407</v>
       </c>
       <c r="L21" s="23">
         <f t="shared" si="1"/>
-        <v>-137001.1843020707</v>
+        <v>-165151.17366713737</v>
       </c>
       <c r="M21" s="23">
         <f t="shared" si="1"/>
-        <v>-141111.21983113282</v>
+        <v>-173674.6257400983</v>
       </c>
       <c r="N21" s="23">
         <f t="shared" si="1"/>
-        <v>-145344.55642606682</v>
+        <v>-182637.97317454478</v>
       </c>
       <c r="O21" s="23">
         <f t="shared" si="1"/>
-        <v>-149704.89311884882</v>
+        <v>-192063.91897008303</v>
       </c>
       <c r="P21" s="23">
         <f t="shared" si="1"/>
-        <v>-154196.0399124143</v>
+        <v>-201976.33782812901</v>
       </c>
       <c r="Q21" s="23">
         <f t="shared" si="1"/>
-        <v>-158821.92110978675</v>
+        <v>-212400.33662343872</v>
       </c>
       <c r="R21" s="23">
         <f t="shared" si="1"/>
-        <v>-163586.57874308035</v>
+        <v>-223362.31799657439</v>
       </c>
       <c r="S21" s="23">
         <f t="shared" si="1"/>
-        <v>-168494.17610537278</v>
+        <v>-234890.04722837757</v>
       </c>
       <c r="T21" s="23">
         <f t="shared" si="1"/>
-        <v>-173549.00138853397</v>
+        <v>-247012.72256583412</v>
       </c>
       <c r="U21" s="23">
         <f t="shared" si="1"/>
-        <v>-178755.47143018997</v>
+        <v>-259761.04917745676</v>
       </c>
       <c r="V21" s="23">
         <f t="shared" si="1"/>
-        <v>-184118.1355730957</v>
+        <v>-273167.31692550529</v>
       </c>
       <c r="W21" s="23">
         <f t="shared" si="1"/>
-        <v>-189641.67964028858</v>
+        <v>-287265.48215203057</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -8505,83 +8514,83 @@
       </c>
       <c r="D24" s="105">
         <f>D12+D21</f>
-        <v>963229.60320000001</v>
+        <v>960960.55319999997</v>
       </c>
       <c r="E24" s="105">
         <f t="shared" ref="E24:W24" si="2">E12+E21</f>
-        <v>959985.10320000001</v>
+        <v>955261.82602949999</v>
       </c>
       <c r="F24" s="105">
         <f t="shared" si="2"/>
-        <v>956643.26820000005</v>
+        <v>949268.98754973058</v>
       </c>
       <c r="G24" s="105">
         <f t="shared" si="2"/>
-        <v>1103201.1781500001</v>
+        <v>1092966.8586760201</v>
       </c>
       <c r="H24" s="105">
         <f t="shared" si="2"/>
-        <v>1099655.8253985001</v>
+        <v>1086339.4769311375</v>
       </c>
       <c r="I24" s="105">
         <f t="shared" si="2"/>
-        <v>1096004.1120644549</v>
+        <v>1079370.0560144016</v>
       </c>
       <c r="J24" s="105">
         <f t="shared" si="2"/>
-        <v>1092242.8473303886</v>
+        <v>1072040.9432841528</v>
       </c>
       <c r="K24" s="105">
         <f t="shared" si="2"/>
-        <v>1088368.7446543004</v>
+        <v>1064333.575045896</v>
       </c>
       <c r="L24" s="105">
         <f t="shared" si="2"/>
-        <v>1084378.4188979294</v>
+        <v>1056228.4295328627</v>
       </c>
       <c r="M24" s="105">
         <f t="shared" si="2"/>
-        <v>1080268.3833688672</v>
+        <v>1047704.9774599017</v>
       </c>
       <c r="N24" s="105">
         <f t="shared" si="2"/>
-        <v>1076035.0467739331</v>
+        <v>1038741.6300254553</v>
       </c>
       <c r="O24" s="105">
         <f t="shared" si="2"/>
-        <v>1071674.7100811512</v>
+        <v>1029315.684229917</v>
       </c>
       <c r="P24" s="105">
         <f t="shared" si="2"/>
-        <v>1067183.5632875857</v>
+        <v>1019403.2653718709</v>
       </c>
       <c r="Q24" s="105">
         <f t="shared" si="2"/>
-        <v>1062557.6820902133</v>
+        <v>1008979.2665765613</v>
       </c>
       <c r="R24" s="105">
         <f t="shared" si="2"/>
-        <v>1057793.0244569196</v>
+        <v>998017.28520342568</v>
       </c>
       <c r="S24" s="105">
         <f t="shared" si="2"/>
-        <v>1052885.4270946272</v>
+        <v>986489.55597162247</v>
       </c>
       <c r="T24" s="105">
         <f t="shared" si="2"/>
-        <v>1047830.601811466</v>
+        <v>974366.88063416583</v>
       </c>
       <c r="U24" s="105">
         <f t="shared" si="2"/>
-        <v>1042624.1317698101</v>
+        <v>961618.55402254325</v>
       </c>
       <c r="V24" s="105">
         <f t="shared" si="2"/>
-        <v>1037261.4676269044</v>
+        <v>948212.28627449472</v>
       </c>
       <c r="W24" s="105">
         <f t="shared" si="2"/>
-        <v>1031737.9235597114</v>
+        <v>934114.12104796944</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8692,83 +8701,83 @@
       </c>
       <c r="D28" s="108">
         <f t="shared" ref="D28:W28" si="4">D24+D26</f>
-        <v>262711.53177142853</v>
+        <v>260442.48177142849</v>
       </c>
       <c r="E28" s="108">
         <f t="shared" si="4"/>
-        <v>259467.03177142853</v>
+        <v>254743.75460092851</v>
       </c>
       <c r="F28" s="108">
         <f t="shared" si="4"/>
-        <v>256125.19677142857</v>
+        <v>248750.9161211591</v>
       </c>
       <c r="G28" s="108">
         <f t="shared" si="4"/>
-        <v>402683.10672142857</v>
+        <v>392448.78724744858</v>
       </c>
       <c r="H28" s="108">
         <f t="shared" si="4"/>
-        <v>399137.7539699286</v>
+        <v>385821.40550256602</v>
       </c>
       <c r="I28" s="108">
         <f t="shared" si="4"/>
-        <v>395486.04063588346</v>
+        <v>378851.98458583013</v>
       </c>
       <c r="J28" s="108">
         <f t="shared" si="4"/>
-        <v>391724.77590181713</v>
+        <v>371522.8718555813</v>
       </c>
       <c r="K28" s="108">
         <f t="shared" si="4"/>
-        <v>387850.67322572891</v>
+        <v>363815.50361732452</v>
       </c>
       <c r="L28" s="108">
         <f t="shared" si="4"/>
-        <v>383860.34746935789</v>
+        <v>355710.35810429126</v>
       </c>
       <c r="M28" s="108">
         <f t="shared" si="4"/>
-        <v>379750.31194029574</v>
+        <v>347186.90603133023</v>
       </c>
       <c r="N28" s="108">
         <f t="shared" si="4"/>
-        <v>375516.97534536163</v>
+        <v>338223.55859688378</v>
       </c>
       <c r="O28" s="108">
         <f t="shared" si="4"/>
-        <v>371156.63865257974</v>
+        <v>328797.61280134553</v>
       </c>
       <c r="P28" s="108">
         <f t="shared" si="4"/>
-        <v>366665.49185901426</v>
+        <v>318885.19394329947</v>
       </c>
       <c r="Q28" s="108">
         <f t="shared" si="4"/>
-        <v>362039.61066164181</v>
+        <v>308461.19514798978</v>
       </c>
       <c r="R28" s="108">
         <f t="shared" si="4"/>
-        <v>1057793.0244569196</v>
+        <v>998017.28520342568</v>
       </c>
       <c r="S28" s="108">
         <f t="shared" si="4"/>
-        <v>1052885.4270946272</v>
+        <v>986489.55597162247</v>
       </c>
       <c r="T28" s="108">
         <f t="shared" si="4"/>
-        <v>1047830.601811466</v>
+        <v>974366.88063416583</v>
       </c>
       <c r="U28" s="108">
         <f t="shared" si="4"/>
-        <v>1042624.1317698101</v>
+        <v>961618.55402254325</v>
       </c>
       <c r="V28" s="108">
         <f t="shared" si="4"/>
-        <v>1037261.4676269044</v>
+        <v>948212.28627449472</v>
       </c>
       <c r="W28" s="109">
         <f t="shared" si="4"/>
-        <v>1031737.9235597114</v>
+        <v>934114.12104796944</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -8820,43 +8829,43 @@
       </c>
       <c r="N30" s="23">
         <f t="shared" si="5"/>
-        <v>76780.672733069659</v>
+        <v>0</v>
       </c>
       <c r="O30" s="23">
         <f t="shared" si="5"/>
-        <v>79248.82644844969</v>
+        <v>0</v>
       </c>
       <c r="P30" s="23">
         <f t="shared" si="5"/>
-        <v>81677.737133594666</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="23">
         <f t="shared" si="5"/>
-        <v>84066.227497597531</v>
+        <v>0</v>
       </c>
       <c r="R30" s="23">
         <f t="shared" si="5"/>
-        <v>296568.50635939551</v>
+        <v>0</v>
       </c>
       <c r="S30" s="23">
         <f t="shared" si="5"/>
-        <v>298872.4818739224</v>
+        <v>0</v>
       </c>
       <c r="T30" s="23">
         <f t="shared" si="5"/>
-        <v>301132.28901218862</v>
+        <v>0</v>
       </c>
       <c r="U30" s="23">
         <f t="shared" si="5"/>
-        <v>303346.60272290645</v>
+        <v>100026.88080722072</v>
       </c>
       <c r="V30" s="23">
         <f t="shared" si="5"/>
-        <v>305514.05820324935</v>
+        <v>265299.19316203421</v>
       </c>
       <c r="W30" s="23">
         <f t="shared" si="5"/>
-        <v>307633.24970630609</v>
+        <v>273846.07207428606</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -8872,83 +8881,83 @@
       </c>
       <c r="D31" s="52">
         <f t="shared" ref="D31:W31" si="6">D24-D30</f>
-        <v>963229.60320000001</v>
+        <v>960960.55319999997</v>
       </c>
       <c r="E31" s="52">
         <f t="shared" si="6"/>
-        <v>959985.10320000001</v>
+        <v>955261.82602949999</v>
       </c>
       <c r="F31" s="52">
         <f t="shared" si="6"/>
-        <v>956643.26820000005</v>
+        <v>949268.98754973058</v>
       </c>
       <c r="G31" s="52">
         <f t="shared" si="6"/>
-        <v>1103201.1781500001</v>
+        <v>1092966.8586760201</v>
       </c>
       <c r="H31" s="52">
         <f t="shared" si="6"/>
-        <v>1099655.8253985001</v>
+        <v>1086339.4769311375</v>
       </c>
       <c r="I31" s="52">
         <f t="shared" si="6"/>
-        <v>1096004.1120644549</v>
+        <v>1079370.0560144016</v>
       </c>
       <c r="J31" s="52">
         <f t="shared" si="6"/>
-        <v>1092242.8473303886</v>
+        <v>1072040.9432841528</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="6"/>
-        <v>1088368.7446543004</v>
+        <v>1064333.575045896</v>
       </c>
       <c r="L31" s="52">
         <f t="shared" si="6"/>
-        <v>1084378.4188979294</v>
+        <v>1056228.4295328627</v>
       </c>
       <c r="M31" s="52">
         <f t="shared" si="6"/>
-        <v>1080268.3833688672</v>
+        <v>1047704.9774599017</v>
       </c>
       <c r="N31" s="52">
         <f t="shared" si="6"/>
-        <v>999254.37404086348</v>
+        <v>1038741.6300254553</v>
       </c>
       <c r="O31" s="52">
         <f t="shared" si="6"/>
-        <v>992425.88363270159</v>
+        <v>1029315.684229917</v>
       </c>
       <c r="P31" s="52">
         <f t="shared" si="6"/>
-        <v>985505.82615399105</v>
+        <v>1019403.2653718709</v>
       </c>
       <c r="Q31" s="52">
         <f t="shared" si="6"/>
-        <v>978491.45459261572</v>
+        <v>1008979.2665765613</v>
       </c>
       <c r="R31" s="52">
         <f t="shared" si="6"/>
-        <v>761224.51809752407</v>
+        <v>998017.28520342568</v>
       </c>
       <c r="S31" s="52">
         <f t="shared" si="6"/>
-        <v>754012.94522070477</v>
+        <v>986489.55597162247</v>
       </c>
       <c r="T31" s="52">
         <f t="shared" si="6"/>
-        <v>746698.31279927748</v>
+        <v>974366.88063416583</v>
       </c>
       <c r="U31" s="52">
         <f t="shared" si="6"/>
-        <v>739277.5290469036</v>
+        <v>861591.67321532255</v>
       </c>
       <c r="V31" s="52">
         <f t="shared" si="6"/>
-        <v>731747.40942365502</v>
+        <v>682913.09311246057</v>
       </c>
       <c r="W31" s="52">
         <f t="shared" si="6"/>
-        <v>724104.67385340529</v>
+        <v>660268.04897368338</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9017,83 +9026,83 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38">
         <f t="shared" ref="D36:W36" si="7">D24</f>
-        <v>963229.60320000001</v>
+        <v>960960.55319999997</v>
       </c>
       <c r="E36" s="38">
         <f t="shared" si="7"/>
-        <v>959985.10320000001</v>
+        <v>955261.82602949999</v>
       </c>
       <c r="F36" s="38">
         <f t="shared" si="7"/>
-        <v>956643.26820000005</v>
+        <v>949268.98754973058</v>
       </c>
       <c r="G36" s="38">
         <f t="shared" si="7"/>
-        <v>1103201.1781500001</v>
+        <v>1092966.8586760201</v>
       </c>
       <c r="H36" s="38">
         <f t="shared" si="7"/>
-        <v>1099655.8253985001</v>
+        <v>1086339.4769311375</v>
       </c>
       <c r="I36" s="38">
         <f t="shared" si="7"/>
-        <v>1096004.1120644549</v>
+        <v>1079370.0560144016</v>
       </c>
       <c r="J36" s="38">
         <f t="shared" si="7"/>
-        <v>1092242.8473303886</v>
+        <v>1072040.9432841528</v>
       </c>
       <c r="K36" s="38">
         <f t="shared" si="7"/>
-        <v>1088368.7446543004</v>
+        <v>1064333.575045896</v>
       </c>
       <c r="L36" s="38">
         <f t="shared" si="7"/>
-        <v>1084378.4188979294</v>
+        <v>1056228.4295328627</v>
       </c>
       <c r="M36" s="38">
         <f t="shared" si="7"/>
-        <v>1080268.3833688672</v>
+        <v>1047704.9774599017</v>
       </c>
       <c r="N36" s="38">
         <f t="shared" si="7"/>
-        <v>1076035.0467739331</v>
+        <v>1038741.6300254553</v>
       </c>
       <c r="O36" s="38">
         <f t="shared" si="7"/>
-        <v>1071674.7100811512</v>
+        <v>1029315.684229917</v>
       </c>
       <c r="P36" s="38">
         <f t="shared" si="7"/>
-        <v>1067183.5632875857</v>
+        <v>1019403.2653718709</v>
       </c>
       <c r="Q36" s="38">
         <f t="shared" si="7"/>
-        <v>1062557.6820902133</v>
+        <v>1008979.2665765613</v>
       </c>
       <c r="R36" s="38">
         <f t="shared" si="7"/>
-        <v>1057793.0244569196</v>
+        <v>998017.28520342568</v>
       </c>
       <c r="S36" s="38">
         <f t="shared" si="7"/>
-        <v>1052885.4270946272</v>
+        <v>986489.55597162247</v>
       </c>
       <c r="T36" s="38">
         <f t="shared" si="7"/>
-        <v>1047830.601811466</v>
+        <v>974366.88063416583</v>
       </c>
       <c r="U36" s="38">
         <f t="shared" si="7"/>
-        <v>1042624.1317698101</v>
+        <v>961618.55402254325</v>
       </c>
       <c r="V36" s="38">
         <f t="shared" si="7"/>
-        <v>1037261.4676269044</v>
+        <v>948212.28627449472</v>
       </c>
       <c r="W36" s="42">
         <f t="shared" si="7"/>
-        <v>1031737.9235597114</v>
+        <v>934114.12104796944</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
@@ -9131,83 +9140,83 @@
       <c r="C38" s="37"/>
       <c r="D38" s="38">
         <f t="shared" ref="D38:F38" si="8">-D60</f>
-        <v>-213987.76764882813</v>
+        <v>-723991.9472118686</v>
       </c>
       <c r="E38" s="38">
         <f t="shared" si="8"/>
-        <v>-213987.76764882813</v>
+        <v>-723991.9472118686</v>
       </c>
       <c r="F38" s="38">
         <f t="shared" si="8"/>
-        <v>-213987.76764882813</v>
+        <v>-723991.9472118686</v>
       </c>
       <c r="G38" s="38">
         <f>-G60</f>
-        <v>-207694.00977680378</v>
+        <v>-702698.06641151954</v>
       </c>
       <c r="H38" s="38">
         <f t="shared" ref="H38:W38" si="9">-H60</f>
-        <v>-195106.49403275506</v>
+        <v>-660110.30481082143</v>
       </c>
       <c r="I38" s="38">
         <f t="shared" si="9"/>
-        <v>-182518.97828870636</v>
+        <v>-617522.5432101232</v>
       </c>
       <c r="J38" s="38">
         <f t="shared" si="9"/>
-        <v>-169931.46254465764</v>
+        <v>-574934.78160942509</v>
       </c>
       <c r="K38" s="38">
         <f t="shared" si="9"/>
-        <v>-157343.94680060894</v>
+        <v>-532347.02000872698</v>
       </c>
       <c r="L38" s="38">
         <f t="shared" si="9"/>
-        <v>-144756.43105656022</v>
+        <v>-489759.25840802881</v>
       </c>
       <c r="M38" s="38">
         <f t="shared" si="9"/>
-        <v>-132168.91531251153</v>
+        <v>-447171.4968073307</v>
       </c>
       <c r="N38" s="38">
         <f t="shared" si="9"/>
-        <v>-119581.3995684628</v>
+        <v>-404583.73520663253</v>
       </c>
       <c r="O38" s="38">
         <f t="shared" si="9"/>
-        <v>-106993.88382441409</v>
+        <v>-361995.97360593441</v>
       </c>
       <c r="P38" s="38">
         <f t="shared" si="9"/>
-        <v>-94406.368080365384</v>
+        <v>-319408.21200523624</v>
       </c>
       <c r="Q38" s="38">
         <f t="shared" si="9"/>
-        <v>-81818.852336316675</v>
+        <v>-276820.45040453813</v>
       </c>
       <c r="R38" s="38">
         <f t="shared" si="9"/>
-        <v>-69231.336592267966</v>
+        <v>-234232.68880383996</v>
       </c>
       <c r="S38" s="38">
         <f t="shared" si="9"/>
-        <v>-56643.820848219249</v>
+        <v>-191644.92720314182</v>
       </c>
       <c r="T38" s="38">
         <f t="shared" si="9"/>
-        <v>-44056.30510417054</v>
+        <v>-149057.16560244368</v>
       </c>
       <c r="U38" s="38">
         <f t="shared" si="9"/>
-        <v>-31468.789360121831</v>
+        <v>-106469.40400174554</v>
       </c>
       <c r="V38" s="38">
         <f t="shared" si="9"/>
-        <v>-18881.273616073115</v>
+        <v>-63881.642401047378</v>
       </c>
       <c r="W38" s="38">
         <f t="shared" si="9"/>
-        <v>-6293.7578720244028</v>
+        <v>-21293.88080034923</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9309,83 +9318,83 @@
       <c r="C40" s="49"/>
       <c r="D40" s="50">
         <f>SUM(D36:D39)</f>
-        <v>48723.764122600434</v>
+        <v>-463549.46544044011</v>
       </c>
       <c r="E40" s="50">
         <f t="shared" ref="E40:W40" si="10">SUM(E36:E39)</f>
-        <v>45479.264122600434</v>
+        <v>-469248.19261094008</v>
       </c>
       <c r="F40" s="50">
         <f t="shared" si="10"/>
-        <v>42137.429122600472</v>
+        <v>-475241.0310907095</v>
       </c>
       <c r="G40" s="50">
         <f t="shared" si="10"/>
-        <v>194989.09694462479</v>
+        <v>-310249.27916407096</v>
       </c>
       <c r="H40" s="50">
         <f t="shared" si="10"/>
-        <v>204031.25993717357</v>
+        <v>-274288.89930825541</v>
       </c>
       <c r="I40" s="50">
         <f t="shared" si="10"/>
-        <v>212967.06234717707</v>
+        <v>-238670.55862429307</v>
       </c>
       <c r="J40" s="50">
         <f t="shared" si="10"/>
-        <v>221793.3133571595</v>
+        <v>-203411.90975384379</v>
       </c>
       <c r="K40" s="50">
         <f t="shared" si="10"/>
-        <v>230506.72642512002</v>
+        <v>-168531.51639140246</v>
       </c>
       <c r="L40" s="50">
         <f t="shared" si="10"/>
-        <v>239103.91641279764</v>
+        <v>-134048.90030373761</v>
       </c>
       <c r="M40" s="50">
         <f t="shared" si="10"/>
-        <v>247581.39662778424</v>
+        <v>-99984.590776000521</v>
       </c>
       <c r="N40" s="50">
         <f t="shared" si="10"/>
-        <v>255935.57577689888</v>
+        <v>-66360.176609748742</v>
       </c>
       <c r="O40" s="50">
         <f t="shared" si="10"/>
-        <v>264162.75482816563</v>
+        <v>-33198.360804588883</v>
       </c>
       <c r="P40" s="50">
         <f t="shared" si="10"/>
-        <v>272259.12377864891</v>
+        <v>-523.01806193671655</v>
       </c>
       <c r="Q40" s="50">
         <f t="shared" si="10"/>
-        <v>280220.75832532509</v>
+        <v>31640.744743451593</v>
       </c>
       <c r="R40" s="50">
         <f t="shared" si="10"/>
-        <v>988561.68786465167</v>
+        <v>763784.59639958572</v>
       </c>
       <c r="S40" s="50">
         <f t="shared" si="10"/>
-        <v>996241.60624640796</v>
+        <v>794844.62876848062</v>
       </c>
       <c r="T40" s="50">
         <f t="shared" si="10"/>
-        <v>1003774.2967072955</v>
+        <v>825309.71503172209</v>
       </c>
       <c r="U40" s="50">
         <f t="shared" si="10"/>
-        <v>1011155.3424096883</v>
+        <v>855149.15002079774</v>
       </c>
       <c r="V40" s="50">
         <f t="shared" si="10"/>
-        <v>1018380.1940108313</v>
+        <v>884330.64387344732</v>
       </c>
       <c r="W40" s="50">
         <f t="shared" si="10"/>
-        <v>1025444.165687687</v>
+        <v>912820.24024762027</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
@@ -9401,71 +9410,71 @@
       </c>
       <c r="E41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!D42&lt;0,Kalkulation!D42,0),0)</f>
-        <v>0</v>
+        <v>-463549.46544044011</v>
       </c>
       <c r="F41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!E42&lt;0,Kalkulation!E42,0),0)</f>
-        <v>0</v>
+        <v>-932797.65805138019</v>
       </c>
       <c r="G41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!F42&lt;0,Kalkulation!F42,0),0)</f>
-        <v>0</v>
+        <v>-1408038.6891420898</v>
       </c>
       <c r="H41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!G42&lt;0,Kalkulation!G42,0),0)</f>
-        <v>0</v>
+        <v>-1718287.9683061608</v>
       </c>
       <c r="I41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!H42&lt;0,Kalkulation!H42,0),0)</f>
-        <v>0</v>
+        <v>-1992576.8676144162</v>
       </c>
       <c r="J41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!I42&lt;0,Kalkulation!I42,0),0)</f>
-        <v>0</v>
+        <v>-2231247.4262387091</v>
       </c>
       <c r="K41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!J42&lt;0,Kalkulation!J42,0),0)</f>
-        <v>0</v>
+        <v>-2434659.3359925528</v>
       </c>
       <c r="L41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!K42&lt;0,Kalkulation!K42,0),0)</f>
-        <v>0</v>
+        <v>-2603190.8523839554</v>
       </c>
       <c r="M41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!L42&lt;0,Kalkulation!L42,0),0)</f>
-        <v>0</v>
+        <v>-2737239.7526876931</v>
       </c>
       <c r="N41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!M42&lt;0,Kalkulation!M42,0),0)</f>
-        <v>0</v>
+        <v>-2837224.3434636937</v>
       </c>
       <c r="O41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!N42&lt;0,Kalkulation!N42,0),0)</f>
-        <v>0</v>
+        <v>-2903584.5200734427</v>
       </c>
       <c r="P41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!O42&lt;0,Kalkulation!O42,0),0)</f>
-        <v>0</v>
+        <v>-2936782.8808780317</v>
       </c>
       <c r="Q41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!P42&lt;0,Kalkulation!P42,0),0)</f>
-        <v>0</v>
+        <v>-2937305.8989399686</v>
       </c>
       <c r="R41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!Q42&lt;0,Kalkulation!Q42,0),0)</f>
-        <v>0</v>
+        <v>-2905665.1541965171</v>
       </c>
       <c r="S41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!R42&lt;0,Kalkulation!R42,0),0)</f>
-        <v>0</v>
+        <v>-2141880.5577969314</v>
       </c>
       <c r="T41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!S42&lt;0,Kalkulation!S42,0),0)</f>
-        <v>0</v>
+        <v>-1347035.9290284507</v>
       </c>
       <c r="U41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!T42&lt;0,Kalkulation!T42,0),0)</f>
-        <v>0</v>
+        <v>-521726.21399672865</v>
       </c>
       <c r="V41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!U42&lt;0,Kalkulation!U42,0),0)</f>
@@ -9486,83 +9495,83 @@
       <c r="C42" s="45"/>
       <c r="D42" s="46">
         <f>D40-D41</f>
-        <v>48723.764122600434</v>
+        <v>-463549.46544044011</v>
       </c>
       <c r="E42" s="46">
         <f>E40+E41</f>
-        <v>45479.264122600434</v>
+        <v>-932797.65805138019</v>
       </c>
       <c r="F42" s="46">
         <f t="shared" ref="F42:W42" si="11">F40+F41</f>
-        <v>42137.429122600472</v>
+        <v>-1408038.6891420898</v>
       </c>
       <c r="G42" s="46">
         <f t="shared" si="11"/>
-        <v>194989.09694462479</v>
+        <v>-1718287.9683061608</v>
       </c>
       <c r="H42" s="46">
         <f t="shared" si="11"/>
-        <v>204031.25993717357</v>
+        <v>-1992576.8676144162</v>
       </c>
       <c r="I42" s="46">
         <f t="shared" si="11"/>
-        <v>212967.06234717707</v>
+        <v>-2231247.4262387091</v>
       </c>
       <c r="J42" s="46">
         <f t="shared" si="11"/>
-        <v>221793.3133571595</v>
+        <v>-2434659.3359925528</v>
       </c>
       <c r="K42" s="46">
         <f t="shared" si="11"/>
-        <v>230506.72642512002</v>
+        <v>-2603190.8523839554</v>
       </c>
       <c r="L42" s="46">
         <f t="shared" si="11"/>
-        <v>239103.91641279764</v>
+        <v>-2737239.7526876931</v>
       </c>
       <c r="M42" s="46">
         <f t="shared" si="11"/>
-        <v>247581.39662778424</v>
+        <v>-2837224.3434636937</v>
       </c>
       <c r="N42" s="46">
         <f t="shared" si="11"/>
-        <v>255935.57577689888</v>
+        <v>-2903584.5200734427</v>
       </c>
       <c r="O42" s="46">
         <f t="shared" si="11"/>
-        <v>264162.75482816563</v>
+        <v>-2936782.8808780317</v>
       </c>
       <c r="P42" s="46">
         <f t="shared" si="11"/>
-        <v>272259.12377864891</v>
+        <v>-2937305.8989399686</v>
       </c>
       <c r="Q42" s="46">
         <f t="shared" si="11"/>
-        <v>280220.75832532509</v>
+        <v>-2905665.1541965171</v>
       </c>
       <c r="R42" s="46">
         <f t="shared" si="11"/>
-        <v>988561.68786465167</v>
+        <v>-2141880.5577969314</v>
       </c>
       <c r="S42" s="46">
         <f t="shared" si="11"/>
-        <v>996241.60624640796</v>
+        <v>-1347035.9290284507</v>
       </c>
       <c r="T42" s="46">
         <f t="shared" si="11"/>
-        <v>1003774.2967072955</v>
+        <v>-521726.21399672865</v>
       </c>
       <c r="U42" s="46">
         <f t="shared" si="11"/>
-        <v>1011155.3424096883</v>
+        <v>333422.93602406909</v>
       </c>
       <c r="V42" s="46">
         <f t="shared" si="11"/>
-        <v>1018380.1940108313</v>
+        <v>884330.64387344732</v>
       </c>
       <c r="W42" s="46">
         <f t="shared" si="11"/>
-        <v>1025444.165687687</v>
+        <v>912820.24024762027</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -10245,44 +10254,37 @@
       <c r="L54" s="44"/>
       <c r="M54" s="44"/>
       <c r="N54" s="44">
-        <f xml:space="preserve"> N42*0.3</f>
-        <v>76780.672733069659</v>
+        <v>0</v>
       </c>
       <c r="O54" s="44">
-        <f xml:space="preserve"> O42*0.3</f>
-        <v>79248.82644844969</v>
+        <v>0</v>
       </c>
       <c r="P54" s="44">
-        <f t="shared" ref="P54:W54" si="20" xml:space="preserve"> P42*0.3</f>
-        <v>81677.737133594666</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="44">
-        <f t="shared" si="20"/>
-        <v>84066.227497597531</v>
+        <v>0</v>
       </c>
       <c r="R54" s="44">
-        <f t="shared" si="20"/>
-        <v>296568.50635939551</v>
+        <v>0</v>
       </c>
       <c r="S54" s="44">
-        <f t="shared" si="20"/>
-        <v>298872.4818739224</v>
+        <v>0</v>
       </c>
       <c r="T54" s="44">
-        <f t="shared" si="20"/>
-        <v>301132.28901218862</v>
+        <v>0</v>
       </c>
       <c r="U54" s="44">
-        <f t="shared" si="20"/>
-        <v>303346.60272290645</v>
+        <f t="shared" ref="P54:W54" si="20" xml:space="preserve"> U42*0.3</f>
+        <v>100026.88080722072</v>
       </c>
       <c r="V54" s="44">
         <f t="shared" si="20"/>
-        <v>305514.05820324935</v>
+        <v>265299.19316203421</v>
       </c>
       <c r="W54" s="44">
         <f t="shared" si="20"/>
-        <v>307633.24970630609</v>
+        <v>273846.07207428606</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10527,83 +10529,83 @@
       <c r="C60" s="17"/>
       <c r="D60" s="54">
         <f>IF(Parameters!$B$32=$A$63,D67,IF(Parameters!$B$32=$A$70,D74))</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="E60" s="54">
         <f>IF(Parameters!$B$32=$A$63,E67,IF(Parameters!$B$32=$A$70,E74))</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="F60" s="54">
         <f>IF(Parameters!$B$32=$A$63,F67,IF(Parameters!$B$32=$A$70,F74))</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="G60" s="54">
         <f>IF(Parameters!$B$32=$A$63,G67,IF(Parameters!$B$32=$A$70,G74))</f>
-        <v>207694.00977680378</v>
+        <v>702698.06641151954</v>
       </c>
       <c r="H60" s="54">
         <f>IF(Parameters!$B$32=$A$63,H67,IF(Parameters!$B$32=$A$70,H74))</f>
-        <v>195106.49403275506</v>
+        <v>660110.30481082143</v>
       </c>
       <c r="I60" s="54">
         <f>IF(Parameters!$B$32=$A$63,I67,IF(Parameters!$B$32=$A$70,I74))</f>
-        <v>182518.97828870636</v>
+        <v>617522.5432101232</v>
       </c>
       <c r="J60" s="54">
         <f>IF(Parameters!$B$32=$A$63,J67,IF(Parameters!$B$32=$A$70,J74))</f>
-        <v>169931.46254465764</v>
+        <v>574934.78160942509</v>
       </c>
       <c r="K60" s="54">
         <f>IF(Parameters!$B$32=$A$63,K67,IF(Parameters!$B$32=$A$70,K74))</f>
-        <v>157343.94680060894</v>
+        <v>532347.02000872698</v>
       </c>
       <c r="L60" s="54">
         <f>IF(Parameters!$B$32=$A$63,L67,IF(Parameters!$B$32=$A$70,L74))</f>
-        <v>144756.43105656022</v>
+        <v>489759.25840802881</v>
       </c>
       <c r="M60" s="54">
         <f>IF(Parameters!$B$32=$A$63,M67,IF(Parameters!$B$32=$A$70,M74))</f>
-        <v>132168.91531251153</v>
+        <v>447171.4968073307</v>
       </c>
       <c r="N60" s="54">
         <f>IF(Parameters!$B$32=$A$63,N67,IF(Parameters!$B$32=$A$70,N74))</f>
-        <v>119581.3995684628</v>
+        <v>404583.73520663253</v>
       </c>
       <c r="O60" s="54">
         <f>IF(Parameters!$B$32=$A$63,O67,IF(Parameters!$B$32=$A$70,O74))</f>
-        <v>106993.88382441409</v>
+        <v>361995.97360593441</v>
       </c>
       <c r="P60" s="54">
         <f>IF(Parameters!$B$32=$A$63,P67,IF(Parameters!$B$32=$A$70,P74))</f>
-        <v>94406.368080365384</v>
+        <v>319408.21200523624</v>
       </c>
       <c r="Q60" s="54">
         <f>IF(Parameters!$B$32=$A$63,Q67,IF(Parameters!$B$32=$A$70,Q74))</f>
-        <v>81818.852336316675</v>
+        <v>276820.45040453813</v>
       </c>
       <c r="R60" s="54">
         <f>IF(Parameters!$B$32=$A$63,R67,IF(Parameters!$B$32=$A$70,R74))</f>
-        <v>69231.336592267966</v>
+        <v>234232.68880383996</v>
       </c>
       <c r="S60" s="54">
         <f>IF(Parameters!$B$32=$A$63,S67,IF(Parameters!$B$32=$A$70,S74))</f>
-        <v>56643.820848219249</v>
+        <v>191644.92720314182</v>
       </c>
       <c r="T60" s="54">
         <f>IF(Parameters!$B$32=$A$63,T67,IF(Parameters!$B$32=$A$70,T74))</f>
-        <v>44056.30510417054</v>
+        <v>149057.16560244368</v>
       </c>
       <c r="U60" s="54">
         <f>IF(Parameters!$B$32=$A$63,U67,IF(Parameters!$B$32=$A$70,U74))</f>
-        <v>31468.789360121831</v>
+        <v>106469.40400174554</v>
       </c>
       <c r="V60" s="54">
         <f>IF(Parameters!$B$32=$A$63,V67,IF(Parameters!$B$32=$A$70,V74))</f>
-        <v>18881.273616073115</v>
+        <v>63881.642401047378</v>
       </c>
       <c r="W60" s="54">
         <f>IF(Parameters!$B$32=$A$63,W67,IF(Parameters!$B$32=$A$70,W74))</f>
-        <v>6293.7578720244028</v>
+        <v>21293.88080034923</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10616,83 +10618,83 @@
       <c r="C61" s="55"/>
       <c r="D61" s="56">
         <f>IF(Parameters!$B$32=$A$63,D68,IF(Parameters!$B$32=$A$70,D75))</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="E61" s="56">
         <f>IF(Parameters!$B$32=$A$63,E68,IF(Parameters!$B$32=$A$70,E75))</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="F61" s="56">
         <f>IF(Parameters!$B$32=$A$63,F68,IF(Parameters!$B$32=$A$70,F75))</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="G61" s="56">
         <f>IF(Parameters!$B$32=$A$63,G68,IF(Parameters!$B$32=$A$70,G75))</f>
-        <v>627277.86791176093</v>
+        <v>1122281.9245464767</v>
       </c>
       <c r="H61" s="56">
         <f>IF(Parameters!$B$32=$A$63,H68,IF(Parameters!$B$32=$A$70,H75))</f>
-        <v>614690.35216771218</v>
+        <v>1079694.1629457786</v>
       </c>
       <c r="I61" s="56">
         <f>IF(Parameters!$B$32=$A$63,I68,IF(Parameters!$B$32=$A$70,I75))</f>
-        <v>602102.83642366354</v>
+        <v>1037106.4013450803</v>
       </c>
       <c r="J61" s="56">
         <f>IF(Parameters!$B$32=$A$63,J68,IF(Parameters!$B$32=$A$70,J75))</f>
-        <v>589515.32067961479</v>
+        <v>994518.63974438224</v>
       </c>
       <c r="K61" s="56">
         <f>IF(Parameters!$B$32=$A$63,K68,IF(Parameters!$B$32=$A$70,K75))</f>
-        <v>576927.80493556615</v>
+        <v>951930.87814368412</v>
       </c>
       <c r="L61" s="56">
         <f>IF(Parameters!$B$32=$A$63,L68,IF(Parameters!$B$32=$A$70,L75))</f>
-        <v>564340.2891915174</v>
+        <v>909343.1165429859</v>
       </c>
       <c r="M61" s="56">
         <f>IF(Parameters!$B$32=$A$63,M68,IF(Parameters!$B$32=$A$70,M75))</f>
-        <v>551752.77344746864</v>
+        <v>866755.35494228778</v>
       </c>
       <c r="N61" s="56">
         <f>IF(Parameters!$B$32=$A$63,N68,IF(Parameters!$B$32=$A$70,N75))</f>
-        <v>539165.25770342001</v>
+        <v>824167.59334158967</v>
       </c>
       <c r="O61" s="56">
         <f>IF(Parameters!$B$32=$A$63,O68,IF(Parameters!$B$32=$A$70,O75))</f>
-        <v>526577.74195937125</v>
+        <v>781579.83174089156</v>
       </c>
       <c r="P61" s="56">
         <f>IF(Parameters!$B$32=$A$63,P68,IF(Parameters!$B$32=$A$70,P75))</f>
-        <v>513990.2262153225</v>
+        <v>738992.07014019345</v>
       </c>
       <c r="Q61" s="56">
         <f>IF(Parameters!$B$32=$A$63,Q68,IF(Parameters!$B$32=$A$70,Q75))</f>
-        <v>501402.71047127381</v>
+        <v>696404.30853949534</v>
       </c>
       <c r="R61" s="56">
         <f>IF(Parameters!$B$32=$A$63,R68,IF(Parameters!$B$32=$A$70,R75))</f>
-        <v>488815.19472722511</v>
+        <v>653816.54693879711</v>
       </c>
       <c r="S61" s="56">
         <f>IF(Parameters!$B$32=$A$63,S68,IF(Parameters!$B$32=$A$70,S75))</f>
-        <v>476227.67898317642</v>
+        <v>611228.785338099</v>
       </c>
       <c r="T61" s="56">
         <f>IF(Parameters!$B$32=$A$63,T68,IF(Parameters!$B$32=$A$70,T75))</f>
-        <v>463640.16323912767</v>
+        <v>568641.02373740077</v>
       </c>
       <c r="U61" s="56">
         <f>IF(Parameters!$B$32=$A$63,U68,IF(Parameters!$B$32=$A$70,U75))</f>
-        <v>451052.64749507897</v>
+        <v>526053.26213670266</v>
       </c>
       <c r="V61" s="56">
         <f>IF(Parameters!$B$32=$A$63,V68,IF(Parameters!$B$32=$A$70,V75))</f>
-        <v>438465.13175103028</v>
+        <v>483465.50053600455</v>
       </c>
       <c r="W61" s="56">
         <f>IF(Parameters!$B$32=$A$63,W68,IF(Parameters!$B$32=$A$70,W75))</f>
-        <v>425877.61600698152</v>
+        <v>440877.73893530638</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10927,83 +10929,83 @@
       <c r="C67" s="17"/>
       <c r="D67" s="54">
         <f>(D65-D66/2)*Parameters!$B$38</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="E67" s="54">
         <f>(E65-E66/2)*Parameters!$B$38</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="F67" s="54">
         <f>(F65-F66/2)*Parameters!$B$38</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="G67" s="54">
         <f>(G65-G66/2)*Parameters!$B$38</f>
-        <v>207694.00977680378</v>
+        <v>702698.06641151954</v>
       </c>
       <c r="H67" s="54">
         <f>(H65-H66/2)*Parameters!$B$38</f>
-        <v>195106.49403275506</v>
+        <v>660110.30481082143</v>
       </c>
       <c r="I67" s="54">
         <f>(I65-I66/2)*Parameters!$B$38</f>
-        <v>182518.97828870636</v>
+        <v>617522.5432101232</v>
       </c>
       <c r="J67" s="54">
         <f>(J65-J66/2)*Parameters!$B$38</f>
-        <v>169931.46254465764</v>
+        <v>574934.78160942509</v>
       </c>
       <c r="K67" s="54">
         <f>(K65-K66/2)*Parameters!$B$38</f>
-        <v>157343.94680060894</v>
+        <v>532347.02000872698</v>
       </c>
       <c r="L67" s="54">
         <f>(L65-L66/2)*Parameters!$B$38</f>
-        <v>144756.43105656022</v>
+        <v>489759.25840802881</v>
       </c>
       <c r="M67" s="54">
         <f>(M65-M66/2)*Parameters!$B$38</f>
-        <v>132168.91531251153</v>
+        <v>447171.4968073307</v>
       </c>
       <c r="N67" s="54">
         <f>(N65-N66/2)*Parameters!$B$38</f>
-        <v>119581.3995684628</v>
+        <v>404583.73520663253</v>
       </c>
       <c r="O67" s="54">
         <f>(O65-O66/2)*Parameters!$B$38</f>
-        <v>106993.88382441409</v>
+        <v>361995.97360593441</v>
       </c>
       <c r="P67" s="54">
         <f>(P65-P66/2)*Parameters!$B$38</f>
-        <v>94406.368080365384</v>
+        <v>319408.21200523624</v>
       </c>
       <c r="Q67" s="54">
         <f>(Q65-Q66/2)*Parameters!$B$38</f>
-        <v>81818.852336316675</v>
+        <v>276820.45040453813</v>
       </c>
       <c r="R67" s="54">
         <f>(R65-R66/2)*Parameters!$B$38</f>
-        <v>69231.336592267966</v>
+        <v>234232.68880383996</v>
       </c>
       <c r="S67" s="54">
         <f>(S65-S66/2)*Parameters!$B$38</f>
-        <v>56643.820848219249</v>
+        <v>191644.92720314182</v>
       </c>
       <c r="T67" s="54">
         <f>(T65-T66/2)*Parameters!$B$38</f>
-        <v>44056.30510417054</v>
+        <v>149057.16560244368</v>
       </c>
       <c r="U67" s="54">
         <f>(U65-U66/2)*Parameters!$B$38</f>
-        <v>31468.789360121831</v>
+        <v>106469.40400174554</v>
       </c>
       <c r="V67" s="54">
         <f>(V65-V66/2)*Parameters!$B$38</f>
-        <v>18881.273616073115</v>
+        <v>63881.642401047378</v>
       </c>
       <c r="W67" s="54">
         <f>(W65-W66/2)*Parameters!$B$38</f>
-        <v>6293.7578720244028</v>
+        <v>21293.88080034923</v>
       </c>
       <c r="Y67" s="15"/>
     </row>
@@ -11017,87 +11019,87 @@
       <c r="C68" s="55"/>
       <c r="D68" s="56">
         <f t="shared" ref="D68:F68" si="22">D66+D67</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="E68" s="56">
         <f t="shared" si="22"/>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="F68" s="56">
         <f t="shared" si="22"/>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="G68" s="56">
         <f t="shared" ref="G68:W68" si="23">G66+G67</f>
-        <v>627277.86791176093</v>
+        <v>1122281.9245464767</v>
       </c>
       <c r="H68" s="56">
         <f t="shared" si="23"/>
-        <v>614690.35216771218</v>
+        <v>1079694.1629457786</v>
       </c>
       <c r="I68" s="56">
         <f t="shared" si="23"/>
-        <v>602102.83642366354</v>
+        <v>1037106.4013450803</v>
       </c>
       <c r="J68" s="56">
         <f t="shared" si="23"/>
-        <v>589515.32067961479</v>
+        <v>994518.63974438224</v>
       </c>
       <c r="K68" s="56">
         <f t="shared" si="23"/>
-        <v>576927.80493556615</v>
+        <v>951930.87814368412</v>
       </c>
       <c r="L68" s="56">
         <f t="shared" si="23"/>
-        <v>564340.2891915174</v>
+        <v>909343.1165429859</v>
       </c>
       <c r="M68" s="56">
         <f t="shared" si="23"/>
-        <v>551752.77344746864</v>
+        <v>866755.35494228778</v>
       </c>
       <c r="N68" s="56">
         <f t="shared" si="23"/>
-        <v>539165.25770342001</v>
+        <v>824167.59334158967</v>
       </c>
       <c r="O68" s="56">
         <f t="shared" si="23"/>
-        <v>526577.74195937125</v>
+        <v>781579.83174089156</v>
       </c>
       <c r="P68" s="56">
         <f t="shared" si="23"/>
-        <v>513990.2262153225</v>
+        <v>738992.07014019345</v>
       </c>
       <c r="Q68" s="56">
         <f t="shared" si="23"/>
-        <v>501402.71047127381</v>
+        <v>696404.30853949534</v>
       </c>
       <c r="R68" s="56">
         <f t="shared" si="23"/>
-        <v>488815.19472722511</v>
+        <v>653816.54693879711</v>
       </c>
       <c r="S68" s="56">
         <f t="shared" si="23"/>
-        <v>476227.67898317642</v>
+        <v>611228.785338099</v>
       </c>
       <c r="T68" s="56">
         <f t="shared" si="23"/>
-        <v>463640.16323912767</v>
+        <v>568641.02373740077</v>
       </c>
       <c r="U68" s="56">
         <f t="shared" si="23"/>
-        <v>451052.64749507897</v>
+        <v>526053.26213670266</v>
       </c>
       <c r="V68" s="56">
         <f t="shared" si="23"/>
-        <v>438465.13175103028</v>
+        <v>483465.50053600455</v>
       </c>
       <c r="W68" s="56">
         <f t="shared" si="23"/>
-        <v>425877.61600698152</v>
+        <v>440877.73893530638</v>
       </c>
       <c r="Y68" s="158">
         <f>NPV(Parameters!$B$46,Kalkulation!D68:W68)-Parameters!$B$39</f>
-        <v>-18615.278333792463</v>
+        <v>881361.30216161627</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11181,67 +11183,67 @@
       </c>
       <c r="H72" s="53">
         <f t="shared" ref="H72:W72" si="24">G72-G73</f>
-        <v>6805149.6156615717</v>
+        <v>6959428.2842642916</v>
       </c>
       <c r="I72" s="53">
         <f t="shared" si="24"/>
-        <v>6467540.3638498913</v>
+        <v>6768321.0038752686</v>
       </c>
       <c r="J72" s="53">
         <f t="shared" si="24"/>
-        <v>6119802.834483861</v>
+        <v>6557816.3345267605</v>
       </c>
       <c r="K72" s="53">
         <f t="shared" si="24"/>
-        <v>5761633.1792368498</v>
+        <v>6325945.4412393784</v>
       </c>
       <c r="L72" s="53">
         <f t="shared" si="24"/>
-        <v>5392718.4343324276</v>
+        <v>6070539.6522833267</v>
       </c>
       <c r="M72" s="53">
         <f t="shared" si="24"/>
-        <v>5012736.2470808728</v>
+        <v>5789210.1757482365</v>
       </c>
       <c r="N72" s="53">
         <f t="shared" si="24"/>
-        <v>4621354.5942117712</v>
+        <v>5479325.7573448345</v>
       </c>
       <c r="O72" s="53">
         <f t="shared" si="24"/>
-        <v>4218231.4917565966</v>
+        <v>5137988.0704734866</v>
       </c>
       <c r="P72" s="53">
         <f t="shared" si="24"/>
-        <v>3803014.696227767</v>
+        <v>4762004.6083846968</v>
       </c>
       <c r="Q72" s="53">
         <f t="shared" si="24"/>
-        <v>3375341.3968330724</v>
+        <v>4347858.8248938955</v>
       </c>
       <c r="R72" s="53">
         <f t="shared" si="24"/>
-        <v>2934837.8984565372</v>
+        <v>3891677.2443787777</v>
       </c>
       <c r="S72" s="53">
         <f t="shared" si="24"/>
-        <v>2481119.2951287059</v>
+        <v>3389193.2334413752</v>
       </c>
       <c r="T72" s="53">
         <f t="shared" si="24"/>
-        <v>2013789.1337010395</v>
+        <v>2835707.0953938263</v>
       </c>
       <c r="U72" s="53">
         <f t="shared" si="24"/>
-        <v>1532439.0674305432</v>
+        <v>2226042.114334451</v>
       </c>
       <c r="V72" s="53">
         <f t="shared" si="24"/>
-        <v>1036648.499171932</v>
+        <v>1554496.1376975493</v>
       </c>
       <c r="W72" s="53">
         <f t="shared" si="24"/>
-        <v>525984.21386556246</v>
+        <v>814788.24443200207</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
@@ -11257,71 +11259,71 @@
       <c r="F73" s="13"/>
       <c r="G73" s="53">
         <f t="shared" ref="G73:W73" si="25">IF(G72&lt;&gt;0,G75-G74,0)</f>
-        <v>327775.97263269941</v>
+        <v>173497.30402997986</v>
       </c>
       <c r="H73" s="53">
         <f t="shared" si="25"/>
-        <v>337609.25181168038</v>
+        <v>191107.28038902278</v>
       </c>
       <c r="I73" s="53">
         <f t="shared" si="25"/>
-        <v>347737.52936603077</v>
+        <v>210504.66934850859</v>
       </c>
       <c r="J73" s="53">
         <f t="shared" si="25"/>
-        <v>358169.65524701169</v>
+        <v>231870.89328738221</v>
       </c>
       <c r="K73" s="53">
         <f t="shared" si="25"/>
-        <v>368914.74490442203</v>
+        <v>255405.78895605146</v>
       </c>
       <c r="L73" s="53">
         <f t="shared" si="25"/>
-        <v>379982.18725155469</v>
+        <v>281329.47653509071</v>
       </c>
       <c r="M73" s="53">
         <f t="shared" si="25"/>
-        <v>391381.65286910132</v>
+        <v>309884.41840340244</v>
       </c>
       <c r="N73" s="53">
         <f t="shared" si="25"/>
-        <v>403123.10245517438</v>
+        <v>341337.68687134772</v>
       </c>
       <c r="O73" s="53">
         <f t="shared" si="25"/>
-        <v>415216.79552882962</v>
+        <v>375983.46208878956</v>
       </c>
       <c r="P73" s="53">
         <f t="shared" si="25"/>
-        <v>427673.29939469451</v>
+        <v>414145.7834908017</v>
       </c>
       <c r="Q73" s="53">
         <f t="shared" si="25"/>
-        <v>440503.49837653537</v>
+        <v>456181.58051511802</v>
       </c>
       <c r="R73" s="53">
         <f t="shared" si="25"/>
-        <v>453718.60332783137</v>
+        <v>502484.01093740249</v>
       </c>
       <c r="S73" s="53">
         <f t="shared" si="25"/>
-        <v>467330.16142766632</v>
+        <v>553486.13804754883</v>
       </c>
       <c r="T73" s="53">
         <f t="shared" si="25"/>
-        <v>481350.06627049635</v>
+        <v>609664.98105937499</v>
       </c>
       <c r="U73" s="53">
         <f t="shared" si="25"/>
-        <v>495790.56825861119</v>
+        <v>671545.97663690173</v>
       </c>
       <c r="V73" s="53">
         <f t="shared" si="25"/>
-        <v>510664.28530636954</v>
+        <v>739707.89326554723</v>
       </c>
       <c r="W73" s="53">
         <f t="shared" si="25"/>
-        <v>525984.2138655606</v>
+        <v>814788.24443200021</v>
       </c>
     </row>
     <row r="74" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11334,83 +11336,83 @@
       <c r="C74" s="13"/>
       <c r="D74" s="53">
         <f>D72*Parameters!$B$38</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="E74" s="53">
         <f>E72*Parameters!$B$38</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="F74" s="53">
         <f>F72*Parameters!$B$38</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="G74" s="53">
         <f>G72*Parameters!$B$38</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="H74" s="53">
         <f>H72*Parameters!$B$38</f>
-        <v>204154.48846984716</v>
+        <v>706381.97085282567</v>
       </c>
       <c r="I74" s="53">
         <f>I72*Parameters!$B$38</f>
-        <v>194026.21091549675</v>
+        <v>686984.58189333987</v>
       </c>
       <c r="J74" s="53">
         <f>J72*Parameters!$B$38</f>
-        <v>183594.08503451583</v>
+        <v>665618.35795446625</v>
       </c>
       <c r="K74" s="53">
         <f>K72*Parameters!$B$38</f>
-        <v>172848.99537710549</v>
+        <v>642083.462285797</v>
       </c>
       <c r="L74" s="53">
         <f>L72*Parameters!$B$38</f>
-        <v>161781.55302997283</v>
+        <v>616159.77470675774</v>
       </c>
       <c r="M74" s="53">
         <f>M72*Parameters!$B$38</f>
-        <v>150382.08741242619</v>
+        <v>587604.83283844602</v>
       </c>
       <c r="N74" s="53">
         <f>N72*Parameters!$B$38</f>
-        <v>138640.63782635314</v>
+        <v>556151.56437050074</v>
       </c>
       <c r="O74" s="53">
         <f>O72*Parameters!$B$38</f>
-        <v>126546.94475269789</v>
+        <v>521505.7891530589</v>
       </c>
       <c r="P74" s="53">
         <f>P72*Parameters!$B$38</f>
-        <v>114090.44088683301</v>
+        <v>483343.46775104676</v>
       </c>
       <c r="Q74" s="53">
         <f>Q72*Parameters!$B$38</f>
-        <v>101260.24190499217</v>
+        <v>441307.67072673043</v>
       </c>
       <c r="R74" s="53">
         <f>R72*Parameters!$B$38</f>
-        <v>88045.136953696114</v>
+        <v>395005.24030444596</v>
       </c>
       <c r="S74" s="53">
         <f>S72*Parameters!$B$38</f>
-        <v>74433.578853861181</v>
+        <v>344003.11319429963</v>
       </c>
       <c r="T74" s="53">
         <f>T72*Parameters!$B$38</f>
-        <v>60413.67401103118</v>
+        <v>287824.27018247341</v>
       </c>
       <c r="U74" s="53">
         <f>U72*Parameters!$B$38</f>
-        <v>45973.172022916297</v>
+        <v>225943.27460494678</v>
       </c>
       <c r="V74" s="53">
         <f>V72*Parameters!$B$38</f>
-        <v>31099.454975157958</v>
+        <v>157781.35797630125</v>
       </c>
       <c r="W74" s="53">
         <f>W72*Parameters!$B$38</f>
-        <v>15779.526415966873</v>
+        <v>82701.006809848215</v>
       </c>
       <c r="Y74" s="15"/>
     </row>
@@ -11424,87 +11426,87 @@
       <c r="C75" s="119"/>
       <c r="D75" s="120">
         <f>D73+D74</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="E75" s="120">
         <f t="shared" ref="E75:F75" si="26">E73+E74</f>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="F75" s="120">
         <f t="shared" si="26"/>
-        <v>213987.76764882813</v>
+        <v>723991.9472118686</v>
       </c>
       <c r="G75" s="120">
         <f>IF(D4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="H75" s="120">
         <f>IF(E4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="I75" s="120">
         <f>IF(F4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="J75" s="120">
         <f>IF(G4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="K75" s="120">
         <f>IF(H4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="L75" s="120">
         <f>IF(I4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="M75" s="120">
         <f>IF(J4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="N75" s="120">
         <f>IF(K4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="O75" s="120">
         <f>IF(L4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="P75" s="120">
         <f>IF(M4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="Q75" s="120">
         <f>IF(N4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="R75" s="120">
         <f>IF(O4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="S75" s="120">
         <f>IF(P4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="T75" s="120">
         <f>IF(Q4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="U75" s="120">
         <f>IF(R4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="V75" s="120">
         <f>IF(S4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="W75" s="120">
         <f>IF(T4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>541763.74028152751</v>
+        <v>897489.25124184845</v>
       </c>
       <c r="Y75" s="158">
         <f>NPV(Parameters!$B$46,Kalkulation!D75:W75)-Parameters!$B$39</f>
-        <v>60844.050325633027</v>
+        <v>1156316.8861100292</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
@@ -11523,83 +11525,83 @@
       </c>
       <c r="D78" s="23">
         <f>D31-D61</f>
-        <v>749241.83555117191</v>
+        <v>236968.60598813137</v>
       </c>
       <c r="E78" s="23">
         <f t="shared" ref="E78:W78" si="27">E31-E61</f>
-        <v>745997.33555117191</v>
+        <v>231269.8788176314</v>
       </c>
       <c r="F78" s="23">
         <f t="shared" si="27"/>
-        <v>742655.50055117195</v>
+        <v>225277.04033786198</v>
       </c>
       <c r="G78" s="23">
         <f t="shared" si="27"/>
-        <v>475923.31023823912</v>
+        <v>-29315.06587045663</v>
       </c>
       <c r="H78" s="23">
         <f t="shared" si="27"/>
-        <v>484965.4732307879</v>
+        <v>6645.3139853589237</v>
       </c>
       <c r="I78" s="23">
         <f t="shared" si="27"/>
-        <v>493901.2756407914</v>
+        <v>42263.654669321259</v>
       </c>
       <c r="J78" s="23">
         <f t="shared" si="27"/>
-        <v>502727.52665077383</v>
+        <v>77522.303539770539</v>
       </c>
       <c r="K78" s="23">
         <f t="shared" si="27"/>
-        <v>511440.93971873424</v>
+        <v>112402.69690221187</v>
       </c>
       <c r="L78" s="23">
         <f t="shared" si="27"/>
-        <v>520038.12970641197</v>
+        <v>146885.31298987684</v>
       </c>
       <c r="M78" s="23">
         <f t="shared" si="27"/>
-        <v>528515.60992139857</v>
+        <v>180949.62251761393</v>
       </c>
       <c r="N78" s="23">
         <f t="shared" si="27"/>
-        <v>460089.11633744347</v>
+        <v>214574.03668386559</v>
       </c>
       <c r="O78" s="23">
         <f t="shared" si="27"/>
-        <v>465848.14167333033</v>
+        <v>247735.85248902545</v>
       </c>
       <c r="P78" s="23">
         <f t="shared" si="27"/>
-        <v>471515.59993866854</v>
+        <v>280411.1952316775</v>
       </c>
       <c r="Q78" s="23">
         <f t="shared" si="27"/>
-        <v>477088.74412134191</v>
+        <v>312574.95803706592</v>
       </c>
       <c r="R78" s="23">
         <f t="shared" si="27"/>
-        <v>272409.32337029895</v>
+        <v>344200.73826462857</v>
       </c>
       <c r="S78" s="23">
         <f t="shared" si="27"/>
-        <v>277785.26623752835</v>
+        <v>375260.77063352347</v>
       </c>
       <c r="T78" s="23">
         <f t="shared" si="27"/>
-        <v>283058.14956014982</v>
+        <v>405725.85689676506</v>
       </c>
       <c r="U78" s="23">
         <f t="shared" si="27"/>
-        <v>288224.88155182463</v>
+        <v>335538.41107861989</v>
       </c>
       <c r="V78" s="23">
         <f t="shared" si="27"/>
-        <v>293282.27767262474</v>
+        <v>199447.59257645602</v>
       </c>
       <c r="W78" s="23">
         <f t="shared" si="27"/>
-        <v>298227.05784642376</v>
+        <v>219390.31003837701</v>
       </c>
       <c r="Y78" s="23"/>
     </row>
@@ -11614,83 +11616,83 @@
       <c r="B81" s="83"/>
       <c r="D81" s="24">
         <f>D78</f>
-        <v>749241.83555117191</v>
+        <v>236968.60598813137</v>
       </c>
       <c r="E81" s="24">
         <f t="shared" ref="E81:W81" si="28">E78</f>
-        <v>745997.33555117191</v>
+        <v>231269.8788176314</v>
       </c>
       <c r="F81" s="24">
         <f t="shared" si="28"/>
-        <v>742655.50055117195</v>
+        <v>225277.04033786198</v>
       </c>
       <c r="G81" s="24">
         <f t="shared" si="28"/>
-        <v>475923.31023823912</v>
+        <v>-29315.06587045663</v>
       </c>
       <c r="H81" s="24">
         <f t="shared" si="28"/>
-        <v>484965.4732307879</v>
+        <v>6645.3139853589237</v>
       </c>
       <c r="I81" s="24">
         <f t="shared" si="28"/>
-        <v>493901.2756407914</v>
+        <v>42263.654669321259</v>
       </c>
       <c r="J81" s="24">
         <f t="shared" si="28"/>
-        <v>502727.52665077383</v>
+        <v>77522.303539770539</v>
       </c>
       <c r="K81" s="24">
         <f t="shared" si="28"/>
-        <v>511440.93971873424</v>
+        <v>112402.69690221187</v>
       </c>
       <c r="L81" s="24">
         <f t="shared" si="28"/>
-        <v>520038.12970641197</v>
+        <v>146885.31298987684</v>
       </c>
       <c r="M81" s="24">
         <f t="shared" si="28"/>
-        <v>528515.60992139857</v>
+        <v>180949.62251761393</v>
       </c>
       <c r="N81" s="24">
         <f t="shared" si="28"/>
-        <v>460089.11633744347</v>
+        <v>214574.03668386559</v>
       </c>
       <c r="O81" s="24">
         <f t="shared" si="28"/>
-        <v>465848.14167333033</v>
+        <v>247735.85248902545</v>
       </c>
       <c r="P81" s="24">
         <f t="shared" si="28"/>
-        <v>471515.59993866854</v>
+        <v>280411.1952316775</v>
       </c>
       <c r="Q81" s="24">
         <f t="shared" si="28"/>
-        <v>477088.74412134191</v>
+        <v>312574.95803706592</v>
       </c>
       <c r="R81" s="24">
         <f t="shared" si="28"/>
-        <v>272409.32337029895</v>
+        <v>344200.73826462857</v>
       </c>
       <c r="S81" s="24">
         <f t="shared" si="28"/>
-        <v>277785.26623752835</v>
+        <v>375260.77063352347</v>
       </c>
       <c r="T81" s="24">
         <f t="shared" si="28"/>
-        <v>283058.14956014982</v>
+        <v>405725.85689676506</v>
       </c>
       <c r="U81" s="24">
         <f t="shared" si="28"/>
-        <v>288224.88155182463</v>
+        <v>335538.41107861989</v>
       </c>
       <c r="V81" s="24">
         <f t="shared" si="28"/>
-        <v>293282.27767262474</v>
+        <v>199447.59257645602</v>
       </c>
       <c r="W81" s="24">
         <f t="shared" si="28"/>
-        <v>298227.05784642376</v>
+        <v>219390.31003837701</v>
       </c>
     </row>
     <row r="82" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -11723,83 +11725,83 @@
       <c r="B84" s="83"/>
       <c r="D84" s="19">
         <f>IF(D61&gt;0.01,D31/D61,"-")</f>
-        <v>4.5013302105227835</v>
+        <v>1.3273083449349266</v>
       </c>
       <c r="E84" s="19">
         <f t="shared" ref="E84:W84" si="29">IF(E61&gt;0.01,E31/E61,"-")</f>
-        <v>4.4861681288970505</v>
+        <v>1.3194370872607961</v>
       </c>
       <c r="F84" s="19">
         <f t="shared" si="29"/>
-        <v>4.4705511848225452</v>
+        <v>1.311159593978104</v>
       </c>
       <c r="G84" s="19">
         <f t="shared" si="29"/>
-        <v>1.7587121028558068</v>
+        <v>0.97387905371254813</v>
       </c>
       <c r="H84" s="19">
         <f t="shared" si="29"/>
-        <v>1.7889589799490946</v>
+        <v>1.0061548114395915</v>
       </c>
       <c r="I84" s="19">
         <f t="shared" si="29"/>
-        <v>1.820293886297627</v>
+        <v>1.0407515126842406</v>
       </c>
       <c r="J84" s="19">
         <f t="shared" si="29"/>
-        <v>1.8527811051139624</v>
+        <v>1.0779495732324291</v>
       </c>
       <c r="K84" s="19">
         <f t="shared" si="29"/>
-        <v>1.8864903638607853</v>
+        <v>1.1180786331055919</v>
       </c>
       <c r="L84" s="19">
         <f t="shared" si="29"/>
-        <v>1.9214974363276927</v>
+        <v>1.161529031580824</v>
       </c>
       <c r="M84" s="19">
         <f t="shared" si="29"/>
-        <v>1.9578848269653828</v>
+        <v>1.2087666623411428</v>
       </c>
       <c r="N84" s="19">
         <f t="shared" si="29"/>
-        <v>1.8533359851434008</v>
+        <v>1.2603524312499046</v>
       </c>
       <c r="O84" s="19">
         <f t="shared" si="29"/>
-        <v>1.8846711597416388</v>
+        <v>1.3169680721382209</v>
       </c>
       <c r="P84" s="19">
         <f t="shared" si="29"/>
-        <v>1.9173629689626426</v>
+        <v>1.3794508852828162</v>
       </c>
       <c r="Q84" s="19">
         <f t="shared" si="29"/>
-        <v>1.9515081074709808</v>
+        <v>1.4488412179594359</v>
       </c>
       <c r="R84" s="19">
         <f t="shared" si="29"/>
-        <v>1.5572848927544329</v>
+        <v>1.5264484967169984</v>
       </c>
       <c r="S84" s="19">
         <f t="shared" si="29"/>
-        <v>1.5833034880094434</v>
+        <v>1.6139448593311085</v>
       </c>
       <c r="T84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6105125741968116</v>
+        <v>1.713500855478429</v>
       </c>
       <c r="U84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6390049657229186</v>
+        <v>1.6378411374463169</v>
       </c>
       <c r="V84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6688839235662565</v>
+        <v>1.4125373834437702</v>
       </c>
       <c r="W84" s="19">
         <f t="shared" si="29"/>
-        <v>1.7002646925719966</v>
+        <v>1.4976216548564951</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
@@ -11809,7 +11811,7 @@
       <c r="B85" s="83"/>
       <c r="C85" s="19">
         <f>AVERAGE(G84:W84)</f>
-        <v>1.7854559682065219</v>
+        <v>1.3173303689411684</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
@@ -11821,83 +11823,83 @@
       </c>
       <c r="D88" s="158">
         <f>D21*-1</f>
-        <v>258150</v>
+        <v>260419.05</v>
       </c>
       <c r="E88" s="158">
         <f t="shared" ref="E88:W88" si="30">E21*-1</f>
-        <v>261394.5</v>
+        <v>266117.77717050002</v>
       </c>
       <c r="F88" s="158">
         <f t="shared" si="30"/>
-        <v>264736.33500000002</v>
+        <v>272110.61565026949</v>
       </c>
       <c r="G88" s="158">
         <f t="shared" si="30"/>
-        <v>118178.42505000002</v>
+        <v>128412.7445239799</v>
       </c>
       <c r="H88" s="158">
         <f t="shared" si="30"/>
-        <v>121723.77780150001</v>
+        <v>135040.12626886248</v>
       </c>
       <c r="I88" s="158">
         <f t="shared" si="30"/>
-        <v>125375.49113554502</v>
+        <v>142009.54718559847</v>
       </c>
       <c r="J88" s="158">
         <f t="shared" si="30"/>
-        <v>129136.75586961137</v>
+        <v>149338.65991584721</v>
       </c>
       <c r="K88" s="158">
         <f t="shared" si="30"/>
-        <v>133010.85854569971</v>
+        <v>157046.02815410407</v>
       </c>
       <c r="L88" s="158">
         <f t="shared" si="30"/>
-        <v>137001.1843020707</v>
+        <v>165151.17366713737</v>
       </c>
       <c r="M88" s="158">
         <f t="shared" si="30"/>
-        <v>141111.21983113282</v>
+        <v>173674.6257400983</v>
       </c>
       <c r="N88" s="158">
         <f t="shared" si="30"/>
-        <v>145344.55642606682</v>
+        <v>182637.97317454478</v>
       </c>
       <c r="O88" s="158">
         <f t="shared" si="30"/>
-        <v>149704.89311884882</v>
+        <v>192063.91897008303</v>
       </c>
       <c r="P88" s="158">
         <f t="shared" si="30"/>
-        <v>154196.0399124143</v>
+        <v>201976.33782812901</v>
       </c>
       <c r="Q88" s="158">
         <f t="shared" si="30"/>
-        <v>158821.92110978675</v>
+        <v>212400.33662343872</v>
       </c>
       <c r="R88" s="158">
         <f t="shared" si="30"/>
-        <v>163586.57874308035</v>
+        <v>223362.31799657439</v>
       </c>
       <c r="S88" s="158">
         <f t="shared" si="30"/>
-        <v>168494.17610537278</v>
+        <v>234890.04722837757</v>
       </c>
       <c r="T88" s="158">
         <f t="shared" si="30"/>
-        <v>173549.00138853397</v>
+        <v>247012.72256583412</v>
       </c>
       <c r="U88" s="158">
         <f t="shared" si="30"/>
-        <v>178755.47143018997</v>
+        <v>259761.04917745676</v>
       </c>
       <c r="V88" s="158">
         <f t="shared" si="30"/>
-        <v>184118.1355730957</v>
+        <v>273167.31692550529</v>
       </c>
       <c r="W88" s="158">
         <f t="shared" si="30"/>
-        <v>189641.67964028858</v>
+        <v>287265.48215203057</v>
       </c>
     </row>
   </sheetData>
@@ -11970,10 +11972,10 @@
       <c r="A6" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="186"/>
+      <c r="C6" s="192"/>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
     </row>
@@ -11981,10 +11983,10 @@
       <c r="A7" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="193" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="187"/>
+      <c r="C7" s="193"/>
       <c r="F7" t="s">
         <v>147</v>
       </c>
@@ -12044,10 +12046,10 @@
       <c r="A11" s="172" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="189" t="s">
+      <c r="B11" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="190">
+      <c r="C11" s="186">
         <v>1166666</v>
       </c>
       <c r="D11" t="s">
@@ -12684,10 +12686,10 @@
       <c r="A53" s="172" t="s">
         <v>226</v>
       </c>
-      <c r="B53" s="189" t="s">
+      <c r="B53" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="191">
+      <c r="C53" s="187">
         <f>E53*F53</f>
         <v>11111</v>
       </c>
@@ -12695,7 +12697,7 @@
       <c r="E53" s="172">
         <v>1</v>
       </c>
-      <c r="F53" s="191">
+      <c r="F53" s="187">
         <v>11111</v>
       </c>
       <c r="G53" t="s">
@@ -12789,10 +12791,10 @@
       <c r="A63" s="172" t="s">
         <v>232</v>
       </c>
-      <c r="B63" s="189" t="s">
+      <c r="B63" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="191">
+      <c r="C63" s="187">
         <f>SUM(C32:C61)</f>
         <v>9807253</v>
       </c>
@@ -13030,11 +13032,11 @@
       <c r="G89" t="s">
         <v>116</v>
       </c>
-      <c r="H89" s="185" t="s">
+      <c r="H89" s="191" t="s">
         <v>126</v>
       </c>
-      <c r="I89" s="185"/>
-      <c r="J89" s="185"/>
+      <c r="I89" s="191"/>
+      <c r="J89" s="191"/>
       <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -13062,19 +13064,19 @@
         <v>8000</v>
       </c>
       <c r="F91" s="23"/>
-      <c r="G91" s="188" t="s">
+      <c r="G91" s="194" t="s">
         <v>129</v>
       </c>
-      <c r="H91" s="188"/>
-      <c r="I91" s="188"/>
+      <c r="H91" s="194"/>
+      <c r="I91" s="194"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="23"/>
       <c r="F92" s="23"/>
-      <c r="G92" s="188"/>
-      <c r="H92" s="188"/>
-      <c r="I92" s="188"/>
+      <c r="G92" s="194"/>
+      <c r="H92" s="194"/>
+      <c r="I92" s="194"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -13222,10 +13224,10 @@
         <v>185</v>
       </c>
       <c r="B103" s="150"/>
-      <c r="C103" s="192">
+      <c r="C103" s="188">
         <v>105000</v>
       </c>
-      <c r="D103" s="193" t="s">
+      <c r="D103" s="189" t="s">
         <v>136</v>
       </c>
       <c r="E103" s="4"/>
@@ -13357,7 +13359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A41:M187"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>

--- a/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
+++ b/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Wind-Farm-Project-Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A05EA67-7B83-452A-8D7C-8883808DA5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70DD3E3-B852-49AC-996C-9BC31D52035D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="274">
   <si>
     <t>Input - Parameter</t>
   </si>
@@ -929,9 +929,6 @@
     <t>Ref. PDF</t>
   </si>
   <si>
-    <t>2.84 Rs/kwh</t>
-  </si>
-  <si>
     <t>https://www.mercomindia.com/gujarat-tariff-wind-projects-2027</t>
   </si>
   <si>
@@ -939,6 +936,15 @@
   </si>
   <si>
     <t>(Last 10 years averages)</t>
+  </si>
+  <si>
+    <t>TIC/ DP</t>
+  </si>
+  <si>
+    <t>https://www.utilitysmarts.com/renewables/wind-power/what-is-the-cost-of-wind-turbine-in-india/#google_vignette</t>
+  </si>
+  <si>
+    <t>3 Rs/kwh</t>
   </si>
 </sst>
 </file>
@@ -2069,64 +2075,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1221379.6032</c:v>
+                  <c:v>1259547.7158000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,64 +3020,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>723991.9472118686</c:v>
+                  <c:v>641963.30294648441</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>723991.9472118686</c:v>
+                  <c:v>641963.30294648441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>723991.9472118686</c:v>
+                  <c:v>641963.30294648441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>702698.06641151954</c:v>
+                  <c:v>623082.02933041134</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>660110.30481082143</c:v>
+                  <c:v>585319.4820982652</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>617522.5432101232</c:v>
+                  <c:v>547556.93486611906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>574934.78160942509</c:v>
+                  <c:v>509794.38763397292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>532347.02000872698</c:v>
+                  <c:v>472031.84040182683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>489759.25840802881</c:v>
+                  <c:v>434269.29316968069</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>447171.4968073307</c:v>
+                  <c:v>396506.74593753455</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>404583.73520663253</c:v>
+                  <c:v>358744.19870538841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>361995.97360593441</c:v>
+                  <c:v>320981.65147324227</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>319408.21200523624</c:v>
+                  <c:v>283219.10424109618</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>276820.45040453813</c:v>
+                  <c:v>245456.55700895001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>234232.68880383996</c:v>
+                  <c:v>207694.0097768039</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>191644.92720314182</c:v>
+                  <c:v>169931.46254465776</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>149057.16560244368</c:v>
+                  <c:v>132168.91531251161</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>106469.40400174554</c:v>
+                  <c:v>94406.368080365501</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63881.642401047378</c:v>
+                  <c:v>56643.820848219344</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21293.88080034923</c:v>
+                  <c:v>18881.273616073206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3312,55 +3318,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="3" formatCode="#,##0">
-                  <c:v>173497.30402997986</c:v>
+                  <c:v>192918.87770715926</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0">
-                  <c:v>191107.28038902278</c:v>
+                  <c:v>210281.57670080359</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0">
-                  <c:v>210504.66934850859</c:v>
+                  <c:v>229206.91860387591</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0">
-                  <c:v>231870.89328738221</c:v>
+                  <c:v>249835.54127822479</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="#,##0">
-                  <c:v>255405.78895605146</c:v>
+                  <c:v>272320.7399932649</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="#,##0">
-                  <c:v>281329.47653509071</c:v>
+                  <c:v>296829.60659265879</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>309884.41840340244</c:v>
+                  <c:v>323544.27118599811</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
-                  <c:v>341337.68687134772</c:v>
+                  <c:v>352663.25559273793</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>375983.46208878956</c:v>
+                  <c:v>384402.94859608432</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="#,##0">
-                  <c:v>414145.7834908017</c:v>
+                  <c:v>418999.21396973194</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="#,##0">
-                  <c:v>456181.58051511802</c:v>
+                  <c:v>456709.14322700782</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="#,##0">
-                  <c:v>502484.01093740249</c:v>
+                  <c:v>497812.96611743851</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="#,##0">
-                  <c:v>553486.13804754883</c:v>
+                  <c:v>542616.13306800788</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="#,##0">
-                  <c:v>609664.98105937499</c:v>
+                  <c:v>591451.58504412859</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="#,##0">
-                  <c:v>671545.97663690173</c:v>
+                  <c:v>644682.22769810027</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="#,##0">
-                  <c:v>739707.89326554723</c:v>
+                  <c:v>702703.62819092919</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="#,##0">
-                  <c:v>814788.24443200021</c:v>
+                  <c:v>765946.95472811279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3462,64 +3468,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>723991.9472118686</c:v>
+                  <c:v>641963.30294648441</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>723991.9472118686</c:v>
+                  <c:v>641963.30294648441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>723991.9472118686</c:v>
+                  <c:v>641963.30294648441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>723991.9472118686</c:v>
+                  <c:v>641963.30294648441</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>706381.97085282567</c:v>
+                  <c:v>624600.60395284009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>686984.58189333987</c:v>
+                  <c:v>605675.26204976777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>665618.35795446625</c:v>
+                  <c:v>585046.63937541889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>642083.462285797</c:v>
+                  <c:v>562561.44066037878</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>616159.77470675774</c:v>
+                  <c:v>538052.57406098489</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>587604.83283844602</c:v>
+                  <c:v>511337.90946764557</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>556151.56437050074</c:v>
+                  <c:v>482218.92506090575</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>521505.7891530589</c:v>
+                  <c:v>450479.23205755936</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>483343.46775104676</c:v>
+                  <c:v>415882.96668391174</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>441307.67072673043</c:v>
+                  <c:v>378173.03742663586</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>395005.24030444596</c:v>
+                  <c:v>337069.21453620517</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>344003.11319429963</c:v>
+                  <c:v>292266.04758563574</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>287824.27018247341</c:v>
+                  <c:v>243430.59560951503</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>225943.27460494678</c:v>
+                  <c:v>190199.95295554347</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157781.35797630125</c:v>
+                  <c:v>132178.55246271446</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>82701.006809848215</c:v>
+                  <c:v>68935.225925530831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3806,19 +3812,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>50514.4700025161</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>264109.82337649626</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100026.88080722072</c:v>
+                  <c:v>271614.08956265333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>265299.19316203421</c:v>
+                  <c:v>278920.97340788261</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>273846.07207428606</c:v>
+                  <c:v>286020.28800956887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4064,64 +4070,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>236968.60598813137</c:v>
+                  <c:v>357165.36285351566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231269.8788176314</c:v>
+                  <c:v>351466.63568301569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225277.04033786198</c:v>
+                  <c:v>345473.79720324627</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-29315.06587045663</c:v>
+                  <c:v>88469.083810651675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6645.3139853589237</c:v>
+                  <c:v>119604.24929791526</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42263.654669321259</c:v>
+                  <c:v>150397.37561332551</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77522.303539770539</c:v>
+                  <c:v>180830.81011522282</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112402.69690221187</c:v>
+                  <c:v>210885.98910911218</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>146885.31298987684</c:v>
+                  <c:v>240543.39082822506</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>180949.62251761393</c:v>
+                  <c:v>269782.48598741018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>214574.03668386559</c:v>
+                  <c:v>298581.68578510988</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>247735.85248902545</c:v>
+                  <c:v>326918.28722171765</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>280411.1952316775</c:v>
+                  <c:v>354768.41559581773</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>312574.95803706592</c:v>
+                  <c:v>382106.96403265418</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>344200.73826462857</c:v>
+                  <c:v>408907.52989166474</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>375260.77063352347</c:v>
+                  <c:v>384627.87788949162</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>405725.85689676506</c:v>
+                  <c:v>196672.39641020086</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>335538.41107861989</c:v>
+                  <c:v>214182.35084456741</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>199447.59257645602</c:v>
+                  <c:v>231231.74648343574</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>219390.31003837701</c:v>
+                  <c:v>247796.8138873704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4851,9 +4857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AE137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D37" sqref="D37"/>
+      <selection pane="topRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4910,7 +4916,7 @@
       </c>
       <c r="G5" s="63">
         <f>NPV(B52,Kalkulation!D78:W78)-B34</f>
-        <v>-918505.84937259951</v>
+        <v>58191.782411674969</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -4923,7 +4929,7 @@
       </c>
       <c r="G6" s="63">
         <f>NPV(Parameters!B46,Kalkulation!D21:W21)+ NPV(Parameters!B46,Kalkulation!D60:W60)</f>
-        <v>3033902.1979134483</v>
+        <v>2542245.6008218876</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -4944,7 +4950,7 @@
       </c>
       <c r="G7" s="63">
         <f>NPV(B46,Kalkulation!D9:W9)</f>
-        <v>371496868.8077113</v>
+        <v>395679973.93539715</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -4966,7 +4972,7 @@
       </c>
       <c r="G8" s="59">
         <f>IRR(Kalkulation!C78:W78)</f>
-        <v>3.8276008506734405E-2</v>
+        <v>7.5574672058946968E-2</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4985,7 +4991,7 @@
       </c>
       <c r="G9" s="64">
         <f>((-G6-B25)/G7)</f>
-        <v>1.8232591902658735E-2</v>
+        <v>1.8360816512700925E-2</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -5006,7 +5012,7 @@
       </c>
       <c r="G10" s="148">
         <f>MIN(Kalkulation!D84:W84)</f>
-        <v>0.97387905371254813</v>
+        <v>1.0848489289562473</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5021,7 +5027,7 @@
       </c>
       <c r="G11" s="148">
         <f>Kalkulation!C85</f>
-        <v>1.3173303689411684</v>
+        <v>1.3785502440395649</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5115,16 +5121,16 @@
         <v>154</v>
       </c>
       <c r="B18" s="66">
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="70" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" s="190" t="s">
         <v>268</v>
-      </c>
-      <c r="E18" s="190" t="s">
-        <v>269</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>2</v>
@@ -5204,83 +5210,83 @@
       </c>
       <c r="J20" s="23">
         <f>Kalkulation!D12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="K20" s="23">
         <f>Kalkulation!E12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="L20" s="23">
         <f>Kalkulation!F12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="M20" s="23">
         <f>Kalkulation!G12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="N20" s="23">
         <f>Kalkulation!H12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="O20" s="23">
         <f>Kalkulation!I12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="P20" s="23">
         <f>Kalkulation!J12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="Q20" s="23">
         <f>Kalkulation!K12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="R20" s="23">
         <f>Kalkulation!L12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="S20" s="23">
         <f>Kalkulation!M12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="T20" s="23">
         <f>Kalkulation!N12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="U20" s="23">
         <f>Kalkulation!O12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="V20" s="23">
         <f>Kalkulation!P12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="W20" s="23">
         <f>Kalkulation!Q12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="X20" s="23">
         <f>Kalkulation!R12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="Y20" s="23">
         <f>Kalkulation!S12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="Z20" s="23">
         <f>Kalkulation!T12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="AA20" s="23">
         <f>Kalkulation!U12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="AB20" s="23">
         <f>Kalkulation!V12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="AC20" s="23">
         <f>Kalkulation!W12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
@@ -5384,88 +5390,91 @@
       <c r="I22" s="84"/>
       <c r="J22" s="88">
         <f>SUM(J20:J21)</f>
-        <v>960960.55319999997</v>
+        <v>999128.66580000008</v>
       </c>
       <c r="K22" s="88">
         <f t="shared" ref="K22:AC22" si="0">SUM(K20:K21)</f>
-        <v>955261.82602949999</v>
+        <v>993429.9386295001</v>
       </c>
       <c r="L22" s="88">
         <f t="shared" si="0"/>
-        <v>949268.98754973058</v>
+        <v>987437.10014973069</v>
       </c>
       <c r="M22" s="88">
         <f t="shared" si="0"/>
-        <v>1092966.8586760201</v>
+        <v>1131134.9712760202</v>
       </c>
       <c r="N22" s="88">
         <f t="shared" si="0"/>
-        <v>1086339.4769311375</v>
+        <v>1124507.5895311376</v>
       </c>
       <c r="O22" s="88">
         <f t="shared" si="0"/>
-        <v>1079370.0560144016</v>
+        <v>1117538.1686144017</v>
       </c>
       <c r="P22" s="88">
         <f t="shared" si="0"/>
-        <v>1072040.9432841528</v>
+        <v>1110209.0558841529</v>
       </c>
       <c r="Q22" s="88">
         <f t="shared" si="0"/>
-        <v>1064333.575045896</v>
+        <v>1102501.6876458961</v>
       </c>
       <c r="R22" s="88">
         <f t="shared" si="0"/>
-        <v>1056228.4295328627</v>
+        <v>1094396.5421328628</v>
       </c>
       <c r="S22" s="88">
         <f t="shared" si="0"/>
-        <v>1047704.9774599017</v>
+        <v>1085873.0900599018</v>
       </c>
       <c r="T22" s="88">
         <f t="shared" si="0"/>
-        <v>1038741.6300254553</v>
+        <v>1076909.7426254554</v>
       </c>
       <c r="U22" s="88">
         <f t="shared" si="0"/>
-        <v>1029315.684229917</v>
+        <v>1067483.796829917</v>
       </c>
       <c r="V22" s="88">
         <f t="shared" si="0"/>
-        <v>1019403.2653718709</v>
+        <v>1057571.3779718711</v>
       </c>
       <c r="W22" s="88">
         <f t="shared" si="0"/>
-        <v>1008979.2665765613</v>
+        <v>1047147.3791765614</v>
       </c>
       <c r="X22" s="88">
         <f t="shared" si="0"/>
-        <v>998017.28520342568</v>
+        <v>1036185.3978034258</v>
       </c>
       <c r="Y22" s="88">
         <f t="shared" si="0"/>
-        <v>986489.55597162247</v>
+        <v>1024657.6685716226</v>
       </c>
       <c r="Z22" s="88">
         <f t="shared" si="0"/>
-        <v>974366.88063416583</v>
+        <v>1012534.9932341659</v>
       </c>
       <c r="AA22" s="88">
         <f t="shared" si="0"/>
-        <v>961618.55402254325</v>
+        <v>999786.66662254336</v>
       </c>
       <c r="AB22" s="88">
         <f t="shared" si="0"/>
-        <v>948212.28627449472</v>
+        <v>986380.39887449483</v>
       </c>
       <c r="AC22" s="88">
         <f t="shared" si="0"/>
-        <v>934114.12104796944</v>
+        <v>972282.23364796955</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>271</v>
       </c>
       <c r="F23" s="81" t="s">
         <v>186</v>
@@ -5573,83 +5582,83 @@
       <c r="I24" s="84"/>
       <c r="J24" s="88">
         <f>SUM(J22:J23)</f>
-        <v>260442.48177142849</v>
+        <v>298610.5943714286</v>
       </c>
       <c r="K24" s="88">
         <f t="shared" ref="K24:AC24" si="1">SUM(K22:K23)</f>
-        <v>254743.75460092851</v>
+        <v>292911.86720092862</v>
       </c>
       <c r="L24" s="88">
         <f t="shared" si="1"/>
-        <v>248750.9161211591</v>
+        <v>286919.02872115921</v>
       </c>
       <c r="M24" s="88">
         <f t="shared" si="1"/>
-        <v>392448.78724744858</v>
+        <v>430616.89984744869</v>
       </c>
       <c r="N24" s="88">
         <f t="shared" si="1"/>
-        <v>385821.40550256602</v>
+        <v>423989.51810256613</v>
       </c>
       <c r="O24" s="88">
         <f t="shared" si="1"/>
-        <v>378851.98458583013</v>
+        <v>417020.09718583024</v>
       </c>
       <c r="P24" s="88">
         <f t="shared" si="1"/>
-        <v>371522.8718555813</v>
+        <v>409690.98445558141</v>
       </c>
       <c r="Q24" s="88">
         <f t="shared" si="1"/>
-        <v>363815.50361732452</v>
+        <v>401983.61621732463</v>
       </c>
       <c r="R24" s="88">
         <f t="shared" si="1"/>
-        <v>355710.35810429126</v>
+        <v>393878.47070429137</v>
       </c>
       <c r="S24" s="88">
         <f t="shared" si="1"/>
-        <v>347186.90603133023</v>
+        <v>385355.01863133034</v>
       </c>
       <c r="T24" s="88">
         <f t="shared" si="1"/>
-        <v>338223.55859688378</v>
+        <v>376391.67119688389</v>
       </c>
       <c r="U24" s="88">
         <f t="shared" si="1"/>
-        <v>328797.61280134553</v>
+        <v>366965.72540134552</v>
       </c>
       <c r="V24" s="88">
         <f t="shared" si="1"/>
-        <v>318885.19394329947</v>
+        <v>357053.30654329958</v>
       </c>
       <c r="W24" s="88">
         <f t="shared" si="1"/>
-        <v>308461.19514798978</v>
+        <v>346629.30774798989</v>
       </c>
       <c r="X24" s="88">
         <f t="shared" si="1"/>
-        <v>998017.28520342568</v>
+        <v>1036185.3978034258</v>
       </c>
       <c r="Y24" s="88">
         <f t="shared" si="1"/>
-        <v>986489.55597162247</v>
+        <v>1024657.6685716226</v>
       </c>
       <c r="Z24" s="88">
         <f t="shared" si="1"/>
-        <v>974366.88063416583</v>
+        <v>1012534.9932341659</v>
       </c>
       <c r="AA24" s="88">
         <f t="shared" si="1"/>
-        <v>961618.55402254325</v>
+        <v>999786.66662254336</v>
       </c>
       <c r="AB24" s="88">
         <f t="shared" si="1"/>
-        <v>948212.28627449472</v>
+        <v>986380.39887449483</v>
       </c>
       <c r="AC24" s="88">
         <f t="shared" si="1"/>
-        <v>934114.12104796944</v>
+        <v>972282.23364796955</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
@@ -5668,83 +5677,83 @@
       <c r="I25" s="84"/>
       <c r="J25" s="88">
         <f>Kalkulation!D38</f>
-        <v>-723991.9472118686</v>
+        <v>-641963.30294648441</v>
       </c>
       <c r="K25" s="88">
         <f>Kalkulation!E38</f>
-        <v>-723991.9472118686</v>
+        <v>-641963.30294648441</v>
       </c>
       <c r="L25" s="88">
         <f>Kalkulation!F38</f>
-        <v>-723991.9472118686</v>
+        <v>-641963.30294648441</v>
       </c>
       <c r="M25" s="88">
         <f>Kalkulation!G38</f>
-        <v>-702698.06641151954</v>
+        <v>-623082.02933041134</v>
       </c>
       <c r="N25" s="88">
         <f>Kalkulation!H38</f>
-        <v>-660110.30481082143</v>
+        <v>-585319.4820982652</v>
       </c>
       <c r="O25" s="88">
         <f>Kalkulation!I38</f>
-        <v>-617522.5432101232</v>
+        <v>-547556.93486611906</v>
       </c>
       <c r="P25" s="88">
         <f>Kalkulation!J38</f>
-        <v>-574934.78160942509</v>
+        <v>-509794.38763397292</v>
       </c>
       <c r="Q25" s="88">
         <f>Kalkulation!K38</f>
-        <v>-532347.02000872698</v>
+        <v>-472031.84040182683</v>
       </c>
       <c r="R25" s="88">
         <f>Kalkulation!L38</f>
-        <v>-489759.25840802881</v>
+        <v>-434269.29316968069</v>
       </c>
       <c r="S25" s="88">
         <f>Kalkulation!M38</f>
-        <v>-447171.4968073307</v>
+        <v>-396506.74593753455</v>
       </c>
       <c r="T25" s="88">
         <f>Kalkulation!N38</f>
-        <v>-404583.73520663253</v>
+        <v>-358744.19870538841</v>
       </c>
       <c r="U25" s="88">
         <f>Kalkulation!O38</f>
-        <v>-361995.97360593441</v>
+        <v>-320981.65147324227</v>
       </c>
       <c r="V25" s="88">
         <f>Kalkulation!P38</f>
-        <v>-319408.21200523624</v>
+        <v>-283219.10424109618</v>
       </c>
       <c r="W25" s="88">
         <f>Kalkulation!Q38</f>
-        <v>-276820.45040453813</v>
+        <v>-245456.55700895001</v>
       </c>
       <c r="X25" s="88">
         <f>Kalkulation!R38</f>
-        <v>-234232.68880383996</v>
+        <v>-207694.0097768039</v>
       </c>
       <c r="Y25" s="88">
         <f>Kalkulation!S38</f>
-        <v>-191644.92720314182</v>
+        <v>-169931.46254465776</v>
       </c>
       <c r="Z25" s="88">
         <f>Kalkulation!T38</f>
-        <v>-149057.16560244368</v>
+        <v>-132168.91531251161</v>
       </c>
       <c r="AA25" s="88">
         <f>Kalkulation!U38</f>
-        <v>-106469.40400174554</v>
+        <v>-94406.368080365501</v>
       </c>
       <c r="AB25" s="88">
         <f>Kalkulation!V38</f>
-        <v>-63881.642401047378</v>
+        <v>-56643.820848219344</v>
       </c>
       <c r="AC25" s="88">
         <f>Kalkulation!W38</f>
-        <v>-21293.88080034923</v>
+        <v>-18881.273616073206</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
@@ -5768,83 +5777,83 @@
       <c r="I26" s="84"/>
       <c r="J26" s="88">
         <f>SUM(J24:J25)</f>
-        <v>-463549.46544044011</v>
+        <v>-343352.70857505582</v>
       </c>
       <c r="K26" s="88">
         <f t="shared" ref="K26:AC26" si="2">SUM(K24:K25)</f>
-        <v>-469248.19261094008</v>
+        <v>-349051.43574555579</v>
       </c>
       <c r="L26" s="88">
         <f t="shared" si="2"/>
-        <v>-475241.0310907095</v>
+        <v>-355044.27422532521</v>
       </c>
       <c r="M26" s="88">
         <f t="shared" si="2"/>
-        <v>-310249.27916407096</v>
+        <v>-192465.12948296266</v>
       </c>
       <c r="N26" s="88">
         <f t="shared" si="2"/>
-        <v>-274288.89930825541</v>
+        <v>-161329.96399569907</v>
       </c>
       <c r="O26" s="88">
         <f t="shared" si="2"/>
-        <v>-238670.55862429307</v>
+        <v>-130536.83768028882</v>
       </c>
       <c r="P26" s="88">
         <f t="shared" si="2"/>
-        <v>-203411.90975384379</v>
+        <v>-100103.40317839151</v>
       </c>
       <c r="Q26" s="88">
         <f t="shared" si="2"/>
-        <v>-168531.51639140246</v>
+        <v>-70048.224184502207</v>
       </c>
       <c r="R26" s="88">
         <f t="shared" si="2"/>
-        <v>-134048.90030373755</v>
+        <v>-40390.822465389327</v>
       </c>
       <c r="S26" s="88">
         <f t="shared" si="2"/>
-        <v>-99984.590776000463</v>
+        <v>-11151.727306204208</v>
       </c>
       <c r="T26" s="88">
         <f t="shared" si="2"/>
-        <v>-66360.176609748742</v>
+        <v>17647.472491495486</v>
       </c>
       <c r="U26" s="88">
         <f t="shared" si="2"/>
-        <v>-33198.360804588883</v>
+        <v>45984.073928103258</v>
       </c>
       <c r="V26" s="88">
         <f t="shared" si="2"/>
-        <v>-523.01806193677476</v>
+        <v>73834.202302203397</v>
       </c>
       <c r="W26" s="88">
         <f t="shared" si="2"/>
-        <v>31640.744743451651</v>
+        <v>101172.75073903988</v>
       </c>
       <c r="X26" s="88">
         <f t="shared" si="2"/>
-        <v>763784.59639958572</v>
+        <v>828491.38802662189</v>
       </c>
       <c r="Y26" s="88">
         <f t="shared" si="2"/>
-        <v>794844.62876848062</v>
+        <v>854726.20602696482</v>
       </c>
       <c r="Z26" s="88">
         <f t="shared" si="2"/>
-        <v>825309.71503172209</v>
+        <v>880366.07792165433</v>
       </c>
       <c r="AA26" s="88">
         <f t="shared" si="2"/>
-        <v>855149.15002079774</v>
+        <v>905380.29854217789</v>
       </c>
       <c r="AB26" s="88">
         <f t="shared" si="2"/>
-        <v>884330.64387344732</v>
+        <v>929736.5780262755</v>
       </c>
       <c r="AC26" s="88">
         <f t="shared" si="2"/>
-        <v>912820.24024762027</v>
+        <v>953400.96003189636</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
@@ -5918,23 +5927,23 @@
       </c>
       <c r="Y27" s="88">
         <f>-Kalkulation!S54</f>
-        <v>0</v>
+        <v>-50514.4700025161</v>
       </c>
       <c r="Z27" s="88">
         <f>-Kalkulation!T54</f>
-        <v>0</v>
+        <v>-264109.82337649626</v>
       </c>
       <c r="AA27" s="88">
         <f>-Kalkulation!U54</f>
-        <v>-100026.88080722072</v>
+        <v>-271614.08956265333</v>
       </c>
       <c r="AB27" s="88">
         <f>-Kalkulation!V54</f>
-        <v>-265299.19316203421</v>
+        <v>-278920.97340788261</v>
       </c>
       <c r="AC27" s="88">
         <f>-Kalkulation!W54</f>
-        <v>-273846.07207428606</v>
+        <v>-286020.28800956887</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
@@ -5946,83 +5955,83 @@
       </c>
       <c r="J28" s="23">
         <f>SUM(J26:J27)</f>
-        <v>-463549.46544044011</v>
+        <v>-343352.70857505582</v>
       </c>
       <c r="K28" s="23">
         <f t="shared" ref="K28:AC28" si="3">SUM(K26:K27)</f>
-        <v>-469248.19261094008</v>
+        <v>-349051.43574555579</v>
       </c>
       <c r="L28" s="23">
         <f t="shared" si="3"/>
-        <v>-475241.0310907095</v>
+        <v>-355044.27422532521</v>
       </c>
       <c r="M28" s="23">
         <f t="shared" si="3"/>
-        <v>-310249.27916407096</v>
+        <v>-192465.12948296266</v>
       </c>
       <c r="N28" s="23">
         <f t="shared" si="3"/>
-        <v>-274288.89930825541</v>
+        <v>-161329.96399569907</v>
       </c>
       <c r="O28" s="23">
         <f t="shared" si="3"/>
-        <v>-238670.55862429307</v>
+        <v>-130536.83768028882</v>
       </c>
       <c r="P28" s="23">
         <f t="shared" si="3"/>
-        <v>-203411.90975384379</v>
+        <v>-100103.40317839151</v>
       </c>
       <c r="Q28" s="23">
         <f t="shared" si="3"/>
-        <v>-168531.51639140246</v>
+        <v>-70048.224184502207</v>
       </c>
       <c r="R28" s="23">
         <f t="shared" si="3"/>
-        <v>-134048.90030373755</v>
+        <v>-40390.822465389327</v>
       </c>
       <c r="S28" s="23">
         <f t="shared" si="3"/>
-        <v>-99984.590776000463</v>
+        <v>-11151.727306204208</v>
       </c>
       <c r="T28" s="23">
         <f t="shared" si="3"/>
-        <v>-66360.176609748742</v>
+        <v>17647.472491495486</v>
       </c>
       <c r="U28" s="23">
         <f t="shared" si="3"/>
-        <v>-33198.360804588883</v>
+        <v>45984.073928103258</v>
       </c>
       <c r="V28" s="23">
         <f t="shared" si="3"/>
-        <v>-523.01806193677476</v>
+        <v>73834.202302203397</v>
       </c>
       <c r="W28" s="23">
         <f t="shared" si="3"/>
-        <v>31640.744743451651</v>
+        <v>101172.75073903988</v>
       </c>
       <c r="X28" s="23">
         <f t="shared" si="3"/>
-        <v>763784.59639958572</v>
+        <v>828491.38802662189</v>
       </c>
       <c r="Y28" s="23">
         <f t="shared" si="3"/>
-        <v>794844.62876848062</v>
+        <v>804211.73602444876</v>
       </c>
       <c r="Z28" s="23">
         <f t="shared" si="3"/>
-        <v>825309.71503172209</v>
+        <v>616256.25454515801</v>
       </c>
       <c r="AA28" s="23">
         <f t="shared" si="3"/>
-        <v>755122.26921357703</v>
+        <v>633766.20897952456</v>
       </c>
       <c r="AB28" s="23">
         <f t="shared" si="3"/>
-        <v>619031.45071141305</v>
+        <v>650815.60461839288</v>
       </c>
       <c r="AC28" s="23">
         <f t="shared" si="3"/>
-        <v>638974.16817333421</v>
+        <v>667380.67202232755</v>
       </c>
       <c r="AD28" s="23"/>
     </row>
@@ -6101,10 +6110,10 @@
         <v>164</v>
       </c>
       <c r="B36" s="67">
-        <v>0.10150000000000001</v>
-      </c>
-      <c r="C36" t="s">
-        <v>269</v>
+        <v>0.09</v>
+      </c>
+      <c r="C36" s="184" t="s">
+        <v>272</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>3</v>
@@ -6185,7 +6194,7 @@
       </c>
       <c r="B38" s="2">
         <f>SUM(B36:B37)</f>
-        <v>0.10150000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="C38" s="184" t="s">
         <v>266</v>
@@ -6198,83 +6207,83 @@
       </c>
       <c r="J38" s="23">
         <f>Kalkulation!D12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="K38" s="23">
         <f>Kalkulation!E12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="L38" s="23">
         <f>Kalkulation!F12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="M38" s="23">
         <f>Kalkulation!G12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="N38" s="23">
         <f>Kalkulation!H12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="O38" s="23">
         <f>Kalkulation!I12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="P38" s="23">
         <f>Kalkulation!J12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="Q38" s="23">
         <f>Kalkulation!K12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="R38" s="23">
         <f>Kalkulation!L12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="S38" s="23">
         <f>Kalkulation!M12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="T38" s="23">
         <f>Kalkulation!N12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="U38" s="23">
         <f>Kalkulation!O12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="V38" s="23">
         <f>Kalkulation!P12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="W38" s="23">
         <f>Kalkulation!Q12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="X38" s="23">
         <f>Kalkulation!R12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="Y38" s="23">
         <f>Kalkulation!S12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="Z38" s="23">
         <f>Kalkulation!T12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="AA38" s="23">
         <f>Kalkulation!U12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="AB38" s="23">
         <f>Kalkulation!V12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="AC38" s="23">
         <f>Kalkulation!W12</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
@@ -6449,23 +6458,23 @@
       </c>
       <c r="Y40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-50514.4700025161</v>
       </c>
       <c r="Z40" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-264109.82337649626</v>
       </c>
       <c r="AA40" s="88">
         <f t="shared" si="4"/>
-        <v>-100026.88080722072</v>
+        <v>-271614.08956265333</v>
       </c>
       <c r="AB40" s="88">
         <f t="shared" si="4"/>
-        <v>-265299.19316203421</v>
+        <v>-278920.97340788261</v>
       </c>
       <c r="AC40" s="88">
         <f t="shared" si="4"/>
-        <v>-273846.07207428606</v>
+        <v>-286020.28800956887</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
@@ -6485,83 +6494,83 @@
       <c r="I41" s="84"/>
       <c r="J41" s="88">
         <f>SUM(J38:J40)</f>
-        <v>960960.55319999997</v>
+        <v>999128.66580000008</v>
       </c>
       <c r="K41" s="88">
         <f t="shared" ref="K41:AC41" si="5">SUM(K38:K40)</f>
-        <v>955261.82602949999</v>
+        <v>993429.9386295001</v>
       </c>
       <c r="L41" s="88">
         <f t="shared" si="5"/>
-        <v>949268.98754973058</v>
+        <v>987437.10014973069</v>
       </c>
       <c r="M41" s="88">
         <f t="shared" si="5"/>
-        <v>1092966.8586760201</v>
+        <v>1131134.9712760202</v>
       </c>
       <c r="N41" s="88">
         <f t="shared" si="5"/>
-        <v>1086339.4769311375</v>
+        <v>1124507.5895311376</v>
       </c>
       <c r="O41" s="88">
         <f t="shared" si="5"/>
-        <v>1079370.0560144016</v>
+        <v>1117538.1686144017</v>
       </c>
       <c r="P41" s="88">
         <f t="shared" si="5"/>
-        <v>1072040.9432841528</v>
+        <v>1110209.0558841529</v>
       </c>
       <c r="Q41" s="88">
         <f t="shared" si="5"/>
-        <v>1064333.575045896</v>
+        <v>1102501.6876458961</v>
       </c>
       <c r="R41" s="88">
         <f t="shared" si="5"/>
-        <v>1056228.4295328627</v>
+        <v>1094396.5421328628</v>
       </c>
       <c r="S41" s="88">
         <f t="shared" si="5"/>
-        <v>1047704.9774599017</v>
+        <v>1085873.0900599018</v>
       </c>
       <c r="T41" s="88">
         <f t="shared" si="5"/>
-        <v>1038741.6300254553</v>
+        <v>1076909.7426254554</v>
       </c>
       <c r="U41" s="88">
         <f t="shared" si="5"/>
-        <v>1029315.684229917</v>
+        <v>1067483.796829917</v>
       </c>
       <c r="V41" s="88">
         <f t="shared" si="5"/>
-        <v>1019403.2653718709</v>
+        <v>1057571.3779718711</v>
       </c>
       <c r="W41" s="88">
         <f t="shared" si="5"/>
-        <v>1008979.2665765613</v>
+        <v>1047147.3791765614</v>
       </c>
       <c r="X41" s="88">
         <f t="shared" si="5"/>
-        <v>998017.28520342568</v>
+        <v>1036185.3978034258</v>
       </c>
       <c r="Y41" s="88">
         <f t="shared" si="5"/>
-        <v>986489.55597162247</v>
+        <v>974143.19856910652</v>
       </c>
       <c r="Z41" s="88">
         <f t="shared" si="5"/>
-        <v>974366.88063416583</v>
+        <v>748425.16985766962</v>
       </c>
       <c r="AA41" s="88">
         <f t="shared" si="5"/>
-        <v>861591.67321532255</v>
+        <v>728172.57705989003</v>
       </c>
       <c r="AB41" s="88">
         <f t="shared" si="5"/>
-        <v>682913.09311246057</v>
+        <v>707459.42546661221</v>
       </c>
       <c r="AC41" s="88">
         <f t="shared" si="5"/>
-        <v>660268.04897368338</v>
+        <v>686261.94563840074</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
@@ -6579,83 +6588,83 @@
       </c>
       <c r="J42" s="23">
         <f>-Kalkulation!D60</f>
-        <v>-723991.9472118686</v>
+        <v>-641963.30294648441</v>
       </c>
       <c r="K42" s="23">
         <f>-Kalkulation!E60</f>
-        <v>-723991.9472118686</v>
+        <v>-641963.30294648441</v>
       </c>
       <c r="L42" s="23">
         <f>-Kalkulation!F60</f>
-        <v>-723991.9472118686</v>
+        <v>-641963.30294648441</v>
       </c>
       <c r="M42" s="23">
         <f>-Kalkulation!G60</f>
-        <v>-702698.06641151954</v>
+        <v>-623082.02933041134</v>
       </c>
       <c r="N42" s="23">
         <f>-Kalkulation!H60</f>
-        <v>-660110.30481082143</v>
+        <v>-585319.4820982652</v>
       </c>
       <c r="O42" s="23">
         <f>-Kalkulation!I60</f>
-        <v>-617522.5432101232</v>
+        <v>-547556.93486611906</v>
       </c>
       <c r="P42" s="23">
         <f>-Kalkulation!J60</f>
-        <v>-574934.78160942509</v>
+        <v>-509794.38763397292</v>
       </c>
       <c r="Q42" s="23">
         <f>-Kalkulation!K60</f>
-        <v>-532347.02000872698</v>
+        <v>-472031.84040182683</v>
       </c>
       <c r="R42" s="23">
         <f>-Kalkulation!L60</f>
-        <v>-489759.25840802881</v>
+        <v>-434269.29316968069</v>
       </c>
       <c r="S42" s="23">
         <f>-Kalkulation!M60</f>
-        <v>-447171.4968073307</v>
+        <v>-396506.74593753455</v>
       </c>
       <c r="T42" s="23">
         <f>-Kalkulation!N60</f>
-        <v>-404583.73520663253</v>
+        <v>-358744.19870538841</v>
       </c>
       <c r="U42" s="23">
         <f>-Kalkulation!O60</f>
-        <v>-361995.97360593441</v>
+        <v>-320981.65147324227</v>
       </c>
       <c r="V42" s="23">
         <f>-Kalkulation!P60</f>
-        <v>-319408.21200523624</v>
+        <v>-283219.10424109618</v>
       </c>
       <c r="W42" s="23">
         <f>-Kalkulation!Q60</f>
-        <v>-276820.45040453813</v>
+        <v>-245456.55700895001</v>
       </c>
       <c r="X42" s="23">
         <f>-Kalkulation!R60</f>
-        <v>-234232.68880383996</v>
+        <v>-207694.0097768039</v>
       </c>
       <c r="Y42" s="23">
         <f>-Kalkulation!S60</f>
-        <v>-191644.92720314182</v>
+        <v>-169931.46254465776</v>
       </c>
       <c r="Z42" s="23">
         <f>-Kalkulation!T60</f>
-        <v>-149057.16560244368</v>
+        <v>-132168.91531251161</v>
       </c>
       <c r="AA42" s="23">
         <f>-Kalkulation!U60</f>
-        <v>-106469.40400174554</v>
+        <v>-94406.368080365501</v>
       </c>
       <c r="AB42" s="23">
         <f>-Kalkulation!V60</f>
-        <v>-63881.642401047378</v>
+        <v>-56643.820848219344</v>
       </c>
       <c r="AC42" s="23">
         <f>-Kalkulation!W60</f>
-        <v>-21293.88080034923</v>
+        <v>-18881.273616073206</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
@@ -6770,83 +6779,83 @@
       </c>
       <c r="J44" s="23">
         <f>SUM(J41:J43)</f>
-        <v>236968.60598813137</v>
+        <v>357165.36285351566</v>
       </c>
       <c r="K44" s="23">
         <f t="shared" ref="K44:AC44" si="6">SUM(K41:K43)</f>
-        <v>231269.8788176314</v>
+        <v>351466.63568301569</v>
       </c>
       <c r="L44" s="23">
         <f t="shared" si="6"/>
-        <v>225277.04033786198</v>
+        <v>345473.79720324627</v>
       </c>
       <c r="M44" s="23">
         <f t="shared" si="6"/>
-        <v>-29315.06587045663</v>
+        <v>88469.083810651675</v>
       </c>
       <c r="N44" s="23">
         <f t="shared" si="6"/>
-        <v>6645.3139853589237</v>
+        <v>119604.24929791526</v>
       </c>
       <c r="O44" s="23">
         <f t="shared" si="6"/>
-        <v>42263.654669321259</v>
+        <v>150397.37561332551</v>
       </c>
       <c r="P44" s="23">
         <f t="shared" si="6"/>
-        <v>77522.303539770539</v>
+        <v>180830.81011522282</v>
       </c>
       <c r="Q44" s="23">
         <f t="shared" si="6"/>
-        <v>112402.69690221187</v>
+        <v>210885.98910911207</v>
       </c>
       <c r="R44" s="23">
         <f t="shared" si="6"/>
-        <v>146885.31298987672</v>
+        <v>240543.39082822495</v>
       </c>
       <c r="S44" s="23">
         <f t="shared" si="6"/>
-        <v>180949.62251761381</v>
+        <v>269782.48598741007</v>
       </c>
       <c r="T44" s="23">
         <f t="shared" si="6"/>
-        <v>214574.03668386559</v>
+        <v>298581.68578510976</v>
       </c>
       <c r="U44" s="23">
         <f t="shared" si="6"/>
-        <v>247735.85248902545</v>
+        <v>326918.28722171753</v>
       </c>
       <c r="V44" s="23">
         <f t="shared" si="6"/>
-        <v>280411.19523167762</v>
+        <v>354768.41559581773</v>
       </c>
       <c r="W44" s="23">
         <f t="shared" si="6"/>
-        <v>312574.95803706592</v>
+        <v>382106.96403265418</v>
       </c>
       <c r="X44" s="23">
         <f t="shared" si="6"/>
-        <v>344200.73826462857</v>
+        <v>408907.52989166474</v>
       </c>
       <c r="Y44" s="23">
         <f t="shared" si="6"/>
-        <v>375260.77063352347</v>
+        <v>384627.87788949162</v>
       </c>
       <c r="Z44" s="23">
         <f t="shared" si="6"/>
-        <v>405725.85689676495</v>
+        <v>196672.39641020086</v>
       </c>
       <c r="AA44" s="23">
         <f t="shared" si="6"/>
-        <v>335538.41107861989</v>
+        <v>214182.35084456741</v>
       </c>
       <c r="AB44" s="23">
         <f t="shared" si="6"/>
-        <v>199447.59257645602</v>
+        <v>231231.74648343574</v>
       </c>
       <c r="AC44" s="23">
         <f t="shared" si="6"/>
-        <v>219390.31003837695</v>
+        <v>247796.8138873704</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
@@ -6855,7 +6864,7 @@
       </c>
       <c r="B46" s="2">
         <f>(((1-B33)/1)*B44)+(((B33/1)*B38))</f>
-        <v>8.1171054826192204E-2</v>
+        <v>7.280697527553881E-2</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
@@ -6882,7 +6891,7 @@
         <v>5.1610000000000003E-2</v>
       </c>
       <c r="C51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -6891,7 +6900,7 @@
       </c>
       <c r="B52" s="171">
         <f>B46</f>
-        <v>8.1171054826192204E-2</v>
+        <v>7.280697527553881E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -7607,10 +7616,11 @@
   <hyperlinks>
     <hyperlink ref="C38" r:id="rId1" display="https://www.macrotrends.net/global-metrics/countries/IND/india/inflation-rate-cpi" xr:uid="{BA07FAA1-2D10-4ED8-B014-28F87945E5D7}"/>
     <hyperlink ref="E18" r:id="rId2" xr:uid="{CA8A5249-5DC9-409F-99D2-B0195CBF1D1C}"/>
+    <hyperlink ref="C36" r:id="rId3" location="google_vignette" xr:uid="{CDA9C5D6-5D24-42AA-80E5-EAFF4C3BB5DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7624,10 +7634,10 @@
   <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S49" sqref="S49"/>
+      <selection pane="bottomRight" activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8047,83 +8057,83 @@
       </c>
       <c r="D10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="I10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="K10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="L10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="M10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="N10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="P10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="R10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="S10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="T10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="U10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="V10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="W10">
         <f>Parameters!$B$18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8160,87 +8170,87 @@
       </c>
       <c r="D12" s="30">
         <f>D9*D10</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="E12" s="30">
         <f t="shared" ref="E12:W12" si="0">E9*E10</f>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="G12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="H12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="I12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="J12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="K12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="L12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="M12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="N12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="O12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="P12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="Q12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="R12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="S12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="T12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="U12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="V12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="W12" s="30">
         <f t="shared" si="0"/>
-        <v>1221379.6032</v>
+        <v>1259547.7158000001</v>
       </c>
       <c r="Y12" s="30">
         <f>SUM(D12:W12)</f>
-        <v>24427592.063999999</v>
+        <v>25190954.315999992</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -8514,83 +8524,83 @@
       </c>
       <c r="D24" s="105">
         <f>D12+D21</f>
-        <v>960960.55319999997</v>
+        <v>999128.66580000008</v>
       </c>
       <c r="E24" s="105">
         <f t="shared" ref="E24:W24" si="2">E12+E21</f>
-        <v>955261.82602949999</v>
+        <v>993429.9386295001</v>
       </c>
       <c r="F24" s="105">
         <f t="shared" si="2"/>
-        <v>949268.98754973058</v>
+        <v>987437.10014973069</v>
       </c>
       <c r="G24" s="105">
         <f t="shared" si="2"/>
-        <v>1092966.8586760201</v>
+        <v>1131134.9712760202</v>
       </c>
       <c r="H24" s="105">
         <f t="shared" si="2"/>
-        <v>1086339.4769311375</v>
+        <v>1124507.5895311376</v>
       </c>
       <c r="I24" s="105">
         <f t="shared" si="2"/>
-        <v>1079370.0560144016</v>
+        <v>1117538.1686144017</v>
       </c>
       <c r="J24" s="105">
         <f t="shared" si="2"/>
-        <v>1072040.9432841528</v>
+        <v>1110209.0558841529</v>
       </c>
       <c r="K24" s="105">
         <f t="shared" si="2"/>
-        <v>1064333.575045896</v>
+        <v>1102501.6876458961</v>
       </c>
       <c r="L24" s="105">
         <f t="shared" si="2"/>
-        <v>1056228.4295328627</v>
+        <v>1094396.5421328628</v>
       </c>
       <c r="M24" s="105">
         <f t="shared" si="2"/>
-        <v>1047704.9774599017</v>
+        <v>1085873.0900599018</v>
       </c>
       <c r="N24" s="105">
         <f t="shared" si="2"/>
-        <v>1038741.6300254553</v>
+        <v>1076909.7426254554</v>
       </c>
       <c r="O24" s="105">
         <f t="shared" si="2"/>
-        <v>1029315.684229917</v>
+        <v>1067483.796829917</v>
       </c>
       <c r="P24" s="105">
         <f t="shared" si="2"/>
-        <v>1019403.2653718709</v>
+        <v>1057571.3779718711</v>
       </c>
       <c r="Q24" s="105">
         <f t="shared" si="2"/>
-        <v>1008979.2665765613</v>
+        <v>1047147.3791765614</v>
       </c>
       <c r="R24" s="105">
         <f t="shared" si="2"/>
-        <v>998017.28520342568</v>
+        <v>1036185.3978034258</v>
       </c>
       <c r="S24" s="105">
         <f t="shared" si="2"/>
-        <v>986489.55597162247</v>
+        <v>1024657.6685716226</v>
       </c>
       <c r="T24" s="105">
         <f t="shared" si="2"/>
-        <v>974366.88063416583</v>
+        <v>1012534.9932341659</v>
       </c>
       <c r="U24" s="105">
         <f t="shared" si="2"/>
-        <v>961618.55402254325</v>
+        <v>999786.66662254336</v>
       </c>
       <c r="V24" s="105">
         <f t="shared" si="2"/>
-        <v>948212.28627449472</v>
+        <v>986380.39887449483</v>
       </c>
       <c r="W24" s="105">
         <f t="shared" si="2"/>
-        <v>934114.12104796944</v>
+        <v>972282.23364796955</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8701,83 +8711,83 @@
       </c>
       <c r="D28" s="108">
         <f t="shared" ref="D28:W28" si="4">D24+D26</f>
-        <v>260442.48177142849</v>
+        <v>298610.5943714286</v>
       </c>
       <c r="E28" s="108">
         <f t="shared" si="4"/>
-        <v>254743.75460092851</v>
+        <v>292911.86720092862</v>
       </c>
       <c r="F28" s="108">
         <f t="shared" si="4"/>
-        <v>248750.9161211591</v>
+        <v>286919.02872115921</v>
       </c>
       <c r="G28" s="108">
         <f t="shared" si="4"/>
-        <v>392448.78724744858</v>
+        <v>430616.89984744869</v>
       </c>
       <c r="H28" s="108">
         <f t="shared" si="4"/>
-        <v>385821.40550256602</v>
+        <v>423989.51810256613</v>
       </c>
       <c r="I28" s="108">
         <f t="shared" si="4"/>
-        <v>378851.98458583013</v>
+        <v>417020.09718583024</v>
       </c>
       <c r="J28" s="108">
         <f t="shared" si="4"/>
-        <v>371522.8718555813</v>
+        <v>409690.98445558141</v>
       </c>
       <c r="K28" s="108">
         <f t="shared" si="4"/>
-        <v>363815.50361732452</v>
+        <v>401983.61621732463</v>
       </c>
       <c r="L28" s="108">
         <f t="shared" si="4"/>
-        <v>355710.35810429126</v>
+        <v>393878.47070429137</v>
       </c>
       <c r="M28" s="108">
         <f t="shared" si="4"/>
-        <v>347186.90603133023</v>
+        <v>385355.01863133034</v>
       </c>
       <c r="N28" s="108">
         <f t="shared" si="4"/>
-        <v>338223.55859688378</v>
+        <v>376391.67119688389</v>
       </c>
       <c r="O28" s="108">
         <f t="shared" si="4"/>
-        <v>328797.61280134553</v>
+        <v>366965.72540134552</v>
       </c>
       <c r="P28" s="108">
         <f t="shared" si="4"/>
-        <v>318885.19394329947</v>
+        <v>357053.30654329958</v>
       </c>
       <c r="Q28" s="108">
         <f t="shared" si="4"/>
-        <v>308461.19514798978</v>
+        <v>346629.30774798989</v>
       </c>
       <c r="R28" s="108">
         <f t="shared" si="4"/>
-        <v>998017.28520342568</v>
+        <v>1036185.3978034258</v>
       </c>
       <c r="S28" s="108">
         <f t="shared" si="4"/>
-        <v>986489.55597162247</v>
+        <v>1024657.6685716226</v>
       </c>
       <c r="T28" s="108">
         <f t="shared" si="4"/>
-        <v>974366.88063416583</v>
+        <v>1012534.9932341659</v>
       </c>
       <c r="U28" s="108">
         <f t="shared" si="4"/>
-        <v>961618.55402254325</v>
+        <v>999786.66662254336</v>
       </c>
       <c r="V28" s="108">
         <f t="shared" si="4"/>
-        <v>948212.28627449472</v>
+        <v>986380.39887449483</v>
       </c>
       <c r="W28" s="109">
         <f t="shared" si="4"/>
-        <v>934114.12104796944</v>
+        <v>972282.23364796955</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -8849,23 +8859,23 @@
       </c>
       <c r="S30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>50514.4700025161</v>
       </c>
       <c r="T30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>264109.82337649626</v>
       </c>
       <c r="U30" s="23">
         <f t="shared" si="5"/>
-        <v>100026.88080722072</v>
+        <v>271614.08956265333</v>
       </c>
       <c r="V30" s="23">
         <f t="shared" si="5"/>
-        <v>265299.19316203421</v>
+        <v>278920.97340788261</v>
       </c>
       <c r="W30" s="23">
         <f t="shared" si="5"/>
-        <v>273846.07207428606</v>
+        <v>286020.28800956887</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -8881,83 +8891,83 @@
       </c>
       <c r="D31" s="52">
         <f t="shared" ref="D31:W31" si="6">D24-D30</f>
-        <v>960960.55319999997</v>
+        <v>999128.66580000008</v>
       </c>
       <c r="E31" s="52">
         <f t="shared" si="6"/>
-        <v>955261.82602949999</v>
+        <v>993429.9386295001</v>
       </c>
       <c r="F31" s="52">
         <f t="shared" si="6"/>
-        <v>949268.98754973058</v>
+        <v>987437.10014973069</v>
       </c>
       <c r="G31" s="52">
         <f t="shared" si="6"/>
-        <v>1092966.8586760201</v>
+        <v>1131134.9712760202</v>
       </c>
       <c r="H31" s="52">
         <f t="shared" si="6"/>
-        <v>1086339.4769311375</v>
+        <v>1124507.5895311376</v>
       </c>
       <c r="I31" s="52">
         <f t="shared" si="6"/>
-        <v>1079370.0560144016</v>
+        <v>1117538.1686144017</v>
       </c>
       <c r="J31" s="52">
         <f t="shared" si="6"/>
-        <v>1072040.9432841528</v>
+        <v>1110209.0558841529</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="6"/>
-        <v>1064333.575045896</v>
+        <v>1102501.6876458961</v>
       </c>
       <c r="L31" s="52">
         <f t="shared" si="6"/>
-        <v>1056228.4295328627</v>
+        <v>1094396.5421328628</v>
       </c>
       <c r="M31" s="52">
         <f t="shared" si="6"/>
-        <v>1047704.9774599017</v>
+        <v>1085873.0900599018</v>
       </c>
       <c r="N31" s="52">
         <f t="shared" si="6"/>
-        <v>1038741.6300254553</v>
+        <v>1076909.7426254554</v>
       </c>
       <c r="O31" s="52">
         <f t="shared" si="6"/>
-        <v>1029315.684229917</v>
+        <v>1067483.796829917</v>
       </c>
       <c r="P31" s="52">
         <f t="shared" si="6"/>
-        <v>1019403.2653718709</v>
+        <v>1057571.3779718711</v>
       </c>
       <c r="Q31" s="52">
         <f t="shared" si="6"/>
-        <v>1008979.2665765613</v>
+        <v>1047147.3791765614</v>
       </c>
       <c r="R31" s="52">
         <f t="shared" si="6"/>
-        <v>998017.28520342568</v>
+        <v>1036185.3978034258</v>
       </c>
       <c r="S31" s="52">
         <f t="shared" si="6"/>
-        <v>986489.55597162247</v>
+        <v>974143.19856910652</v>
       </c>
       <c r="T31" s="52">
         <f t="shared" si="6"/>
-        <v>974366.88063416583</v>
+        <v>748425.16985766962</v>
       </c>
       <c r="U31" s="52">
         <f t="shared" si="6"/>
-        <v>861591.67321532255</v>
+        <v>728172.57705989003</v>
       </c>
       <c r="V31" s="52">
         <f t="shared" si="6"/>
-        <v>682913.09311246057</v>
+        <v>707459.42546661221</v>
       </c>
       <c r="W31" s="52">
         <f t="shared" si="6"/>
-        <v>660268.04897368338</v>
+        <v>686261.94563840074</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9026,83 +9036,83 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38">
         <f t="shared" ref="D36:W36" si="7">D24</f>
-        <v>960960.55319999997</v>
+        <v>999128.66580000008</v>
       </c>
       <c r="E36" s="38">
         <f t="shared" si="7"/>
-        <v>955261.82602949999</v>
+        <v>993429.9386295001</v>
       </c>
       <c r="F36" s="38">
         <f t="shared" si="7"/>
-        <v>949268.98754973058</v>
+        <v>987437.10014973069</v>
       </c>
       <c r="G36" s="38">
         <f t="shared" si="7"/>
-        <v>1092966.8586760201</v>
+        <v>1131134.9712760202</v>
       </c>
       <c r="H36" s="38">
         <f t="shared" si="7"/>
-        <v>1086339.4769311375</v>
+        <v>1124507.5895311376</v>
       </c>
       <c r="I36" s="38">
         <f t="shared" si="7"/>
-        <v>1079370.0560144016</v>
+        <v>1117538.1686144017</v>
       </c>
       <c r="J36" s="38">
         <f t="shared" si="7"/>
-        <v>1072040.9432841528</v>
+        <v>1110209.0558841529</v>
       </c>
       <c r="K36" s="38">
         <f t="shared" si="7"/>
-        <v>1064333.575045896</v>
+        <v>1102501.6876458961</v>
       </c>
       <c r="L36" s="38">
         <f t="shared" si="7"/>
-        <v>1056228.4295328627</v>
+        <v>1094396.5421328628</v>
       </c>
       <c r="M36" s="38">
         <f t="shared" si="7"/>
-        <v>1047704.9774599017</v>
+        <v>1085873.0900599018</v>
       </c>
       <c r="N36" s="38">
         <f t="shared" si="7"/>
-        <v>1038741.6300254553</v>
+        <v>1076909.7426254554</v>
       </c>
       <c r="O36" s="38">
         <f t="shared" si="7"/>
-        <v>1029315.684229917</v>
+        <v>1067483.796829917</v>
       </c>
       <c r="P36" s="38">
         <f t="shared" si="7"/>
-        <v>1019403.2653718709</v>
+        <v>1057571.3779718711</v>
       </c>
       <c r="Q36" s="38">
         <f t="shared" si="7"/>
-        <v>1008979.2665765613</v>
+        <v>1047147.3791765614</v>
       </c>
       <c r="R36" s="38">
         <f t="shared" si="7"/>
-        <v>998017.28520342568</v>
+        <v>1036185.3978034258</v>
       </c>
       <c r="S36" s="38">
         <f t="shared" si="7"/>
-        <v>986489.55597162247</v>
+        <v>1024657.6685716226</v>
       </c>
       <c r="T36" s="38">
         <f t="shared" si="7"/>
-        <v>974366.88063416583</v>
+        <v>1012534.9932341659</v>
       </c>
       <c r="U36" s="38">
         <f t="shared" si="7"/>
-        <v>961618.55402254325</v>
+        <v>999786.66662254336</v>
       </c>
       <c r="V36" s="38">
         <f t="shared" si="7"/>
-        <v>948212.28627449472</v>
+        <v>986380.39887449483</v>
       </c>
       <c r="W36" s="42">
         <f t="shared" si="7"/>
-        <v>934114.12104796944</v>
+        <v>972282.23364796955</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
@@ -9140,83 +9150,83 @@
       <c r="C38" s="37"/>
       <c r="D38" s="38">
         <f t="shared" ref="D38:F38" si="8">-D60</f>
-        <v>-723991.9472118686</v>
+        <v>-641963.30294648441</v>
       </c>
       <c r="E38" s="38">
         <f t="shared" si="8"/>
-        <v>-723991.9472118686</v>
+        <v>-641963.30294648441</v>
       </c>
       <c r="F38" s="38">
         <f t="shared" si="8"/>
-        <v>-723991.9472118686</v>
+        <v>-641963.30294648441</v>
       </c>
       <c r="G38" s="38">
         <f>-G60</f>
-        <v>-702698.06641151954</v>
+        <v>-623082.02933041134</v>
       </c>
       <c r="H38" s="38">
         <f t="shared" ref="H38:W38" si="9">-H60</f>
-        <v>-660110.30481082143</v>
+        <v>-585319.4820982652</v>
       </c>
       <c r="I38" s="38">
         <f t="shared" si="9"/>
-        <v>-617522.5432101232</v>
+        <v>-547556.93486611906</v>
       </c>
       <c r="J38" s="38">
         <f t="shared" si="9"/>
-        <v>-574934.78160942509</v>
+        <v>-509794.38763397292</v>
       </c>
       <c r="K38" s="38">
         <f t="shared" si="9"/>
-        <v>-532347.02000872698</v>
+        <v>-472031.84040182683</v>
       </c>
       <c r="L38" s="38">
         <f t="shared" si="9"/>
-        <v>-489759.25840802881</v>
+        <v>-434269.29316968069</v>
       </c>
       <c r="M38" s="38">
         <f t="shared" si="9"/>
-        <v>-447171.4968073307</v>
+        <v>-396506.74593753455</v>
       </c>
       <c r="N38" s="38">
         <f t="shared" si="9"/>
-        <v>-404583.73520663253</v>
+        <v>-358744.19870538841</v>
       </c>
       <c r="O38" s="38">
         <f t="shared" si="9"/>
-        <v>-361995.97360593441</v>
+        <v>-320981.65147324227</v>
       </c>
       <c r="P38" s="38">
         <f t="shared" si="9"/>
-        <v>-319408.21200523624</v>
+        <v>-283219.10424109618</v>
       </c>
       <c r="Q38" s="38">
         <f t="shared" si="9"/>
-        <v>-276820.45040453813</v>
+        <v>-245456.55700895001</v>
       </c>
       <c r="R38" s="38">
         <f t="shared" si="9"/>
-        <v>-234232.68880383996</v>
+        <v>-207694.0097768039</v>
       </c>
       <c r="S38" s="38">
         <f t="shared" si="9"/>
-        <v>-191644.92720314182</v>
+        <v>-169931.46254465776</v>
       </c>
       <c r="T38" s="38">
         <f t="shared" si="9"/>
-        <v>-149057.16560244368</v>
+        <v>-132168.91531251161</v>
       </c>
       <c r="U38" s="38">
         <f t="shared" si="9"/>
-        <v>-106469.40400174554</v>
+        <v>-94406.368080365501</v>
       </c>
       <c r="V38" s="38">
         <f t="shared" si="9"/>
-        <v>-63881.642401047378</v>
+        <v>-56643.820848219344</v>
       </c>
       <c r="W38" s="38">
         <f t="shared" si="9"/>
-        <v>-21293.88080034923</v>
+        <v>-18881.273616073206</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9318,83 +9328,83 @@
       <c r="C40" s="49"/>
       <c r="D40" s="50">
         <f>SUM(D36:D39)</f>
-        <v>-463549.46544044011</v>
+        <v>-343352.70857505582</v>
       </c>
       <c r="E40" s="50">
         <f t="shared" ref="E40:W40" si="10">SUM(E36:E39)</f>
-        <v>-469248.19261094008</v>
+        <v>-349051.43574555579</v>
       </c>
       <c r="F40" s="50">
         <f t="shared" si="10"/>
-        <v>-475241.0310907095</v>
+        <v>-355044.27422532521</v>
       </c>
       <c r="G40" s="50">
         <f t="shared" si="10"/>
-        <v>-310249.27916407096</v>
+        <v>-192465.12948296266</v>
       </c>
       <c r="H40" s="50">
         <f t="shared" si="10"/>
-        <v>-274288.89930825541</v>
+        <v>-161329.96399569907</v>
       </c>
       <c r="I40" s="50">
         <f t="shared" si="10"/>
-        <v>-238670.55862429307</v>
+        <v>-130536.83768028882</v>
       </c>
       <c r="J40" s="50">
         <f t="shared" si="10"/>
-        <v>-203411.90975384379</v>
+        <v>-100103.40317839151</v>
       </c>
       <c r="K40" s="50">
         <f t="shared" si="10"/>
-        <v>-168531.51639140246</v>
+        <v>-70048.224184502265</v>
       </c>
       <c r="L40" s="50">
         <f t="shared" si="10"/>
-        <v>-134048.90030373761</v>
+        <v>-40390.822465389385</v>
       </c>
       <c r="M40" s="50">
         <f t="shared" si="10"/>
-        <v>-99984.590776000521</v>
+        <v>-11151.727306204266</v>
       </c>
       <c r="N40" s="50">
         <f t="shared" si="10"/>
-        <v>-66360.176609748742</v>
+        <v>17647.472491495428</v>
       </c>
       <c r="O40" s="50">
         <f t="shared" si="10"/>
-        <v>-33198.360804588883</v>
+        <v>45984.0739281032</v>
       </c>
       <c r="P40" s="50">
         <f t="shared" si="10"/>
-        <v>-523.01806193671655</v>
+        <v>73834.202302203397</v>
       </c>
       <c r="Q40" s="50">
         <f t="shared" si="10"/>
-        <v>31640.744743451593</v>
+        <v>101172.75073903985</v>
       </c>
       <c r="R40" s="50">
         <f t="shared" si="10"/>
-        <v>763784.59639958572</v>
+        <v>828491.38802662189</v>
       </c>
       <c r="S40" s="50">
         <f t="shared" si="10"/>
-        <v>794844.62876848062</v>
+        <v>854726.20602696482</v>
       </c>
       <c r="T40" s="50">
         <f t="shared" si="10"/>
-        <v>825309.71503172209</v>
+        <v>880366.07792165433</v>
       </c>
       <c r="U40" s="50">
         <f t="shared" si="10"/>
-        <v>855149.15002079774</v>
+        <v>905380.29854217789</v>
       </c>
       <c r="V40" s="50">
         <f t="shared" si="10"/>
-        <v>884330.64387344732</v>
+        <v>929736.5780262755</v>
       </c>
       <c r="W40" s="50">
         <f t="shared" si="10"/>
-        <v>912820.24024762027</v>
+        <v>953400.96003189636</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
@@ -9410,71 +9420,71 @@
       </c>
       <c r="E41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!D42&lt;0,Kalkulation!D42,0),0)</f>
-        <v>-463549.46544044011</v>
+        <v>-343352.70857505582</v>
       </c>
       <c r="F41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!E42&lt;0,Kalkulation!E42,0),0)</f>
-        <v>-932797.65805138019</v>
+        <v>-692404.14432061161</v>
       </c>
       <c r="G41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!F42&lt;0,Kalkulation!F42,0),0)</f>
-        <v>-1408038.6891420898</v>
+        <v>-1047448.4185459368</v>
       </c>
       <c r="H41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!G42&lt;0,Kalkulation!G42,0),0)</f>
-        <v>-1718287.9683061608</v>
+        <v>-1239913.5480288994</v>
       </c>
       <c r="I41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!H42&lt;0,Kalkulation!H42,0),0)</f>
-        <v>-1992576.8676144162</v>
+        <v>-1401243.5120245984</v>
       </c>
       <c r="J41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!I42&lt;0,Kalkulation!I42,0),0)</f>
-        <v>-2231247.4262387091</v>
+        <v>-1531780.3497048873</v>
       </c>
       <c r="K41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!J42&lt;0,Kalkulation!J42,0),0)</f>
-        <v>-2434659.3359925528</v>
+        <v>-1631883.7528832788</v>
       </c>
       <c r="L41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!K42&lt;0,Kalkulation!K42,0),0)</f>
-        <v>-2603190.8523839554</v>
+        <v>-1701931.9770677811</v>
       </c>
       <c r="M41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!L42&lt;0,Kalkulation!L42,0),0)</f>
-        <v>-2737239.7526876931</v>
+        <v>-1742322.7995331706</v>
       </c>
       <c r="N41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!M42&lt;0,Kalkulation!M42,0),0)</f>
-        <v>-2837224.3434636937</v>
+        <v>-1753474.526839375</v>
       </c>
       <c r="O41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!N42&lt;0,Kalkulation!N42,0),0)</f>
-        <v>-2903584.5200734427</v>
+        <v>-1735827.0543478797</v>
       </c>
       <c r="P41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!O42&lt;0,Kalkulation!O42,0),0)</f>
-        <v>-2936782.8808780317</v>
+        <v>-1689842.9804197764</v>
       </c>
       <c r="Q41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!P42&lt;0,Kalkulation!P42,0),0)</f>
-        <v>-2937305.8989399686</v>
+        <v>-1616008.7781175729</v>
       </c>
       <c r="R41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!Q42&lt;0,Kalkulation!Q42,0),0)</f>
-        <v>-2905665.1541965171</v>
+        <v>-1514836.027378533</v>
       </c>
       <c r="S41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!R42&lt;0,Kalkulation!R42,0),0)</f>
-        <v>-2141880.5577969314</v>
+        <v>-686344.63935191114</v>
       </c>
       <c r="T41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!S42&lt;0,Kalkulation!S42,0),0)</f>
-        <v>-1347035.9290284507</v>
+        <v>0</v>
       </c>
       <c r="U41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!T42&lt;0,Kalkulation!T42,0),0)</f>
-        <v>-521726.21399672865</v>
+        <v>0</v>
       </c>
       <c r="V41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!U42&lt;0,Kalkulation!U42,0),0)</f>
@@ -9495,83 +9505,83 @@
       <c r="C42" s="45"/>
       <c r="D42" s="46">
         <f>D40-D41</f>
-        <v>-463549.46544044011</v>
+        <v>-343352.70857505582</v>
       </c>
       <c r="E42" s="46">
         <f>E40+E41</f>
-        <v>-932797.65805138019</v>
+        <v>-692404.14432061161</v>
       </c>
       <c r="F42" s="46">
         <f t="shared" ref="F42:W42" si="11">F40+F41</f>
-        <v>-1408038.6891420898</v>
+        <v>-1047448.4185459368</v>
       </c>
       <c r="G42" s="46">
         <f t="shared" si="11"/>
-        <v>-1718287.9683061608</v>
+        <v>-1239913.5480288994</v>
       </c>
       <c r="H42" s="46">
         <f t="shared" si="11"/>
-        <v>-1992576.8676144162</v>
+        <v>-1401243.5120245984</v>
       </c>
       <c r="I42" s="46">
         <f t="shared" si="11"/>
-        <v>-2231247.4262387091</v>
+        <v>-1531780.3497048873</v>
       </c>
       <c r="J42" s="46">
         <f t="shared" si="11"/>
-        <v>-2434659.3359925528</v>
+        <v>-1631883.7528832788</v>
       </c>
       <c r="K42" s="46">
         <f t="shared" si="11"/>
-        <v>-2603190.8523839554</v>
+        <v>-1701931.9770677811</v>
       </c>
       <c r="L42" s="46">
         <f t="shared" si="11"/>
-        <v>-2737239.7526876931</v>
+        <v>-1742322.7995331706</v>
       </c>
       <c r="M42" s="46">
         <f t="shared" si="11"/>
-        <v>-2837224.3434636937</v>
+        <v>-1753474.526839375</v>
       </c>
       <c r="N42" s="46">
         <f t="shared" si="11"/>
-        <v>-2903584.5200734427</v>
+        <v>-1735827.0543478797</v>
       </c>
       <c r="O42" s="46">
         <f t="shared" si="11"/>
-        <v>-2936782.8808780317</v>
+        <v>-1689842.9804197764</v>
       </c>
       <c r="P42" s="46">
         <f t="shared" si="11"/>
-        <v>-2937305.8989399686</v>
+        <v>-1616008.7781175729</v>
       </c>
       <c r="Q42" s="46">
         <f t="shared" si="11"/>
-        <v>-2905665.1541965171</v>
+        <v>-1514836.027378533</v>
       </c>
       <c r="R42" s="46">
         <f t="shared" si="11"/>
-        <v>-2141880.5577969314</v>
+        <v>-686344.63935191114</v>
       </c>
       <c r="S42" s="46">
         <f t="shared" si="11"/>
-        <v>-1347035.9290284507</v>
+        <v>168381.56667505368</v>
       </c>
       <c r="T42" s="46">
         <f t="shared" si="11"/>
-        <v>-521726.21399672865</v>
+        <v>880366.07792165433</v>
       </c>
       <c r="U42" s="46">
         <f t="shared" si="11"/>
-        <v>333422.93602406909</v>
+        <v>905380.29854217789</v>
       </c>
       <c r="V42" s="46">
         <f t="shared" si="11"/>
-        <v>884330.64387344732</v>
+        <v>929736.5780262755</v>
       </c>
       <c r="W42" s="46">
         <f t="shared" si="11"/>
-        <v>912820.24024762027</v>
+        <v>953400.96003189636</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -10269,22 +10279,24 @@
         <v>0</v>
       </c>
       <c r="S54" s="44">
-        <v>0</v>
+        <f t="shared" ref="S54:W54" si="20" xml:space="preserve"> S42*0.3</f>
+        <v>50514.4700025161</v>
       </c>
       <c r="T54" s="44">
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>264109.82337649626</v>
       </c>
       <c r="U54" s="44">
-        <f t="shared" ref="P54:W54" si="20" xml:space="preserve"> U42*0.3</f>
-        <v>100026.88080722072</v>
+        <f t="shared" si="20"/>
+        <v>271614.08956265333</v>
       </c>
       <c r="V54" s="44">
         <f t="shared" si="20"/>
-        <v>265299.19316203421</v>
+        <v>278920.97340788261</v>
       </c>
       <c r="W54" s="44">
         <f t="shared" si="20"/>
-        <v>273846.07207428606</v>
+        <v>286020.28800956887</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10529,83 +10541,83 @@
       <c r="C60" s="17"/>
       <c r="D60" s="54">
         <f>IF(Parameters!$B$32=$A$63,D67,IF(Parameters!$B$32=$A$70,D74))</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="E60" s="54">
         <f>IF(Parameters!$B$32=$A$63,E67,IF(Parameters!$B$32=$A$70,E74))</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="F60" s="54">
         <f>IF(Parameters!$B$32=$A$63,F67,IF(Parameters!$B$32=$A$70,F74))</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="G60" s="54">
         <f>IF(Parameters!$B$32=$A$63,G67,IF(Parameters!$B$32=$A$70,G74))</f>
-        <v>702698.06641151954</v>
+        <v>623082.02933041134</v>
       </c>
       <c r="H60" s="54">
         <f>IF(Parameters!$B$32=$A$63,H67,IF(Parameters!$B$32=$A$70,H74))</f>
-        <v>660110.30481082143</v>
+        <v>585319.4820982652</v>
       </c>
       <c r="I60" s="54">
         <f>IF(Parameters!$B$32=$A$63,I67,IF(Parameters!$B$32=$A$70,I74))</f>
-        <v>617522.5432101232</v>
+        <v>547556.93486611906</v>
       </c>
       <c r="J60" s="54">
         <f>IF(Parameters!$B$32=$A$63,J67,IF(Parameters!$B$32=$A$70,J74))</f>
-        <v>574934.78160942509</v>
+        <v>509794.38763397292</v>
       </c>
       <c r="K60" s="54">
         <f>IF(Parameters!$B$32=$A$63,K67,IF(Parameters!$B$32=$A$70,K74))</f>
-        <v>532347.02000872698</v>
+        <v>472031.84040182683</v>
       </c>
       <c r="L60" s="54">
         <f>IF(Parameters!$B$32=$A$63,L67,IF(Parameters!$B$32=$A$70,L74))</f>
-        <v>489759.25840802881</v>
+        <v>434269.29316968069</v>
       </c>
       <c r="M60" s="54">
         <f>IF(Parameters!$B$32=$A$63,M67,IF(Parameters!$B$32=$A$70,M74))</f>
-        <v>447171.4968073307</v>
+        <v>396506.74593753455</v>
       </c>
       <c r="N60" s="54">
         <f>IF(Parameters!$B$32=$A$63,N67,IF(Parameters!$B$32=$A$70,N74))</f>
-        <v>404583.73520663253</v>
+        <v>358744.19870538841</v>
       </c>
       <c r="O60" s="54">
         <f>IF(Parameters!$B$32=$A$63,O67,IF(Parameters!$B$32=$A$70,O74))</f>
-        <v>361995.97360593441</v>
+        <v>320981.65147324227</v>
       </c>
       <c r="P60" s="54">
         <f>IF(Parameters!$B$32=$A$63,P67,IF(Parameters!$B$32=$A$70,P74))</f>
-        <v>319408.21200523624</v>
+        <v>283219.10424109618</v>
       </c>
       <c r="Q60" s="54">
         <f>IF(Parameters!$B$32=$A$63,Q67,IF(Parameters!$B$32=$A$70,Q74))</f>
-        <v>276820.45040453813</v>
+        <v>245456.55700895001</v>
       </c>
       <c r="R60" s="54">
         <f>IF(Parameters!$B$32=$A$63,R67,IF(Parameters!$B$32=$A$70,R74))</f>
-        <v>234232.68880383996</v>
+        <v>207694.0097768039</v>
       </c>
       <c r="S60" s="54">
         <f>IF(Parameters!$B$32=$A$63,S67,IF(Parameters!$B$32=$A$70,S74))</f>
-        <v>191644.92720314182</v>
+        <v>169931.46254465776</v>
       </c>
       <c r="T60" s="54">
         <f>IF(Parameters!$B$32=$A$63,T67,IF(Parameters!$B$32=$A$70,T74))</f>
-        <v>149057.16560244368</v>
+        <v>132168.91531251161</v>
       </c>
       <c r="U60" s="54">
         <f>IF(Parameters!$B$32=$A$63,U67,IF(Parameters!$B$32=$A$70,U74))</f>
-        <v>106469.40400174554</v>
+        <v>94406.368080365501</v>
       </c>
       <c r="V60" s="54">
         <f>IF(Parameters!$B$32=$A$63,V67,IF(Parameters!$B$32=$A$70,V74))</f>
-        <v>63881.642401047378</v>
+        <v>56643.820848219344</v>
       </c>
       <c r="W60" s="54">
         <f>IF(Parameters!$B$32=$A$63,W67,IF(Parameters!$B$32=$A$70,W74))</f>
-        <v>21293.88080034923</v>
+        <v>18881.273616073206</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10618,83 +10630,83 @@
       <c r="C61" s="55"/>
       <c r="D61" s="56">
         <f>IF(Parameters!$B$32=$A$63,D68,IF(Parameters!$B$32=$A$70,D75))</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="E61" s="56">
         <f>IF(Parameters!$B$32=$A$63,E68,IF(Parameters!$B$32=$A$70,E75))</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="F61" s="56">
         <f>IF(Parameters!$B$32=$A$63,F68,IF(Parameters!$B$32=$A$70,F75))</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="G61" s="56">
         <f>IF(Parameters!$B$32=$A$63,G68,IF(Parameters!$B$32=$A$70,G75))</f>
-        <v>1122281.9245464767</v>
+        <v>1042665.8874653685</v>
       </c>
       <c r="H61" s="56">
         <f>IF(Parameters!$B$32=$A$63,H68,IF(Parameters!$B$32=$A$70,H75))</f>
-        <v>1079694.1629457786</v>
+        <v>1004903.3402332223</v>
       </c>
       <c r="I61" s="56">
         <f>IF(Parameters!$B$32=$A$63,I68,IF(Parameters!$B$32=$A$70,I75))</f>
-        <v>1037106.4013450803</v>
+        <v>967140.79300107621</v>
       </c>
       <c r="J61" s="56">
         <f>IF(Parameters!$B$32=$A$63,J68,IF(Parameters!$B$32=$A$70,J75))</f>
-        <v>994518.63974438224</v>
+        <v>929378.24576893006</v>
       </c>
       <c r="K61" s="56">
         <f>IF(Parameters!$B$32=$A$63,K68,IF(Parameters!$B$32=$A$70,K75))</f>
-        <v>951930.87814368412</v>
+        <v>891615.69853678392</v>
       </c>
       <c r="L61" s="56">
         <f>IF(Parameters!$B$32=$A$63,L68,IF(Parameters!$B$32=$A$70,L75))</f>
-        <v>909343.1165429859</v>
+        <v>853853.15130463778</v>
       </c>
       <c r="M61" s="56">
         <f>IF(Parameters!$B$32=$A$63,M68,IF(Parameters!$B$32=$A$70,M75))</f>
-        <v>866755.35494228778</v>
+        <v>816090.60407249164</v>
       </c>
       <c r="N61" s="56">
         <f>IF(Parameters!$B$32=$A$63,N68,IF(Parameters!$B$32=$A$70,N75))</f>
-        <v>824167.59334158967</v>
+        <v>778328.0568403455</v>
       </c>
       <c r="O61" s="56">
         <f>IF(Parameters!$B$32=$A$63,O68,IF(Parameters!$B$32=$A$70,O75))</f>
-        <v>781579.83174089156</v>
+        <v>740565.50960819935</v>
       </c>
       <c r="P61" s="56">
         <f>IF(Parameters!$B$32=$A$63,P68,IF(Parameters!$B$32=$A$70,P75))</f>
-        <v>738992.07014019345</v>
+        <v>702802.96237605333</v>
       </c>
       <c r="Q61" s="56">
         <f>IF(Parameters!$B$32=$A$63,Q68,IF(Parameters!$B$32=$A$70,Q75))</f>
-        <v>696404.30853949534</v>
+        <v>665040.41514390719</v>
       </c>
       <c r="R61" s="56">
         <f>IF(Parameters!$B$32=$A$63,R68,IF(Parameters!$B$32=$A$70,R75))</f>
-        <v>653816.54693879711</v>
+        <v>627277.86791176104</v>
       </c>
       <c r="S61" s="56">
         <f>IF(Parameters!$B$32=$A$63,S68,IF(Parameters!$B$32=$A$70,S75))</f>
-        <v>611228.785338099</v>
+        <v>589515.3206796149</v>
       </c>
       <c r="T61" s="56">
         <f>IF(Parameters!$B$32=$A$63,T68,IF(Parameters!$B$32=$A$70,T75))</f>
-        <v>568641.02373740077</v>
+        <v>551752.77344746876</v>
       </c>
       <c r="U61" s="56">
         <f>IF(Parameters!$B$32=$A$63,U68,IF(Parameters!$B$32=$A$70,U75))</f>
-        <v>526053.26213670266</v>
+        <v>513990.22621532262</v>
       </c>
       <c r="V61" s="56">
         <f>IF(Parameters!$B$32=$A$63,V68,IF(Parameters!$B$32=$A$70,V75))</f>
-        <v>483465.50053600455</v>
+        <v>476227.67898317648</v>
       </c>
       <c r="W61" s="56">
         <f>IF(Parameters!$B$32=$A$63,W68,IF(Parameters!$B$32=$A$70,W75))</f>
-        <v>440877.73893530638</v>
+        <v>438465.13175103033</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10929,83 +10941,83 @@
       <c r="C67" s="17"/>
       <c r="D67" s="54">
         <f>(D65-D66/2)*Parameters!$B$38</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="E67" s="54">
         <f>(E65-E66/2)*Parameters!$B$38</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="F67" s="54">
         <f>(F65-F66/2)*Parameters!$B$38</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="G67" s="54">
         <f>(G65-G66/2)*Parameters!$B$38</f>
-        <v>702698.06641151954</v>
+        <v>623082.02933041134</v>
       </c>
       <c r="H67" s="54">
         <f>(H65-H66/2)*Parameters!$B$38</f>
-        <v>660110.30481082143</v>
+        <v>585319.4820982652</v>
       </c>
       <c r="I67" s="54">
         <f>(I65-I66/2)*Parameters!$B$38</f>
-        <v>617522.5432101232</v>
+        <v>547556.93486611906</v>
       </c>
       <c r="J67" s="54">
         <f>(J65-J66/2)*Parameters!$B$38</f>
-        <v>574934.78160942509</v>
+        <v>509794.38763397292</v>
       </c>
       <c r="K67" s="54">
         <f>(K65-K66/2)*Parameters!$B$38</f>
-        <v>532347.02000872698</v>
+        <v>472031.84040182683</v>
       </c>
       <c r="L67" s="54">
         <f>(L65-L66/2)*Parameters!$B$38</f>
-        <v>489759.25840802881</v>
+        <v>434269.29316968069</v>
       </c>
       <c r="M67" s="54">
         <f>(M65-M66/2)*Parameters!$B$38</f>
-        <v>447171.4968073307</v>
+        <v>396506.74593753455</v>
       </c>
       <c r="N67" s="54">
         <f>(N65-N66/2)*Parameters!$B$38</f>
-        <v>404583.73520663253</v>
+        <v>358744.19870538841</v>
       </c>
       <c r="O67" s="54">
         <f>(O65-O66/2)*Parameters!$B$38</f>
-        <v>361995.97360593441</v>
+        <v>320981.65147324227</v>
       </c>
       <c r="P67" s="54">
         <f>(P65-P66/2)*Parameters!$B$38</f>
-        <v>319408.21200523624</v>
+        <v>283219.10424109618</v>
       </c>
       <c r="Q67" s="54">
         <f>(Q65-Q66/2)*Parameters!$B$38</f>
-        <v>276820.45040453813</v>
+        <v>245456.55700895001</v>
       </c>
       <c r="R67" s="54">
         <f>(R65-R66/2)*Parameters!$B$38</f>
-        <v>234232.68880383996</v>
+        <v>207694.0097768039</v>
       </c>
       <c r="S67" s="54">
         <f>(S65-S66/2)*Parameters!$B$38</f>
-        <v>191644.92720314182</v>
+        <v>169931.46254465776</v>
       </c>
       <c r="T67" s="54">
         <f>(T65-T66/2)*Parameters!$B$38</f>
-        <v>149057.16560244368</v>
+        <v>132168.91531251161</v>
       </c>
       <c r="U67" s="54">
         <f>(U65-U66/2)*Parameters!$B$38</f>
-        <v>106469.40400174554</v>
+        <v>94406.368080365501</v>
       </c>
       <c r="V67" s="54">
         <f>(V65-V66/2)*Parameters!$B$38</f>
-        <v>63881.642401047378</v>
+        <v>56643.820848219344</v>
       </c>
       <c r="W67" s="54">
         <f>(W65-W66/2)*Parameters!$B$38</f>
-        <v>21293.88080034923</v>
+        <v>18881.273616073206</v>
       </c>
       <c r="Y67" s="15"/>
     </row>
@@ -11019,87 +11031,87 @@
       <c r="C68" s="55"/>
       <c r="D68" s="56">
         <f t="shared" ref="D68:F68" si="22">D66+D67</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="E68" s="56">
         <f t="shared" si="22"/>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="F68" s="56">
         <f t="shared" si="22"/>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="G68" s="56">
         <f t="shared" ref="G68:W68" si="23">G66+G67</f>
-        <v>1122281.9245464767</v>
+        <v>1042665.8874653685</v>
       </c>
       <c r="H68" s="56">
         <f t="shared" si="23"/>
-        <v>1079694.1629457786</v>
+        <v>1004903.3402332223</v>
       </c>
       <c r="I68" s="56">
         <f t="shared" si="23"/>
-        <v>1037106.4013450803</v>
+        <v>967140.79300107621</v>
       </c>
       <c r="J68" s="56">
         <f t="shared" si="23"/>
-        <v>994518.63974438224</v>
+        <v>929378.24576893006</v>
       </c>
       <c r="K68" s="56">
         <f t="shared" si="23"/>
-        <v>951930.87814368412</v>
+        <v>891615.69853678392</v>
       </c>
       <c r="L68" s="56">
         <f t="shared" si="23"/>
-        <v>909343.1165429859</v>
+        <v>853853.15130463778</v>
       </c>
       <c r="M68" s="56">
         <f t="shared" si="23"/>
-        <v>866755.35494228778</v>
+        <v>816090.60407249164</v>
       </c>
       <c r="N68" s="56">
         <f t="shared" si="23"/>
-        <v>824167.59334158967</v>
+        <v>778328.0568403455</v>
       </c>
       <c r="O68" s="56">
         <f t="shared" si="23"/>
-        <v>781579.83174089156</v>
+        <v>740565.50960819935</v>
       </c>
       <c r="P68" s="56">
         <f t="shared" si="23"/>
-        <v>738992.07014019345</v>
+        <v>702802.96237605333</v>
       </c>
       <c r="Q68" s="56">
         <f t="shared" si="23"/>
-        <v>696404.30853949534</v>
+        <v>665040.41514390719</v>
       </c>
       <c r="R68" s="56">
         <f t="shared" si="23"/>
-        <v>653816.54693879711</v>
+        <v>627277.86791176104</v>
       </c>
       <c r="S68" s="56">
         <f t="shared" si="23"/>
-        <v>611228.785338099</v>
+        <v>589515.3206796149</v>
       </c>
       <c r="T68" s="56">
         <f t="shared" si="23"/>
-        <v>568641.02373740077</v>
+        <v>551752.77344746876</v>
       </c>
       <c r="U68" s="56">
         <f t="shared" si="23"/>
-        <v>526053.26213670266</v>
+        <v>513990.22621532262</v>
       </c>
       <c r="V68" s="56">
         <f t="shared" si="23"/>
-        <v>483465.50053600455</v>
+        <v>476227.67898317648</v>
       </c>
       <c r="W68" s="56">
         <f t="shared" si="23"/>
-        <v>440877.73893530638</v>
+        <v>438465.13175103033</v>
       </c>
       <c r="Y68" s="158">
         <f>NPV(Parameters!$B$46,Kalkulation!D68:W68)-Parameters!$B$39</f>
-        <v>881361.30216161627</v>
+        <v>769495.1851653615</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11183,67 +11195,67 @@
       </c>
       <c r="H72" s="53">
         <f t="shared" ref="H72:W72" si="24">G72-G73</f>
-        <v>6959428.2842642916</v>
+        <v>6940006.7105871122</v>
       </c>
       <c r="I72" s="53">
         <f t="shared" si="24"/>
-        <v>6768321.0038752686</v>
+        <v>6729725.1338863084</v>
       </c>
       <c r="J72" s="53">
         <f t="shared" si="24"/>
-        <v>6557816.3345267605</v>
+        <v>6500518.2152824327</v>
       </c>
       <c r="K72" s="53">
         <f t="shared" si="24"/>
-        <v>6325945.4412393784</v>
+        <v>6250682.6740042083</v>
       </c>
       <c r="L72" s="53">
         <f t="shared" si="24"/>
-        <v>6070539.6522833267</v>
+        <v>5978361.9340109434</v>
       </c>
       <c r="M72" s="53">
         <f t="shared" si="24"/>
-        <v>5789210.1757482365</v>
+        <v>5681532.3274182845</v>
       </c>
       <c r="N72" s="53">
         <f t="shared" si="24"/>
-        <v>5479325.7573448345</v>
+        <v>5357988.0562322866</v>
       </c>
       <c r="O72" s="53">
         <f t="shared" si="24"/>
-        <v>5137988.0704734866</v>
+        <v>5005324.8006395483</v>
       </c>
       <c r="P72" s="53">
         <f t="shared" si="24"/>
-        <v>4762004.6083846968</v>
+        <v>4620921.8520434638</v>
       </c>
       <c r="Q72" s="53">
         <f t="shared" si="24"/>
-        <v>4347858.8248938955</v>
+        <v>4201922.6380737321</v>
       </c>
       <c r="R72" s="53">
         <f t="shared" si="24"/>
-        <v>3891677.2443787777</v>
+        <v>3745213.4948467244</v>
       </c>
       <c r="S72" s="53">
         <f t="shared" si="24"/>
-        <v>3389193.2334413752</v>
+        <v>3247400.528729286</v>
       </c>
       <c r="T72" s="53">
         <f t="shared" si="24"/>
-        <v>2835707.0953938263</v>
+        <v>2704784.3956612782</v>
       </c>
       <c r="U72" s="53">
         <f t="shared" si="24"/>
-        <v>2226042.114334451</v>
+        <v>2113332.8106171498</v>
       </c>
       <c r="V72" s="53">
         <f t="shared" si="24"/>
-        <v>1554496.1376975493</v>
+        <v>1468650.5829190495</v>
       </c>
       <c r="W72" s="53">
         <f t="shared" si="24"/>
-        <v>814788.24443200207</v>
+        <v>765946.95472812036</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
@@ -11259,71 +11271,71 @@
       <c r="F73" s="13"/>
       <c r="G73" s="53">
         <f t="shared" ref="G73:W73" si="25">IF(G72&lt;&gt;0,G75-G74,0)</f>
-        <v>173497.30402997986</v>
+        <v>192918.87770715926</v>
       </c>
       <c r="H73" s="53">
         <f t="shared" si="25"/>
-        <v>191107.28038902278</v>
+        <v>210281.57670080359</v>
       </c>
       <c r="I73" s="53">
         <f t="shared" si="25"/>
-        <v>210504.66934850859</v>
+        <v>229206.91860387591</v>
       </c>
       <c r="J73" s="53">
         <f t="shared" si="25"/>
-        <v>231870.89328738221</v>
+        <v>249835.54127822479</v>
       </c>
       <c r="K73" s="53">
         <f t="shared" si="25"/>
-        <v>255405.78895605146</v>
+        <v>272320.7399932649</v>
       </c>
       <c r="L73" s="53">
         <f t="shared" si="25"/>
-        <v>281329.47653509071</v>
+        <v>296829.60659265879</v>
       </c>
       <c r="M73" s="53">
         <f t="shared" si="25"/>
-        <v>309884.41840340244</v>
+        <v>323544.27118599811</v>
       </c>
       <c r="N73" s="53">
         <f t="shared" si="25"/>
-        <v>341337.68687134772</v>
+        <v>352663.25559273793</v>
       </c>
       <c r="O73" s="53">
         <f t="shared" si="25"/>
-        <v>375983.46208878956</v>
+        <v>384402.94859608432</v>
       </c>
       <c r="P73" s="53">
         <f t="shared" si="25"/>
-        <v>414145.7834908017</v>
+        <v>418999.21396973194</v>
       </c>
       <c r="Q73" s="53">
         <f t="shared" si="25"/>
-        <v>456181.58051511802</v>
+        <v>456709.14322700782</v>
       </c>
       <c r="R73" s="53">
         <f t="shared" si="25"/>
-        <v>502484.01093740249</v>
+        <v>497812.96611743851</v>
       </c>
       <c r="S73" s="53">
         <f t="shared" si="25"/>
-        <v>553486.13804754883</v>
+        <v>542616.13306800788</v>
       </c>
       <c r="T73" s="53">
         <f t="shared" si="25"/>
-        <v>609664.98105937499</v>
+        <v>591451.58504412859</v>
       </c>
       <c r="U73" s="53">
         <f t="shared" si="25"/>
-        <v>671545.97663690173</v>
+        <v>644682.22769810027</v>
       </c>
       <c r="V73" s="53">
         <f t="shared" si="25"/>
-        <v>739707.89326554723</v>
+        <v>702703.62819092919</v>
       </c>
       <c r="W73" s="53">
         <f t="shared" si="25"/>
-        <v>814788.24443200021</v>
+        <v>765946.95472811279</v>
       </c>
     </row>
     <row r="74" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11336,83 +11348,83 @@
       <c r="C74" s="13"/>
       <c r="D74" s="53">
         <f>D72*Parameters!$B$38</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="E74" s="53">
         <f>E72*Parameters!$B$38</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="F74" s="53">
         <f>F72*Parameters!$B$38</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="G74" s="53">
         <f>G72*Parameters!$B$38</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="H74" s="53">
         <f>H72*Parameters!$B$38</f>
-        <v>706381.97085282567</v>
+        <v>624600.60395284009</v>
       </c>
       <c r="I74" s="53">
         <f>I72*Parameters!$B$38</f>
-        <v>686984.58189333987</v>
+        <v>605675.26204976777</v>
       </c>
       <c r="J74" s="53">
         <f>J72*Parameters!$B$38</f>
-        <v>665618.35795446625</v>
+        <v>585046.63937541889</v>
       </c>
       <c r="K74" s="53">
         <f>K72*Parameters!$B$38</f>
-        <v>642083.462285797</v>
+        <v>562561.44066037878</v>
       </c>
       <c r="L74" s="53">
         <f>L72*Parameters!$B$38</f>
-        <v>616159.77470675774</v>
+        <v>538052.57406098489</v>
       </c>
       <c r="M74" s="53">
         <f>M72*Parameters!$B$38</f>
-        <v>587604.83283844602</v>
+        <v>511337.90946764557</v>
       </c>
       <c r="N74" s="53">
         <f>N72*Parameters!$B$38</f>
-        <v>556151.56437050074</v>
+        <v>482218.92506090575</v>
       </c>
       <c r="O74" s="53">
         <f>O72*Parameters!$B$38</f>
-        <v>521505.7891530589</v>
+        <v>450479.23205755936</v>
       </c>
       <c r="P74" s="53">
         <f>P72*Parameters!$B$38</f>
-        <v>483343.46775104676</v>
+        <v>415882.96668391174</v>
       </c>
       <c r="Q74" s="53">
         <f>Q72*Parameters!$B$38</f>
-        <v>441307.67072673043</v>
+        <v>378173.03742663586</v>
       </c>
       <c r="R74" s="53">
         <f>R72*Parameters!$B$38</f>
-        <v>395005.24030444596</v>
+        <v>337069.21453620517</v>
       </c>
       <c r="S74" s="53">
         <f>S72*Parameters!$B$38</f>
-        <v>344003.11319429963</v>
+        <v>292266.04758563574</v>
       </c>
       <c r="T74" s="53">
         <f>T72*Parameters!$B$38</f>
-        <v>287824.27018247341</v>
+        <v>243430.59560951503</v>
       </c>
       <c r="U74" s="53">
         <f>U72*Parameters!$B$38</f>
-        <v>225943.27460494678</v>
+        <v>190199.95295554347</v>
       </c>
       <c r="V74" s="53">
         <f>V72*Parameters!$B$38</f>
-        <v>157781.35797630125</v>
+        <v>132178.55246271446</v>
       </c>
       <c r="W74" s="53">
         <f>W72*Parameters!$B$38</f>
-        <v>82701.006809848215</v>
+        <v>68935.225925530831</v>
       </c>
       <c r="Y74" s="15"/>
     </row>
@@ -11426,87 +11438,87 @@
       <c r="C75" s="119"/>
       <c r="D75" s="120">
         <f>D73+D74</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="E75" s="120">
         <f t="shared" ref="E75:F75" si="26">E73+E74</f>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="F75" s="120">
         <f t="shared" si="26"/>
-        <v>723991.9472118686</v>
+        <v>641963.30294648441</v>
       </c>
       <c r="G75" s="120">
         <f>IF(D4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="H75" s="120">
         <f>IF(E4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="I75" s="120">
         <f>IF(F4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="J75" s="120">
         <f>IF(G4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="K75" s="120">
         <f>IF(H4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="L75" s="120">
         <f>IF(I4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="M75" s="120">
         <f>IF(J4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="N75" s="120">
         <f>IF(K4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="O75" s="120">
         <f>IF(L4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="P75" s="120">
         <f>IF(M4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="Q75" s="120">
         <f>IF(N4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="R75" s="120">
         <f>IF(O4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="S75" s="120">
         <f>IF(P4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="T75" s="120">
         <f>IF(Q4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="U75" s="120">
         <f>IF(R4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="V75" s="120">
         <f>IF(S4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="W75" s="120">
         <f>IF(T4&lt;=Parameters!$B$35,-PMT(Parameters!$B$38,Parameters!$B$35,Parameters!$B$39),0)</f>
-        <v>897489.25124184845</v>
+        <v>834882.18065364368</v>
       </c>
       <c r="Y75" s="158">
         <f>NPV(Parameters!$B$46,Kalkulation!D75:W75)-Parameters!$B$39</f>
-        <v>1156316.8861100292</v>
+        <v>1018409.5538355699</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
@@ -11525,83 +11537,83 @@
       </c>
       <c r="D78" s="23">
         <f>D31-D61</f>
-        <v>236968.60598813137</v>
+        <v>357165.36285351566</v>
       </c>
       <c r="E78" s="23">
         <f t="shared" ref="E78:W78" si="27">E31-E61</f>
-        <v>231269.8788176314</v>
+        <v>351466.63568301569</v>
       </c>
       <c r="F78" s="23">
         <f t="shared" si="27"/>
-        <v>225277.04033786198</v>
+        <v>345473.79720324627</v>
       </c>
       <c r="G78" s="23">
         <f t="shared" si="27"/>
-        <v>-29315.06587045663</v>
+        <v>88469.083810651675</v>
       </c>
       <c r="H78" s="23">
         <f t="shared" si="27"/>
-        <v>6645.3139853589237</v>
+        <v>119604.24929791526</v>
       </c>
       <c r="I78" s="23">
         <f t="shared" si="27"/>
-        <v>42263.654669321259</v>
+        <v>150397.37561332551</v>
       </c>
       <c r="J78" s="23">
         <f t="shared" si="27"/>
-        <v>77522.303539770539</v>
+        <v>180830.81011522282</v>
       </c>
       <c r="K78" s="23">
         <f t="shared" si="27"/>
-        <v>112402.69690221187</v>
+        <v>210885.98910911218</v>
       </c>
       <c r="L78" s="23">
         <f t="shared" si="27"/>
-        <v>146885.31298987684</v>
+        <v>240543.39082822506</v>
       </c>
       <c r="M78" s="23">
         <f t="shared" si="27"/>
-        <v>180949.62251761393</v>
+        <v>269782.48598741018</v>
       </c>
       <c r="N78" s="23">
         <f t="shared" si="27"/>
-        <v>214574.03668386559</v>
+        <v>298581.68578510988</v>
       </c>
       <c r="O78" s="23">
         <f t="shared" si="27"/>
-        <v>247735.85248902545</v>
+        <v>326918.28722171765</v>
       </c>
       <c r="P78" s="23">
         <f t="shared" si="27"/>
-        <v>280411.1952316775</v>
+        <v>354768.41559581773</v>
       </c>
       <c r="Q78" s="23">
         <f t="shared" si="27"/>
-        <v>312574.95803706592</v>
+        <v>382106.96403265418</v>
       </c>
       <c r="R78" s="23">
         <f t="shared" si="27"/>
-        <v>344200.73826462857</v>
+        <v>408907.52989166474</v>
       </c>
       <c r="S78" s="23">
         <f t="shared" si="27"/>
-        <v>375260.77063352347</v>
+        <v>384627.87788949162</v>
       </c>
       <c r="T78" s="23">
         <f t="shared" si="27"/>
-        <v>405725.85689676506</v>
+        <v>196672.39641020086</v>
       </c>
       <c r="U78" s="23">
         <f t="shared" si="27"/>
-        <v>335538.41107861989</v>
+        <v>214182.35084456741</v>
       </c>
       <c r="V78" s="23">
         <f t="shared" si="27"/>
-        <v>199447.59257645602</v>
+        <v>231231.74648343574</v>
       </c>
       <c r="W78" s="23">
         <f t="shared" si="27"/>
-        <v>219390.31003837701</v>
+        <v>247796.8138873704</v>
       </c>
       <c r="Y78" s="23"/>
     </row>
@@ -11616,83 +11628,83 @@
       <c r="B81" s="83"/>
       <c r="D81" s="24">
         <f>D78</f>
-        <v>236968.60598813137</v>
+        <v>357165.36285351566</v>
       </c>
       <c r="E81" s="24">
         <f t="shared" ref="E81:W81" si="28">E78</f>
-        <v>231269.8788176314</v>
+        <v>351466.63568301569</v>
       </c>
       <c r="F81" s="24">
         <f t="shared" si="28"/>
-        <v>225277.04033786198</v>
+        <v>345473.79720324627</v>
       </c>
       <c r="G81" s="24">
         <f t="shared" si="28"/>
-        <v>-29315.06587045663</v>
+        <v>88469.083810651675</v>
       </c>
       <c r="H81" s="24">
         <f t="shared" si="28"/>
-        <v>6645.3139853589237</v>
+        <v>119604.24929791526</v>
       </c>
       <c r="I81" s="24">
         <f t="shared" si="28"/>
-        <v>42263.654669321259</v>
+        <v>150397.37561332551</v>
       </c>
       <c r="J81" s="24">
         <f t="shared" si="28"/>
-        <v>77522.303539770539</v>
+        <v>180830.81011522282</v>
       </c>
       <c r="K81" s="24">
         <f t="shared" si="28"/>
-        <v>112402.69690221187</v>
+        <v>210885.98910911218</v>
       </c>
       <c r="L81" s="24">
         <f t="shared" si="28"/>
-        <v>146885.31298987684</v>
+        <v>240543.39082822506</v>
       </c>
       <c r="M81" s="24">
         <f t="shared" si="28"/>
-        <v>180949.62251761393</v>
+        <v>269782.48598741018</v>
       </c>
       <c r="N81" s="24">
         <f t="shared" si="28"/>
-        <v>214574.03668386559</v>
+        <v>298581.68578510988</v>
       </c>
       <c r="O81" s="24">
         <f t="shared" si="28"/>
-        <v>247735.85248902545</v>
+        <v>326918.28722171765</v>
       </c>
       <c r="P81" s="24">
         <f t="shared" si="28"/>
-        <v>280411.1952316775</v>
+        <v>354768.41559581773</v>
       </c>
       <c r="Q81" s="24">
         <f t="shared" si="28"/>
-        <v>312574.95803706592</v>
+        <v>382106.96403265418</v>
       </c>
       <c r="R81" s="24">
         <f t="shared" si="28"/>
-        <v>344200.73826462857</v>
+        <v>408907.52989166474</v>
       </c>
       <c r="S81" s="24">
         <f t="shared" si="28"/>
-        <v>375260.77063352347</v>
+        <v>384627.87788949162</v>
       </c>
       <c r="T81" s="24">
         <f t="shared" si="28"/>
-        <v>405725.85689676506</v>
+        <v>196672.39641020086</v>
       </c>
       <c r="U81" s="24">
         <f t="shared" si="28"/>
-        <v>335538.41107861989</v>
+        <v>214182.35084456741</v>
       </c>
       <c r="V81" s="24">
         <f t="shared" si="28"/>
-        <v>199447.59257645602</v>
+        <v>231231.74648343574</v>
       </c>
       <c r="W81" s="24">
         <f t="shared" si="28"/>
-        <v>219390.31003837701</v>
+        <v>247796.8138873704</v>
       </c>
     </row>
     <row r="82" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -11725,83 +11737,83 @@
       <c r="B84" s="83"/>
       <c r="D84" s="19">
         <f>IF(D61&gt;0.01,D31/D61,"-")</f>
-        <v>1.3273083449349266</v>
+        <v>1.5563641429567663</v>
       </c>
       <c r="E84" s="19">
         <f t="shared" ref="E84:W84" si="29">IF(E61&gt;0.01,E31/E61,"-")</f>
-        <v>1.3194370872607961</v>
+        <v>1.5474871134687191</v>
       </c>
       <c r="F84" s="19">
         <f t="shared" si="29"/>
-        <v>1.311159593978104</v>
+        <v>1.5381519404887942</v>
       </c>
       <c r="G84" s="19">
         <f t="shared" si="29"/>
-        <v>0.97387905371254813</v>
+        <v>1.0848489289562473</v>
       </c>
       <c r="H84" s="19">
         <f t="shared" si="29"/>
-        <v>1.0061548114395915</v>
+        <v>1.1190206505534721</v>
       </c>
       <c r="I84" s="19">
         <f t="shared" si="29"/>
-        <v>1.0407515126842406</v>
+        <v>1.1555072195296783</v>
       </c>
       <c r="J84" s="19">
         <f t="shared" si="29"/>
-        <v>1.0779495732324291</v>
+        <v>1.1945718128635674</v>
       </c>
       <c r="K84" s="19">
         <f t="shared" si="29"/>
-        <v>1.1180786331055919</v>
+        <v>1.2365211710103285</v>
       </c>
       <c r="L84" s="19">
         <f t="shared" si="29"/>
-        <v>1.161529031580824</v>
+        <v>1.2817151760354679</v>
       </c>
       <c r="M84" s="19">
         <f t="shared" si="29"/>
-        <v>1.2087666623411428</v>
+        <v>1.330579085999924</v>
       </c>
       <c r="N84" s="19">
         <f t="shared" si="29"/>
-        <v>1.2603524312499046</v>
+        <v>1.3836193275586317</v>
       </c>
       <c r="O84" s="19">
         <f t="shared" si="29"/>
-        <v>1.3169680721382209</v>
+        <v>1.4414441166652168</v>
       </c>
       <c r="P84" s="19">
         <f t="shared" si="29"/>
-        <v>1.3794508852828162</v>
+        <v>1.5047907231301474</v>
       </c>
       <c r="Q84" s="19">
         <f t="shared" si="29"/>
-        <v>1.4488412179594359</v>
+        <v>1.5745620195878931</v>
       </c>
       <c r="R84" s="19">
         <f t="shared" si="29"/>
-        <v>1.5264484967169984</v>
+        <v>1.6518762271223406</v>
       </c>
       <c r="S84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6139448593311085</v>
+        <v>1.6524476368927588</v>
       </c>
       <c r="T84" s="19">
         <f t="shared" si="29"/>
-        <v>1.713500855478429</v>
+        <v>1.356450218059349</v>
       </c>
       <c r="U84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6378411374463169</v>
+        <v>1.4167051043395549</v>
       </c>
       <c r="V84" s="19">
         <f t="shared" si="29"/>
-        <v>1.4125373834437702</v>
+        <v>1.4855487337005551</v>
       </c>
       <c r="W84" s="19">
         <f t="shared" si="29"/>
-        <v>1.4976216548564951</v>
+        <v>1.5651459966674719</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
@@ -11811,7 +11823,7 @@
       <c r="B85" s="83"/>
       <c r="C85" s="19">
         <f>AVERAGE(G84:W84)</f>
-        <v>1.3173303689411684</v>
+        <v>1.3785502440395649</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
@@ -11917,8 +11929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12799,7 +12811,7 @@
         <v>9807253</v>
       </c>
       <c r="D63" s="184" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -13359,8 +13371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A41:M187"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13758,7 +13770,7 @@
       </c>
       <c r="B182" s="164">
         <f>Parameters!B18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>

--- a/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
+++ b/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Wind-Farm-Project-Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70DD3E3-B852-49AC-996C-9BC31D52035D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3139ACB1-0744-45CE-8195-ADF9B900D8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4857,9 +4857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AE137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6934,7 +6934,7 @@
         <v>176</v>
       </c>
       <c r="B61" s="176">
-        <v>24500</v>
+        <v>0</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>48</v>
@@ -7634,10 +7634,10 @@
   <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R47" sqref="R47"/>
+      <selection pane="bottomRight" activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13371,7 +13371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A41:M187"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>

--- a/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
+++ b/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Wind-Farm-Project-Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3139ACB1-0744-45CE-8195-ADF9B900D8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241C69E7-F0BD-496B-B42F-9FF98866ED5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2174,15 +2174,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> in J</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>ahren</a:t>
+                  <a:t>Duration in years</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2219,15 +2211,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Erträge</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> in </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Euro</a:t>
+                  <a:t>Income in Euro</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2488,7 +2472,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in Jahren</a:t>
+                  <a:t>Duration in years</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2525,7 +2509,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Kosten in Euro</a:t>
+                  <a:t>Costs in Euro</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3119,7 +3103,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in Jahren</a:t>
+                  <a:t>Duration in years</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3156,7 +3140,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Schuldendienst in Euro</a:t>
+                  <a:t>Debt service in euros</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3213,7 +3197,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Schuldendienst Annuitätendarlehen</a:t>
+              <a:t>Debt service Annuity loan</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3567,7 +3551,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in Jahren</a:t>
+                  <a:t>Duration in years</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3604,7 +3588,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Schuldendienst in Euro</a:t>
+                  <a:t>Debt service in euros</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3662,7 +3646,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Steuern</a:t>
+              <a:t>Taxes</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3866,7 +3850,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in Jahren</a:t>
+                  <a:t>Duration in years</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3903,7 +3887,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Steuern in Euro</a:t>
+                  <a:t>Taxes in euros</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3960,13 +3944,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cash</a:t>
+              <a:t>Cash Flow Cooperative</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Flow Genossenschaft</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4169,7 +4148,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in Jahren</a:t>
+                  <a:t>Duration in years</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4857,9 +4836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AE137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F5" sqref="F5:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13371,7 +13350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A41:M187"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A166" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>

--- a/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
+++ b/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Wind-Farm-Project-Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Wind_Farm_Project_Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241C69E7-F0BD-496B-B42F-9FF98866ED5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195ECA1A-8EB2-4263-BDB6-1E0BB480C046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2075,64 +2075,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1259547.7158000001</c:v>
+                  <c:v>1288523.3130000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3796,19 +3796,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50514.4700025161</c:v>
+                  <c:v>189597.33656251605</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>264109.82337649626</c:v>
+                  <c:v>272802.50253649626</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>271614.08956265333</c:v>
+                  <c:v>280306.76872265333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>278920.97340788261</c:v>
+                  <c:v>287613.65256788261</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>286020.28800956887</c:v>
+                  <c:v>294712.96716956887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4049,64 +4049,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>357165.36285351566</c:v>
+                  <c:v>386140.96005351562</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>351466.63568301569</c:v>
+                  <c:v>380442.23288301565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>345473.79720324627</c:v>
+                  <c:v>374449.39440324623</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88469.083810651675</c:v>
+                  <c:v>117444.68101065164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>119604.24929791526</c:v>
+                  <c:v>148579.84649791522</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150397.37561332551</c:v>
+                  <c:v>179372.97281332547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>180830.81011522282</c:v>
+                  <c:v>209806.40731522278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210885.98910911218</c:v>
+                  <c:v>239861.58630911214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>240543.39082822506</c:v>
+                  <c:v>269518.98802822502</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>269782.48598741018</c:v>
+                  <c:v>298758.08318741014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>298581.68578510988</c:v>
+                  <c:v>327557.28298510984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>326918.28722171765</c:v>
+                  <c:v>355893.88442171761</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>354768.41559581773</c:v>
+                  <c:v>383744.01279581769</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>382106.96403265418</c:v>
+                  <c:v>411082.56123265426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>408907.52989166474</c:v>
+                  <c:v>437883.1270916647</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>384627.87788949162</c:v>
+                  <c:v>274520.60852949158</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>196672.39641020086</c:v>
+                  <c:v>216955.31445020088</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>214182.35084456741</c:v>
+                  <c:v>234465.26888456743</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>231231.74648343574</c:v>
+                  <c:v>251514.66452343564</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>247796.8138873704</c:v>
+                  <c:v>268079.7319273703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4836,9 +4836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AE137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="G5" s="63">
         <f>NPV(B52,Kalkulation!D78:W78)-B34</f>
-        <v>58191.782411674969</v>
+        <v>303893.00839264411</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="G7" s="63">
         <f>NPV(B46,Kalkulation!D9:W9)</f>
-        <v>395679973.93539715</v>
+        <v>404782498.12010139</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="G8" s="59">
         <f>IRR(Kalkulation!C78:W78)</f>
-        <v>7.5574672058946968E-2</v>
+        <v>8.7303700542436857E-2</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="G9" s="64">
         <f>((-G6-B25)/G7)</f>
-        <v>1.8360816512700925E-2</v>
+        <v>1.7947928660251859E-2</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -4981,7 +4981,7 @@
         <v>147</v>
       </c>
       <c r="B10" s="66">
-        <v>39026700</v>
+        <v>39924500</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="G10" s="148">
         <f>MIN(Kalkulation!D84:W84)</f>
-        <v>1.0848489289562473</v>
+        <v>1.1126388447368789</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="G11" s="148">
         <f>Kalkulation!C85</f>
-        <v>1.3785502440395649</v>
+        <v>1.4023938603749029</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="B15" s="21">
         <f>VLOOKUP(B5,$A$69:$B$70,2,FALSE)</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -5189,83 +5189,83 @@
       </c>
       <c r="J20" s="23">
         <f>Kalkulation!D12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="K20" s="23">
         <f>Kalkulation!E12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="L20" s="23">
         <f>Kalkulation!F12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="M20" s="23">
         <f>Kalkulation!G12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="N20" s="23">
         <f>Kalkulation!H12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="O20" s="23">
         <f>Kalkulation!I12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="P20" s="23">
         <f>Kalkulation!J12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="Q20" s="23">
         <f>Kalkulation!K12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="R20" s="23">
         <f>Kalkulation!L12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="S20" s="23">
         <f>Kalkulation!M12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="T20" s="23">
         <f>Kalkulation!N12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="U20" s="23">
         <f>Kalkulation!O12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="V20" s="23">
         <f>Kalkulation!P12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="W20" s="23">
         <f>Kalkulation!Q12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="X20" s="23">
         <f>Kalkulation!R12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="Y20" s="23">
         <f>Kalkulation!S12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="Z20" s="23">
         <f>Kalkulation!T12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="AA20" s="23">
         <f>Kalkulation!U12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="AB20" s="23">
         <f>Kalkulation!V12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="AC20" s="23">
         <f>Kalkulation!W12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
@@ -5369,83 +5369,83 @@
       <c r="I22" s="84"/>
       <c r="J22" s="88">
         <f>SUM(J20:J21)</f>
-        <v>999128.66580000008</v>
+        <v>1028104.263</v>
       </c>
       <c r="K22" s="88">
         <f t="shared" ref="K22:AC22" si="0">SUM(K20:K21)</f>
-        <v>993429.9386295001</v>
+        <v>1022405.5358295001</v>
       </c>
       <c r="L22" s="88">
         <f t="shared" si="0"/>
-        <v>987437.10014973069</v>
+        <v>1016412.6973497306</v>
       </c>
       <c r="M22" s="88">
         <f t="shared" si="0"/>
-        <v>1131134.9712760202</v>
+        <v>1160110.5684760201</v>
       </c>
       <c r="N22" s="88">
         <f t="shared" si="0"/>
-        <v>1124507.5895311376</v>
+        <v>1153483.1867311376</v>
       </c>
       <c r="O22" s="88">
         <f t="shared" si="0"/>
-        <v>1117538.1686144017</v>
+        <v>1146513.7658144017</v>
       </c>
       <c r="P22" s="88">
         <f t="shared" si="0"/>
-        <v>1110209.0558841529</v>
+        <v>1139184.6530841528</v>
       </c>
       <c r="Q22" s="88">
         <f t="shared" si="0"/>
-        <v>1102501.6876458961</v>
+        <v>1131477.2848458961</v>
       </c>
       <c r="R22" s="88">
         <f t="shared" si="0"/>
-        <v>1094396.5421328628</v>
+        <v>1123372.1393328628</v>
       </c>
       <c r="S22" s="88">
         <f t="shared" si="0"/>
-        <v>1085873.0900599018</v>
+        <v>1114848.6872599018</v>
       </c>
       <c r="T22" s="88">
         <f t="shared" si="0"/>
-        <v>1076909.7426254554</v>
+        <v>1105885.3398254553</v>
       </c>
       <c r="U22" s="88">
         <f t="shared" si="0"/>
-        <v>1067483.796829917</v>
+        <v>1096459.394029917</v>
       </c>
       <c r="V22" s="88">
         <f t="shared" si="0"/>
-        <v>1057571.3779718711</v>
+        <v>1086546.975171871</v>
       </c>
       <c r="W22" s="88">
         <f t="shared" si="0"/>
-        <v>1047147.3791765614</v>
+        <v>1076122.9763765614</v>
       </c>
       <c r="X22" s="88">
         <f t="shared" si="0"/>
-        <v>1036185.3978034258</v>
+        <v>1065160.9950034257</v>
       </c>
       <c r="Y22" s="88">
         <f t="shared" si="0"/>
-        <v>1024657.6685716226</v>
+        <v>1053633.2657716225</v>
       </c>
       <c r="Z22" s="88">
         <f t="shared" si="0"/>
-        <v>1012534.9932341659</v>
+        <v>1041510.5904341659</v>
       </c>
       <c r="AA22" s="88">
         <f t="shared" si="0"/>
-        <v>999786.66662254336</v>
+        <v>1028762.2638225433</v>
       </c>
       <c r="AB22" s="88">
         <f t="shared" si="0"/>
-        <v>986380.39887449483</v>
+        <v>1015355.9960744948</v>
       </c>
       <c r="AC22" s="88">
         <f t="shared" si="0"/>
-        <v>972282.23364796955</v>
+        <v>1001257.8308479695</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
@@ -5561,83 +5561,83 @@
       <c r="I24" s="84"/>
       <c r="J24" s="88">
         <f>SUM(J22:J23)</f>
-        <v>298610.5943714286</v>
+        <v>327586.19157142856</v>
       </c>
       <c r="K24" s="88">
         <f t="shared" ref="K24:AC24" si="1">SUM(K22:K23)</f>
-        <v>292911.86720092862</v>
+        <v>321887.46440092858</v>
       </c>
       <c r="L24" s="88">
         <f t="shared" si="1"/>
-        <v>286919.02872115921</v>
+        <v>315894.62592115917</v>
       </c>
       <c r="M24" s="88">
         <f t="shared" si="1"/>
-        <v>430616.89984744869</v>
+        <v>459592.49704744865</v>
       </c>
       <c r="N24" s="88">
         <f t="shared" si="1"/>
-        <v>423989.51810256613</v>
+        <v>452965.11530256609</v>
       </c>
       <c r="O24" s="88">
         <f t="shared" si="1"/>
-        <v>417020.09718583024</v>
+        <v>445995.6943858302</v>
       </c>
       <c r="P24" s="88">
         <f t="shared" si="1"/>
-        <v>409690.98445558141</v>
+        <v>438666.58165558137</v>
       </c>
       <c r="Q24" s="88">
         <f t="shared" si="1"/>
-        <v>401983.61621732463</v>
+        <v>430959.21341732459</v>
       </c>
       <c r="R24" s="88">
         <f t="shared" si="1"/>
-        <v>393878.47070429137</v>
+        <v>422854.06790429133</v>
       </c>
       <c r="S24" s="88">
         <f t="shared" si="1"/>
-        <v>385355.01863133034</v>
+        <v>414330.6158313303</v>
       </c>
       <c r="T24" s="88">
         <f t="shared" si="1"/>
-        <v>376391.67119688389</v>
+        <v>405367.26839688385</v>
       </c>
       <c r="U24" s="88">
         <f t="shared" si="1"/>
-        <v>366965.72540134552</v>
+        <v>395941.32260134548</v>
       </c>
       <c r="V24" s="88">
         <f t="shared" si="1"/>
-        <v>357053.30654329958</v>
+        <v>386028.90374329954</v>
       </c>
       <c r="W24" s="88">
         <f t="shared" si="1"/>
-        <v>346629.30774798989</v>
+        <v>375604.90494798997</v>
       </c>
       <c r="X24" s="88">
         <f t="shared" si="1"/>
-        <v>1036185.3978034258</v>
+        <v>1065160.9950034257</v>
       </c>
       <c r="Y24" s="88">
         <f t="shared" si="1"/>
-        <v>1024657.6685716226</v>
+        <v>1053633.2657716225</v>
       </c>
       <c r="Z24" s="88">
         <f t="shared" si="1"/>
-        <v>1012534.9932341659</v>
+        <v>1041510.5904341659</v>
       </c>
       <c r="AA24" s="88">
         <f t="shared" si="1"/>
-        <v>999786.66662254336</v>
+        <v>1028762.2638225433</v>
       </c>
       <c r="AB24" s="88">
         <f t="shared" si="1"/>
-        <v>986380.39887449483</v>
+        <v>1015355.9960744948</v>
       </c>
       <c r="AC24" s="88">
         <f t="shared" si="1"/>
-        <v>972282.23364796955</v>
+        <v>1001257.8308479695</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
@@ -5756,83 +5756,83 @@
       <c r="I26" s="84"/>
       <c r="J26" s="88">
         <f>SUM(J24:J25)</f>
-        <v>-343352.70857505582</v>
+        <v>-314377.11137505586</v>
       </c>
       <c r="K26" s="88">
         <f t="shared" ref="K26:AC26" si="2">SUM(K24:K25)</f>
-        <v>-349051.43574555579</v>
+        <v>-320075.83854555583</v>
       </c>
       <c r="L26" s="88">
         <f t="shared" si="2"/>
-        <v>-355044.27422532521</v>
+        <v>-326068.67702532525</v>
       </c>
       <c r="M26" s="88">
         <f t="shared" si="2"/>
-        <v>-192465.12948296266</v>
+        <v>-163489.5322829627</v>
       </c>
       <c r="N26" s="88">
         <f t="shared" si="2"/>
-        <v>-161329.96399569907</v>
+        <v>-132354.36679569911</v>
       </c>
       <c r="O26" s="88">
         <f t="shared" si="2"/>
-        <v>-130536.83768028882</v>
+        <v>-101561.24048028886</v>
       </c>
       <c r="P26" s="88">
         <f t="shared" si="2"/>
-        <v>-100103.40317839151</v>
+        <v>-71127.805978391552</v>
       </c>
       <c r="Q26" s="88">
         <f t="shared" si="2"/>
-        <v>-70048.224184502207</v>
+        <v>-41072.626984502247</v>
       </c>
       <c r="R26" s="88">
         <f t="shared" si="2"/>
-        <v>-40390.822465389327</v>
+        <v>-11415.225265389367</v>
       </c>
       <c r="S26" s="88">
         <f t="shared" si="2"/>
-        <v>-11151.727306204208</v>
+        <v>17823.869893795752</v>
       </c>
       <c r="T26" s="88">
         <f t="shared" si="2"/>
-        <v>17647.472491495486</v>
+        <v>46623.069691495446</v>
       </c>
       <c r="U26" s="88">
         <f t="shared" si="2"/>
-        <v>45984.073928103258</v>
+        <v>74959.671128103219</v>
       </c>
       <c r="V26" s="88">
         <f t="shared" si="2"/>
-        <v>73834.202302203397</v>
+        <v>102809.79950220336</v>
       </c>
       <c r="W26" s="88">
         <f t="shared" si="2"/>
-        <v>101172.75073903988</v>
+        <v>130148.34793903996</v>
       </c>
       <c r="X26" s="88">
         <f t="shared" si="2"/>
-        <v>828491.38802662189</v>
+        <v>857466.98522662185</v>
       </c>
       <c r="Y26" s="88">
         <f t="shared" si="2"/>
-        <v>854726.20602696482</v>
+        <v>883701.80322696478</v>
       </c>
       <c r="Z26" s="88">
         <f t="shared" si="2"/>
-        <v>880366.07792165433</v>
+        <v>909341.67512165429</v>
       </c>
       <c r="AA26" s="88">
         <f t="shared" si="2"/>
-        <v>905380.29854217789</v>
+        <v>934355.89574217785</v>
       </c>
       <c r="AB26" s="88">
         <f t="shared" si="2"/>
-        <v>929736.5780262755</v>
+        <v>958712.17522627546</v>
       </c>
       <c r="AC26" s="88">
         <f t="shared" si="2"/>
-        <v>953400.96003189636</v>
+        <v>982376.55723189632</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
@@ -5906,23 +5906,23 @@
       </c>
       <c r="Y27" s="88">
         <f>-Kalkulation!S54</f>
-        <v>-50514.4700025161</v>
+        <v>-189597.33656251605</v>
       </c>
       <c r="Z27" s="88">
         <f>-Kalkulation!T54</f>
-        <v>-264109.82337649626</v>
+        <v>-272802.50253649626</v>
       </c>
       <c r="AA27" s="88">
         <f>-Kalkulation!U54</f>
-        <v>-271614.08956265333</v>
+        <v>-280306.76872265333</v>
       </c>
       <c r="AB27" s="88">
         <f>-Kalkulation!V54</f>
-        <v>-278920.97340788261</v>
+        <v>-287613.65256788261</v>
       </c>
       <c r="AC27" s="88">
         <f>-Kalkulation!W54</f>
-        <v>-286020.28800956887</v>
+        <v>-294712.96716956887</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
@@ -5934,83 +5934,83 @@
       </c>
       <c r="J28" s="23">
         <f>SUM(J26:J27)</f>
-        <v>-343352.70857505582</v>
+        <v>-314377.11137505586</v>
       </c>
       <c r="K28" s="23">
         <f t="shared" ref="K28:AC28" si="3">SUM(K26:K27)</f>
-        <v>-349051.43574555579</v>
+        <v>-320075.83854555583</v>
       </c>
       <c r="L28" s="23">
         <f t="shared" si="3"/>
-        <v>-355044.27422532521</v>
+        <v>-326068.67702532525</v>
       </c>
       <c r="M28" s="23">
         <f t="shared" si="3"/>
-        <v>-192465.12948296266</v>
+        <v>-163489.5322829627</v>
       </c>
       <c r="N28" s="23">
         <f t="shared" si="3"/>
-        <v>-161329.96399569907</v>
+        <v>-132354.36679569911</v>
       </c>
       <c r="O28" s="23">
         <f t="shared" si="3"/>
-        <v>-130536.83768028882</v>
+        <v>-101561.24048028886</v>
       </c>
       <c r="P28" s="23">
         <f t="shared" si="3"/>
-        <v>-100103.40317839151</v>
+        <v>-71127.805978391552</v>
       </c>
       <c r="Q28" s="23">
         <f t="shared" si="3"/>
-        <v>-70048.224184502207</v>
+        <v>-41072.626984502247</v>
       </c>
       <c r="R28" s="23">
         <f t="shared" si="3"/>
-        <v>-40390.822465389327</v>
+        <v>-11415.225265389367</v>
       </c>
       <c r="S28" s="23">
         <f t="shared" si="3"/>
-        <v>-11151.727306204208</v>
+        <v>17823.869893795752</v>
       </c>
       <c r="T28" s="23">
         <f t="shared" si="3"/>
-        <v>17647.472491495486</v>
+        <v>46623.069691495446</v>
       </c>
       <c r="U28" s="23">
         <f t="shared" si="3"/>
-        <v>45984.073928103258</v>
+        <v>74959.671128103219</v>
       </c>
       <c r="V28" s="23">
         <f t="shared" si="3"/>
-        <v>73834.202302203397</v>
+        <v>102809.79950220336</v>
       </c>
       <c r="W28" s="23">
         <f t="shared" si="3"/>
-        <v>101172.75073903988</v>
+        <v>130148.34793903996</v>
       </c>
       <c r="X28" s="23">
         <f t="shared" si="3"/>
-        <v>828491.38802662189</v>
+        <v>857466.98522662185</v>
       </c>
       <c r="Y28" s="23">
         <f t="shared" si="3"/>
-        <v>804211.73602444876</v>
+        <v>694104.46666444873</v>
       </c>
       <c r="Z28" s="23">
         <f t="shared" si="3"/>
-        <v>616256.25454515801</v>
+        <v>636539.17258515803</v>
       </c>
       <c r="AA28" s="23">
         <f t="shared" si="3"/>
-        <v>633766.20897952456</v>
+        <v>654049.12701952457</v>
       </c>
       <c r="AB28" s="23">
         <f t="shared" si="3"/>
-        <v>650815.60461839288</v>
+        <v>671098.52265839279</v>
       </c>
       <c r="AC28" s="23">
         <f t="shared" si="3"/>
-        <v>667380.67202232755</v>
+        <v>687663.59006232745</v>
       </c>
       <c r="AD28" s="23"/>
     </row>
@@ -6186,83 +6186,83 @@
       </c>
       <c r="J38" s="23">
         <f>Kalkulation!D12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="K38" s="23">
         <f>Kalkulation!E12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="L38" s="23">
         <f>Kalkulation!F12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="M38" s="23">
         <f>Kalkulation!G12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="N38" s="23">
         <f>Kalkulation!H12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="O38" s="23">
         <f>Kalkulation!I12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="P38" s="23">
         <f>Kalkulation!J12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="Q38" s="23">
         <f>Kalkulation!K12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="R38" s="23">
         <f>Kalkulation!L12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="S38" s="23">
         <f>Kalkulation!M12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="T38" s="23">
         <f>Kalkulation!N12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="U38" s="23">
         <f>Kalkulation!O12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="V38" s="23">
         <f>Kalkulation!P12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="W38" s="23">
         <f>Kalkulation!Q12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="X38" s="23">
         <f>Kalkulation!R12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="Y38" s="23">
         <f>Kalkulation!S12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="Z38" s="23">
         <f>Kalkulation!T12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="AA38" s="23">
         <f>Kalkulation!U12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="AB38" s="23">
         <f>Kalkulation!V12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="AC38" s="23">
         <f>Kalkulation!W12</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
@@ -6437,23 +6437,23 @@
       </c>
       <c r="Y40" s="88">
         <f t="shared" si="4"/>
-        <v>-50514.4700025161</v>
+        <v>-189597.33656251605</v>
       </c>
       <c r="Z40" s="88">
         <f t="shared" si="4"/>
-        <v>-264109.82337649626</v>
+        <v>-272802.50253649626</v>
       </c>
       <c r="AA40" s="88">
         <f t="shared" si="4"/>
-        <v>-271614.08956265333</v>
+        <v>-280306.76872265333</v>
       </c>
       <c r="AB40" s="88">
         <f t="shared" si="4"/>
-        <v>-278920.97340788261</v>
+        <v>-287613.65256788261</v>
       </c>
       <c r="AC40" s="88">
         <f t="shared" si="4"/>
-        <v>-286020.28800956887</v>
+        <v>-294712.96716956887</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
@@ -6473,83 +6473,83 @@
       <c r="I41" s="84"/>
       <c r="J41" s="88">
         <f>SUM(J38:J40)</f>
-        <v>999128.66580000008</v>
+        <v>1028104.263</v>
       </c>
       <c r="K41" s="88">
         <f t="shared" ref="K41:AC41" si="5">SUM(K38:K40)</f>
-        <v>993429.9386295001</v>
+        <v>1022405.5358295001</v>
       </c>
       <c r="L41" s="88">
         <f t="shared" si="5"/>
-        <v>987437.10014973069</v>
+        <v>1016412.6973497306</v>
       </c>
       <c r="M41" s="88">
         <f t="shared" si="5"/>
-        <v>1131134.9712760202</v>
+        <v>1160110.5684760201</v>
       </c>
       <c r="N41" s="88">
         <f t="shared" si="5"/>
-        <v>1124507.5895311376</v>
+        <v>1153483.1867311376</v>
       </c>
       <c r="O41" s="88">
         <f t="shared" si="5"/>
-        <v>1117538.1686144017</v>
+        <v>1146513.7658144017</v>
       </c>
       <c r="P41" s="88">
         <f t="shared" si="5"/>
-        <v>1110209.0558841529</v>
+        <v>1139184.6530841528</v>
       </c>
       <c r="Q41" s="88">
         <f t="shared" si="5"/>
-        <v>1102501.6876458961</v>
+        <v>1131477.2848458961</v>
       </c>
       <c r="R41" s="88">
         <f t="shared" si="5"/>
-        <v>1094396.5421328628</v>
+        <v>1123372.1393328628</v>
       </c>
       <c r="S41" s="88">
         <f t="shared" si="5"/>
-        <v>1085873.0900599018</v>
+        <v>1114848.6872599018</v>
       </c>
       <c r="T41" s="88">
         <f t="shared" si="5"/>
-        <v>1076909.7426254554</v>
+        <v>1105885.3398254553</v>
       </c>
       <c r="U41" s="88">
         <f t="shared" si="5"/>
-        <v>1067483.796829917</v>
+        <v>1096459.394029917</v>
       </c>
       <c r="V41" s="88">
         <f t="shared" si="5"/>
-        <v>1057571.3779718711</v>
+        <v>1086546.975171871</v>
       </c>
       <c r="W41" s="88">
         <f t="shared" si="5"/>
-        <v>1047147.3791765614</v>
+        <v>1076122.9763765614</v>
       </c>
       <c r="X41" s="88">
         <f t="shared" si="5"/>
-        <v>1036185.3978034258</v>
+        <v>1065160.9950034257</v>
       </c>
       <c r="Y41" s="88">
         <f t="shared" si="5"/>
-        <v>974143.19856910652</v>
+        <v>864035.92920910649</v>
       </c>
       <c r="Z41" s="88">
         <f t="shared" si="5"/>
-        <v>748425.16985766962</v>
+        <v>768708.08789766964</v>
       </c>
       <c r="AA41" s="88">
         <f t="shared" si="5"/>
-        <v>728172.57705989003</v>
+        <v>748455.49509989005</v>
       </c>
       <c r="AB41" s="88">
         <f t="shared" si="5"/>
-        <v>707459.42546661221</v>
+        <v>727742.34350661212</v>
       </c>
       <c r="AC41" s="88">
         <f t="shared" si="5"/>
-        <v>686261.94563840074</v>
+        <v>706544.86367840064</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
@@ -6758,83 +6758,83 @@
       </c>
       <c r="J44" s="23">
         <f>SUM(J41:J43)</f>
-        <v>357165.36285351566</v>
+        <v>386140.96005351562</v>
       </c>
       <c r="K44" s="23">
         <f t="shared" ref="K44:AC44" si="6">SUM(K41:K43)</f>
-        <v>351466.63568301569</v>
+        <v>380442.23288301565</v>
       </c>
       <c r="L44" s="23">
         <f t="shared" si="6"/>
-        <v>345473.79720324627</v>
+        <v>374449.39440324623</v>
       </c>
       <c r="M44" s="23">
         <f t="shared" si="6"/>
-        <v>88469.083810651675</v>
+        <v>117444.68101065164</v>
       </c>
       <c r="N44" s="23">
         <f t="shared" si="6"/>
-        <v>119604.24929791526</v>
+        <v>148579.84649791522</v>
       </c>
       <c r="O44" s="23">
         <f t="shared" si="6"/>
-        <v>150397.37561332551</v>
+        <v>179372.97281332547</v>
       </c>
       <c r="P44" s="23">
         <f t="shared" si="6"/>
-        <v>180830.81011522282</v>
+        <v>209806.40731522278</v>
       </c>
       <c r="Q44" s="23">
         <f t="shared" si="6"/>
-        <v>210885.98910911207</v>
+        <v>239861.58630911203</v>
       </c>
       <c r="R44" s="23">
         <f t="shared" si="6"/>
-        <v>240543.39082822495</v>
+        <v>269518.98802822491</v>
       </c>
       <c r="S44" s="23">
         <f t="shared" si="6"/>
-        <v>269782.48598741007</v>
+        <v>298758.08318741003</v>
       </c>
       <c r="T44" s="23">
         <f t="shared" si="6"/>
-        <v>298581.68578510976</v>
+        <v>327557.28298510972</v>
       </c>
       <c r="U44" s="23">
         <f t="shared" si="6"/>
-        <v>326918.28722171753</v>
+        <v>355893.88442171749</v>
       </c>
       <c r="V44" s="23">
         <f t="shared" si="6"/>
-        <v>354768.41559581773</v>
+        <v>383744.01279581769</v>
       </c>
       <c r="W44" s="23">
         <f t="shared" si="6"/>
-        <v>382106.96403265418</v>
+        <v>411082.56123265426</v>
       </c>
       <c r="X44" s="23">
         <f t="shared" si="6"/>
-        <v>408907.52989166474</v>
+        <v>437883.1270916647</v>
       </c>
       <c r="Y44" s="23">
         <f t="shared" si="6"/>
-        <v>384627.87788949162</v>
+        <v>274520.60852949158</v>
       </c>
       <c r="Z44" s="23">
         <f t="shared" si="6"/>
-        <v>196672.39641020086</v>
+        <v>216955.31445020088</v>
       </c>
       <c r="AA44" s="23">
         <f t="shared" si="6"/>
-        <v>214182.35084456741</v>
+        <v>234465.26888456743</v>
       </c>
       <c r="AB44" s="23">
         <f t="shared" si="6"/>
-        <v>231231.74648343574</v>
+        <v>251514.66452343564</v>
       </c>
       <c r="AC44" s="23">
         <f t="shared" si="6"/>
-        <v>247796.8138873704</v>
+        <v>268079.7319273703</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B69">
         <f>B10*(1-B14)</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="B70">
         <f>B10*(1-B11-B12)</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -7948,83 +7948,83 @@
       </c>
       <c r="D9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="E9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="F9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="G9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="H9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="I9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="J9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="K9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="L9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="M9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="N9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="O9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="P9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="Q9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="R9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="S9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="T9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="U9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="V9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="W9" s="23">
         <f>Parameters!$B$15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
@@ -8149,87 +8149,87 @@
       </c>
       <c r="D12" s="30">
         <f>D9*D10</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="E12" s="30">
         <f t="shared" ref="E12:W12" si="0">E9*E10</f>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="G12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="H12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="I12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="J12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="K12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="L12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="M12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="N12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="O12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="P12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="Q12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="R12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="S12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="T12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="U12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="V12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="W12" s="30">
         <f t="shared" si="0"/>
-        <v>1259547.7158000001</v>
+        <v>1288523.3130000001</v>
       </c>
       <c r="Y12" s="30">
         <f>SUM(D12:W12)</f>
-        <v>25190954.315999992</v>
+        <v>25770466.260000013</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -8503,83 +8503,83 @@
       </c>
       <c r="D24" s="105">
         <f>D12+D21</f>
-        <v>999128.66580000008</v>
+        <v>1028104.263</v>
       </c>
       <c r="E24" s="105">
         <f t="shared" ref="E24:W24" si="2">E12+E21</f>
-        <v>993429.9386295001</v>
+        <v>1022405.5358295001</v>
       </c>
       <c r="F24" s="105">
         <f t="shared" si="2"/>
-        <v>987437.10014973069</v>
+        <v>1016412.6973497306</v>
       </c>
       <c r="G24" s="105">
         <f t="shared" si="2"/>
-        <v>1131134.9712760202</v>
+        <v>1160110.5684760201</v>
       </c>
       <c r="H24" s="105">
         <f t="shared" si="2"/>
-        <v>1124507.5895311376</v>
+        <v>1153483.1867311376</v>
       </c>
       <c r="I24" s="105">
         <f t="shared" si="2"/>
-        <v>1117538.1686144017</v>
+        <v>1146513.7658144017</v>
       </c>
       <c r="J24" s="105">
         <f t="shared" si="2"/>
-        <v>1110209.0558841529</v>
+        <v>1139184.6530841528</v>
       </c>
       <c r="K24" s="105">
         <f t="shared" si="2"/>
-        <v>1102501.6876458961</v>
+        <v>1131477.2848458961</v>
       </c>
       <c r="L24" s="105">
         <f t="shared" si="2"/>
-        <v>1094396.5421328628</v>
+        <v>1123372.1393328628</v>
       </c>
       <c r="M24" s="105">
         <f t="shared" si="2"/>
-        <v>1085873.0900599018</v>
+        <v>1114848.6872599018</v>
       </c>
       <c r="N24" s="105">
         <f t="shared" si="2"/>
-        <v>1076909.7426254554</v>
+        <v>1105885.3398254553</v>
       </c>
       <c r="O24" s="105">
         <f t="shared" si="2"/>
-        <v>1067483.796829917</v>
+        <v>1096459.394029917</v>
       </c>
       <c r="P24" s="105">
         <f t="shared" si="2"/>
-        <v>1057571.3779718711</v>
+        <v>1086546.975171871</v>
       </c>
       <c r="Q24" s="105">
         <f t="shared" si="2"/>
-        <v>1047147.3791765614</v>
+        <v>1076122.9763765614</v>
       </c>
       <c r="R24" s="105">
         <f t="shared" si="2"/>
-        <v>1036185.3978034258</v>
+        <v>1065160.9950034257</v>
       </c>
       <c r="S24" s="105">
         <f t="shared" si="2"/>
-        <v>1024657.6685716226</v>
+        <v>1053633.2657716225</v>
       </c>
       <c r="T24" s="105">
         <f t="shared" si="2"/>
-        <v>1012534.9932341659</v>
+        <v>1041510.5904341659</v>
       </c>
       <c r="U24" s="105">
         <f t="shared" si="2"/>
-        <v>999786.66662254336</v>
+        <v>1028762.2638225433</v>
       </c>
       <c r="V24" s="105">
         <f t="shared" si="2"/>
-        <v>986380.39887449483</v>
+        <v>1015355.9960744948</v>
       </c>
       <c r="W24" s="105">
         <f t="shared" si="2"/>
-        <v>972282.23364796955</v>
+        <v>1001257.8308479695</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8690,83 +8690,83 @@
       </c>
       <c r="D28" s="108">
         <f t="shared" ref="D28:W28" si="4">D24+D26</f>
-        <v>298610.5943714286</v>
+        <v>327586.19157142856</v>
       </c>
       <c r="E28" s="108">
         <f t="shared" si="4"/>
-        <v>292911.86720092862</v>
+        <v>321887.46440092858</v>
       </c>
       <c r="F28" s="108">
         <f t="shared" si="4"/>
-        <v>286919.02872115921</v>
+        <v>315894.62592115917</v>
       </c>
       <c r="G28" s="108">
         <f t="shared" si="4"/>
-        <v>430616.89984744869</v>
+        <v>459592.49704744865</v>
       </c>
       <c r="H28" s="108">
         <f t="shared" si="4"/>
-        <v>423989.51810256613</v>
+        <v>452965.11530256609</v>
       </c>
       <c r="I28" s="108">
         <f t="shared" si="4"/>
-        <v>417020.09718583024</v>
+        <v>445995.6943858302</v>
       </c>
       <c r="J28" s="108">
         <f t="shared" si="4"/>
-        <v>409690.98445558141</v>
+        <v>438666.58165558137</v>
       </c>
       <c r="K28" s="108">
         <f t="shared" si="4"/>
-        <v>401983.61621732463</v>
+        <v>430959.21341732459</v>
       </c>
       <c r="L28" s="108">
         <f t="shared" si="4"/>
-        <v>393878.47070429137</v>
+        <v>422854.06790429133</v>
       </c>
       <c r="M28" s="108">
         <f t="shared" si="4"/>
-        <v>385355.01863133034</v>
+        <v>414330.6158313303</v>
       </c>
       <c r="N28" s="108">
         <f t="shared" si="4"/>
-        <v>376391.67119688389</v>
+        <v>405367.26839688385</v>
       </c>
       <c r="O28" s="108">
         <f t="shared" si="4"/>
-        <v>366965.72540134552</v>
+        <v>395941.32260134548</v>
       </c>
       <c r="P28" s="108">
         <f t="shared" si="4"/>
-        <v>357053.30654329958</v>
+        <v>386028.90374329954</v>
       </c>
       <c r="Q28" s="108">
         <f t="shared" si="4"/>
-        <v>346629.30774798989</v>
+        <v>375604.90494798997</v>
       </c>
       <c r="R28" s="108">
         <f t="shared" si="4"/>
-        <v>1036185.3978034258</v>
+        <v>1065160.9950034257</v>
       </c>
       <c r="S28" s="108">
         <f t="shared" si="4"/>
-        <v>1024657.6685716226</v>
+        <v>1053633.2657716225</v>
       </c>
       <c r="T28" s="108">
         <f t="shared" si="4"/>
-        <v>1012534.9932341659</v>
+        <v>1041510.5904341659</v>
       </c>
       <c r="U28" s="108">
         <f t="shared" si="4"/>
-        <v>999786.66662254336</v>
+        <v>1028762.2638225433</v>
       </c>
       <c r="V28" s="108">
         <f t="shared" si="4"/>
-        <v>986380.39887449483</v>
+        <v>1015355.9960744948</v>
       </c>
       <c r="W28" s="109">
         <f t="shared" si="4"/>
-        <v>972282.23364796955</v>
+        <v>1001257.8308479695</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -8838,23 +8838,23 @@
       </c>
       <c r="S30" s="23">
         <f t="shared" si="5"/>
-        <v>50514.4700025161</v>
+        <v>189597.33656251605</v>
       </c>
       <c r="T30" s="23">
         <f t="shared" si="5"/>
-        <v>264109.82337649626</v>
+        <v>272802.50253649626</v>
       </c>
       <c r="U30" s="23">
         <f t="shared" si="5"/>
-        <v>271614.08956265333</v>
+        <v>280306.76872265333</v>
       </c>
       <c r="V30" s="23">
         <f t="shared" si="5"/>
-        <v>278920.97340788261</v>
+        <v>287613.65256788261</v>
       </c>
       <c r="W30" s="23">
         <f t="shared" si="5"/>
-        <v>286020.28800956887</v>
+        <v>294712.96716956887</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -8870,83 +8870,83 @@
       </c>
       <c r="D31" s="52">
         <f t="shared" ref="D31:W31" si="6">D24-D30</f>
-        <v>999128.66580000008</v>
+        <v>1028104.263</v>
       </c>
       <c r="E31" s="52">
         <f t="shared" si="6"/>
-        <v>993429.9386295001</v>
+        <v>1022405.5358295001</v>
       </c>
       <c r="F31" s="52">
         <f t="shared" si="6"/>
-        <v>987437.10014973069</v>
+        <v>1016412.6973497306</v>
       </c>
       <c r="G31" s="52">
         <f t="shared" si="6"/>
-        <v>1131134.9712760202</v>
+        <v>1160110.5684760201</v>
       </c>
       <c r="H31" s="52">
         <f t="shared" si="6"/>
-        <v>1124507.5895311376</v>
+        <v>1153483.1867311376</v>
       </c>
       <c r="I31" s="52">
         <f t="shared" si="6"/>
-        <v>1117538.1686144017</v>
+        <v>1146513.7658144017</v>
       </c>
       <c r="J31" s="52">
         <f t="shared" si="6"/>
-        <v>1110209.0558841529</v>
+        <v>1139184.6530841528</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="6"/>
-        <v>1102501.6876458961</v>
+        <v>1131477.2848458961</v>
       </c>
       <c r="L31" s="52">
         <f t="shared" si="6"/>
-        <v>1094396.5421328628</v>
+        <v>1123372.1393328628</v>
       </c>
       <c r="M31" s="52">
         <f t="shared" si="6"/>
-        <v>1085873.0900599018</v>
+        <v>1114848.6872599018</v>
       </c>
       <c r="N31" s="52">
         <f t="shared" si="6"/>
-        <v>1076909.7426254554</v>
+        <v>1105885.3398254553</v>
       </c>
       <c r="O31" s="52">
         <f t="shared" si="6"/>
-        <v>1067483.796829917</v>
+        <v>1096459.394029917</v>
       </c>
       <c r="P31" s="52">
         <f t="shared" si="6"/>
-        <v>1057571.3779718711</v>
+        <v>1086546.975171871</v>
       </c>
       <c r="Q31" s="52">
         <f t="shared" si="6"/>
-        <v>1047147.3791765614</v>
+        <v>1076122.9763765614</v>
       </c>
       <c r="R31" s="52">
         <f t="shared" si="6"/>
-        <v>1036185.3978034258</v>
+        <v>1065160.9950034257</v>
       </c>
       <c r="S31" s="52">
         <f t="shared" si="6"/>
-        <v>974143.19856910652</v>
+        <v>864035.92920910649</v>
       </c>
       <c r="T31" s="52">
         <f t="shared" si="6"/>
-        <v>748425.16985766962</v>
+        <v>768708.08789766964</v>
       </c>
       <c r="U31" s="52">
         <f t="shared" si="6"/>
-        <v>728172.57705989003</v>
+        <v>748455.49509989005</v>
       </c>
       <c r="V31" s="52">
         <f t="shared" si="6"/>
-        <v>707459.42546661221</v>
+        <v>727742.34350661212</v>
       </c>
       <c r="W31" s="52">
         <f t="shared" si="6"/>
-        <v>686261.94563840074</v>
+        <v>706544.86367840064</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9015,83 +9015,83 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38">
         <f t="shared" ref="D36:W36" si="7">D24</f>
-        <v>999128.66580000008</v>
+        <v>1028104.263</v>
       </c>
       <c r="E36" s="38">
         <f t="shared" si="7"/>
-        <v>993429.9386295001</v>
+        <v>1022405.5358295001</v>
       </c>
       <c r="F36" s="38">
         <f t="shared" si="7"/>
-        <v>987437.10014973069</v>
+        <v>1016412.6973497306</v>
       </c>
       <c r="G36" s="38">
         <f t="shared" si="7"/>
-        <v>1131134.9712760202</v>
+        <v>1160110.5684760201</v>
       </c>
       <c r="H36" s="38">
         <f t="shared" si="7"/>
-        <v>1124507.5895311376</v>
+        <v>1153483.1867311376</v>
       </c>
       <c r="I36" s="38">
         <f t="shared" si="7"/>
-        <v>1117538.1686144017</v>
+        <v>1146513.7658144017</v>
       </c>
       <c r="J36" s="38">
         <f t="shared" si="7"/>
-        <v>1110209.0558841529</v>
+        <v>1139184.6530841528</v>
       </c>
       <c r="K36" s="38">
         <f t="shared" si="7"/>
-        <v>1102501.6876458961</v>
+        <v>1131477.2848458961</v>
       </c>
       <c r="L36" s="38">
         <f t="shared" si="7"/>
-        <v>1094396.5421328628</v>
+        <v>1123372.1393328628</v>
       </c>
       <c r="M36" s="38">
         <f t="shared" si="7"/>
-        <v>1085873.0900599018</v>
+        <v>1114848.6872599018</v>
       </c>
       <c r="N36" s="38">
         <f t="shared" si="7"/>
-        <v>1076909.7426254554</v>
+        <v>1105885.3398254553</v>
       </c>
       <c r="O36" s="38">
         <f t="shared" si="7"/>
-        <v>1067483.796829917</v>
+        <v>1096459.394029917</v>
       </c>
       <c r="P36" s="38">
         <f t="shared" si="7"/>
-        <v>1057571.3779718711</v>
+        <v>1086546.975171871</v>
       </c>
       <c r="Q36" s="38">
         <f t="shared" si="7"/>
-        <v>1047147.3791765614</v>
+        <v>1076122.9763765614</v>
       </c>
       <c r="R36" s="38">
         <f t="shared" si="7"/>
-        <v>1036185.3978034258</v>
+        <v>1065160.9950034257</v>
       </c>
       <c r="S36" s="38">
         <f t="shared" si="7"/>
-        <v>1024657.6685716226</v>
+        <v>1053633.2657716225</v>
       </c>
       <c r="T36" s="38">
         <f t="shared" si="7"/>
-        <v>1012534.9932341659</v>
+        <v>1041510.5904341659</v>
       </c>
       <c r="U36" s="38">
         <f t="shared" si="7"/>
-        <v>999786.66662254336</v>
+        <v>1028762.2638225433</v>
       </c>
       <c r="V36" s="38">
         <f t="shared" si="7"/>
-        <v>986380.39887449483</v>
+        <v>1015355.9960744948</v>
       </c>
       <c r="W36" s="42">
         <f t="shared" si="7"/>
-        <v>972282.23364796955</v>
+        <v>1001257.8308479695</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
@@ -9307,83 +9307,83 @@
       <c r="C40" s="49"/>
       <c r="D40" s="50">
         <f>SUM(D36:D39)</f>
-        <v>-343352.70857505582</v>
+        <v>-314377.11137505586</v>
       </c>
       <c r="E40" s="50">
         <f t="shared" ref="E40:W40" si="10">SUM(E36:E39)</f>
-        <v>-349051.43574555579</v>
+        <v>-320075.83854555583</v>
       </c>
       <c r="F40" s="50">
         <f t="shared" si="10"/>
-        <v>-355044.27422532521</v>
+        <v>-326068.67702532525</v>
       </c>
       <c r="G40" s="50">
         <f t="shared" si="10"/>
-        <v>-192465.12948296266</v>
+        <v>-163489.5322829627</v>
       </c>
       <c r="H40" s="50">
         <f t="shared" si="10"/>
-        <v>-161329.96399569907</v>
+        <v>-132354.36679569911</v>
       </c>
       <c r="I40" s="50">
         <f t="shared" si="10"/>
-        <v>-130536.83768028882</v>
+        <v>-101561.24048028886</v>
       </c>
       <c r="J40" s="50">
         <f t="shared" si="10"/>
-        <v>-100103.40317839151</v>
+        <v>-71127.805978391552</v>
       </c>
       <c r="K40" s="50">
         <f t="shared" si="10"/>
-        <v>-70048.224184502265</v>
+        <v>-41072.626984502305</v>
       </c>
       <c r="L40" s="50">
         <f t="shared" si="10"/>
-        <v>-40390.822465389385</v>
+        <v>-11415.225265389425</v>
       </c>
       <c r="M40" s="50">
         <f t="shared" si="10"/>
-        <v>-11151.727306204266</v>
+        <v>17823.869893795694</v>
       </c>
       <c r="N40" s="50">
         <f t="shared" si="10"/>
-        <v>17647.472491495428</v>
+        <v>46623.069691495388</v>
       </c>
       <c r="O40" s="50">
         <f t="shared" si="10"/>
-        <v>45984.0739281032</v>
+        <v>74959.67112810316</v>
       </c>
       <c r="P40" s="50">
         <f t="shared" si="10"/>
-        <v>73834.202302203397</v>
+        <v>102809.79950220336</v>
       </c>
       <c r="Q40" s="50">
         <f t="shared" si="10"/>
-        <v>101172.75073903985</v>
+        <v>130148.34793903993</v>
       </c>
       <c r="R40" s="50">
         <f t="shared" si="10"/>
-        <v>828491.38802662189</v>
+        <v>857466.98522662185</v>
       </c>
       <c r="S40" s="50">
         <f t="shared" si="10"/>
-        <v>854726.20602696482</v>
+        <v>883701.80322696478</v>
       </c>
       <c r="T40" s="50">
         <f t="shared" si="10"/>
-        <v>880366.07792165433</v>
+        <v>909341.67512165429</v>
       </c>
       <c r="U40" s="50">
         <f t="shared" si="10"/>
-        <v>905380.29854217789</v>
+        <v>934355.89574217785</v>
       </c>
       <c r="V40" s="50">
         <f t="shared" si="10"/>
-        <v>929736.5780262755</v>
+        <v>958712.17522627546</v>
       </c>
       <c r="W40" s="50">
         <f t="shared" si="10"/>
-        <v>953400.96003189636</v>
+        <v>982376.55723189632</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
@@ -9399,63 +9399,63 @@
       </c>
       <c r="E41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!D42&lt;0,Kalkulation!D42,0),0)</f>
-        <v>-343352.70857505582</v>
+        <v>-314377.11137505586</v>
       </c>
       <c r="F41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!E42&lt;0,Kalkulation!E42,0),0)</f>
-        <v>-692404.14432061161</v>
+        <v>-634452.94992061169</v>
       </c>
       <c r="G41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!F42&lt;0,Kalkulation!F42,0),0)</f>
-        <v>-1047448.4185459368</v>
+        <v>-960521.62694593694</v>
       </c>
       <c r="H41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!G42&lt;0,Kalkulation!G42,0),0)</f>
-        <v>-1239913.5480288994</v>
+        <v>-1124011.1592288995</v>
       </c>
       <c r="I41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!H42&lt;0,Kalkulation!H42,0),0)</f>
-        <v>-1401243.5120245984</v>
+        <v>-1256365.5260245986</v>
       </c>
       <c r="J41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!I42&lt;0,Kalkulation!I42,0),0)</f>
-        <v>-1531780.3497048873</v>
+        <v>-1357926.7665048875</v>
       </c>
       <c r="K41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!J42&lt;0,Kalkulation!J42,0),0)</f>
-        <v>-1631883.7528832788</v>
+        <v>-1429054.572483279</v>
       </c>
       <c r="L41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!K42&lt;0,Kalkulation!K42,0),0)</f>
-        <v>-1701931.9770677811</v>
+        <v>-1470127.1994677815</v>
       </c>
       <c r="M41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!L42&lt;0,Kalkulation!L42,0),0)</f>
-        <v>-1742322.7995331706</v>
+        <v>-1481542.4247331708</v>
       </c>
       <c r="N41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!M42&lt;0,Kalkulation!M42,0),0)</f>
-        <v>-1753474.526839375</v>
+        <v>-1463718.554839375</v>
       </c>
       <c r="O41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!N42&lt;0,Kalkulation!N42,0),0)</f>
-        <v>-1735827.0543478797</v>
+        <v>-1417095.4851478795</v>
       </c>
       <c r="P41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!O42&lt;0,Kalkulation!O42,0),0)</f>
-        <v>-1689842.9804197764</v>
+        <v>-1342135.8140197764</v>
       </c>
       <c r="Q41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!P42&lt;0,Kalkulation!P42,0),0)</f>
-        <v>-1616008.7781175729</v>
+        <v>-1239326.0145175732</v>
       </c>
       <c r="R41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!Q42&lt;0,Kalkulation!Q42,0),0)</f>
-        <v>-1514836.027378533</v>
+        <v>-1109177.6665785331</v>
       </c>
       <c r="S41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!R42&lt;0,Kalkulation!R42,0),0)</f>
-        <v>-686344.63935191114</v>
+        <v>-251710.68135191128</v>
       </c>
       <c r="T41" s="57">
         <f>IF(Parameters!$B$40="yes",IF(Kalkulation!S42&lt;0,Kalkulation!S42,0),0)</f>
@@ -9484,83 +9484,83 @@
       <c r="C42" s="45"/>
       <c r="D42" s="46">
         <f>D40-D41</f>
-        <v>-343352.70857505582</v>
+        <v>-314377.11137505586</v>
       </c>
       <c r="E42" s="46">
         <f>E40+E41</f>
-        <v>-692404.14432061161</v>
+        <v>-634452.94992061169</v>
       </c>
       <c r="F42" s="46">
         <f t="shared" ref="F42:W42" si="11">F40+F41</f>
-        <v>-1047448.4185459368</v>
+        <v>-960521.62694593694</v>
       </c>
       <c r="G42" s="46">
         <f t="shared" si="11"/>
-        <v>-1239913.5480288994</v>
+        <v>-1124011.1592288995</v>
       </c>
       <c r="H42" s="46">
         <f t="shared" si="11"/>
-        <v>-1401243.5120245984</v>
+        <v>-1256365.5260245986</v>
       </c>
       <c r="I42" s="46">
         <f t="shared" si="11"/>
-        <v>-1531780.3497048873</v>
+        <v>-1357926.7665048875</v>
       </c>
       <c r="J42" s="46">
         <f t="shared" si="11"/>
-        <v>-1631883.7528832788</v>
+        <v>-1429054.572483279</v>
       </c>
       <c r="K42" s="46">
         <f t="shared" si="11"/>
-        <v>-1701931.9770677811</v>
+        <v>-1470127.1994677815</v>
       </c>
       <c r="L42" s="46">
         <f t="shared" si="11"/>
-        <v>-1742322.7995331706</v>
+        <v>-1481542.4247331708</v>
       </c>
       <c r="M42" s="46">
         <f t="shared" si="11"/>
-        <v>-1753474.526839375</v>
+        <v>-1463718.554839375</v>
       </c>
       <c r="N42" s="46">
         <f t="shared" si="11"/>
-        <v>-1735827.0543478797</v>
+        <v>-1417095.4851478795</v>
       </c>
       <c r="O42" s="46">
         <f t="shared" si="11"/>
-        <v>-1689842.9804197764</v>
+        <v>-1342135.8140197764</v>
       </c>
       <c r="P42" s="46">
         <f t="shared" si="11"/>
-        <v>-1616008.7781175729</v>
+        <v>-1239326.0145175732</v>
       </c>
       <c r="Q42" s="46">
         <f t="shared" si="11"/>
-        <v>-1514836.027378533</v>
+        <v>-1109177.6665785331</v>
       </c>
       <c r="R42" s="46">
         <f t="shared" si="11"/>
-        <v>-686344.63935191114</v>
+        <v>-251710.68135191128</v>
       </c>
       <c r="S42" s="46">
         <f t="shared" si="11"/>
-        <v>168381.56667505368</v>
+        <v>631991.1218750535</v>
       </c>
       <c r="T42" s="46">
         <f t="shared" si="11"/>
-        <v>880366.07792165433</v>
+        <v>909341.67512165429</v>
       </c>
       <c r="U42" s="46">
         <f t="shared" si="11"/>
-        <v>905380.29854217789</v>
+        <v>934355.89574217785</v>
       </c>
       <c r="V42" s="46">
         <f t="shared" si="11"/>
-        <v>929736.5780262755</v>
+        <v>958712.17522627546</v>
       </c>
       <c r="W42" s="46">
         <f t="shared" si="11"/>
-        <v>953400.96003189636</v>
+        <v>982376.55723189632</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -10259,23 +10259,23 @@
       </c>
       <c r="S54" s="44">
         <f t="shared" ref="S54:W54" si="20" xml:space="preserve"> S42*0.3</f>
-        <v>50514.4700025161</v>
+        <v>189597.33656251605</v>
       </c>
       <c r="T54" s="44">
         <f t="shared" si="20"/>
-        <v>264109.82337649626</v>
+        <v>272802.50253649626</v>
       </c>
       <c r="U54" s="44">
         <f t="shared" si="20"/>
-        <v>271614.08956265333</v>
+        <v>280306.76872265333</v>
       </c>
       <c r="V54" s="44">
         <f t="shared" si="20"/>
-        <v>278920.97340788261</v>
+        <v>287613.65256788261</v>
       </c>
       <c r="W54" s="44">
         <f t="shared" si="20"/>
-        <v>286020.28800956887</v>
+        <v>294712.96716956887</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -11516,83 +11516,83 @@
       </c>
       <c r="D78" s="23">
         <f>D31-D61</f>
-        <v>357165.36285351566</v>
+        <v>386140.96005351562</v>
       </c>
       <c r="E78" s="23">
         <f t="shared" ref="E78:W78" si="27">E31-E61</f>
-        <v>351466.63568301569</v>
+        <v>380442.23288301565</v>
       </c>
       <c r="F78" s="23">
         <f t="shared" si="27"/>
-        <v>345473.79720324627</v>
+        <v>374449.39440324623</v>
       </c>
       <c r="G78" s="23">
         <f t="shared" si="27"/>
-        <v>88469.083810651675</v>
+        <v>117444.68101065164</v>
       </c>
       <c r="H78" s="23">
         <f t="shared" si="27"/>
-        <v>119604.24929791526</v>
+        <v>148579.84649791522</v>
       </c>
       <c r="I78" s="23">
         <f t="shared" si="27"/>
-        <v>150397.37561332551</v>
+        <v>179372.97281332547</v>
       </c>
       <c r="J78" s="23">
         <f t="shared" si="27"/>
-        <v>180830.81011522282</v>
+        <v>209806.40731522278</v>
       </c>
       <c r="K78" s="23">
         <f t="shared" si="27"/>
-        <v>210885.98910911218</v>
+        <v>239861.58630911214</v>
       </c>
       <c r="L78" s="23">
         <f t="shared" si="27"/>
-        <v>240543.39082822506</v>
+        <v>269518.98802822502</v>
       </c>
       <c r="M78" s="23">
         <f t="shared" si="27"/>
-        <v>269782.48598741018</v>
+        <v>298758.08318741014</v>
       </c>
       <c r="N78" s="23">
         <f t="shared" si="27"/>
-        <v>298581.68578510988</v>
+        <v>327557.28298510984</v>
       </c>
       <c r="O78" s="23">
         <f t="shared" si="27"/>
-        <v>326918.28722171765</v>
+        <v>355893.88442171761</v>
       </c>
       <c r="P78" s="23">
         <f t="shared" si="27"/>
-        <v>354768.41559581773</v>
+        <v>383744.01279581769</v>
       </c>
       <c r="Q78" s="23">
         <f t="shared" si="27"/>
-        <v>382106.96403265418</v>
+        <v>411082.56123265426</v>
       </c>
       <c r="R78" s="23">
         <f t="shared" si="27"/>
-        <v>408907.52989166474</v>
+        <v>437883.1270916647</v>
       </c>
       <c r="S78" s="23">
         <f t="shared" si="27"/>
-        <v>384627.87788949162</v>
+        <v>274520.60852949158</v>
       </c>
       <c r="T78" s="23">
         <f t="shared" si="27"/>
-        <v>196672.39641020086</v>
+        <v>216955.31445020088</v>
       </c>
       <c r="U78" s="23">
         <f t="shared" si="27"/>
-        <v>214182.35084456741</v>
+        <v>234465.26888456743</v>
       </c>
       <c r="V78" s="23">
         <f t="shared" si="27"/>
-        <v>231231.74648343574</v>
+        <v>251514.66452343564</v>
       </c>
       <c r="W78" s="23">
         <f t="shared" si="27"/>
-        <v>247796.8138873704</v>
+        <v>268079.7319273703</v>
       </c>
       <c r="Y78" s="23"/>
     </row>
@@ -11607,83 +11607,83 @@
       <c r="B81" s="83"/>
       <c r="D81" s="24">
         <f>D78</f>
-        <v>357165.36285351566</v>
+        <v>386140.96005351562</v>
       </c>
       <c r="E81" s="24">
         <f t="shared" ref="E81:W81" si="28">E78</f>
-        <v>351466.63568301569</v>
+        <v>380442.23288301565</v>
       </c>
       <c r="F81" s="24">
         <f t="shared" si="28"/>
-        <v>345473.79720324627</v>
+        <v>374449.39440324623</v>
       </c>
       <c r="G81" s="24">
         <f t="shared" si="28"/>
-        <v>88469.083810651675</v>
+        <v>117444.68101065164</v>
       </c>
       <c r="H81" s="24">
         <f t="shared" si="28"/>
-        <v>119604.24929791526</v>
+        <v>148579.84649791522</v>
       </c>
       <c r="I81" s="24">
         <f t="shared" si="28"/>
-        <v>150397.37561332551</v>
+        <v>179372.97281332547</v>
       </c>
       <c r="J81" s="24">
         <f t="shared" si="28"/>
-        <v>180830.81011522282</v>
+        <v>209806.40731522278</v>
       </c>
       <c r="K81" s="24">
         <f t="shared" si="28"/>
-        <v>210885.98910911218</v>
+        <v>239861.58630911214</v>
       </c>
       <c r="L81" s="24">
         <f t="shared" si="28"/>
-        <v>240543.39082822506</v>
+        <v>269518.98802822502</v>
       </c>
       <c r="M81" s="24">
         <f t="shared" si="28"/>
-        <v>269782.48598741018</v>
+        <v>298758.08318741014</v>
       </c>
       <c r="N81" s="24">
         <f t="shared" si="28"/>
-        <v>298581.68578510988</v>
+        <v>327557.28298510984</v>
       </c>
       <c r="O81" s="24">
         <f t="shared" si="28"/>
-        <v>326918.28722171765</v>
+        <v>355893.88442171761</v>
       </c>
       <c r="P81" s="24">
         <f t="shared" si="28"/>
-        <v>354768.41559581773</v>
+        <v>383744.01279581769</v>
       </c>
       <c r="Q81" s="24">
         <f t="shared" si="28"/>
-        <v>382106.96403265418</v>
+        <v>411082.56123265426</v>
       </c>
       <c r="R81" s="24">
         <f t="shared" si="28"/>
-        <v>408907.52989166474</v>
+        <v>437883.1270916647</v>
       </c>
       <c r="S81" s="24">
         <f t="shared" si="28"/>
-        <v>384627.87788949162</v>
+        <v>274520.60852949158</v>
       </c>
       <c r="T81" s="24">
         <f t="shared" si="28"/>
-        <v>196672.39641020086</v>
+        <v>216955.31445020088</v>
       </c>
       <c r="U81" s="24">
         <f t="shared" si="28"/>
-        <v>214182.35084456741</v>
+        <v>234465.26888456743</v>
       </c>
       <c r="V81" s="24">
         <f t="shared" si="28"/>
-        <v>231231.74648343574</v>
+        <v>251514.66452343564</v>
       </c>
       <c r="W81" s="24">
         <f t="shared" si="28"/>
-        <v>247796.8138873704</v>
+        <v>268079.7319273703</v>
       </c>
     </row>
     <row r="82" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -11716,83 +11716,83 @@
       <c r="B84" s="83"/>
       <c r="D84" s="19">
         <f>IF(D61&gt;0.01,D31/D61,"-")</f>
-        <v>1.5563641429567663</v>
+        <v>1.601500051920733</v>
       </c>
       <c r="E84" s="19">
         <f t="shared" ref="E84:W84" si="29">IF(E61&gt;0.01,E31/E61,"-")</f>
-        <v>1.5474871134687191</v>
+        <v>1.5926230224326861</v>
       </c>
       <c r="F84" s="19">
         <f t="shared" si="29"/>
-        <v>1.5381519404887942</v>
+        <v>1.5832878494527611</v>
       </c>
       <c r="G84" s="19">
         <f t="shared" si="29"/>
-        <v>1.0848489289562473</v>
+        <v>1.1126388447368789</v>
       </c>
       <c r="H84" s="19">
         <f t="shared" si="29"/>
-        <v>1.1190206505534721</v>
+        <v>1.1478548637955888</v>
       </c>
       <c r="I84" s="19">
         <f t="shared" si="29"/>
-        <v>1.1555072195296783</v>
+        <v>1.1854672805773439</v>
       </c>
       <c r="J84" s="19">
         <f t="shared" si="29"/>
-        <v>1.1945718128635674</v>
+        <v>1.2257492127348402</v>
       </c>
       <c r="K84" s="19">
         <f t="shared" si="29"/>
-        <v>1.2365211710103285</v>
+        <v>1.2690190254643845</v>
       </c>
       <c r="L84" s="19">
         <f t="shared" si="29"/>
-        <v>1.2817151760354679</v>
+        <v>1.3156502820378606</v>
       </c>
       <c r="M84" s="19">
         <f t="shared" si="29"/>
-        <v>1.330579085999924</v>
+        <v>1.3660844539767205</v>
       </c>
       <c r="N84" s="19">
         <f t="shared" si="29"/>
-        <v>1.3836193275586317</v>
+        <v>1.4208473279440059</v>
       </c>
       <c r="O84" s="19">
         <f t="shared" si="29"/>
-        <v>1.4414441166652168</v>
+        <v>1.4805704286849726</v>
       </c>
       <c r="P84" s="19">
         <f t="shared" si="29"/>
-        <v>1.5047907231301474</v>
+        <v>1.5460193444524573</v>
       </c>
       <c r="Q84" s="19">
         <f t="shared" si="29"/>
-        <v>1.5745620195878931</v>
+        <v>1.6181316982723535</v>
       </c>
       <c r="R84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6518762271223406</v>
+        <v>1.6980688296072031</v>
       </c>
       <c r="S84" s="19">
         <f t="shared" si="29"/>
-        <v>1.6524476368927588</v>
+        <v>1.4656717118276319</v>
       </c>
       <c r="T84" s="19">
         <f t="shared" si="29"/>
-        <v>1.356450218059349</v>
+        <v>1.3932110990482529</v>
       </c>
       <c r="U84" s="19">
         <f t="shared" si="29"/>
-        <v>1.4167051043395549</v>
+        <v>1.4561667847480515</v>
       </c>
       <c r="V84" s="19">
         <f t="shared" si="29"/>
-        <v>1.4855487337005551</v>
+        <v>1.5281395341414432</v>
       </c>
       <c r="W84" s="19">
         <f t="shared" si="29"/>
-        <v>1.5651459966674719</v>
+        <v>1.6114049043233649</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
@@ -11802,7 +11802,7 @@
       <c r="B85" s="83"/>
       <c r="C85" s="19">
         <f>AVERAGE(G84:W84)</f>
-        <v>1.3785502440395649</v>
+        <v>1.4023938603749029</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
@@ -13737,7 +13737,7 @@
       </c>
       <c r="B181" s="21">
         <f>Parameters!B15</f>
-        <v>38168112.600000001</v>
+        <v>39046161</v>
       </c>
       <c r="C181" t="s">
         <v>55</v>

--- a/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
+++ b/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung-Nentzelsrode_Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Wind_Farm_Project_Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Wind-Farm-Project-Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195ECA1A-8EB2-4263-BDB6-1E0BB480C046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABAD860-5261-4363-BDE8-45A1D79D9EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="Auswahl">'[1]Session 5-7'!$B$39:$B$40</definedName>
     <definedName name="Options">Parameters!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4836,9 +4836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AE137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="83" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
